--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1289.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1289.xlsx
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.8781306565948526</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.04390653282974263</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.04390653282974263</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.07025045252758821</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.06383055784136892</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01383055784136891</v>
+        <v>0.01146031254146931</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01096840073253007</v>
+        <v>0.009088664529415244</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>-0.0004105725919556352</v>
+        <v>0.001364658350841992</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007755727555116502</v>
+        <v>0.0007765701588471875</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.001535101057214612</v>
+        <v>0.005999999999999978</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007673648957259937</v>
+        <v>0.001132936507936504</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.003880483233116988</v>
+        <v>0.008198767832476139</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007531846409379487</v>
+        <v>0.0007667126012063886</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.005542944634461588</v>
+        <v>0.001364658350841992</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0006948786774206224</v>
+        <v>0.0007765701588471875</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.003115090588443697</v>
+        <v>0.002940743959878755</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.0015511455110233</v>
+        <v>0.001553140317694375</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.003362385805741878</v>
+        <v>0.007669955380967958</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001534729791451987</v>
+        <v>0.001539851072080801</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.006999999999999978</v>
+        <v>0.01547928018406652</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.00140796095008051</v>
+        <v>0.001533425202412777</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01200000000000001</v>
+        <v>0.002940743959878755</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001480370370370372</v>
+        <v>0.001553140317694375</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.004532982728639452</v>
+        <v>0.004251602335567803</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002326718266534951</v>
+        <v>0.002329710476541563</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.004850510596197122</v>
+        <v>0.01058920291811519</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002302094687177981</v>
+        <v>0.002309776608121202</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.00994962931492771</v>
+        <v>0.02100000000000002</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002259553922813846</v>
+        <v>0.002139067278287464</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.01585528641288003</v>
+        <v>0.004251602335567803</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002084636032261867</v>
+        <v>0.002329710476541563</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.003799097016073089</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003102291022046601</v>
+        <v>0.002775694444444443</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.006068131779195608</v>
+        <v>0.0137940160427471</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003069459582903975</v>
+        <v>0.003079702144161603</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01296549899190164</v>
+        <v>0.0268829130444066</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003012738563751795</v>
+        <v>0.003066850404825554</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.01970801480584938</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.00277951470968249</v>
+        <v>0.002775694444444443</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.003656133577510024</v>
+        <v>0.002775694444444443</v>
       </c>
       <c r="B70" t="n">
-        <v>0.006585979924461388</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.006585979924461388</v>
+        <v>0.006354199095360308</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003656133577510024</v>
+        <v>0.003882850794235938</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.007283905705352645</v>
+        <v>0.01689472324187188</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003836824478629968</v>
+        <v>0.003849627680202004</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.01531854093428373</v>
+        <v>0.03165490138476956</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003765923204689743</v>
+        <v>0.003833563006031943</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.02342857979518281</v>
+        <v>0.006354199095360308</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003474393387103112</v>
+        <v>0.003882850794235938</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.006827792117987196</v>
+        <v>0.007412677882421767</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004653436533069901</v>
+        <v>0.004659420953083125</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.008</v>
+        <v>0.02000165300249773</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004441111111111111</v>
+        <v>0.004619553216242404</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.01828466501734771</v>
+        <v>0.03526788601609326</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004519107845627693</v>
+        <v>0.004600275607238332</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.0274763329843915</v>
+        <v>0.007412677882421767</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004169272064523734</v>
+        <v>0.004659420953083125</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.007700891284529228</v>
+        <v>0.008110530598628402</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005429009288581551</v>
+        <v>0.005435991111930313</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.008687023501046914</v>
+        <v>0.02212513381163284</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005371554270081956</v>
+        <v>0.005389478752282805</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02003978111636751</v>
+        <v>0.03921685252555845</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005272292486565641</v>
+        <v>0.005706631700329735</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.03071062597698682</v>
+        <v>0.008110530598628402</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.004864150741944358</v>
+        <v>0.005435991111930313</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.009507936357217313</v>
+        <v>0.009039078373144493</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006204582044093201</v>
+        <v>0.0062125612707775</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.009299779768951674</v>
+        <v>0.02367549415628545</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006138919165807949</v>
+        <v>0.006159404288323206</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.02205979910661685</v>
+        <v>0.03941416486688959</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.00602547712750359</v>
+        <v>0.006133700809651109</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.03389081037647967</v>
+        <v>0.009039078373144493</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.005559029419364979</v>
+        <v>0.0062125612707775</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01026260680443722</v>
+        <v>0.009889642335134348</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006980154799604852</v>
+        <v>0.006989131429624687</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.009839610684321064</v>
+        <v>0.0253385825335139</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006906284061533942</v>
+        <v>0.006835001240852435</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.02422062886336962</v>
+        <v>0.0410982608002059</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006778661768441539</v>
+        <v>0.006900413410857498</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.03657623778638147</v>
+        <v>0.009889642335134348</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006253908096785602</v>
+        <v>0.006989131429624687</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.008978582094574701</v>
+        <v>0.01055354361376225</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007755727555116501</v>
+        <v>0.007765701588471875</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01033869926833606</v>
+        <v>0.02620988901516419</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007673648957259936</v>
+        <v>0.007699255360404007</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.0253385825335139</v>
+        <v>0.04294793574759853</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007280762191342809</v>
+        <v>0.007667126012063885</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.03921685252555845</v>
+        <v>0.01055354361376225</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.006911365059288233</v>
+        <v>0.007765701588471875</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.009669541696015527</v>
+        <v>0.01112210333819245</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008531300310628152</v>
+        <v>0.008542271747319063</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01102922854217767</v>
+        <v>0.02753048706538982</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008441013852985931</v>
+        <v>0.008469180896444408</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.02673492268253433</v>
+        <v>0.04446325352212738</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008285031050317436</v>
+        <v>0.008433838613270274</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.04096008410943691</v>
+        <v>0.01112210333819245</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.007643665451626847</v>
+        <v>0.008542271747319063</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01134916507714544</v>
+        <v>0.01146031254146931</v>
       </c>
       <c r="G77" t="n">
-        <v>0.009306873066139802</v>
+        <v>0.009088664529415244</v>
       </c>
       <c r="J77" t="n">
+        <v>0.02812950747390408</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.009239106432484809</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0.04554427793685212</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.009200551214476663</v>
+      </c>
+      <c r="N77" t="n">
         <v>0.01146031254146931</v>
       </c>
-      <c r="K77" t="n">
+      <c r="O77" t="n">
         <v>0.009088664529415244</v>
-      </c>
-      <c r="L77" t="n">
-        <v>0.02864155580999198</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.009038215691255385</v>
-      </c>
-      <c r="N77" t="n">
-        <v>0.04267008859496396</v>
-      </c>
-      <c r="O77" t="n">
-        <v>0.008338544129047469</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01303113170635023</v>
+        <v>0.01203000558156463</v>
       </c>
       <c r="G78" t="n">
-        <v>0.01008244582165145</v>
+        <v>0.01009541206501344</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01189240771854556</v>
+        <v>0.02900692065635471</v>
       </c>
       <c r="K78" t="n">
-        <v>0.009975743644437917</v>
+        <v>0.01000903196852521</v>
       </c>
       <c r="L78" t="n">
-        <v>0.02963027808466134</v>
+        <v>0.04729107280483219</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009791400332193332</v>
+        <v>0.009967263815683051</v>
       </c>
       <c r="N78" t="n">
-        <v>0.04495270972891841</v>
+        <v>0.01203000558156463</v>
       </c>
       <c r="O78" t="n">
-        <v>0.009033422806468091</v>
+        <v>0.01009541206501344</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01383055784136891</v>
+        <v>0.01236354232042979</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01096840073253007</v>
+        <v>0.01087198222386063</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01266943394385787</v>
+        <v>0.03016269702838936</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01074310854016391</v>
+        <v>0.01077895750456561</v>
       </c>
       <c r="L79" t="n">
-        <v>0.03119699609766133</v>
+        <v>0.04900370193912768</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01054458497313128</v>
+        <v>0.01073397641688944</v>
       </c>
       <c r="N79" t="n">
-        <v>0.04730372299860236</v>
+        <v>0.01236354232042979</v>
       </c>
       <c r="O79" t="n">
-        <v>0.009728301483888716</v>
+        <v>0.01087198222386063</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01446318730687843</v>
+        <v>0.01289168035513037</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01163359133267475</v>
+        <v>0.01164855238270781</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01326892781354408</v>
+        <v>0.03109680700565567</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01151047343588991</v>
+        <v>0.01154888304060601</v>
       </c>
       <c r="L80" t="n">
-        <v>0.03243761644011092</v>
+        <v>0.05048222915279799</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01129776961406923</v>
+        <v>0.01150068901809583</v>
       </c>
       <c r="N80" t="n">
-        <v>0.04911890389131762</v>
+        <v>0.01289168035513037</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01042318016130934</v>
+        <v>0.01164855238270781</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01324447607590742</v>
+        <v>0.01331418660085387</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0124091640881864</v>
+        <v>0.012425122541555</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01368558613000559</v>
+        <v>0.03180922100380135</v>
       </c>
       <c r="K81" t="n">
-        <v>0.0122778383316159</v>
+        <v>0.01231880857664641</v>
       </c>
       <c r="L81" t="n">
-        <v>0.033548045703129</v>
+        <v>0.05162671825890297</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01205095425500718</v>
+        <v>0.01226740161930222</v>
       </c>
       <c r="N81" t="n">
-        <v>0.05099402789436608</v>
+        <v>0.01331418660085387</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01111805883872996</v>
+        <v>0.012425122541555</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01606376971315768</v>
+        <v>0.01363082797278772</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01318473684369805</v>
+        <v>0.01320169270040219</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01451410569564389</v>
+        <v>0.03279990943847413</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01304520322734189</v>
+        <v>0.01308873411268681</v>
       </c>
       <c r="L82" t="n">
-        <v>0.03522419047783462</v>
+        <v>0.05253723307050223</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01280413889594513</v>
+        <v>0.01303411422050861</v>
       </c>
       <c r="N82" t="n">
-        <v>0.05282487049504958</v>
+        <v>0.01363082797278772</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01181293751615058</v>
+        <v>0.01320169270040219</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01691159687944334</v>
+        <v>0.0140413713861194</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0139603095992097</v>
+        <v>0.01397826285924937</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01494918331286038</v>
+        <v>0.03396884272532166</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01381256812306788</v>
+        <v>0.01385865964872721</v>
       </c>
       <c r="L83" t="n">
-        <v>0.03636195735534667</v>
+        <v>0.05411383740065551</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01355732353688308</v>
+        <v>0.013800826821715</v>
       </c>
       <c r="N83" t="n">
-        <v>0.05450720718067004</v>
+        <v>0.0140413713861194</v>
       </c>
       <c r="O83" t="n">
-        <v>0.0125078161935712</v>
+        <v>0.01397826285924937</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01777848623557856</v>
+        <v>0.01454558375603635</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01473588235472135</v>
+        <v>0.01475483301809656</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01558551578405655</v>
+        <v>0.03481599127999166</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01457993301879388</v>
+        <v>0.01462858518476761</v>
       </c>
       <c r="L84" t="n">
-        <v>0.03725725292678408</v>
+        <v>0.05525659506242259</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01431050817782102</v>
+        <v>0.01456753942292138</v>
       </c>
       <c r="N84" t="n">
-        <v>0.05643681343852924</v>
+        <v>0.01454558375603635</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01320269487099183</v>
+        <v>0.01475483301809656</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01765496644237749</v>
+        <v>0.01474323199772602</v>
       </c>
       <c r="G85" t="n">
-        <v>0.015511455110233</v>
+        <v>0.01553140317694375</v>
       </c>
       <c r="J85" t="n">
-        <v>0.01621779991163384</v>
+        <v>0.03544132551813176</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01534729791451987</v>
+        <v>0.01539851072080801</v>
       </c>
       <c r="L85" t="n">
-        <v>0.0389059837832659</v>
+        <v>0.05646556986886314</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01506369281875897</v>
+        <v>0.01533425202412777</v>
       </c>
       <c r="N85" t="n">
-        <v>0.05810946475592926</v>
+        <v>0.01474323199772602</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01389757354841245</v>
+        <v>0.01553140317694375</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01753156616065431</v>
+        <v>0.01513408302637589</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01628702786574466</v>
+        <v>0.01630797333579094</v>
       </c>
       <c r="J86" t="n">
-        <v>0.0170407324979937</v>
+        <v>0.03624481585538969</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01611466281024587</v>
+        <v>0.01616843625684842</v>
       </c>
       <c r="L86" t="n">
-        <v>0.03990405651591106</v>
+        <v>0.05754082563303681</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01581687745969692</v>
+        <v>0.01610096462533416</v>
       </c>
       <c r="N86" t="n">
-        <v>0.05942093662017178</v>
+        <v>0.01513408302637589</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01459245222583307</v>
+        <v>0.01630797333579094</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02039881405122315</v>
+        <v>0.01551790375717343</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0170626006212563</v>
+        <v>0.01708454349463813</v>
       </c>
       <c r="J87" t="n">
-        <v>0.01754901034553757</v>
+        <v>0.03722643270741313</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01688202770597186</v>
+        <v>0.01693836179288882</v>
       </c>
       <c r="L87" t="n">
-        <v>0.04094737771583845</v>
+        <v>0.0590824261680033</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01657006210063487</v>
+        <v>0.01686767722654055</v>
       </c>
       <c r="N87" t="n">
-        <v>0.06106700451855895</v>
+        <v>0.01551790375717343</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01528733090325369</v>
+        <v>0.01708454349463813</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01924723877489816</v>
+        <v>0.0158944611053061</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01783817337676795</v>
+        <v>0.01786111365348531</v>
       </c>
       <c r="J88" t="n">
-        <v>0.01823733025666689</v>
+        <v>0.03778614648984976</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01764939260169785</v>
+        <v>0.01770828732892922</v>
       </c>
       <c r="L88" t="n">
-        <v>0.04163185397416708</v>
+        <v>0.05979043528682232</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01732324674157282</v>
+        <v>0.01763438982774694</v>
       </c>
       <c r="N88" t="n">
-        <v>0.06214344393839227</v>
+        <v>0.0158944611053061</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01598220958067432</v>
+        <v>0.01786111365348531</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10167,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02106736899249352</v>
+        <v>0.01626352198596132</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0186137461322796</v>
+        <v>0.0186376838123325</v>
       </c>
       <c r="J89" t="n">
-        <v>0.01880038903378313</v>
+        <v>0.0385239276183473</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01841675749742385</v>
+        <v>0.01847821286496962</v>
       </c>
       <c r="L89" t="n">
-        <v>0.04295339188201586</v>
+        <v>0.06096491680255367</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01807643138251077</v>
+        <v>0.01840110242895333</v>
       </c>
       <c r="N89" t="n">
-        <v>0.06344603036697399</v>
+        <v>0.01626352198596132</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01667708825809494</v>
+        <v>0.0186376838123325</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02084973336482333</v>
+        <v>0.01672485331432658</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01938931888779125</v>
+        <v>0.01941425397117969</v>
       </c>
       <c r="J90" t="n">
-        <v>0.01923288347928773</v>
+        <v>0.03943974650855336</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01918412239314984</v>
+        <v>0.01924813840101002</v>
       </c>
       <c r="L90" t="n">
-        <v>0.04360789803050383</v>
+        <v>0.06180593452825695</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01882961602344872</v>
+        <v>0.01916781503015971</v>
       </c>
       <c r="N90" t="n">
-        <v>0.06517053929160571</v>
+        <v>0.01672485331432658</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01737196693551556</v>
+        <v>0.01941425397117969</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02158486055270181</v>
+        <v>0.01717822200558931</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0201648916433029</v>
+        <v>0.02019082413002687</v>
       </c>
       <c r="J91" t="n">
-        <v>0.01972951039558211</v>
+        <v>0.03973357357611568</v>
       </c>
       <c r="K91" t="n">
-        <v>0.01995148728887583</v>
+        <v>0.02001806393705042</v>
       </c>
       <c r="L91" t="n">
-        <v>0.0444912790107499</v>
+        <v>0.06321355227699188</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01958280066438666</v>
+        <v>0.0199345276313661</v>
       </c>
       <c r="N91" t="n">
-        <v>0.06671274619958945</v>
+        <v>0.01717822200558931</v>
       </c>
       <c r="O91" t="n">
-        <v>0.01806684561293618</v>
+        <v>0.02019082413002687</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02226327921694307</v>
+        <v>0.017323394974937</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02094046439881456</v>
+        <v>0.02096739428887406</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02018496658506776</v>
+        <v>0.04040537923668197</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02071885218460183</v>
+        <v>0.02078798947309082</v>
       </c>
       <c r="L92" t="n">
-        <v>0.04529944141387296</v>
+        <v>0.06398783386181811</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02033598530532461</v>
+        <v>0.02070124023257249</v>
       </c>
       <c r="N92" t="n">
-        <v>0.06766842657822714</v>
+        <v>0.017323394974937</v>
       </c>
       <c r="O92" t="n">
-        <v>0.01876172429035681</v>
+        <v>0.02096739428887406</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.0248755180183613</v>
+        <v>0.01786013913755709</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02171603715432621</v>
+        <v>0.02174396444772125</v>
       </c>
       <c r="J93" t="n">
-        <v>0.0204939488501461</v>
+        <v>0.04145513390589989</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02148621708032782</v>
+        <v>0.02155791500913122</v>
       </c>
       <c r="L93" t="n">
-        <v>0.04582829183099205</v>
+        <v>0.06482884309579551</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02108916994626256</v>
+        <v>0.02146795283377888</v>
       </c>
       <c r="N93" t="n">
-        <v>0.06853335591482052</v>
+        <v>0.01786013913755709</v>
       </c>
       <c r="O93" t="n">
-        <v>0.01945660296777743</v>
+        <v>0.02174396444772125</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02441210561777059</v>
+        <v>0.01818822140863706</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02249160990983785</v>
+        <v>0.02252053460656844</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02105115399321861</v>
+        <v>0.04168280799941712</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02225358197605382</v>
+        <v>0.02232784054517162</v>
       </c>
       <c r="L94" t="n">
-        <v>0.04597373685322609</v>
+        <v>0.06583664379198362</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02184235458720051</v>
+        <v>0.02223466543498527</v>
       </c>
       <c r="N94" t="n">
-        <v>0.06990330969667152</v>
+        <v>0.01818822140863706</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02015148164519805</v>
+        <v>0.02252053460656844</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02586357067598517</v>
+        <v>0.01850740870336434</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02326718266534951</v>
+        <v>0.02329710476541562</v>
       </c>
       <c r="J95" t="n">
-        <v>0.0211512788166867</v>
+        <v>0.04278837193288135</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02302094687177981</v>
+        <v>0.02309776608121202</v>
       </c>
       <c r="L95" t="n">
-        <v>0.04683168307169408</v>
+        <v>0.06691129976344218</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02259553922813846</v>
+        <v>0.02300137803619166</v>
       </c>
       <c r="N95" t="n">
-        <v>0.07037406341108204</v>
+        <v>0.01850740870336434</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02084636032261867</v>
+        <v>0.02329710476541562</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02422044185381912</v>
+        <v>0.01861746793692641</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02404275542086116</v>
+        <v>0.02407367492426281</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02158902012295183</v>
+        <v>0.04337179612194028</v>
       </c>
       <c r="K96" t="n">
-        <v>0.0237883117675058</v>
+        <v>0.02386769161725242</v>
       </c>
       <c r="L96" t="n">
-        <v>0.04719803707751491</v>
+        <v>0.06775287482323095</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02334872386907641</v>
+        <v>0.02376809063739805</v>
       </c>
       <c r="N96" t="n">
-        <v>0.07144139254535409</v>
+        <v>0.01861746793692641</v>
       </c>
       <c r="O96" t="n">
-        <v>0.0215412390000393</v>
+        <v>0.02407367492426281</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02447324781208667</v>
+        <v>0.01911816602451073</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02481832817637281</v>
+        <v>0.02485024508311</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02155907471441545</v>
+        <v>0.04363305098224157</v>
       </c>
       <c r="K97" t="n">
-        <v>0.0245556766632318</v>
+        <v>0.02463761715329282</v>
       </c>
       <c r="L97" t="n">
-        <v>0.04756870546180753</v>
+        <v>0.0682614327844096</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02410190851001436</v>
+        <v>0.02453480323860444</v>
       </c>
       <c r="N97" t="n">
-        <v>0.07170107258678932</v>
+        <v>0.01911816602451073</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02223611767745992</v>
+        <v>0.02485024508311</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.0256125172116019</v>
+        <v>0.01920926988130475</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02559390093188445</v>
+        <v>0.02562681524195719</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02185613939347904</v>
+        <v>0.04397210692943293</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02532304155895779</v>
+        <v>0.02540754268933322</v>
       </c>
       <c r="L98" t="n">
-        <v>0.04723959481569101</v>
+        <v>0.06933703746003778</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02485509315095231</v>
+        <v>0.02530151583981082</v>
       </c>
       <c r="N98" t="n">
-        <v>0.07244887902268971</v>
+        <v>0.01920926988130475</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02293099635488054</v>
+        <v>0.02562681524195719</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02663338166941663</v>
+        <v>0.01959054642249594</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02636947368739611</v>
+        <v>0.02640338540080438</v>
       </c>
       <c r="J99" t="n">
-        <v>0.02177599108252384</v>
+        <v>0.04488893437916205</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02609040645468378</v>
+        <v>0.02617746822537362</v>
       </c>
       <c r="L99" t="n">
-        <v>0.04770661173028418</v>
+        <v>0.07007975266317534</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02560827779189026</v>
+        <v>0.02606822844101721</v>
       </c>
       <c r="N99" t="n">
-        <v>0.07278058734035719</v>
+        <v>0.01959054642249594</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02362587503230116</v>
+        <v>0.02640338540080438</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02458062505815042</v>
+        <v>0.01996176256327174</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02714504644290776</v>
+        <v>0.02717995555965156</v>
       </c>
       <c r="J100" t="n">
-        <v>0.02183711757211132</v>
+        <v>0.04508350374707656</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02685777135040978</v>
+        <v>0.02694739376141403</v>
       </c>
       <c r="L100" t="n">
-        <v>0.04750982192139327</v>
+        <v>0.07028964220688183</v>
       </c>
       <c r="M100" t="n">
-        <v>0.0263614624328282</v>
+        <v>0.0268349410422236</v>
       </c>
       <c r="N100" t="n">
-        <v>0.0728919730270936</v>
+        <v>0.01996176256327174</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02432075370972179</v>
+        <v>0.02717995555965156</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02447306503456553</v>
+        <v>0.0201226852188196</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02792061919841941</v>
+        <v>0.02795652571849875</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02155163065005399</v>
+        <v>0.04565578544882426</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02762513624613577</v>
+        <v>0.02771731929745443</v>
       </c>
       <c r="L101" t="n">
-        <v>0.04737758056298036</v>
+        <v>0.07146676990421696</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02711464707376616</v>
+        <v>0.02760165364342999</v>
       </c>
       <c r="N101" t="n">
-        <v>0.07317881157020079</v>
+        <v>0.0201226852188196</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02501563238714241</v>
+        <v>0.02795652571849875</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02431726112037061</v>
+        <v>0.02027308130432701</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02869619195393106</v>
+        <v>0.02873309587734594</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02142442610133055</v>
+        <v>0.04620574990005274</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02839250114186177</v>
+        <v>0.02848724483349483</v>
       </c>
       <c r="L102" t="n">
-        <v>0.04634193369037509</v>
+        <v>0.0723111995682405</v>
       </c>
       <c r="M102" t="n">
-        <v>0.0278678317147041</v>
+        <v>0.02836836624463638</v>
       </c>
       <c r="N102" t="n">
-        <v>0.07373649600861121</v>
+        <v>0.02027308130432701</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02571051106456303</v>
+        <v>0.02873309587734594</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02411977283727428</v>
+        <v>0.02071271773498143</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02947176470944271</v>
+        <v>0.02950966603619312</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02126039971091974</v>
+        <v>0.04653336751640974</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02915986603758776</v>
+        <v>0.02925717036953523</v>
       </c>
       <c r="L103" t="n">
-        <v>0.04563620368697452</v>
+        <v>0.07242299501201216</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02862101635564205</v>
+        <v>0.02913507884584277</v>
       </c>
       <c r="N103" t="n">
-        <v>0.07294376905981736</v>
+        <v>0.02071271773498143</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02640538974198365</v>
+        <v>0.02950966603619312</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02588715970698516</v>
+        <v>0.02094136142597029</v>
       </c>
       <c r="G104" t="n">
-        <v>0.03024733746495436</v>
+        <v>0.03028623619504031</v>
       </c>
       <c r="J104" t="n">
-        <v>0.0210644472638002</v>
+        <v>0.0470386087135429</v>
       </c>
       <c r="K104" t="n">
-        <v>0.02992723093331376</v>
+        <v>0.03002709590557563</v>
       </c>
       <c r="L104" t="n">
-        <v>0.04479371293617559</v>
+        <v>0.07340222004859159</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02937420099658</v>
+        <v>0.02990179144704915</v>
       </c>
       <c r="N104" t="n">
-        <v>0.07243464165061914</v>
+        <v>0.02094136142597029</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02710026841940428</v>
+        <v>0.03028623619504031</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02562598125121189</v>
+        <v>0.02095877929248106</v>
       </c>
       <c r="G105" t="n">
-        <v>0.031022910220466</v>
+        <v>0.0310628063538875</v>
       </c>
       <c r="J105" t="n">
-        <v>0.02104146454495069</v>
+        <v>0.04722144390709995</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03069459582903974</v>
+        <v>0.03079702144161603</v>
       </c>
       <c r="L105" t="n">
-        <v>0.04434778382137536</v>
+        <v>0.07374893849103847</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03012738563751794</v>
+        <v>0.03066850404825554</v>
       </c>
       <c r="N105" t="n">
-        <v>0.07165013022745836</v>
+        <v>0.02095877929248106</v>
       </c>
       <c r="O105" t="n">
-        <v>0.0277951470968249</v>
+        <v>0.0310628063538875</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02434279699166311</v>
+        <v>0.02116473824970123</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03179848297597766</v>
+        <v>0.03183937651273469</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02059634733934985</v>
+        <v>0.04788184351272859</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03146196072476574</v>
+        <v>0.03156694697765643</v>
       </c>
       <c r="L106" t="n">
-        <v>0.04283173872597074</v>
+        <v>0.07456321415241263</v>
       </c>
       <c r="M106" t="n">
-        <v>0.0308805702784559</v>
+        <v>0.03143521664946194</v>
       </c>
       <c r="N106" t="n">
-        <v>0.07123125123677704</v>
+        <v>0.02116473824970123</v>
       </c>
       <c r="O106" t="n">
-        <v>0.02849002577424552</v>
+        <v>0.03183937651273469</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02304416645004746</v>
+        <v>0.02145900521281821</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03257405573148931</v>
+        <v>0.03261594667158187</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02053399143197643</v>
+        <v>0.04791977794607641</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03222932562049173</v>
+        <v>0.03233687251369683</v>
       </c>
       <c r="L107" t="n">
-        <v>0.04207890003335876</v>
+        <v>0.0745451108457737</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03163375491939385</v>
+        <v>0.03220192925066832</v>
       </c>
       <c r="N107" t="n">
-        <v>0.06981902112501692</v>
+        <v>0.02145900521281821</v>
       </c>
       <c r="O107" t="n">
-        <v>0.02918490445166614</v>
+        <v>0.03261594667158187</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02373664914807354</v>
+        <v>0.02174134709701947</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03334962848700096</v>
+        <v>0.03339251683042906</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02005929260780909</v>
+        <v>0.0482352176227912</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03299669051621773</v>
+        <v>0.03310679804973723</v>
       </c>
       <c r="L108" t="n">
-        <v>0.04122259012693649</v>
+        <v>0.07479469238418124</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03238693956033179</v>
+        <v>0.0329686418518747</v>
       </c>
       <c r="N108" t="n">
-        <v>0.06835445633861975</v>
+        <v>0.02174134709701947</v>
       </c>
       <c r="O108" t="n">
-        <v>0.02987978312908677</v>
+        <v>0.03339251683042906</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02242680460745</v>
+        <v>0.0219115308174925</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03412520124251261</v>
+        <v>0.03416908698927625</v>
       </c>
       <c r="J109" t="n">
-        <v>0.01997714665182657</v>
+        <v>0.0485281329585206</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03376405541194372</v>
+        <v>0.03387672358577763</v>
       </c>
       <c r="L109" t="n">
-        <v>0.04009613139010082</v>
+        <v>0.07561202258069516</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03314012420126974</v>
+        <v>0.0337353544530811</v>
       </c>
       <c r="N109" t="n">
-        <v>0.06697857332402768</v>
+        <v>0.0219115308174925</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03057466180650739</v>
+        <v>0.03416908698927625</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02412119234988548</v>
+        <v>0.02196932328942472</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03490077399802426</v>
+        <v>0.03494565714812344</v>
       </c>
       <c r="J110" t="n">
-        <v>0.01969244934900752</v>
+        <v>0.04869849436891235</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03453142030766972</v>
+        <v>0.03464664912181804</v>
       </c>
       <c r="L110" t="n">
-        <v>0.03893284620624879</v>
+        <v>0.07559716524837518</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03389330884220769</v>
+        <v>0.03450206705428749</v>
       </c>
       <c r="N110" t="n">
-        <v>0.06533238852768225</v>
+        <v>0.02196932328942472</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03126954048392801</v>
+        <v>0.03494565714812344</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.0218263718970886</v>
+        <v>0.02201449142800363</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0356763467535359</v>
+        <v>0.03572222730697062</v>
       </c>
       <c r="J111" t="n">
-        <v>0.01941009648433069</v>
+        <v>0.04894627226961407</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03529878520339571</v>
+        <v>0.03541657465785843</v>
       </c>
       <c r="L111" t="n">
-        <v>0.03806605695877743</v>
+        <v>0.0761501842002808</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03464649348314564</v>
+        <v>0.03526877965549387</v>
       </c>
       <c r="N111" t="n">
-        <v>0.06335691839602564</v>
+        <v>0.02201449142800363</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03196441916134864</v>
+        <v>0.03572222730697062</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02354890277076797</v>
+        <v>0.02224680214841666</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03645191950904756</v>
+        <v>0.03649879746581781</v>
       </c>
       <c r="J112" t="n">
-        <v>0.01893498384277473</v>
+        <v>0.04937143707627348</v>
       </c>
       <c r="K112" t="n">
-        <v>0.0360661500991217</v>
+        <v>0.03618650019389884</v>
       </c>
       <c r="L112" t="n">
-        <v>0.03712908603108367</v>
+        <v>0.07667114324947188</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03539967812408359</v>
+        <v>0.03603549225670026</v>
       </c>
       <c r="N112" t="n">
-        <v>0.06199317937549942</v>
+        <v>0.02224680214841666</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03265929783876925</v>
+        <v>0.03649879746581781</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02129534449263228</v>
+        <v>0.02236602236585127</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03722749226455921</v>
+        <v>0.037275367624665</v>
       </c>
       <c r="J113" t="n">
-        <v>0.01867200720931837</v>
+        <v>0.04957395920453825</v>
       </c>
       <c r="K113" t="n">
-        <v>0.0368335149948477</v>
+        <v>0.03695642572993924</v>
       </c>
       <c r="L113" t="n">
-        <v>0.03665525580656454</v>
+        <v>0.07686010620900813</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03615286276502154</v>
+        <v>0.03680220485790665</v>
       </c>
       <c r="N113" t="n">
-        <v>0.06098218791254567</v>
+        <v>0.02236602236585127</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03335417651618987</v>
+        <v>0.037275367624665</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02307225658439011</v>
+        <v>0.02257191899549492</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03800306502007086</v>
+        <v>0.03805193778351219</v>
       </c>
       <c r="J114" t="n">
-        <v>0.01842606236894029</v>
+        <v>0.05005380907005608</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03760087989057369</v>
+        <v>0.03772635126597963</v>
       </c>
       <c r="L114" t="n">
-        <v>0.03617788866861707</v>
+        <v>0.0771171368919491</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03690604740595949</v>
+        <v>0.03756891745911304</v>
       </c>
       <c r="N114" t="n">
-        <v>0.05926496045360607</v>
+        <v>0.02257191899549492</v>
       </c>
       <c r="O114" t="n">
-        <v>0.0340490551936105</v>
+        <v>0.03805193778351219</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02088619856775009</v>
+        <v>0.02256425895253507</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03877863777558251</v>
+        <v>0.03882850794235938</v>
       </c>
       <c r="J115" t="n">
-        <v>0.01840204510661922</v>
+        <v>0.04971095708847462</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03836824478629969</v>
+        <v>0.03849627680202004</v>
       </c>
       <c r="L115" t="n">
-        <v>0.03613030700063821</v>
+        <v>0.07724229911135466</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03765923204689743</v>
+        <v>0.03833563006031943</v>
       </c>
       <c r="N115" t="n">
-        <v>0.0576825134451226</v>
+        <v>0.02256425895253507</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03474393387103112</v>
+        <v>0.03882850794235938</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02274372996442089</v>
+        <v>0.02274280915215919</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03955421053109416</v>
+        <v>0.03960507810120656</v>
       </c>
       <c r="J116" t="n">
-        <v>0.01800485120733383</v>
+        <v>0.05034537367544165</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03913560968202567</v>
+        <v>0.03926620233806043</v>
       </c>
       <c r="L116" t="n">
-        <v>0.03646514196745362</v>
+        <v>0.07793565668028435</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03841241668783538</v>
+        <v>0.03910234266152581</v>
       </c>
       <c r="N116" t="n">
-        <v>0.0564758633335371</v>
+        <v>0.02274280915215919</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03543881254845174</v>
+        <v>0.03960507810120656</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.02065141029611113</v>
+        <v>0.02280733650955473</v>
       </c>
       <c r="G117" t="n">
-        <v>0.04032978328660581</v>
+        <v>0.04038164826005375</v>
       </c>
       <c r="J117" t="n">
-        <v>0.01783937645606283</v>
+        <v>0.05025702924660475</v>
       </c>
       <c r="K117" t="n">
-        <v>0.03990297457775167</v>
+        <v>0.04003612787410084</v>
       </c>
       <c r="L117" t="n">
-        <v>0.03628188924046433</v>
+        <v>0.0777972734117981</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03916560132877333</v>
+        <v>0.0398690552627322</v>
       </c>
       <c r="N117" t="n">
-        <v>0.05598602656529139</v>
+        <v>0.02280733650955473</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03613369122587236</v>
+        <v>0.04038164826005375</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.02161579908452942</v>
+        <v>0.02265760793990913</v>
       </c>
       <c r="G118" t="n">
-        <v>0.04110535604211746</v>
+        <v>0.04115821841890094</v>
       </c>
       <c r="J118" t="n">
-        <v>0.01771051663778492</v>
+        <v>0.05004589421761166</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04067033947347767</v>
+        <v>0.04080605341014124</v>
       </c>
       <c r="L118" t="n">
-        <v>0.03687444389084629</v>
+        <v>0.07812721311895543</v>
       </c>
       <c r="M118" t="n">
-        <v>0.03991878596971128</v>
+        <v>0.0406357678639386</v>
       </c>
       <c r="N118" t="n">
-        <v>0.05515401958682736</v>
+        <v>0.02265760793990913</v>
       </c>
       <c r="O118" t="n">
-        <v>0.03682856990329299</v>
+        <v>0.04115821841890094</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02063143739000496</v>
+        <v>0.02279339035840988</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04188092879762911</v>
+        <v>0.04193478857774813</v>
       </c>
       <c r="J119" t="n">
-        <v>0.0178231675374788</v>
+        <v>0.0503119390041101</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04143770436920366</v>
+        <v>0.04157597894618164</v>
       </c>
       <c r="L119" t="n">
-        <v>0.0371372949549508</v>
+        <v>0.07812553961481611</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04067197061064923</v>
+        <v>0.04140248046514498</v>
       </c>
       <c r="N119" t="n">
-        <v>0.0551208588445869</v>
+        <v>0.02279339035840988</v>
       </c>
       <c r="O119" t="n">
-        <v>0.03752344858071361</v>
+        <v>0.04193478857774813</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.0226829221394577</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04265650155314076</v>
+        <v>0.04271135873659532</v>
       </c>
       <c r="J120" t="n">
-        <v>0.01768222494012316</v>
+        <v>0.05035513402174768</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04220506926492965</v>
+        <v>0.04234590448222204</v>
       </c>
       <c r="L120" t="n">
-        <v>0.03696493146912913</v>
+        <v>0.07819231671243976</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04142515525158717</v>
+        <v>0.04216919306635137</v>
       </c>
       <c r="N120" t="n">
-        <v>0.05519494358337629</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="O120" t="n">
-        <v>0.03821832725813423</v>
+        <v>0.04271135873659532</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.02176748272353095</v>
+        <v>0.02282058339300892</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04343207430865241</v>
+        <v>0.0434879288954425</v>
       </c>
       <c r="J121" t="n">
-        <v>0.01758980529039696</v>
+        <v>0.05067716506702777</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04297243416065565</v>
+        <v>0.04311583001826244</v>
       </c>
       <c r="L121" t="n">
-        <v>0.03775184246973265</v>
+        <v>0.07843370505111691</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04217833989252513</v>
+        <v>0.04293590566755776</v>
       </c>
       <c r="N121" t="n">
-        <v>0.0552136586017698</v>
+        <v>0.02282058339300892</v>
       </c>
       <c r="O121" t="n">
-        <v>0.03891320593555486</v>
+        <v>0.0434879288954425</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.02088242912766775</v>
+        <v>0.02271520292808217</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04420764706416406</v>
+        <v>0.04426449905428969</v>
       </c>
       <c r="J122" t="n">
-        <v>0.01763864181177334</v>
+        <v>0.05017596776309841</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04373979905638164</v>
+        <v>0.04388575555430284</v>
       </c>
       <c r="L122" t="n">
-        <v>0.0380925169931125</v>
+        <v>0.07772805382381798</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04293152453346307</v>
+        <v>0.04370261826876415</v>
       </c>
       <c r="N122" t="n">
-        <v>0.05544256677534326</v>
+        <v>0.02271520292808217</v>
       </c>
       <c r="O122" t="n">
-        <v>0.03960808461297548</v>
+        <v>0.04426449905428969</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.02102507133731099</v>
+        <v>0.02280100165217155</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04498321981967571</v>
+        <v>0.04504106921313687</v>
       </c>
       <c r="J123" t="n">
-        <v>0.01792513045493879</v>
+        <v>0.05036890477939063</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04450716395210763</v>
+        <v>0.04465568109034324</v>
       </c>
       <c r="L123" t="n">
-        <v>0.03878144407562009</v>
+        <v>0.07825964315514877</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04368470917440102</v>
+        <v>0.04446933086997053</v>
       </c>
       <c r="N123" t="n">
-        <v>0.05567452580994725</v>
+        <v>0.02280100165217155</v>
       </c>
       <c r="O123" t="n">
-        <v>0.0403029632903961</v>
+        <v>0.04504106921313687</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.02119271933790372</v>
+        <v>0.02287827313836571</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04575879257518736</v>
+        <v>0.04581763937198406</v>
       </c>
       <c r="J124" t="n">
-        <v>0.01804609628255667</v>
+        <v>0.05035556289945567</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04527452884783362</v>
+        <v>0.04542560662638364</v>
       </c>
       <c r="L124" t="n">
-        <v>0.03881311275360666</v>
+        <v>0.07771713315262735</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04443789381533897</v>
+        <v>0.04523604347117692</v>
       </c>
       <c r="N124" t="n">
-        <v>0.05590239341143266</v>
+        <v>0.02287827313836571</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04099784196781673</v>
+        <v>0.04581763937198406</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.02338268311488886</v>
+        <v>0.02284731095975337</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04653436533069901</v>
+        <v>0.04659420953083124</v>
       </c>
       <c r="J125" t="n">
-        <v>0.01809836435729031</v>
+        <v>0.05033600741718891</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04604189374355962</v>
+        <v>0.04619553216242404</v>
       </c>
       <c r="L125" t="n">
-        <v>0.03948201206342347</v>
+        <v>0.07760492930567003</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04519107845627692</v>
+        <v>0.04600275607238331</v>
       </c>
       <c r="N125" t="n">
-        <v>0.05651902728565006</v>
+        <v>0.02284731095975337</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04169272064523735</v>
+        <v>0.04659420953083124</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.02259227265370942</v>
+        <v>0.02280840868942319</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04730993808621067</v>
+        <v>0.04737077968967844</v>
       </c>
       <c r="J126" t="n">
-        <v>0.01827875974180311</v>
+        <v>0.0503103036264857</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04680925863928562</v>
+        <v>0.04696545769846444</v>
       </c>
       <c r="L126" t="n">
-        <v>0.0403826310414219</v>
+        <v>0.07742743710369299</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04594426309721487</v>
+        <v>0.04676946867358971</v>
       </c>
       <c r="N126" t="n">
-        <v>0.0568172851384503</v>
+        <v>0.02280840868942319</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04238759932265797</v>
+        <v>0.04737077968967844</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.02381879793980834</v>
+        <v>0.0225618599004638</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04808551084172231</v>
+        <v>0.04814734984852562</v>
       </c>
       <c r="J127" t="n">
-        <v>0.01848410749875842</v>
+        <v>0.05037851682124136</v>
       </c>
       <c r="K127" t="n">
-        <v>0.0475766235350116</v>
+        <v>0.04773538323450485</v>
       </c>
       <c r="L127" t="n">
-        <v>0.04070945872395307</v>
+        <v>0.0773890620361124</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04669744773815282</v>
+        <v>0.04753618127479609</v>
       </c>
       <c r="N127" t="n">
-        <v>0.05759002467568403</v>
+        <v>0.0225618599004638</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04308247800007859</v>
+        <v>0.04814734984852562</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.02405956895862861</v>
+        <v>0.02250795816596396</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04886108359723396</v>
+        <v>0.04892392000737281</v>
       </c>
       <c r="J128" t="n">
-        <v>0.0186112326908196</v>
+        <v>0.05054071229535134</v>
       </c>
       <c r="K128" t="n">
-        <v>0.0483439884307376</v>
+        <v>0.04850530877054524</v>
       </c>
       <c r="L128" t="n">
-        <v>0.04165698414736843</v>
+        <v>0.07639420959234444</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04745063237909077</v>
+        <v>0.04830289387600248</v>
       </c>
       <c r="N128" t="n">
-        <v>0.05823010360320197</v>
+        <v>0.02250795816596396</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04377735667749921</v>
+        <v>0.04892392000737281</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.02231189569561322</v>
+        <v>0.02254699705901229</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04963665635274561</v>
+        <v>0.04970049016622</v>
       </c>
       <c r="J129" t="n">
-        <v>0.01895696038065001</v>
+        <v>0.04999695534271098</v>
       </c>
       <c r="K129" t="n">
-        <v>0.0491113533264636</v>
+        <v>0.04927523430658565</v>
       </c>
       <c r="L129" t="n">
-        <v>0.04231969634801919</v>
+        <v>0.0758472852618054</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04820381702002872</v>
+        <v>0.04906960647720887</v>
       </c>
       <c r="N129" t="n">
-        <v>0.05913037962685491</v>
+        <v>0.02254699705901229</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04447223535491984</v>
+        <v>0.04970049016622</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.02257308813620509</v>
+        <v>0.02237927015269749</v>
       </c>
       <c r="G130" t="n">
-        <v>0.05041222910825726</v>
+        <v>0.05047706032506719</v>
       </c>
       <c r="J130" t="n">
-        <v>0.01931811563091304</v>
+        <v>0.05014731125721561</v>
       </c>
       <c r="K130" t="n">
-        <v>0.04987871822218959</v>
+        <v>0.05004515984262605</v>
       </c>
       <c r="L130" t="n">
-        <v>0.04279208436225662</v>
+        <v>0.07575269453391131</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04895700166096666</v>
+        <v>0.04983631907841526</v>
       </c>
       <c r="N130" t="n">
-        <v>0.0600837104524935</v>
+        <v>0.02237927015269749</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04516711403234046</v>
+        <v>0.05047706032506719</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.02284045626584727</v>
+        <v>0.02240507102010825</v>
       </c>
       <c r="G131" t="n">
-        <v>0.05118780186376891</v>
+        <v>0.05125363048391438</v>
       </c>
       <c r="J131" t="n">
-        <v>0.01939152350427201</v>
+        <v>0.05019184533276055</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05064608311791558</v>
+        <v>0.05081508537866645</v>
       </c>
       <c r="L131" t="n">
-        <v>0.04326863722643207</v>
+        <v>0.07541484289807859</v>
       </c>
       <c r="M131" t="n">
-        <v>0.04971018630190462</v>
+        <v>0.05060303167962164</v>
       </c>
       <c r="N131" t="n">
-        <v>0.06138295378596859</v>
+        <v>0.02240507102010825</v>
       </c>
       <c r="O131" t="n">
-        <v>0.04586199270976108</v>
+        <v>0.05125363048391438</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.02411131006998268</v>
+        <v>0.02222469323433321</v>
       </c>
       <c r="G132" t="n">
-        <v>0.05196337461928056</v>
+        <v>0.05203020064276156</v>
       </c>
       <c r="J132" t="n">
-        <v>0.01977400906339032</v>
+        <v>0.05023062286324129</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05141344801364157</v>
+        <v>0.05158501091470685</v>
       </c>
       <c r="L132" t="n">
-        <v>0.04394384397689677</v>
+        <v>0.0746381358437232</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05046337094284256</v>
+        <v>0.05136974428082803</v>
       </c>
       <c r="N132" t="n">
-        <v>0.06242096733313068</v>
+        <v>0.02222469323433321</v>
       </c>
       <c r="O132" t="n">
-        <v>0.0465568713871817</v>
+        <v>0.05203020064276156</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.0233829595340543</v>
+        <v>0.02233843036846107</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05273894737479221</v>
+        <v>0.05280677080160875</v>
       </c>
       <c r="J133" t="n">
-        <v>0.02016239737093133</v>
+        <v>0.05006370914255306</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05218081290936757</v>
+        <v>0.05235493645074725</v>
       </c>
       <c r="L133" t="n">
-        <v>0.045012193650002</v>
+        <v>0.07402697886026155</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05121655558378051</v>
+        <v>0.05213645688203442</v>
       </c>
       <c r="N133" t="n">
-        <v>0.06309060879983069</v>
+        <v>0.02233843036846107</v>
       </c>
       <c r="O133" t="n">
-        <v>0.04725175006460233</v>
+        <v>0.05280677080160875</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.02565271464350512</v>
+        <v>0.02224657599558053</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05351452013030386</v>
+        <v>0.05358334096045594</v>
       </c>
       <c r="J134" t="n">
-        <v>0.02025351348955837</v>
+        <v>0.04999116946459128</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05294817780509357</v>
+        <v>0.05312486198678765</v>
       </c>
       <c r="L134" t="n">
-        <v>0.04566817528209907</v>
+        <v>0.07348577743710977</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05196974022471846</v>
+        <v>0.05290316948324082</v>
       </c>
       <c r="N134" t="n">
-        <v>0.0643847358919194</v>
+        <v>0.02224657599558053</v>
       </c>
       <c r="O134" t="n">
-        <v>0.04794662874202295</v>
+        <v>0.05358334096045594</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.02391788538377809</v>
+        <v>0.0221494236887802</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05429009288581552</v>
+        <v>0.05435991111930313</v>
       </c>
       <c r="J135" t="n">
-        <v>0.02054418248193482</v>
+        <v>0.04981306912325134</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05371554270081955</v>
+        <v>0.05389478752282805</v>
       </c>
       <c r="L135" t="n">
-        <v>0.04590627790953927</v>
+        <v>0.07241893706368402</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05272292486565641</v>
+        <v>0.05366988208444719</v>
       </c>
       <c r="N135" t="n">
-        <v>0.06519620631524742</v>
+        <v>0.0221494236887802</v>
       </c>
       <c r="O135" t="n">
-        <v>0.04864150741944357</v>
+        <v>0.05435991111930313</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.0241757817403162</v>
+        <v>0.02184726702114881</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05506566564132716</v>
+        <v>0.05513648127815031</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02083122941072406</v>
+        <v>0.04952947341242858</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05448290759654555</v>
+        <v>0.05466471305886846</v>
       </c>
       <c r="L136" t="n">
-        <v>0.04672099056867388</v>
+        <v>0.07183086322940047</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05347610950659435</v>
+        <v>0.05443659468565359</v>
       </c>
       <c r="N136" t="n">
-        <v>0.06641787777566543</v>
+        <v>0.02184726702114881</v>
       </c>
       <c r="O136" t="n">
-        <v>0.04933638609686419</v>
+        <v>0.05513648127815031</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.02542371369856242</v>
+        <v>0.02174039956577505</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05584123839683881</v>
+        <v>0.0559130514369975</v>
       </c>
       <c r="J137" t="n">
-        <v>0.02121147933858945</v>
+        <v>0.04994044762601832</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05525027249227154</v>
+        <v>0.05543463859490885</v>
       </c>
       <c r="L137" t="n">
-        <v>0.04720680229585419</v>
+        <v>0.07132596142367542</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05422929414753231</v>
+        <v>0.05520330728685998</v>
       </c>
       <c r="N137" t="n">
-        <v>0.06734260797902425</v>
+        <v>0.02174039956577505</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05003126477428482</v>
+        <v>0.0559130514369975</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.02665899124395973</v>
+        <v>0.02172911489574757</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05661681115235045</v>
+        <v>0.0566896215958447</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02148175732819434</v>
+        <v>0.04974605705791599</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05601763738799753</v>
+        <v>0.05620456413094926</v>
       </c>
       <c r="L138" t="n">
-        <v>0.04765820212743146</v>
+        <v>0.07070863713592501</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05498247878847026</v>
+        <v>0.05597001988806637</v>
       </c>
       <c r="N138" t="n">
-        <v>0.06786325463117454</v>
+        <v>0.02172911489574757</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05072614345170544</v>
+        <v>0.0566896215958447</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.02587892436195108</v>
+        <v>0.02151370658415502</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05739238390786211</v>
+        <v>0.05746619175469187</v>
       </c>
       <c r="J139" t="n">
-        <v>0.02163888844220209</v>
+        <v>0.04924636700201687</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05678500228372353</v>
+        <v>0.05697448966698965</v>
       </c>
       <c r="L139" t="n">
-        <v>0.048669679099757</v>
+        <v>0.06958329585556544</v>
       </c>
       <c r="M139" t="n">
-        <v>0.0557356634294082</v>
+        <v>0.05673673248927276</v>
       </c>
       <c r="N139" t="n">
-        <v>0.06927267543796706</v>
+        <v>0.02151370658415502</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05142102212912606</v>
+        <v>0.05746619175469187</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.02508082303797947</v>
+        <v>0.02159446820408616</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05816795666337377</v>
+        <v>0.05824276191353907</v>
       </c>
       <c r="J140" t="n">
-        <v>0.02197969774327609</v>
+        <v>0.04934144275221639</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05755236717944952</v>
+        <v>0.05774441520303006</v>
       </c>
       <c r="L140" t="n">
-        <v>0.0490357222491821</v>
+        <v>0.06945434307201293</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05648884807034615</v>
+        <v>0.05750344509047914</v>
       </c>
       <c r="N140" t="n">
-        <v>0.0703637281052526</v>
+        <v>0.02159446820408616</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05211590080654668</v>
+        <v>0.05824276191353907</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.02526199725748784</v>
+        <v>0.02147169332862958</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05894352941888541</v>
+        <v>0.05901933207238624</v>
       </c>
       <c r="J141" t="n">
-        <v>0.02230101029407969</v>
+        <v>0.04953134960240987</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05831973207517552</v>
+        <v>0.05851434073907046</v>
       </c>
       <c r="L141" t="n">
-        <v>0.04935082061205801</v>
+        <v>0.06802618427468371</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05724203271128409</v>
+        <v>0.05827015769168553</v>
       </c>
       <c r="N141" t="n">
-        <v>0.07102927033888173</v>
+        <v>0.02147169332862958</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05281077948396731</v>
+        <v>0.05901933207238624</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.02541975700591922</v>
+        <v>0.021145675530874</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05971910217439707</v>
+        <v>0.05979590223123344</v>
       </c>
       <c r="J142" t="n">
-        <v>0.02239965115727621</v>
+        <v>0.04911615284649276</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05908709697090151</v>
+        <v>0.05928426627511086</v>
       </c>
       <c r="L142" t="n">
-        <v>0.04970946322473607</v>
+        <v>0.0677032249529938</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05799521735222205</v>
+        <v>0.05903687029289192</v>
       </c>
       <c r="N142" t="n">
-        <v>0.07216215984470531</v>
+        <v>0.021145675530874</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05350565816138792</v>
+        <v>0.05979590223123344</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.02655141226871653</v>
+        <v>0.02101670838390811</v>
       </c>
       <c r="G143" t="n">
-        <v>0.06049467492990871</v>
+        <v>0.06057247239008062</v>
       </c>
       <c r="J143" t="n">
-        <v>0.02267244539552908</v>
+        <v>0.04909591777836031</v>
       </c>
       <c r="K143" t="n">
-        <v>0.05985446186662751</v>
+        <v>0.06005419181115126</v>
       </c>
       <c r="L143" t="n">
-        <v>0.04990613912356753</v>
+        <v>0.06678987059635966</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05874840199316</v>
+        <v>0.0598035828940983</v>
       </c>
       <c r="N143" t="n">
-        <v>0.07255525432857407</v>
+        <v>0.02101670838390811</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05420053683880856</v>
+        <v>0.06057247239008062</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.02766111568273782</v>
+        <v>0.02088508546082055</v>
       </c>
       <c r="G144" t="n">
-        <v>0.06127024768542037</v>
+        <v>0.06134904254892781</v>
       </c>
       <c r="J144" t="n">
-        <v>0.02261621807150163</v>
+        <v>0.04887070969190793</v>
       </c>
       <c r="K144" t="n">
-        <v>0.0606218267623535</v>
+        <v>0.06082411734719166</v>
       </c>
       <c r="L144" t="n">
-        <v>0.05003533734490367</v>
+        <v>0.06589052669419737</v>
       </c>
       <c r="M144" t="n">
-        <v>0.05950158663409794</v>
+        <v>0.0605702954953047</v>
       </c>
       <c r="N144" t="n">
-        <v>0.07400141149633865</v>
+        <v>0.02088508546082055</v>
       </c>
       <c r="O144" t="n">
-        <v>0.05489541551622917</v>
+        <v>0.06134904254892781</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02773923073579213</v>
+        <v>0.02075110033470003</v>
       </c>
       <c r="G145" t="n">
-        <v>0.06204582044093201</v>
+        <v>0.062125612707775</v>
       </c>
       <c r="J145" t="n">
-        <v>0.02292062508293861</v>
+        <v>0.04854059388103099</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06138919165807949</v>
+        <v>0.06159404288323206</v>
       </c>
       <c r="L145" t="n">
-        <v>0.0504915469250958</v>
+        <v>0.06570959873592308</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06025477127503589</v>
+        <v>0.06133700809651108</v>
       </c>
       <c r="N145" t="n">
-        <v>0.0747934890538498</v>
+        <v>0.02075110033470003</v>
       </c>
       <c r="O145" t="n">
-        <v>0.0555902941936498</v>
+        <v>0.062125612707775</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.02782343798935277</v>
+        <v>0.02071504657863521</v>
       </c>
       <c r="G146" t="n">
-        <v>0.06282139319644367</v>
+        <v>0.06290218286662219</v>
       </c>
       <c r="J146" t="n">
-        <v>0.02282455769196863</v>
+        <v>0.04850563563962479</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06215655655380548</v>
+        <v>0.06236396841927246</v>
       </c>
       <c r="L146" t="n">
-        <v>0.05067716506702777</v>
+        <v>0.06515149221095307</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06100795591597383</v>
+        <v>0.06210372069771748</v>
       </c>
       <c r="N146" t="n">
-        <v>0.07552434470695835</v>
+        <v>0.02071504657863521</v>
       </c>
       <c r="O146" t="n">
-        <v>0.05628517287107042</v>
+        <v>0.06290218286662219</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.02790671490539585</v>
+        <v>0.02057721776571476</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06359696595195531</v>
+        <v>0.06367875302546938</v>
       </c>
       <c r="J147" t="n">
-        <v>0.02302042805314058</v>
+        <v>0.0483659002615848</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06292392144953148</v>
+        <v>0.06313389395531287</v>
       </c>
       <c r="L147" t="n">
-        <v>0.05057689147099032</v>
+        <v>0.06402061260870345</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06176114055691179</v>
+        <v>0.06287043329892388</v>
       </c>
       <c r="N147" t="n">
-        <v>0.07598683616151486</v>
+        <v>0.02057721776571476</v>
       </c>
       <c r="O147" t="n">
-        <v>0.05698005154849104</v>
+        <v>0.06367875302546938</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02698878344171436</v>
+        <v>0.02043790746902738</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06437253870746697</v>
+        <v>0.06445532318431656</v>
       </c>
       <c r="J148" t="n">
-        <v>0.02311534459633155</v>
+        <v>0.04862145304080631</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06369128634525748</v>
+        <v>0.06390381949135326</v>
       </c>
       <c r="L148" t="n">
-        <v>0.05037509718860439</v>
+        <v>0.06362136541859048</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06251432519784975</v>
+        <v>0.06363714590013025</v>
       </c>
       <c r="N148" t="n">
-        <v>0.07627382112337022</v>
+        <v>0.02043790746902738</v>
       </c>
       <c r="O148" t="n">
-        <v>0.05767493022591166</v>
+        <v>0.06445532318431656</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.02606936555610131</v>
+        <v>0.02029740926166172</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06514811146297862</v>
+        <v>0.06523189334316375</v>
       </c>
       <c r="J149" t="n">
-        <v>0.02320914963236799</v>
+        <v>0.04837235927118472</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06445865124098346</v>
+        <v>0.06467374502739366</v>
       </c>
       <c r="L149" t="n">
-        <v>0.05027164369382608</v>
+        <v>0.06314894898315543</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06326750983878769</v>
+        <v>0.06440385850133663</v>
       </c>
       <c r="N149" t="n">
-        <v>0.07667815729837502</v>
+        <v>0.02029740926166172</v>
       </c>
       <c r="O149" t="n">
-        <v>0.05836980890333228</v>
+        <v>0.06523189334316375</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02714818320634969</v>
+        <v>0.0201560167167065</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06592368421849026</v>
+        <v>0.06600846350201094</v>
       </c>
       <c r="J150" t="n">
-        <v>0.02330168547207638</v>
+        <v>0.04811868424661533</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06522601613670946</v>
+        <v>0.06544367056343407</v>
       </c>
       <c r="L150" t="n">
-        <v>0.05056654854490925</v>
+        <v>0.06237390426323319</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06402069447972564</v>
+        <v>0.06517057110254303</v>
       </c>
       <c r="N150" t="n">
-        <v>0.07739270239238005</v>
+        <v>0.0201560167167065</v>
       </c>
       <c r="O150" t="n">
-        <v>0.05906468758075292</v>
+        <v>0.06600846350201094</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02722495835025249</v>
+        <v>0.02011402340725035</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06669925697400192</v>
+        <v>0.06678503366085813</v>
       </c>
       <c r="J151" t="n">
-        <v>0.02349279442628316</v>
+        <v>0.04766049326099356</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06599338103243546</v>
+        <v>0.06621359609947447</v>
       </c>
       <c r="L151" t="n">
-        <v>0.05035982930010766</v>
+        <v>0.06209387383844006</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06477387912066358</v>
+        <v>0.06593728370374941</v>
       </c>
       <c r="N151" t="n">
-        <v>0.07811031411123603</v>
+        <v>0.02011402340725035</v>
       </c>
       <c r="O151" t="n">
-        <v>0.05975956625817353</v>
+        <v>0.06678503366085813</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02829941294560272</v>
+        <v>0.01987172290638199</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06747482972951356</v>
+        <v>0.06756160381970532</v>
       </c>
       <c r="J152" t="n">
-        <v>0.02338231880581479</v>
+        <v>0.04799785160821474</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06676074592816145</v>
+        <v>0.06698352163551487</v>
       </c>
       <c r="L152" t="n">
-        <v>0.05055150351767507</v>
+        <v>0.06160914749598784</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06552706376160154</v>
+        <v>0.0667039963049558</v>
       </c>
       <c r="N152" t="n">
-        <v>0.07832385016079374</v>
+        <v>0.01987172290638199</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06045444493559415</v>
+        <v>0.06756160381970532</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.02837126895019337</v>
+        <v>0.01982940878719006</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06825040248502522</v>
+        <v>0.0683381739785525</v>
       </c>
       <c r="J153" t="n">
-        <v>0.02357010092149776</v>
+        <v>0.04773082458217426</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06752811082388745</v>
+        <v>0.06775344717155526</v>
       </c>
       <c r="L153" t="n">
-        <v>0.05064158875586539</v>
+        <v>0.06112001502308795</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06628024840253949</v>
+        <v>0.06747070890616219</v>
       </c>
       <c r="N153" t="n">
-        <v>0.07843370505111691</v>
+        <v>0.01982940878719006</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06114932361301478</v>
+        <v>0.0683381739785525</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02844024832181745</v>
+        <v>0.01948737462276325</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06902597524053686</v>
+        <v>0.06911474413739969</v>
       </c>
       <c r="J154" t="n">
-        <v>0.02355598308415847</v>
+        <v>0.04735947747676747</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06829547571961343</v>
+        <v>0.06852337270759568</v>
       </c>
       <c r="L154" t="n">
-        <v>0.05023010257293231</v>
+        <v>0.06012676620695212</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06703343304347743</v>
+        <v>0.06823742150736858</v>
       </c>
       <c r="N154" t="n">
-        <v>0.07774321006653118</v>
+        <v>0.01948737462276325</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06184420229043539</v>
+        <v>0.06911474413739969</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.02750607301826795</v>
+        <v>0.01944591398619026</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06980154799604851</v>
+        <v>0.06989131429624687</v>
       </c>
       <c r="J155" t="n">
-        <v>0.02373980760462345</v>
+        <v>0.04748387558588968</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06906284061533943</v>
+        <v>0.06929329824363607</v>
       </c>
       <c r="L155" t="n">
-        <v>0.05031706252712975</v>
+        <v>0.05982969083479206</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06778661768441538</v>
+        <v>0.06900413410857498</v>
       </c>
       <c r="N155" t="n">
-        <v>0.07835580608368004</v>
+        <v>0.01944591398619026</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06253908096785601</v>
+        <v>0.06989131429624687</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02756846499733788</v>
+        <v>0.01920532045055974</v>
       </c>
       <c r="G156" t="n">
-        <v>0.07057712075156015</v>
+        <v>0.07066788445509406</v>
       </c>
       <c r="J156" t="n">
-        <v>0.02372141679371907</v>
+        <v>0.04730408420343635</v>
       </c>
       <c r="K156" t="n">
-        <v>0.06983020551106542</v>
+        <v>0.07006322377967647</v>
       </c>
       <c r="L156" t="n">
-        <v>0.05020248617671144</v>
+        <v>0.05912907869381934</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06853980232535332</v>
+        <v>0.06977084670978136</v>
       </c>
       <c r="N156" t="n">
-        <v>0.07816806678796118</v>
+        <v>0.01920532045055974</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06323395964527664</v>
+        <v>0.07066788445509406</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02662714621682023</v>
+        <v>0.01916588758896036</v>
       </c>
       <c r="G157" t="n">
-        <v>0.07135269350707181</v>
+        <v>0.07144445461394125</v>
       </c>
       <c r="J157" t="n">
-        <v>0.02390065296227187</v>
+        <v>0.04702016862330277</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07059757040679142</v>
+        <v>0.07083314931571687</v>
       </c>
       <c r="L157" t="n">
-        <v>0.05028639107993124</v>
+        <v>0.05822521957124538</v>
       </c>
       <c r="M157" t="n">
-        <v>0.06929298696629128</v>
+        <v>0.07053755931098775</v>
       </c>
       <c r="N157" t="n">
-        <v>0.07847999328102451</v>
+        <v>0.01916588758896036</v>
       </c>
       <c r="O157" t="n">
-        <v>0.06392883832269727</v>
+        <v>0.07144445461394125</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.028681838634508</v>
+        <v>0.01892790897448084</v>
       </c>
       <c r="G158" t="n">
-        <v>0.07212826626258347</v>
+        <v>0.07222102477278844</v>
       </c>
       <c r="J158" t="n">
-        <v>0.02407735842110828</v>
+        <v>0.04653219413938431</v>
       </c>
       <c r="K158" t="n">
-        <v>0.0713649353025174</v>
+        <v>0.07160307485175728</v>
       </c>
       <c r="L158" t="n">
-        <v>0.05006879479504289</v>
+        <v>0.05761840325428214</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07004617160722923</v>
+        <v>0.07130427191219414</v>
       </c>
       <c r="N158" t="n">
-        <v>0.07779158666451952</v>
+        <v>0.01892790897448084</v>
       </c>
       <c r="O158" t="n">
-        <v>0.06462371700011789</v>
+        <v>0.07222102477278844</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.0267322642081942</v>
+        <v>0.01899167818020982</v>
       </c>
       <c r="G159" t="n">
-        <v>0.07290383901809512</v>
+        <v>0.07299759493163563</v>
       </c>
       <c r="J159" t="n">
-        <v>0.02405137548105474</v>
+        <v>0.04634022604557636</v>
       </c>
       <c r="K159" t="n">
-        <v>0.0721323001982434</v>
+        <v>0.07237300038779768</v>
       </c>
       <c r="L159" t="n">
-        <v>0.05034971488030021</v>
+        <v>0.05690891953014104</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07079935624816718</v>
+        <v>0.07207098451340052</v>
       </c>
       <c r="N159" t="n">
-        <v>0.07820284804009586</v>
+        <v>0.01899167818020982</v>
       </c>
       <c r="O159" t="n">
-        <v>0.0653185956775385</v>
+        <v>0.07299759493163563</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02677814489567183</v>
+        <v>0.01875748877923597</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07367941177360678</v>
+        <v>0.0737741650904828</v>
       </c>
       <c r="J160" t="n">
-        <v>0.02402254645293772</v>
+        <v>0.04634432963577431</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07289966509396939</v>
+        <v>0.07314292592383807</v>
       </c>
       <c r="L160" t="n">
-        <v>0.05032916889395705</v>
+        <v>0.05649705818603379</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07155254088910512</v>
+        <v>0.07283769711460691</v>
       </c>
       <c r="N160" t="n">
-        <v>0.07821377850940342</v>
+        <v>0.01875748877923597</v>
       </c>
       <c r="O160" t="n">
-        <v>0.06601347435495913</v>
+        <v>0.0737741650904828</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02681920265473388</v>
+        <v>0.01862047404245319</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07445498452911842</v>
+        <v>0.07455073524933001</v>
       </c>
       <c r="J161" t="n">
-        <v>0.0242907136475837</v>
+        <v>0.04614457020387344</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07366702998969539</v>
+        <v>0.07391285145987847</v>
       </c>
       <c r="L161" t="n">
-        <v>0.05050717439426722</v>
+        <v>0.05568310900917195</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07230572553004308</v>
+        <v>0.07360440971581331</v>
       </c>
       <c r="N161" t="n">
-        <v>0.07822437917409181</v>
+        <v>0.01862047404245319</v>
       </c>
       <c r="O161" t="n">
-        <v>0.06670835303237975</v>
+        <v>0.07455073524933001</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02885515944317334</v>
+        <v>0.018370358647138</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07523055728463007</v>
+        <v>0.07532730540817718</v>
       </c>
       <c r="J162" t="n">
-        <v>0.02425571937581912</v>
+        <v>0.04574101304376915</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07443439488542139</v>
+        <v>0.07468277699591887</v>
       </c>
       <c r="L162" t="n">
-        <v>0.05038374893948447</v>
+        <v>0.05556736178676724</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07305891017098103</v>
+        <v>0.0743711223170197</v>
       </c>
       <c r="N162" t="n">
-        <v>0.07833465113581067</v>
+        <v>0.018370358647138</v>
       </c>
       <c r="O162" t="n">
-        <v>0.06740323170980038</v>
+        <v>0.07532730540817718</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02788573721878324</v>
+        <v>0.01830780435932562</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07600613004014171</v>
+        <v>0.07610387556702437</v>
       </c>
       <c r="J163" t="n">
-        <v>0.02431740594847043</v>
+        <v>0.04583372344935685</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07520175978114738</v>
+        <v>0.07545270253195926</v>
       </c>
       <c r="L163" t="n">
-        <v>0.05015891008786266</v>
+        <v>0.05485010630603121</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07381209481191897</v>
+        <v>0.07513783491822608</v>
       </c>
       <c r="N163" t="n">
-        <v>0.07844459549620986</v>
+        <v>0.01830780435932562</v>
       </c>
       <c r="O163" t="n">
-        <v>0.06809811038722101</v>
+        <v>0.07610387556702437</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02791065793935654</v>
+        <v>0.01823383688702691</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07678170279565337</v>
+        <v>0.07688044572587156</v>
       </c>
       <c r="J164" t="n">
-        <v>0.0244756156763641</v>
+        <v>0.04542276671453177</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07596912467687338</v>
+        <v>0.07622262806799966</v>
       </c>
       <c r="L164" t="n">
-        <v>0.05003267539765552</v>
+        <v>0.05403163235417546</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07456527945285692</v>
+        <v>0.07590454751943247</v>
       </c>
       <c r="N164" t="n">
-        <v>0.07795421335693881</v>
+        <v>0.01823383688702691</v>
       </c>
       <c r="O164" t="n">
-        <v>0.06879298906464162</v>
+        <v>0.07688044572587156</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02892964356268628</v>
+        <v>0.01794948193825276</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07755727555116501</v>
+        <v>0.07765701588471875</v>
       </c>
       <c r="J165" t="n">
-        <v>0.02433019087032658</v>
+        <v>0.04520820813318943</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07673648957259938</v>
+        <v>0.07699255360404007</v>
       </c>
       <c r="L165" t="n">
-        <v>0.05010506242711696</v>
+        <v>0.05361222971841173</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07531846409379486</v>
+        <v>0.07667126012063885</v>
       </c>
       <c r="N165" t="n">
-        <v>0.07856350581964738</v>
+        <v>0.01794948193825276</v>
       </c>
       <c r="O165" t="n">
-        <v>0.06948786774206224</v>
+        <v>0.07765701588471875</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02794241604656542</v>
+        <v>0.01775576522101405</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07833284830667667</v>
+        <v>0.07843358604356594</v>
       </c>
       <c r="J166" t="n">
-        <v>0.02458097384118434</v>
+        <v>0.04479011299922508</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07750385446832536</v>
+        <v>0.07776247914008047</v>
       </c>
       <c r="L166" t="n">
-        <v>0.05017608873450069</v>
+        <v>0.05269218818595156</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07607164873473282</v>
+        <v>0.07743797272184524</v>
       </c>
       <c r="N166" t="n">
-        <v>0.07787247398598529</v>
+        <v>0.01775576522101405</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07018274641948287</v>
+        <v>0.07843358604356594</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02694869734878698</v>
+        <v>0.01745371244332163</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07910842106218832</v>
+        <v>0.07921015620241312</v>
       </c>
       <c r="J167" t="n">
-        <v>0.02442780689976382</v>
+        <v>0.04506854660653414</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07827121936405135</v>
+        <v>0.07853240467612087</v>
       </c>
       <c r="L167" t="n">
-        <v>0.05024577187806062</v>
+        <v>0.05207179754400665</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07682483337567077</v>
+        <v>0.07820468532305162</v>
       </c>
       <c r="N167" t="n">
-        <v>0.07848111895760207</v>
+        <v>0.01745371244332163</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07087762509690348</v>
+        <v>0.07921015620241312</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02794791132193962</v>
+        <v>0.0173443493131864</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07988399381769996</v>
+        <v>0.07998672636126032</v>
       </c>
       <c r="J168" t="n">
-        <v>0.0246705323568915</v>
+        <v>0.04484357424901195</v>
       </c>
       <c r="K168" t="n">
-        <v>0.07903858425977735</v>
+        <v>0.07930233021216126</v>
       </c>
       <c r="L168" t="n">
-        <v>0.04991412941605042</v>
+        <v>0.0518513475797886</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07757801801660871</v>
+        <v>0.07897139792425802</v>
       </c>
       <c r="N168" t="n">
-        <v>0.07848944183614759</v>
+        <v>0.0173443493131864</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07157250377432411</v>
+        <v>0.07998672636126032</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02693862751138107</v>
+        <v>0.0171287015386192</v>
       </c>
       <c r="G169" t="n">
-        <v>0.08065956657321162</v>
+        <v>0.0807632965201075</v>
       </c>
       <c r="J169" t="n">
-        <v>0.02470899252339386</v>
+        <v>0.04411526122055387</v>
       </c>
       <c r="K169" t="n">
-        <v>0.07980594915550333</v>
+        <v>0.08007225574820168</v>
       </c>
       <c r="L169" t="n">
-        <v>0.049881178906724</v>
+        <v>0.05063112808050896</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07833120265754666</v>
+        <v>0.07973811052546441</v>
       </c>
       <c r="N169" t="n">
-        <v>0.07819744372327142</v>
+        <v>0.0171287015386192</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07226738245174473</v>
+        <v>0.0807632965201075</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02792091579508575</v>
+        <v>0.01700779482763094</v>
       </c>
       <c r="G170" t="n">
-        <v>0.08143513932872326</v>
+        <v>0.08153986667895469</v>
       </c>
       <c r="J170" t="n">
-        <v>0.02474302971009729</v>
+        <v>0.04428367281505527</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08057331405122933</v>
+        <v>0.08084218128424207</v>
       </c>
       <c r="L170" t="n">
-        <v>0.04974693790833512</v>
+        <v>0.05071142883337937</v>
       </c>
       <c r="M170" t="n">
-        <v>0.0790843872984846</v>
+        <v>0.0805048231266708</v>
       </c>
       <c r="N170" t="n">
-        <v>0.07860512572062339</v>
+        <v>0.01700779482763094</v>
       </c>
       <c r="O170" t="n">
-        <v>0.07296226112916536</v>
+        <v>0.08153986667895469</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02789503359957876</v>
+        <v>0.01668265488823246</v>
       </c>
       <c r="G171" t="n">
-        <v>0.08221071208423492</v>
+        <v>0.08231643683780188</v>
       </c>
       <c r="J171" t="n">
-        <v>0.0245724862278283</v>
+        <v>0.04374887432641147</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08134067894695533</v>
+        <v>0.08161210682028247</v>
       </c>
       <c r="L171" t="n">
-        <v>0.05001142397913763</v>
+        <v>0.04999253962561168</v>
       </c>
       <c r="M171" t="n">
-        <v>0.07983757193942256</v>
+        <v>0.08127153572787719</v>
       </c>
       <c r="N171" t="n">
-        <v>0.07861248892985312</v>
+        <v>0.01668265488823246</v>
       </c>
       <c r="O171" t="n">
-        <v>0.07365713980658599</v>
+        <v>0.08231643683780188</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02786123835138521</v>
+        <v>0.01635430742843466</v>
       </c>
       <c r="G172" t="n">
-        <v>0.08298628483974657</v>
+        <v>0.08309300699664907</v>
       </c>
       <c r="J172" t="n">
-        <v>0.02469720438741332</v>
+        <v>0.04361093104851796</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08210804384268132</v>
+        <v>0.08238203235632287</v>
       </c>
       <c r="L172" t="n">
-        <v>0.05007465467738534</v>
+        <v>0.04877475024441724</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08059075658036051</v>
+        <v>0.08203824832908357</v>
       </c>
       <c r="N172" t="n">
-        <v>0.07841953445261024</v>
+        <v>0.01635430742843466</v>
       </c>
       <c r="O172" t="n">
-        <v>0.0743520184840066</v>
+        <v>0.08309300699664907</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.0268197874770302</v>
+        <v>0.01612377815624839</v>
       </c>
       <c r="G173" t="n">
-        <v>0.08376185759525823</v>
+        <v>0.08386957715549626</v>
       </c>
       <c r="J173" t="n">
-        <v>0.02471702649967884</v>
+        <v>0.04316990827526995</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08287540873840732</v>
+        <v>0.08315195789236328</v>
       </c>
       <c r="L173" t="n">
-        <v>0.04963664756133196</v>
+        <v>0.04835835047700771</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08134394122129845</v>
+        <v>0.08280496093028997</v>
       </c>
       <c r="N173" t="n">
-        <v>0.07832626339054449</v>
+        <v>0.01612377815624839</v>
       </c>
       <c r="O173" t="n">
-        <v>0.07504689716142722</v>
+        <v>0.08386957715549626</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02877093840303888</v>
+        <v>0.01609209277968457</v>
       </c>
       <c r="G174" t="n">
-        <v>0.08453743035076987</v>
+        <v>0.08464614731434343</v>
       </c>
       <c r="J174" t="n">
-        <v>0.02473179487545131</v>
+        <v>0.04322555569270342</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08364277363413331</v>
+        <v>0.08392188342840368</v>
       </c>
       <c r="L174" t="n">
-        <v>0.05009742018923138</v>
+        <v>0.04784363011059484</v>
       </c>
       <c r="M174" t="n">
-        <v>0.0820971258622364</v>
+        <v>0.08357167353149636</v>
       </c>
       <c r="N174" t="n">
-        <v>0.07863267684530562</v>
+        <v>0.01609209277968457</v>
       </c>
       <c r="O174" t="n">
-        <v>0.07574177583884785</v>
+        <v>0.08464614731434343</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02671494855593635</v>
+        <v>0.01586027700675401</v>
       </c>
       <c r="G175" t="n">
-        <v>0.08531300310628152</v>
+        <v>0.08542271747319063</v>
       </c>
       <c r="J175" t="n">
-        <v>0.02474135182555717</v>
+        <v>0.04314728899778969</v>
       </c>
       <c r="K175" t="n">
-        <v>0.0844101385298593</v>
+        <v>0.08469180896444407</v>
       </c>
       <c r="L175" t="n">
-        <v>0.04965699011933739</v>
+        <v>0.04723087893239025</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08285031050317435</v>
+        <v>0.08433838613270274</v>
       </c>
       <c r="N175" t="n">
-        <v>0.07803877591854319</v>
+        <v>0.01586027700675401</v>
       </c>
       <c r="O175" t="n">
-        <v>0.07643665451626847</v>
+        <v>0.08542271747319063</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.0276520753622477</v>
+        <v>0.01562935654546763</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08608857586179318</v>
+        <v>0.08619928763203781</v>
       </c>
       <c r="J176" t="n">
-        <v>0.0246455396608229</v>
+        <v>0.04241734470959077</v>
       </c>
       <c r="K176" t="n">
-        <v>0.0851775034255853</v>
+        <v>0.08546173450048448</v>
       </c>
       <c r="L176" t="n">
-        <v>0.05001537490990379</v>
+        <v>0.04692038672960552</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08360349514411231</v>
+        <v>0.08510509873390913</v>
       </c>
       <c r="N176" t="n">
-        <v>0.07864456171190709</v>
+        <v>0.01562935654546763</v>
       </c>
       <c r="O176" t="n">
-        <v>0.07713153319368908</v>
+        <v>0.08619928763203781</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02658257624849808</v>
+        <v>0.01520035710383626</v>
       </c>
       <c r="G177" t="n">
-        <v>0.08686414861730482</v>
+        <v>0.086975857790885</v>
       </c>
       <c r="J177" t="n">
-        <v>0.02463944919338946</v>
+        <v>0.04243919791637174</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08594486832131129</v>
+        <v>0.08623166003652488</v>
       </c>
       <c r="L177" t="n">
-        <v>0.0496725921191844</v>
+        <v>0.04571244328945223</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08435667978505025</v>
+        <v>0.08587181133511552</v>
       </c>
       <c r="N177" t="n">
-        <v>0.07845003532704681</v>
+        <v>0.01520035710383626</v>
       </c>
       <c r="O177" t="n">
-        <v>0.07782641187110972</v>
+        <v>0.086975857790885</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02650670864121259</v>
+        <v>0.01497430438987081</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08763972137281648</v>
+        <v>0.08775242794973219</v>
       </c>
       <c r="J178" t="n">
-        <v>0.02471156170964145</v>
+        <v>0.04181632370639762</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08671223321703728</v>
+        <v>0.08700158557256528</v>
       </c>
       <c r="L178" t="n">
-        <v>0.04982865930543304</v>
+        <v>0.04570733839914209</v>
       </c>
       <c r="M178" t="n">
-        <v>0.0851098644259882</v>
+        <v>0.08663852393632192</v>
       </c>
       <c r="N178" t="n">
-        <v>0.07825519786561214</v>
+        <v>0.01497430438987081</v>
       </c>
       <c r="O178" t="n">
-        <v>0.07852129054853034</v>
+        <v>0.08775242794973219</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02642472996691632</v>
+        <v>0.01495222411158216</v>
       </c>
       <c r="G179" t="n">
-        <v>0.08841529412832812</v>
+        <v>0.08852899810857938</v>
       </c>
       <c r="J179" t="n">
-        <v>0.02466253018975326</v>
+        <v>0.04135219716793356</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08747959811276328</v>
+        <v>0.08777151110860568</v>
       </c>
       <c r="L179" t="n">
-        <v>0.04968359402690342</v>
+        <v>0.04500536184588666</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08586304906692614</v>
+        <v>0.0874052365375283</v>
       </c>
       <c r="N179" t="n">
-        <v>0.07866005042925278</v>
+        <v>0.01495222411158216</v>
       </c>
       <c r="O179" t="n">
-        <v>0.07921616922595096</v>
+        <v>0.08852899810857938</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02833689765213443</v>
+        <v>0.01453514197698115</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08919086688383977</v>
+        <v>0.08930556826742657</v>
       </c>
       <c r="J180" t="n">
-        <v>0.02469361966327144</v>
+        <v>0.04075029338924463</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08824696300848926</v>
+        <v>0.08854143664464609</v>
       </c>
       <c r="L180" t="n">
-        <v>0.04933741384184945</v>
+        <v>0.04420680341689759</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08661623370786409</v>
+        <v>0.08817194913873468</v>
       </c>
       <c r="N180" t="n">
-        <v>0.07846459411961848</v>
+        <v>0.01453514197698115</v>
       </c>
       <c r="O180" t="n">
-        <v>0.07991104790337158</v>
+        <v>0.08930556826742657</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02724346912339198</v>
+        <v>0.01432408369407866</v>
       </c>
       <c r="G181" t="n">
-        <v>0.08996643963935141</v>
+        <v>0.09008213842627374</v>
       </c>
       <c r="J181" t="n">
-        <v>0.02440609515974251</v>
+        <v>0.04051408745859586</v>
       </c>
       <c r="K181" t="n">
-        <v>0.08901432790421526</v>
+        <v>0.08931136218068648</v>
       </c>
       <c r="L181" t="n">
-        <v>0.04958684399287827</v>
+        <v>0.04371195289938656</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08736941834880205</v>
+        <v>0.08893866173994107</v>
       </c>
       <c r="N181" t="n">
-        <v>0.07866883003835873</v>
+        <v>0.01432408369407866</v>
       </c>
       <c r="O181" t="n">
-        <v>0.0806059265807922</v>
+        <v>0.09008213842627374</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02714470180721411</v>
+        <v>0.01422007497088558</v>
       </c>
       <c r="G182" t="n">
-        <v>0.09074201239486307</v>
+        <v>0.09085870858512095</v>
       </c>
       <c r="J182" t="n">
-        <v>0.02450122170871302</v>
+        <v>0.03974705446425233</v>
       </c>
       <c r="K182" t="n">
-        <v>0.08978169279994126</v>
+        <v>0.09008128771672688</v>
       </c>
       <c r="L182" t="n">
-        <v>0.04931317604418153</v>
+        <v>0.04292110008056521</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08812260298973999</v>
+        <v>0.08970537434114746</v>
       </c>
       <c r="N182" t="n">
-        <v>0.07847275928712344</v>
+        <v>0.01422007497088558</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08130080525821282</v>
+        <v>0.09085870858512095</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02604085313012594</v>
+        <v>0.01412414151541277</v>
       </c>
       <c r="G183" t="n">
-        <v>0.09151758515037471</v>
+        <v>0.09163527874396812</v>
       </c>
       <c r="J183" t="n">
-        <v>0.02438026433972949</v>
+        <v>0.03935266949447919</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09054905769566725</v>
+        <v>0.09085121325276728</v>
       </c>
       <c r="L183" t="n">
-        <v>0.04931450374159718</v>
+        <v>0.04243453474764503</v>
       </c>
       <c r="M183" t="n">
-        <v>0.08887578763067794</v>
+        <v>0.09047208694235384</v>
       </c>
       <c r="N183" t="n">
-        <v>0.07857638296756225</v>
+        <v>0.01412414151541277</v>
       </c>
       <c r="O183" t="n">
-        <v>0.08199568393563346</v>
+        <v>0.09163527874396812</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02593218051865259</v>
+        <v>0.01383730903567112</v>
       </c>
       <c r="G184" t="n">
-        <v>0.09229315790588637</v>
+        <v>0.09241184890281531</v>
       </c>
       <c r="J184" t="n">
-        <v>0.02424448808233848</v>
+        <v>0.03853440763754143</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09131642259139325</v>
+        <v>0.09162113878880769</v>
       </c>
       <c r="L184" t="n">
-        <v>0.04949207784898785</v>
+        <v>0.04225254668783773</v>
       </c>
       <c r="M184" t="n">
-        <v>0.08962897227161588</v>
+        <v>0.09123879954356023</v>
       </c>
       <c r="N184" t="n">
-        <v>0.07817970218132475</v>
+        <v>0.01383730903567112</v>
       </c>
       <c r="O184" t="n">
-        <v>0.08269056261305407</v>
+        <v>0.09241184890281531</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02581894139931915</v>
+        <v>0.0135606032396715</v>
       </c>
       <c r="G185" t="n">
-        <v>0.09306873066139802</v>
+        <v>0.09318841906166249</v>
       </c>
       <c r="J185" t="n">
-        <v>0.0238951579660865</v>
+        <v>0.0378957439817042</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09208378748711925</v>
+        <v>0.09239106432484809</v>
       </c>
       <c r="L185" t="n">
-        <v>0.04914714913021626</v>
+        <v>0.04097542568835499</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09038215691255384</v>
+        <v>0.09200551214476663</v>
       </c>
       <c r="N185" t="n">
-        <v>0.07868271803006072</v>
+        <v>0.0135606032396715</v>
       </c>
       <c r="O185" t="n">
-        <v>0.08338544129047469</v>
+        <v>0.09318841906166249</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02670139319865074</v>
+        <v>0.01349504983542477</v>
       </c>
       <c r="G186" t="n">
-        <v>0.09384430341690968</v>
+        <v>0.09396498922050969</v>
       </c>
       <c r="J186" t="n">
-        <v>0.0239335390205201</v>
+        <v>0.03694015361523253</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09285115238284523</v>
+        <v>0.09316098986088849</v>
       </c>
       <c r="L186" t="n">
-        <v>0.048780968349145</v>
+        <v>0.04110346153640837</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09113534155349179</v>
+        <v>0.09277222474597302</v>
       </c>
       <c r="N186" t="n">
-        <v>0.07858543161541987</v>
+        <v>0.01349504983542477</v>
       </c>
       <c r="O186" t="n">
-        <v>0.08408031996789532</v>
+        <v>0.09396498922050969</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02557979334317249</v>
+        <v>0.01334167453094179</v>
       </c>
       <c r="G187" t="n">
-        <v>0.09461987617242133</v>
+        <v>0.09474155937935688</v>
       </c>
       <c r="J187" t="n">
-        <v>0.02366089627518581</v>
+        <v>0.03647111162639155</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09361851727857123</v>
+        <v>0.09393091539692888</v>
       </c>
       <c r="L187" t="n">
-        <v>0.04889478626963675</v>
+        <v>0.04023694401920946</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09188852619442973</v>
+        <v>0.09353893734717941</v>
       </c>
       <c r="N187" t="n">
-        <v>0.07818784403905182</v>
+        <v>0.01334167453094179</v>
       </c>
       <c r="O187" t="n">
-        <v>0.08477519864531594</v>
+        <v>0.09474155937935688</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.0274543992594095</v>
+        <v>0.01320150303423348</v>
       </c>
       <c r="G188" t="n">
-        <v>0.09539544892793297</v>
+        <v>0.09551812953820406</v>
       </c>
       <c r="J188" t="n">
-        <v>0.02347849475963017</v>
+        <v>0.0355920931034463</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09438588217429722</v>
+        <v>0.09470084093296929</v>
       </c>
       <c r="L188" t="n">
-        <v>0.04878985365555416</v>
+        <v>0.03977616292397002</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09264171083536769</v>
+        <v>0.09430564994838579</v>
       </c>
       <c r="N188" t="n">
-        <v>0.0785899564026063</v>
+        <v>0.01320150303423348</v>
       </c>
       <c r="O188" t="n">
-        <v>0.08547007732273655</v>
+        <v>0.09551812953820406</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02632546837388687</v>
+        <v>0.01297556105331066</v>
       </c>
       <c r="G189" t="n">
-        <v>0.09617102168344463</v>
+        <v>0.09629469969705125</v>
       </c>
       <c r="J189" t="n">
-        <v>0.02328759950339972</v>
+        <v>0.03500657313466185</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09515324707002321</v>
+        <v>0.09547076646900969</v>
       </c>
       <c r="L189" t="n">
-        <v>0.04826742127075992</v>
+        <v>0.03922140803790158</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09339489547630564</v>
+        <v>0.09507236254959218</v>
       </c>
       <c r="N189" t="n">
-        <v>0.07809176980773314</v>
+        <v>0.01297556105331066</v>
       </c>
       <c r="O189" t="n">
-        <v>0.08616495600015718</v>
+        <v>0.09629469969705125</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02519325811312974</v>
+        <v>0.01286487429618424</v>
       </c>
       <c r="G190" t="n">
-        <v>0.09694659443895627</v>
+        <v>0.09707126985589844</v>
       </c>
       <c r="J190" t="n">
-        <v>0.02298947553604096</v>
+        <v>0.03461802680830334</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09592061196574921</v>
+        <v>0.09624069200505009</v>
       </c>
       <c r="L190" t="n">
-        <v>0.04792873987911664</v>
+        <v>0.03867296914821583</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09414808011724358</v>
+        <v>0.09583907515079858</v>
       </c>
       <c r="N190" t="n">
-        <v>0.07869328535608172</v>
+        <v>0.01286487429618424</v>
       </c>
       <c r="O190" t="n">
-        <v>0.08685983467757781</v>
+        <v>0.09707126985589844</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02705802590366321</v>
+        <v>0.01297046847086508</v>
       </c>
       <c r="G191" t="n">
-        <v>0.09772216719446793</v>
+        <v>0.09784784001474563</v>
       </c>
       <c r="J191" t="n">
-        <v>0.02278538788710047</v>
+        <v>0.03352459605478345</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09668797686147519</v>
+        <v>0.09701061754109049</v>
       </c>
       <c r="L191" t="n">
-        <v>0.04787506024448704</v>
+        <v>0.03793113604212422</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09490126475818154</v>
+        <v>0.09660578775200496</v>
       </c>
       <c r="N191" t="n">
-        <v>0.07809450414930202</v>
+        <v>0.01297046847086508</v>
       </c>
       <c r="O191" t="n">
-        <v>0.08755471335499843</v>
+        <v>0.09784784001474563</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02692002917201239</v>
+        <v>0.01269336928536406</v>
       </c>
       <c r="G192" t="n">
-        <v>0.09849773994997957</v>
+        <v>0.0986244101735928</v>
       </c>
       <c r="J192" t="n">
-        <v>0.02257660158612478</v>
+        <v>0.03276324942982417</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09745534175720119</v>
+        <v>0.0977805430771309</v>
       </c>
       <c r="L192" t="n">
-        <v>0.04760763313073374</v>
+        <v>0.03769626370005047</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09565444939911949</v>
+        <v>0.09737250035321135</v>
       </c>
       <c r="N192" t="n">
-        <v>0.07839542728904353</v>
+        <v>0.01269336928536406</v>
       </c>
       <c r="O192" t="n">
-        <v>0.08824959203241906</v>
+        <v>0.0986244101735928</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.0247795253447024</v>
+        <v>0.01283460244769204</v>
       </c>
       <c r="G193" t="n">
-        <v>0.09927331270549122</v>
+        <v>0.09940098033244001</v>
       </c>
       <c r="J193" t="n">
-        <v>0.02256438166266039</v>
+        <v>0.03242097857921539</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09822270665292719</v>
+        <v>0.09855046861317129</v>
       </c>
       <c r="L193" t="n">
-        <v>0.04752770930171937</v>
+        <v>0.03696843640398095</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09640763404005744</v>
+        <v>0.09813921295441774</v>
       </c>
       <c r="N193" t="n">
-        <v>0.07829605587695615</v>
+        <v>0.01283460244769204</v>
       </c>
       <c r="O193" t="n">
-        <v>0.08894447070983967</v>
+        <v>0.09940098033244001</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02463677184825835</v>
+        <v>0.01279504144612027</v>
       </c>
       <c r="G194" t="n">
-        <v>0.1000488854610029</v>
+        <v>0.1001775504912872</v>
       </c>
       <c r="J194" t="n">
-        <v>0.02234999314625387</v>
+        <v>0.0314056818330177</v>
       </c>
       <c r="K194" t="n">
-        <v>0.09899007154865318</v>
+        <v>0.09932039414921169</v>
       </c>
       <c r="L194" t="n">
-        <v>0.04673653952130666</v>
+        <v>0.036547255917043</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09716081868099538</v>
+        <v>0.09890592555562412</v>
       </c>
       <c r="N194" t="n">
-        <v>0.07869639101468945</v>
+        <v>0.01279504144612027</v>
       </c>
       <c r="O194" t="n">
-        <v>0.0896393493872603</v>
+        <v>0.1001775504912872</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02549202610920538</v>
+        <v>0.01256467916919123</v>
       </c>
       <c r="G195" t="n">
-        <v>0.1008244582165145</v>
+        <v>0.1009541206501344</v>
       </c>
       <c r="J195" t="n">
-        <v>0.02203470106645174</v>
+        <v>0.03042525752129152</v>
       </c>
       <c r="K195" t="n">
-        <v>0.09975743644437918</v>
+        <v>0.1000903196852521</v>
       </c>
       <c r="L195" t="n">
-        <v>0.04673537455335819</v>
+        <v>0.03553231039773946</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09791400332193333</v>
+        <v>0.09967263815683051</v>
       </c>
       <c r="N195" t="n">
-        <v>0.07869260702093467</v>
+        <v>0.01256467916919123</v>
       </c>
       <c r="O195" t="n">
-        <v>0.09033422806468092</v>
+        <v>0.1009541206501344</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02434554555406857</v>
+        <v>0.01273687285129452</v>
       </c>
       <c r="G196" t="n">
-        <v>0.1016000309720262</v>
+        <v>0.1017306908089816</v>
       </c>
       <c r="J196" t="n">
-        <v>0.02181977045280055</v>
+        <v>0.02928760397409741</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1005248013401052</v>
+        <v>0.1008602452212925</v>
       </c>
       <c r="L196" t="n">
-        <v>0.04662546516173666</v>
+        <v>0.03562318800457298</v>
       </c>
       <c r="M196" t="n">
-        <v>0.09866718796287129</v>
+        <v>0.1004393507580369</v>
       </c>
       <c r="N196" t="n">
-        <v>0.07844084173144772</v>
+        <v>0.01273687285129452</v>
       </c>
       <c r="O196" t="n">
-        <v>0.09102910674210153</v>
+        <v>0.1017306908089816</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02619758760937303</v>
+        <v>0.01261143745924422</v>
       </c>
       <c r="G197" t="n">
-        <v>0.1023756037275378</v>
+        <v>0.1025072609678288</v>
       </c>
       <c r="J197" t="n">
-        <v>0.02170646633484682</v>
+        <v>0.02840061952149586</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1012921662358312</v>
+        <v>0.1016301707573329</v>
       </c>
       <c r="L197" t="n">
-        <v>0.04600806211030473</v>
+        <v>0.03481947689604631</v>
       </c>
       <c r="M197" t="n">
-        <v>0.09942037260380923</v>
+        <v>0.1012060633592433</v>
       </c>
       <c r="N197" t="n">
-        <v>0.07793061894242936</v>
+        <v>0.01261143745924422</v>
       </c>
       <c r="O197" t="n">
-        <v>0.09172398541952216</v>
+        <v>0.1025072609678288</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02504840970164389</v>
+        <v>0.0125881879598545</v>
       </c>
       <c r="G198" t="n">
-        <v>0.1031511764830495</v>
+        <v>0.1032838311266759</v>
       </c>
       <c r="J198" t="n">
-        <v>0.0212960537421371</v>
+        <v>0.02677220249354742</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1020595311315572</v>
+        <v>0.1024000962933733</v>
       </c>
       <c r="L198" t="n">
-        <v>0.04598441616292501</v>
+        <v>0.03402076523066211</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1001735572447472</v>
+        <v>0.1019727759604497</v>
       </c>
       <c r="N198" t="n">
-        <v>0.07806443860169221</v>
+        <v>0.0125881879598545</v>
       </c>
       <c r="O198" t="n">
-        <v>0.09241886409694279</v>
+        <v>0.1032838311266759</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02589826925740626</v>
+        <v>0.01246693931993948</v>
       </c>
       <c r="G199" t="n">
-        <v>0.1039267492385611</v>
+        <v>0.1040604012855231</v>
       </c>
       <c r="J199" t="n">
-        <v>0.02118979770421792</v>
+        <v>0.02581025122031255</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1028268960272831</v>
+        <v>0.1031700218294137</v>
       </c>
       <c r="L199" t="n">
-        <v>0.04515577808346025</v>
+        <v>0.03372664116692309</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1009267418856851</v>
+        <v>0.1027394885616561</v>
       </c>
       <c r="N199" t="n">
-        <v>0.07794480065704895</v>
+        <v>0.01246693931993948</v>
       </c>
       <c r="O199" t="n">
-        <v>0.09311374277436341</v>
+        <v>0.1040604012855231</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02574742370318527</v>
+        <v>0.01254750650631326</v>
       </c>
       <c r="G200" t="n">
-        <v>0.1047023219940728</v>
+        <v>0.1048369714443703</v>
       </c>
       <c r="J200" t="n">
-        <v>0.02088896325063579</v>
+        <v>0.02472266403185175</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1035942609230091</v>
+        <v>0.1039399473654541</v>
       </c>
       <c r="L200" t="n">
-        <v>0.045323398635773</v>
+        <v>0.03363669286333215</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1016799265266231</v>
+        <v>0.1035062011628625</v>
       </c>
       <c r="N200" t="n">
-        <v>0.07767420505631217</v>
+        <v>0.01254750650631326</v>
       </c>
       <c r="O200" t="n">
-        <v>0.09380862145178404</v>
+        <v>0.1048369714443703</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.024596130465506</v>
+        <v>0.01262970448578998</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1054778947495844</v>
+        <v>0.1056135416032175</v>
       </c>
       <c r="J201" t="n">
-        <v>0.02079481541093728</v>
+        <v>0.02371733925822561</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1043616258187351</v>
+        <v>0.1047098729014945</v>
       </c>
       <c r="L201" t="n">
-        <v>0.04498852858372601</v>
+        <v>0.03275050847839184</v>
       </c>
       <c r="M201" t="n">
-        <v>0.102433111167561</v>
+        <v>0.1042729137640688</v>
       </c>
       <c r="N201" t="n">
-        <v>0.07725515174729447</v>
+        <v>0.01262970448578998</v>
       </c>
       <c r="O201" t="n">
-        <v>0.09450350012920465</v>
+        <v>0.1056135416032175</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02344464697089359</v>
+        <v>0.01241334822518377</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1062534675050961</v>
+        <v>0.1063901117620647</v>
       </c>
       <c r="J202" t="n">
-        <v>0.02070861921466892</v>
+        <v>0.02220217522949458</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1051289907144611</v>
+        <v>0.1054797984375349</v>
       </c>
       <c r="L202" t="n">
-        <v>0.04415241869118186</v>
+        <v>0.03256767617060485</v>
       </c>
       <c r="M202" t="n">
-        <v>0.103186295808499</v>
+        <v>0.1050396263652752</v>
       </c>
       <c r="N202" t="n">
-        <v>0.07669014067780849</v>
+        <v>0.01241334822518377</v>
       </c>
       <c r="O202" t="n">
-        <v>0.09519837880662527</v>
+        <v>0.1063901117620647</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02329323064587314</v>
+        <v>0.01239825269130875</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1070290402606077</v>
+        <v>0.1071666819209119</v>
       </c>
       <c r="J203" t="n">
-        <v>0.02043163969137721</v>
+        <v>0.02078507027571913</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1058963556101871</v>
+        <v>0.1062497239735753</v>
       </c>
       <c r="L203" t="n">
-        <v>0.04381631972200326</v>
+        <v>0.03228778409847394</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1039394804494369</v>
+        <v>0.1058063389664816</v>
       </c>
       <c r="N203" t="n">
-        <v>0.07638167179566679</v>
+        <v>0.01239825269130875</v>
       </c>
       <c r="O203" t="n">
-        <v>0.0958932574840459</v>
+        <v>0.1071666819209119</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02314213891696976</v>
+        <v>0.01248423285097904</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1078046130161194</v>
+        <v>0.1079432520797591</v>
       </c>
       <c r="J204" t="n">
-        <v>0.02016514187060874</v>
+        <v>0.02007392272695985</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1066637205059131</v>
+        <v>0.1070196495096157</v>
       </c>
       <c r="L204" t="n">
-        <v>0.04368148244005282</v>
+        <v>0.03141042042050191</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1046926650903749</v>
+        <v>0.106573051567688</v>
       </c>
       <c r="N204" t="n">
-        <v>0.07593224504868201</v>
+        <v>0.01248423285097904</v>
       </c>
       <c r="O204" t="n">
-        <v>0.09658813616146653</v>
+        <v>0.1079432520797591</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02399162921070858</v>
+        <v>0.01237110367100875</v>
       </c>
       <c r="G205" t="n">
-        <v>0.108580185771631</v>
+        <v>0.1087198222386063</v>
       </c>
       <c r="J205" t="n">
-        <v>0.02011039078191</v>
+        <v>0.01857663091327713</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1074310854016391</v>
+        <v>0.1077895750456561</v>
       </c>
       <c r="L205" t="n">
-        <v>0.04354915760919328</v>
+        <v>0.03133517329519142</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1054458497313128</v>
+        <v>0.1073397641688944</v>
       </c>
       <c r="N205" t="n">
-        <v>0.07574436038466692</v>
+        <v>0.01237110367100875</v>
       </c>
       <c r="O205" t="n">
-        <v>0.09728301483888714</v>
+        <v>0.1087198222386063</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.0248419589536147</v>
+        <v>0.01255868011821204</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1093557585271427</v>
+        <v>0.1094963923974534</v>
       </c>
       <c r="J206" t="n">
-        <v>0.01996865145482757</v>
+        <v>0.0176010931647316</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1081984502973651</v>
+        <v>0.1085595005816965</v>
       </c>
       <c r="L206" t="n">
-        <v>0.04282059599328722</v>
+        <v>0.03036163088104521</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1061990343722508</v>
+        <v>0.1081064767701008</v>
       </c>
       <c r="N206" t="n">
-        <v>0.07512051775143391</v>
+        <v>0.01255868011821204</v>
       </c>
       <c r="O206" t="n">
-        <v>0.09797789351630777</v>
+        <v>0.1094963923974534</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02269338557221325</v>
+        <v>0.01244677715940301</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1101313312826543</v>
+        <v>0.1102729625563006</v>
       </c>
       <c r="J207" t="n">
-        <v>0.01984118891890795</v>
+        <v>0.01615520781138371</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1089658151930911</v>
+        <v>0.1093294261177369</v>
       </c>
       <c r="L207" t="n">
-        <v>0.04299704835619733</v>
+        <v>0.03028938133656589</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1069522190131887</v>
+        <v>0.1088731893713072</v>
       </c>
       <c r="N207" t="n">
-        <v>0.07456321709679575</v>
+        <v>0.01244677715940301</v>
       </c>
       <c r="O207" t="n">
-        <v>0.09867277219372839</v>
+        <v>0.1102729625563006</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02454433063204373</v>
+        <v>0.01233520976139577</v>
       </c>
       <c r="G208" t="n">
-        <v>0.110906904038166</v>
+        <v>0.1110495327151478</v>
       </c>
       <c r="J208" t="n">
-        <v>0.01982834421060727</v>
+        <v>0.01544687318329402</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1097331800888171</v>
+        <v>0.1100993516537773</v>
       </c>
       <c r="L208" t="n">
-        <v>0.04257976546178627</v>
+        <v>0.02981801282025631</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1077054036541267</v>
+        <v>0.1096399019725136</v>
       </c>
       <c r="N208" t="n">
-        <v>0.07357495836856492</v>
+        <v>0.01233520976139577</v>
       </c>
       <c r="O208" t="n">
-        <v>0.099367650871149</v>
+        <v>0.1110495327151478</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02439102360621895</v>
+        <v>0.01242379289100448</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1116824767936776</v>
+        <v>0.111826102873995</v>
       </c>
       <c r="J209" t="n">
-        <v>0.01971929236420181</v>
+        <v>0.01438398761052295</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1105005449845431</v>
+        <v>0.1108692771898177</v>
       </c>
       <c r="L209" t="n">
-        <v>0.04226999807391665</v>
+        <v>0.02904711349061911</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1084585882950646</v>
+        <v>0.11040661457372</v>
       </c>
       <c r="N209" t="n">
-        <v>0.0730582415145542</v>
+        <v>0.01242379289100448</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1000625295485696</v>
+        <v>0.111826102873995</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02323337429492481</v>
+        <v>0.01251234151504325</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1124580495491893</v>
+        <v>0.1126026730328422</v>
       </c>
       <c r="J210" t="n">
-        <v>0.01941060959418414</v>
+        <v>0.01287444942313112</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1112679098802691</v>
+        <v>0.1116392027258581</v>
       </c>
       <c r="L210" t="n">
-        <v>0.04176631852413834</v>
+        <v>0.02857627150615705</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1092117729360026</v>
+        <v>0.1111733271749263</v>
       </c>
       <c r="N210" t="n">
-        <v>0.07241556648257608</v>
+        <v>0.01251234151504325</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1007574082259903</v>
+        <v>0.1126026730328422</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02207141973952459</v>
+        <v>0.01230067060032621</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1132336223047009</v>
+        <v>0.1133792431916894</v>
       </c>
       <c r="J211" t="n">
-        <v>0.01940233551477011</v>
+        <v>0.01212615695117894</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1120352747759951</v>
+        <v>0.1124091282618985</v>
       </c>
       <c r="L211" t="n">
-        <v>0.04146070772135965</v>
+        <v>0.02810507502537285</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1099649575769405</v>
+        <v>0.1119400397761327</v>
       </c>
       <c r="N211" t="n">
-        <v>0.07184943322044324</v>
+        <v>0.01230067060032621</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1014522869034109</v>
+        <v>0.1133792431916894</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02390519698138158</v>
+        <v>0.01238859511366745</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1140091950602126</v>
+        <v>0.1141558133505366</v>
       </c>
       <c r="J212" t="n">
-        <v>0.01929450974017553</v>
+        <v>0.01124700852472699</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1128026396717211</v>
+        <v>0.1131790537979389</v>
       </c>
       <c r="L212" t="n">
-        <v>0.04105251866249054</v>
+        <v>0.02803311220676918</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1107181422178784</v>
+        <v>0.1127067523773391</v>
       </c>
       <c r="N212" t="n">
-        <v>0.07156234167596831</v>
+        <v>0.01238859511366745</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1021471655808315</v>
+        <v>0.1141558133505366</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.0227347430618591</v>
+        <v>0.01247593002188113</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1147847678157242</v>
+        <v>0.1149323835093837</v>
       </c>
       <c r="J213" t="n">
-        <v>0.01908717188461626</v>
+        <v>0.01064490247383568</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1135700045674471</v>
+        <v>0.1139489793339793</v>
       </c>
       <c r="L213" t="n">
-        <v>0.04074174754986079</v>
+        <v>0.02695997120884885</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1114713268588164</v>
+        <v>0.1134734649785455</v>
       </c>
       <c r="N213" t="n">
-        <v>0.07015679179696388</v>
+        <v>0.01247593002188113</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1028420442582521</v>
+        <v>0.1149323835093837</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02256009502232044</v>
+        <v>0.01246249029178136</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1155603405712359</v>
+        <v>0.1157089536682309</v>
       </c>
       <c r="J214" t="n">
-        <v>0.01908036156230809</v>
+        <v>0.009827737128565633</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1143373694631731</v>
+        <v>0.1147189048700197</v>
       </c>
       <c r="L214" t="n">
-        <v>0.04052839058580021</v>
+        <v>0.02708524019011449</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1122245114997544</v>
+        <v>0.1142401775797519</v>
       </c>
       <c r="N214" t="n">
-        <v>0.07013528353124249</v>
+        <v>0.01246249029178136</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1035369229356727</v>
+        <v>0.1157089536682309</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02238128990412888</v>
+        <v>0.01244809089018228</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1163359133267475</v>
+        <v>0.1164855238270781</v>
       </c>
       <c r="J215" t="n">
-        <v>0.01897411838746685</v>
+        <v>0.009303410818977287</v>
       </c>
       <c r="K215" t="n">
-        <v>0.115104734358899</v>
+        <v>0.1154888304060601</v>
       </c>
       <c r="L215" t="n">
-        <v>0.0404124439726386</v>
+        <v>0.02630850730906886</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1129776961406923</v>
+        <v>0.1150068901809583</v>
       </c>
       <c r="N215" t="n">
-        <v>0.06910031682661688</v>
+        <v>0.01244809089018228</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1042318016130934</v>
+        <v>0.1164855238270781</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02319836474864774</v>
+        <v>0.01233254678389799</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1171114860822592</v>
+        <v>0.1172620939859253</v>
       </c>
       <c r="J216" t="n">
-        <v>0.0187684819743084</v>
+        <v>0.00847982187513116</v>
       </c>
       <c r="K216" t="n">
-        <v>0.115872099254625</v>
+        <v>0.1162587559421005</v>
       </c>
       <c r="L216" t="n">
-        <v>0.03979390391270576</v>
+        <v>0.0258293607242146</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1137308807816303</v>
+        <v>0.1157736027821647</v>
       </c>
       <c r="N216" t="n">
-        <v>0.06835439163089968</v>
+        <v>0.01233254678389799</v>
       </c>
       <c r="O216" t="n">
-        <v>0.104926680290514</v>
+        <v>0.1172620939859253</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02301135659724031</v>
+        <v>0.01231567293974264</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1178870588377708</v>
+        <v>0.1180386641447725</v>
       </c>
       <c r="J217" t="n">
-        <v>0.01866349193704854</v>
+        <v>0.008464868627087785</v>
       </c>
       <c r="K217" t="n">
-        <v>0.116639464150351</v>
+        <v>0.1170286814781409</v>
       </c>
       <c r="L217" t="n">
-        <v>0.03967276660833158</v>
+        <v>0.02534738859405455</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1144840654225682</v>
+        <v>0.1165403153833711</v>
       </c>
       <c r="N217" t="n">
-        <v>0.0672000078919035</v>
+        <v>0.01231567293974264</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1056215589679346</v>
+        <v>0.1180386641447725</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02182030249126987</v>
+        <v>0.01229728432453035</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1186626315932825</v>
+        <v>0.1188152343036197</v>
       </c>
       <c r="J218" t="n">
-        <v>0.01865918788990313</v>
+        <v>0.008018394810671459</v>
       </c>
       <c r="K218" t="n">
-        <v>0.117406829046077</v>
+        <v>0.1177986070141813</v>
       </c>
       <c r="L218" t="n">
-        <v>0.03904902826184581</v>
+        <v>0.02486217907709137</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1152372500635061</v>
+        <v>0.1173070279845775</v>
       </c>
       <c r="N218" t="n">
-        <v>0.0664396655574408</v>
+        <v>0.01229728432453035</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1063164376453552</v>
+        <v>0.1188152343036197</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02162523947209975</v>
+        <v>0.01237719590507522</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1194382043487941</v>
+        <v>0.1195918044624669</v>
       </c>
       <c r="J219" t="n">
-        <v>0.01855560944708795</v>
+        <v>0.007777057345606853</v>
       </c>
       <c r="K219" t="n">
-        <v>0.118174193941803</v>
+        <v>0.1185685325502217</v>
       </c>
       <c r="L219" t="n">
-        <v>0.03882268507557829</v>
+        <v>0.02437332033182782</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1159904347044441</v>
+        <v>0.1180737405857838</v>
       </c>
       <c r="N219" t="n">
-        <v>0.06627586457532436</v>
+        <v>0.01237719590507522</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1070113163227758</v>
+        <v>0.1195918044624669</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.0204262045810932</v>
+        <v>0.01235522264819139</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1202137771043058</v>
+        <v>0.1203683746213141</v>
       </c>
       <c r="J220" t="n">
-        <v>0.01855279622281887</v>
+        <v>0.00734056320459639</v>
       </c>
       <c r="K220" t="n">
-        <v>0.118941558837529</v>
+        <v>0.1193384580862621</v>
       </c>
       <c r="L220" t="n">
-        <v>0.03869373325185882</v>
+        <v>0.02358040051676658</v>
       </c>
       <c r="M220" t="n">
-        <v>0.116743619345382</v>
+        <v>0.1188404531869902</v>
       </c>
       <c r="N220" t="n">
-        <v>0.06541110489336671</v>
+        <v>0.01235522264819139</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1077061950001965</v>
+        <v>0.1203683746213141</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02222323485961357</v>
+        <v>0.01233117952069299</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1209893498598174</v>
+        <v>0.1211449447801612</v>
       </c>
       <c r="J221" t="n">
-        <v>0.0182507878313117</v>
+        <v>0.006709031880120037</v>
       </c>
       <c r="K221" t="n">
-        <v>0.119708923733255</v>
+        <v>0.1201083836223025</v>
       </c>
       <c r="L221" t="n">
-        <v>0.03856216899301723</v>
+        <v>0.02368300779041033</v>
       </c>
       <c r="M221" t="n">
-        <v>0.11749680398632</v>
+        <v>0.1196071657881966</v>
       </c>
       <c r="N221" t="n">
-        <v>0.06414788645938052</v>
+        <v>0.01233117952069299</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1084010736776171</v>
+        <v>0.1211449447801612</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02201636734902411</v>
+        <v>0.01210488148939414</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1217649226153291</v>
+        <v>0.1219215149390084</v>
       </c>
       <c r="J222" t="n">
-        <v>0.01824962388678228</v>
+        <v>0.00678258286465791</v>
       </c>
       <c r="K222" t="n">
-        <v>0.120476288628981</v>
+        <v>0.1208783091583429</v>
       </c>
       <c r="L222" t="n">
-        <v>0.03782798850138333</v>
+        <v>0.02288073031126175</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1182499886272579</v>
+        <v>0.120373878389403</v>
       </c>
       <c r="N222" t="n">
-        <v>0.0635736371721739</v>
+        <v>0.01210488148939414</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1090959523550377</v>
+        <v>0.1219215149390084</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02180563909068817</v>
+        <v>0.01217614352110897</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1225404953708407</v>
+        <v>0.1226980850978556</v>
       </c>
       <c r="J223" t="n">
-        <v>0.01814934400344641</v>
+        <v>0.006461335650689903</v>
       </c>
       <c r="K223" t="n">
-        <v>0.121243653524707</v>
+        <v>0.1216482346943833</v>
       </c>
       <c r="L223" t="n">
-        <v>0.03769118797928694</v>
+        <v>0.0220731562378238</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1190031732681959</v>
+        <v>0.1211405909906094</v>
       </c>
       <c r="N223" t="n">
-        <v>0.06325533832880759</v>
+        <v>0.01217614352110897</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1097908310324583</v>
+        <v>0.1226980850978556</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02159108712596898</v>
+        <v>0.01214324883742516</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1233160681263524</v>
+        <v>0.1234746552567028</v>
       </c>
       <c r="J224" t="n">
-        <v>0.01804998779551993</v>
+        <v>0.005845409730696111</v>
       </c>
       <c r="K224" t="n">
-        <v>0.122011018420433</v>
+        <v>0.1224181602304237</v>
       </c>
       <c r="L224" t="n">
-        <v>0.03705176362905788</v>
+        <v>0.02155987372859891</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1197563579091338</v>
+        <v>0.1219073035918158</v>
       </c>
       <c r="N224" t="n">
-        <v>0.06239220212559304</v>
+        <v>0.01214324883742516</v>
       </c>
       <c r="O224" t="n">
-        <v>0.110485709709879</v>
+        <v>0.1234746552567028</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02137274849622987</v>
+        <v>0.01220424195303237</v>
       </c>
       <c r="G225" t="n">
-        <v>0.124091640881864</v>
+        <v>0.12425122541555</v>
       </c>
       <c r="J225" t="n">
-        <v>0.01785159487721867</v>
+        <v>0.005834924597156482</v>
       </c>
       <c r="K225" t="n">
-        <v>0.122778383316159</v>
+        <v>0.1231880857664641</v>
       </c>
       <c r="L225" t="n">
-        <v>0.03710971165302593</v>
+        <v>0.02144047094209001</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1205095425500718</v>
+        <v>0.1226740161930222</v>
       </c>
       <c r="N225" t="n">
-        <v>0.0609847781262145</v>
+        <v>0.01220424195303237</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1111805883872996</v>
+        <v>0.12425122541555</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01915066024283416</v>
+        <v>0.01195923163014693</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1248672136373757</v>
+        <v>0.1250277955743972</v>
       </c>
       <c r="J226" t="n">
-        <v>0.0177542048627585</v>
+        <v>0.005029999742551083</v>
       </c>
       <c r="K226" t="n">
-        <v>0.123545748211885</v>
+        <v>0.1239580113025045</v>
       </c>
       <c r="L226" t="n">
-        <v>0.03676502825352093</v>
+        <v>0.02051611272353721</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1212627271910097</v>
+        <v>0.1234407287942286</v>
       </c>
       <c r="N226" t="n">
-        <v>0.06003361589435591</v>
+        <v>0.01195923163014693</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1118754670647202</v>
+        <v>0.1250277955743972</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.0209248594071451</v>
+        <v>0.01210833402286197</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1256427863928873</v>
+        <v>0.1258043657332444</v>
       </c>
       <c r="J227" t="n">
-        <v>0.01765785736635518</v>
+        <v>0.004730754659359931</v>
       </c>
       <c r="K227" t="n">
-        <v>0.124313113107611</v>
+        <v>0.1247279368385449</v>
       </c>
       <c r="L227" t="n">
-        <v>0.03611770963287272</v>
+        <v>0.02058960182343561</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1220159118319477</v>
+        <v>0.124207441395435</v>
       </c>
       <c r="N227" t="n">
-        <v>0.05923926499370147</v>
+        <v>0.01210833402286197</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1125703457421408</v>
+        <v>0.1258043657332444</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01969538303052602</v>
+        <v>0.0118516652852706</v>
       </c>
       <c r="G228" t="n">
-        <v>0.126418359148399</v>
+        <v>0.1265809358920916</v>
       </c>
       <c r="J228" t="n">
-        <v>0.01766259200222456</v>
+        <v>0.00443730884006302</v>
       </c>
       <c r="K228" t="n">
-        <v>0.125080478003337</v>
+        <v>0.1254978623745853</v>
       </c>
       <c r="L228" t="n">
-        <v>0.03606775199341108</v>
+        <v>0.01936101039730592</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1227690964728856</v>
+        <v>0.1249741539966413</v>
       </c>
       <c r="N228" t="n">
-        <v>0.05800227498793525</v>
+        <v>0.0118516652852706</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1132652244195615</v>
+        <v>0.1265809358920916</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.0204622681543402</v>
+        <v>0.01188934157146595</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1271939319039106</v>
+        <v>0.1273575060509388</v>
       </c>
       <c r="J229" t="n">
-        <v>0.01746844838458249</v>
+        <v>0.004449781777140338</v>
       </c>
       <c r="K229" t="n">
-        <v>0.125847842899063</v>
+        <v>0.1262677879106257</v>
       </c>
       <c r="L229" t="n">
-        <v>0.03551515153746582</v>
+        <v>0.01933034190814681</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1235222811138236</v>
+        <v>0.1257408665978478</v>
       </c>
       <c r="N229" t="n">
-        <v>0.05672319544074134</v>
+        <v>0.01188934157146595</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1139601030969821</v>
+        <v>0.1273575060509388</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.02022555181995095</v>
+        <v>0.01192147903554115</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1279695046594223</v>
+        <v>0.128134076209786</v>
       </c>
       <c r="J230" t="n">
-        <v>0.0175754661276448</v>
+        <v>0.003968292963071995</v>
       </c>
       <c r="K230" t="n">
-        <v>0.126615207794789</v>
+        <v>0.1270377134466661</v>
       </c>
       <c r="L230" t="n">
-        <v>0.03545990446736683</v>
+        <v>0.01859759981895714</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1242754657547615</v>
+        <v>0.1265075791990541</v>
       </c>
       <c r="N230" t="n">
-        <v>0.05570257591580385</v>
+        <v>0.01192147903554115</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1146549817744027</v>
+        <v>0.128134076209786</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01798527106872154</v>
+        <v>0.01164819383158932</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1287450774149339</v>
+        <v>0.1289106463686331</v>
       </c>
       <c r="J231" t="n">
-        <v>0.01748368484562729</v>
+        <v>0.003792961890337926</v>
       </c>
       <c r="K231" t="n">
-        <v>0.127382572690515</v>
+        <v>0.1278076389827065</v>
       </c>
       <c r="L231" t="n">
-        <v>0.03470200698544376</v>
+        <v>0.01846278759273579</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1250286503956995</v>
+        <v>0.1272742918002605</v>
       </c>
       <c r="N231" t="n">
-        <v>0.05514096597680695</v>
+        <v>0.01164819383158932</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1153498604518233</v>
+        <v>0.1289106463686331</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01774146294201531</v>
+        <v>0.01176960211370356</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1295206501704456</v>
+        <v>0.1296872165274803</v>
       </c>
       <c r="J232" t="n">
-        <v>0.01719314415274577</v>
+        <v>0.003423908051418123</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1281499375862409</v>
+        <v>0.1285775645187469</v>
       </c>
       <c r="L232" t="n">
-        <v>0.03424145529402661</v>
+        <v>0.01732590869248157</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1257818350366374</v>
+        <v>0.1280410044014669</v>
       </c>
       <c r="N232" t="n">
-        <v>0.05373891518743462</v>
+        <v>0.01176960211370356</v>
       </c>
       <c r="O232" t="n">
-        <v>0.116044739129244</v>
+        <v>0.1296872165274803</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01749416448119553</v>
+        <v>0.01158582003597702</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1302962229259572</v>
+        <v>0.1304637866863275</v>
       </c>
       <c r="J233" t="n">
-        <v>0.01720388366321614</v>
+        <v>0.003561250938792671</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1289173024819669</v>
+        <v>0.1293474900547873</v>
       </c>
       <c r="L233" t="n">
-        <v>0.03437824559544511</v>
+        <v>0.01668696658119329</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1265350196775754</v>
+        <v>0.1288077170026733</v>
       </c>
       <c r="N233" t="n">
-        <v>0.05249697311137114</v>
+        <v>0.01158582003597702</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1167396178066646</v>
+        <v>0.1304637866863275</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01824341272762552</v>
+        <v>0.01149696375250282</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1310717956814689</v>
+        <v>0.1312403568451747</v>
       </c>
       <c r="J234" t="n">
-        <v>0.01701594299125415</v>
+        <v>0.003205110044941561</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1296846673776929</v>
+        <v>0.1301174155908277</v>
       </c>
       <c r="L234" t="n">
-        <v>0.03361237409202908</v>
+        <v>0.01664596472186958</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1272882043185133</v>
+        <v>0.1295744296038797</v>
       </c>
       <c r="N234" t="n">
-        <v>0.0508156893123004</v>
+        <v>0.01149696375250282</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1174344964840852</v>
+        <v>0.1312403568451747</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01798924472266852</v>
+        <v>0.01150314941737408</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1318473684369805</v>
+        <v>0.1320169270040219</v>
       </c>
       <c r="J235" t="n">
-        <v>0.01702936175107569</v>
+        <v>0.002655604862344757</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1304520322734189</v>
+        <v>0.1308873411268681</v>
       </c>
       <c r="L235" t="n">
-        <v>0.03354383698610836</v>
+        <v>0.01580290657750943</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1280413889594513</v>
+        <v>0.1303411422050861</v>
       </c>
       <c r="N235" t="n">
-        <v>0.04979561335390659</v>
+        <v>0.01150314941737408</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1181293751615058</v>
+        <v>0.1320169270040219</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01673169750768788</v>
+        <v>0.01130449318468391</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1326229411924922</v>
+        <v>0.1327934971628691</v>
       </c>
       <c r="J236" t="n">
-        <v>0.01704417955689656</v>
+        <v>0.002712854883482385</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1312193971691449</v>
+        <v>0.1316572666629085</v>
       </c>
       <c r="L236" t="n">
-        <v>0.03317263048001268</v>
+        <v>0.0154577956111116</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1287945736003892</v>
+        <v>0.1311078548062924</v>
       </c>
       <c r="N236" t="n">
-        <v>0.0485372947998739</v>
+        <v>0.01130449318468391</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1188242538389264</v>
+        <v>0.1327934971628691</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01747080812404689</v>
+        <v>0.01130111120852543</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1333985139480038</v>
+        <v>0.1335700673217163</v>
       </c>
       <c r="J237" t="n">
-        <v>0.01676043602293258</v>
+        <v>0.002076979600834333</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1319867620648709</v>
+        <v>0.1324271921989489</v>
       </c>
       <c r="L237" t="n">
-        <v>0.03239875077607193</v>
+        <v>0.01501063528567503</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1295477582413272</v>
+        <v>0.1318745674074988</v>
       </c>
       <c r="N237" t="n">
-        <v>0.04684128321388625</v>
+        <v>0.01130111120852543</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1195191325163471</v>
+        <v>0.1335700673217163</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01620661361310882</v>
+        <v>0.01099311964299178</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1341740867035155</v>
+        <v>0.1343466374805634</v>
       </c>
       <c r="J238" t="n">
-        <v>0.01667817076339959</v>
+        <v>0.002148098506880691</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1327541269605969</v>
+        <v>0.1331971177349893</v>
       </c>
       <c r="L238" t="n">
-        <v>0.03222219407661595</v>
+        <v>0.01396142906419839</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1303009428822651</v>
+        <v>0.1326412800087052</v>
       </c>
       <c r="N238" t="n">
-        <v>0.04580812815962804</v>
+        <v>0.01099311964299178</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1202140111937677</v>
+        <v>0.1343466374805634</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.016939151016237</v>
+        <v>0.01088063464217608</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1349496594590271</v>
+        <v>0.1351232076394106</v>
       </c>
       <c r="J239" t="n">
-        <v>0.01669742339251341</v>
+        <v>0.002126331094101486</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1335214918563229</v>
+        <v>0.1339670432710297</v>
       </c>
       <c r="L239" t="n">
-        <v>0.03164295658397448</v>
+        <v>0.01341018040968045</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1310541275232031</v>
+        <v>0.1334079926099116</v>
       </c>
       <c r="N239" t="n">
-        <v>0.04423837920078311</v>
+        <v>0.01088063464217608</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1209088898711883</v>
+        <v>0.1351232076394106</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.0156684573747947</v>
+        <v>0.01086377236017145</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1357252322145388</v>
+        <v>0.1358997777982578</v>
       </c>
       <c r="J240" t="n">
-        <v>0.01661823352448989</v>
+        <v>0.001611796854976727</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1342888567520489</v>
+        <v>0.1347369688070701</v>
       </c>
       <c r="L240" t="n">
-        <v>0.0315610345004774</v>
+        <v>0.01285689278512014</v>
       </c>
       <c r="M240" t="n">
-        <v>0.131807312164141</v>
+        <v>0.134174705211118</v>
       </c>
       <c r="N240" t="n">
-        <v>0.04273258590103568</v>
+        <v>0.01086377236017145</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1216037685486089</v>
+        <v>0.1358997777982578</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01739456973014523</v>
+        <v>0.010642648951071</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1365008049700504</v>
+        <v>0.136676347957105</v>
       </c>
       <c r="J241" t="n">
-        <v>0.01644064077354483</v>
+        <v>0.001504615281986393</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1350562216477749</v>
+        <v>0.1355068943431105</v>
       </c>
       <c r="L241" t="n">
-        <v>0.0313764240284545</v>
+        <v>0.0123015696535162</v>
       </c>
       <c r="M241" t="n">
-        <v>0.132560496805079</v>
+        <v>0.1349414178123244</v>
       </c>
       <c r="N241" t="n">
-        <v>0.04129129782406971</v>
+        <v>0.010642648951071</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1222986472260296</v>
+        <v>0.136676347957105</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01511752512365188</v>
+        <v>0.01051738056896787</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1372763777255621</v>
+        <v>0.1374529181159522</v>
       </c>
       <c r="J242" t="n">
-        <v>0.01636468475389406</v>
+        <v>0.001004905867610456</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1358235865435009</v>
+        <v>0.1362768198791509</v>
       </c>
       <c r="L242" t="n">
-        <v>0.03068912137023558</v>
+        <v>0.01224421447786744</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1333136814460169</v>
+        <v>0.1357081304135308</v>
       </c>
       <c r="N242" t="n">
-        <v>0.0391150645335695</v>
+        <v>0.01051738056896787</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1229935259034502</v>
+        <v>0.1374529181159522</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01683736059667796</v>
+        <v>0.01048808336795518</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1380519504810737</v>
+        <v>0.1382294882747994</v>
       </c>
       <c r="J243" t="n">
-        <v>0.01629040507975343</v>
+        <v>0.001012788104329032</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1365909514392269</v>
+        <v>0.1370467454151914</v>
       </c>
       <c r="L243" t="n">
-        <v>0.0304991227281505</v>
+        <v>0.01178483072117276</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1340668660869549</v>
+        <v>0.1364748430147372</v>
       </c>
       <c r="N243" t="n">
-        <v>0.03790443559321904</v>
+        <v>0.01048808336795518</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1236884045808708</v>
+        <v>0.1382294882747994</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01655411319058673</v>
+        <v>0.01045487350212604</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1388275232365854</v>
+        <v>0.1390060584336466</v>
       </c>
       <c r="J244" t="n">
-        <v>0.01631784136533877</v>
+        <v>0.0006283814846221036</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1373583163349529</v>
+        <v>0.1378166709512317</v>
       </c>
       <c r="L244" t="n">
-        <v>0.02980642430452898</v>
+        <v>0.01132342184643093</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1348200507278928</v>
+        <v>0.1372415556159436</v>
       </c>
       <c r="N244" t="n">
-        <v>0.03585996056670249</v>
+        <v>0.01045487350212604</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1243832832582914</v>
+        <v>0.1390060584336466</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01526781994674154</v>
+        <v>0.01031786712557358</v>
       </c>
       <c r="G245" t="n">
-        <v>0.139603095992097</v>
+        <v>0.1397826285924937</v>
       </c>
       <c r="J245" t="n">
-        <v>0.01634703322486587</v>
+        <v>0.0009518055009696824</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1381256812306789</v>
+        <v>0.1385865964872721</v>
       </c>
       <c r="L245" t="n">
-        <v>0.02951102230170097</v>
+        <v>0.01025999131664068</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1355732353688308</v>
+        <v>0.13800826821715</v>
       </c>
       <c r="N245" t="n">
-        <v>0.03428218901770397</v>
+        <v>0.01031786712557358</v>
       </c>
       <c r="O245" t="n">
-        <v>0.125078161935712</v>
+        <v>0.1397826285924937</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01397851790650565</v>
+        <v>0.01017718039239093</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1403786687476087</v>
+        <v>0.1405591987513409</v>
       </c>
       <c r="J246" t="n">
-        <v>0.01607802027255059</v>
+        <v>0.0004831796458517612</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1388930461264049</v>
+        <v>0.1393565220233125</v>
       </c>
       <c r="L246" t="n">
-        <v>0.02941291292199616</v>
+        <v>0.009794542594800948</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1363264200097687</v>
+        <v>0.1387749808183563</v>
       </c>
       <c r="N246" t="n">
-        <v>0.03267167050990744</v>
+        <v>0.01017718039239093</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1257730406131327</v>
+        <v>0.1405591987513409</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01368624411124238</v>
+        <v>0.009832929456671198</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1411542415031203</v>
+        <v>0.1413357689101881</v>
       </c>
       <c r="J247" t="n">
-        <v>0.01621084212260876</v>
+        <v>0.000522623411748413</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1396604110221308</v>
+        <v>0.1401264475593529</v>
       </c>
       <c r="L247" t="n">
-        <v>0.02861209236774445</v>
+        <v>0.0094270791439105</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1370796046507066</v>
+        <v>0.1395416934195627</v>
       </c>
       <c r="N247" t="n">
-        <v>0.03132895460699714</v>
+        <v>0.009832929456671198</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1264679192905533</v>
+        <v>0.1413357689101881</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01539103560231499</v>
+        <v>0.009885230472507514</v>
       </c>
       <c r="G248" t="n">
-        <v>0.141929814258632</v>
+        <v>0.1421123390690353</v>
       </c>
       <c r="J248" t="n">
-        <v>0.01594553838925618</v>
+        <v>0.0002702562911395257</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1404277759178569</v>
+        <v>0.1408963730953933</v>
       </c>
       <c r="L248" t="n">
-        <v>0.02820855684127557</v>
+        <v>0.008557604426968013</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1378327892916446</v>
+        <v>0.1403084060207691</v>
       </c>
       <c r="N248" t="n">
-        <v>0.02895459087265717</v>
+        <v>0.009885230472507514</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1271627979679739</v>
+        <v>0.1421123390690353</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01409292942108682</v>
+        <v>0.009534199593993008</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1427053870141436</v>
+        <v>0.1428889092278825</v>
       </c>
       <c r="J249" t="n">
-        <v>0.0158821486867087</v>
+        <v>0.0002261977765052603</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1411951408135828</v>
+        <v>0.1416662986314337</v>
       </c>
       <c r="L249" t="n">
-        <v>0.02810230254491947</v>
+        <v>0.008186121906972488</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1385859739325826</v>
+        <v>0.1410751186219755</v>
       </c>
       <c r="N249" t="n">
-        <v>0.02774912887057152</v>
+        <v>0.009534199593993008</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1278576766453945</v>
+        <v>0.1428889092278825</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01479196260892116</v>
+        <v>0.009379952975220783</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1434809597696553</v>
+        <v>0.1436654793867297</v>
       </c>
       <c r="J250" t="n">
-        <v>0.01602071262918214</v>
+        <v>-9.432639674483712e-06</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1419625057093088</v>
+        <v>0.1424362241674741</v>
       </c>
       <c r="L250" t="n">
-        <v>0.02769332568100588</v>
+        <v>0.007612635046922722</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1393391585735205</v>
+        <v>0.1418418312231819</v>
       </c>
       <c r="N250" t="n">
-        <v>0.02601311816442448</v>
+        <v>0.009379952975220783</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1285525553228151</v>
+        <v>0.1436654793867297</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01448817220718127</v>
+        <v>0.009422606770283976</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1442565325251669</v>
+        <v>0.1444420495455769</v>
       </c>
       <c r="J251" t="n">
-        <v>0.01576126983089235</v>
+        <v>-0.0003365154649195845</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1427298706050348</v>
+        <v>0.1432061497035146</v>
       </c>
       <c r="L251" t="n">
-        <v>0.0268816224518646</v>
+        <v>0.006937147309817371</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1400923432144585</v>
+        <v>0.1426085438243883</v>
       </c>
       <c r="N251" t="n">
-        <v>0.02404710831789997</v>
+        <v>0.009422606770283976</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1292474340002358</v>
+        <v>0.1444420495455769</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01418159525723048</v>
+        <v>0.009262277133275709</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1450321052806786</v>
+        <v>0.1452186197044241</v>
       </c>
       <c r="J252" t="n">
-        <v>0.01590385990605513</v>
+        <v>-0.000454931206750081</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1434972355007608</v>
+        <v>0.1439760752395549</v>
       </c>
       <c r="L252" t="n">
-        <v>0.02676718905982542</v>
+        <v>0.006159662158655432</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1408455278553964</v>
+        <v>0.1433752564255947</v>
       </c>
       <c r="N252" t="n">
-        <v>0.02175164889468229</v>
+        <v>0.009262277133275709</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1299423126776564</v>
+        <v>0.1452186197044241</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01287226880043208</v>
+        <v>0.009099080218289098</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1458076780361902</v>
+        <v>0.1459951898632713</v>
       </c>
       <c r="J253" t="n">
-        <v>0.01584852246888631</v>
+        <v>-0.0002645603726859347</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1442646003964868</v>
+        <v>0.1447460007755954</v>
       </c>
       <c r="L253" t="n">
-        <v>0.02635002170721823</v>
+        <v>0.005980183056435662</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1415987124963344</v>
+        <v>0.144141969026801</v>
       </c>
       <c r="N253" t="n">
-        <v>0.01962728945845527</v>
+        <v>0.009099080218289098</v>
       </c>
       <c r="O253" t="n">
-        <v>0.130637191355077</v>
+        <v>0.1459951898632713</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01156022987814936</v>
+        <v>0.008733132179417277</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1465832507917019</v>
+        <v>0.1467717600221184</v>
       </c>
       <c r="J254" t="n">
-        <v>0.01569529713360174</v>
+        <v>-0.0002652834702472351</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1450319652922128</v>
+        <v>0.1455159263116357</v>
       </c>
       <c r="L254" t="n">
-        <v>0.02613011659637285</v>
+        <v>0.005598713466156757</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1423518971372723</v>
+        <v>0.1449086816280074</v>
       </c>
       <c r="N254" t="n">
-        <v>0.0180745795729032</v>
+        <v>0.008733132179417277</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1313320700324977</v>
+        <v>0.1467717600221184</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01324551553174561</v>
+        <v>0.00866454917075335</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1473588235472136</v>
+        <v>0.1475483301809656</v>
       </c>
       <c r="J255" t="n">
-        <v>0.01574422351441722</v>
+        <v>-0.0003569810069538049</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1457993301879388</v>
+        <v>0.1462858518476761</v>
       </c>
       <c r="L255" t="n">
-        <v>0.025507469929619</v>
+        <v>0.004515256850817606</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1431050817782102</v>
+        <v>0.1456753942292138</v>
       </c>
       <c r="N255" t="n">
-        <v>0.0162940688017103</v>
+        <v>0.00866454917075335</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1320269487099183</v>
+        <v>0.1475483301809656</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01092816280258415</v>
+        <v>0.008393447346390456</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1481343963027252</v>
+        <v>0.1483249003398128</v>
       </c>
       <c r="J256" t="n">
-        <v>0.01559534122554859</v>
+        <v>-0.0008395334903257834</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1465666950836648</v>
+        <v>0.1470557773837165</v>
       </c>
       <c r="L256" t="n">
-        <v>0.02518207790928662</v>
+        <v>0.004429816673417131</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1438582664191482</v>
+        <v>0.1464421068304202</v>
       </c>
       <c r="N256" t="n">
-        <v>0.01428630670856035</v>
+        <v>0.008393447346390456</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1327218273873389</v>
+        <v>0.1483249003398128</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01060820873202827</v>
+        <v>0.008419942860421713</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1489099690582368</v>
+        <v>0.14910147049866</v>
       </c>
       <c r="J257" t="n">
-        <v>0.01544868988121167</v>
+        <v>-0.0006128214278829924</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1473340599793908</v>
+        <v>0.1478257029197569</v>
       </c>
       <c r="L257" t="n">
-        <v>0.02475393673770543</v>
+        <v>0.003442396396953928</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1446114510600862</v>
+        <v>0.1472088194316266</v>
       </c>
       <c r="N257" t="n">
-        <v>0.01185184285713775</v>
+        <v>0.008419942860421713</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1334167060647595</v>
+        <v>0.14910147049866</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01228569036144125</v>
+        <v>0.00824415186694024</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1496855418137485</v>
+        <v>0.1498780406575072</v>
       </c>
       <c r="J258" t="n">
-        <v>0.01540430909562233</v>
+        <v>-0.001076725327145533</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1481014248751168</v>
+        <v>0.1485956284557974</v>
       </c>
       <c r="L258" t="n">
-        <v>0.02412304261720527</v>
+        <v>0.002952999484426955</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1453646357010241</v>
+        <v>0.147975532032833</v>
       </c>
       <c r="N258" t="n">
-        <v>0.009891226811126363</v>
+        <v>0.00824415186694024</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1341115847421801</v>
+        <v>0.1498780406575072</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.009960644732186406</v>
+        <v>0.007966190520039169</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1504611145692601</v>
+        <v>0.1506546108163544</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01536223848299635</v>
+        <v>-0.001031125695633434</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1488687897708428</v>
+        <v>0.1493655539918377</v>
       </c>
       <c r="L259" t="n">
-        <v>0.02368939175011597</v>
+        <v>0.002561629398835086</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1461178203419621</v>
+        <v>0.1487422446340394</v>
       </c>
       <c r="N259" t="n">
-        <v>0.007805008134210534</v>
+        <v>0.007966190520039169</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1348064634196008</v>
+        <v>0.1506546108163544</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01063310888562703</v>
+        <v>0.007786174973811608</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1512366873247718</v>
+        <v>0.1514311809752016</v>
       </c>
       <c r="J260" t="n">
-        <v>0.01552251765754958</v>
+        <v>-0.0006759030408665379</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1496361546665688</v>
+        <v>0.1501354795278781</v>
       </c>
       <c r="L260" t="n">
-        <v>0.02325298033876735</v>
+        <v>0.001968289603176965</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1468710049829</v>
+        <v>0.1495089572352458</v>
       </c>
       <c r="N260" t="n">
-        <v>0.006093736390074156</v>
+        <v>0.007786174973811608</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1355013420970214</v>
+        <v>0.1514311809752016</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.009303119863126402</v>
+        <v>0.007504221382350684</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1520122600802834</v>
+        <v>0.1522077511340487</v>
       </c>
       <c r="J261" t="n">
-        <v>0.01538518623349783</v>
+        <v>-0.001110937870364925</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1504035195622948</v>
+        <v>0.1509054050639185</v>
       </c>
       <c r="L261" t="n">
-        <v>0.02271380458548916</v>
+        <v>0.001472983560451502</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1476241896238379</v>
+        <v>0.1502756698364522</v>
       </c>
       <c r="N261" t="n">
-        <v>0.003957961142401434</v>
+        <v>0.007504221382350684</v>
       </c>
       <c r="O261" t="n">
-        <v>0.136196220774442</v>
+        <v>0.1522077511340487</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.009970714706047823</v>
+        <v>0.007420445899749523</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1527878328357951</v>
+        <v>0.1529843212928959</v>
       </c>
       <c r="J262" t="n">
-        <v>0.01545028382505695</v>
+        <v>-0.0008361106916485173</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1511708844580207</v>
+        <v>0.1516753305999589</v>
       </c>
       <c r="L262" t="n">
-        <v>0.02257186069261133</v>
+        <v>0.0008757147336574955</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1483773742647759</v>
+        <v>0.1510423824376586</v>
       </c>
       <c r="N262" t="n">
-        <v>0.001798231954876606</v>
+        <v>0.007420445899749523</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1368910994518626</v>
+        <v>0.1529843212928959</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01063593045575462</v>
+        <v>0.007134964680101261</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1535634055913067</v>
+        <v>0.1537608914517431</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01531785004644273</v>
+        <v>-0.001151302012237398</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1519382493537468</v>
+        <v>0.1524452561359993</v>
       </c>
       <c r="L263" t="n">
-        <v>0.0222271448624636</v>
+        <v>7.648658579378909e-05</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1491305589057138</v>
+        <v>0.1518090950388649</v>
       </c>
       <c r="N263" t="n">
-        <v>-0.0003849016088165458</v>
+        <v>0.007134964680101261</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1375859781292832</v>
+        <v>0.1537608914517431</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01029880415361006</v>
+        <v>0.007147893877498986</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1543389783468184</v>
+        <v>0.1545374616105903</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01538792451187106</v>
+        <v>-0.0007563923396514127</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1527056142494727</v>
+        <v>0.1532151816720397</v>
       </c>
       <c r="L264" t="n">
-        <v>0.02147965329737575</v>
+        <v>-0.001024697420140941</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1498837435466518</v>
+        <v>0.1525758076400713</v>
       </c>
       <c r="N264" t="n">
-        <v>-0.002790889984993633</v>
+        <v>0.007147893877498986</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1382808568067039</v>
+        <v>0.1545374616105903</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1289.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1289.xlsx
@@ -8491,8 +8491,14 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="n"/>
-      <c r="C47" s="144" t="n"/>
+      <c r="B47" s="144" t="inlineStr">
+        <is>
+          <t>K0, д.е.</t>
+        </is>
+      </c>
+      <c r="C47" s="144" t="n">
+        <v>0.8781306565948526</v>
+      </c>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8549,8 +8555,14 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="n"/>
-      <c r="C48" s="144" t="n"/>
+      <c r="B48" s="144" t="inlineStr">
+        <is>
+          <t>q_zg, МПа</t>
+        </is>
+      </c>
+      <c r="C48" s="144" t="n">
+        <v>0.04390653282974263</v>
+      </c>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8700,12 +8712,20 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="n"/>
+      <c r="F50" s="144" t="inlineStr">
+        <is>
+          <t>Точки модуля (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n"/>
-      <c r="K50" s="144" t="n"/>
+      <c r="J50" s="144" t="n">
+        <v>0.04390653282974263</v>
+      </c>
+      <c r="K50" s="144" t="n">
+        <v>0.07025045252758821</v>
+      </c>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8782,11 +8802,17 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="n"/>
+      <c r="F51" s="144" t="inlineStr">
+        <is>
+          <t>qf (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n"/>
+      <c r="J51" s="144" t="n">
+        <v>0.06383055784136892</v>
+      </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9232,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01146031254146931</v>
+        <v>0.01383055784136891</v>
       </c>
       <c r="B65" t="n">
-        <v>0.009088664529415244</v>
+        <v>0.01096840073253007</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9292,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001364658350841992</v>
+        <v>0.003278797915660943</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007765701588471875</v>
+        <v>0.001637339744973771</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.005999999999999978</v>
+        <v>0.003448160004088513</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001132936507936504</v>
+        <v>0.001644989113152012</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.008198767832476139</v>
+        <v>0.01190913379075154</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007667126012063886</v>
+        <v>0.002271898041315095</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.001364658350841992</v>
+        <v>0.02039276331329037</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007765701588471875</v>
+        <v>0.002383329677287182</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9332,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.002940743959878755</v>
+        <v>0.006585979924461388</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001553140317694375</v>
+        <v>0.003656133577510024</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.007669955380967958</v>
+        <v>0.006073965646978735</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001539851072080801</v>
+        <v>0.003371894540413057</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01547928018406652</v>
+        <v>0.01412192897702572</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001533425202412777</v>
+        <v>0.003293860718662725</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.002940743959878755</v>
+        <v>0.02324598331218342</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001553140317694375</v>
+        <v>0.003296585274703919</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9374,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.004251602335567803</v>
+        <v>0.007164040351599434</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002329710476541563</v>
+        <v>0.004912019234921315</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01058920291811519</v>
+        <v>0.007217062832197162</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002309776608121202</v>
+        <v>0.004934967339456037</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.02100000000000002</v>
+        <v>0.01689125075993578</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002139067278287464</v>
+        <v>0.004940791077994088</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.004251602335567803</v>
+        <v>0.02686096001828536</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002329710476541563</v>
+        <v>0.004944877912055879</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9421,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.004999999999999998</v>
+        <v>0.008992216259153508</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002775694444444443</v>
+        <v>0.006549358979895086</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.0137940160427471</v>
+        <v>0.008434222834715836</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003079702144161603</v>
+        <v>0.00657995645260805</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.0268829130444066</v>
+        <v>0.01879161509115959</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003066850404825554</v>
+        <v>0.006587721437325451</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.004999999999999998</v>
+        <v>0.03033836222580505</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.002775694444444443</v>
+        <v>0.006593170549407838</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9458,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.002775694444444443</v>
+        <v>0.003656133577510024</v>
       </c>
       <c r="B70" t="n">
-        <v>0.004999999999999998</v>
+        <v>0.006585979924461388</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.006354199095360308</v>
+        <v>0.009585695534642218</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003882850794235938</v>
+        <v>0.008186698724868857</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01689472324187188</v>
+        <v>0.009339052444693213</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003849627680202004</v>
+        <v>0.008224945565760063</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.03165490138476956</v>
+        <v>0.02094152111575304</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003833563006031943</v>
+        <v>0.008234651796656813</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.006354199095360308</v>
+        <v>0.0328235120613749</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003882850794235938</v>
+        <v>0.008241463186759798</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.007412677882421767</v>
+        <v>0.01097127399268574</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004659420953083125</v>
+        <v>0.00982403846984263</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.02000165300249773</v>
+        <v>0.01022465846956212</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004619553216242404</v>
+        <v>0.009869934678912074</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.03526788601609326</v>
+        <v>0.02215946797877194</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004600275607238332</v>
+        <v>0.009881582155988175</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.007412677882421767</v>
+        <v>0.03446173165162719</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004659420953083125</v>
+        <v>0.009889755824111758</v>
       </c>
     </row>
     <row r="72">
@@ -9528,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.008110530598628402</v>
+        <v>0.01383055784136891</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005435991111930313</v>
+        <v>0.01096840073253007</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.02212513381163284</v>
+        <v>0.01078414771675538</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005389478752282805</v>
+        <v>0.01151492379206409</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.03921685252555845</v>
+        <v>0.02386395482527212</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005706631700329735</v>
+        <v>0.01152851251531954</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.008110530598628402</v>
+        <v>0.03649834312319461</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005435991111930313</v>
+        <v>0.01153804846146372</v>
       </c>
     </row>
     <row r="73">
@@ -9574,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.009039078373144493</v>
+        <v>0.0143324673428239</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.0062125612707775</v>
+        <v>0.01309871795979017</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.02367549415628545</v>
+        <v>0.01146031254146931</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006159404288323206</v>
+        <v>0.01249062499999999</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.03941416486688959</v>
+        <v>0.0253385825335139</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006133700809651109</v>
+        <v>0.01287693298969071</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.009039078373144493</v>
+        <v>0.03921685252555845</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.0062125612707775</v>
+        <v>0.01314802631578947</v>
       </c>
     </row>
     <row r="74">
@@ -9611,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.009889642335134348</v>
+        <v>0.01445228287982046</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006989131429624687</v>
+        <v>0.01473605770476394</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.0253385825335139</v>
+        <v>0.01255347465631201</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006835001240852435</v>
+        <v>0.01480490201836811</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.0410982608002059</v>
+        <v>0.02711881065287988</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006900413410857498</v>
+        <v>0.01482237323398226</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.009889642335134348</v>
+        <v>0.04150204156741033</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006989131429624687</v>
+        <v>0.01483463373616764</v>
       </c>
     </row>
     <row r="75">
@@ -9655,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01055354361376225</v>
+        <v>0.01553468833399718</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007765701588471875</v>
+        <v>0.01637339744973771</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.02620988901516419</v>
+        <v>0.01351597516527465</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007699255360404007</v>
+        <v>0.01644989113152013</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.04294793574759853</v>
+        <v>0.02940726201622831</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007667126012063885</v>
+        <v>0.01646930359331363</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.01055354361376225</v>
+        <v>0.04463285339508183</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007765701588471875</v>
+        <v>0.0164829263735196</v>
       </c>
     </row>
     <row r="76">
@@ -9697,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01112210333819245</v>
+        <v>0.01857296549476522</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008542271747319063</v>
+        <v>0.01801073719471149</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.02753048706538982</v>
+        <v>0.01427815843624886</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008469180896444408</v>
+        <v>0.01809488024467214</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.04446325352212738</v>
+        <v>0.03080816263237782</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008433838613270274</v>
+        <v>0.01811623395264499</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.01112210333819245</v>
+        <v>0.0473261009197708</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008542271747319063</v>
+        <v>0.01813121901087155</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9734,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01146031254146931</v>
+        <v>0.01756039615153572</v>
       </c>
       <c r="G77" t="n">
-        <v>0.009088664529415244</v>
+        <v>0.01964807693968526</v>
       </c>
       <c r="J77" t="n">
-        <v>0.02812950747390408</v>
+        <v>0.0151292080929399</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009239106432484809</v>
+        <v>0.01973986935782415</v>
       </c>
       <c r="L77" t="n">
-        <v>0.04554427793685212</v>
+        <v>0.0329962801567408</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009200551214476663</v>
+        <v>0.01976316431197635</v>
       </c>
       <c r="N77" t="n">
-        <v>0.01146031254146931</v>
+        <v>0.05013692439005318</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009088664529415244</v>
+        <v>0.01977951164822352</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9774,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01203000558156463</v>
+        <v>0.01949026209371992</v>
       </c>
       <c r="G78" t="n">
-        <v>0.01009541206501344</v>
+        <v>0.02128541668465903</v>
       </c>
       <c r="J78" t="n">
-        <v>0.02900692065635471</v>
+        <v>0.01595830775905305</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01000903196852521</v>
+        <v>0.02138485847097616</v>
       </c>
       <c r="L78" t="n">
-        <v>0.04729107280483219</v>
+        <v>0.03454638224472983</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009967263815683051</v>
+        <v>0.02141009467130771</v>
       </c>
       <c r="N78" t="n">
-        <v>0.01203000558156463</v>
+        <v>0.0533204640545048</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01009541206501344</v>
+        <v>0.02142780428557547</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9816,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01236354232042979</v>
+        <v>0.01935584511072891</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01087198222386063</v>
+        <v>0.0229227564296328</v>
       </c>
       <c r="J79" t="n">
-        <v>0.03016269702838936</v>
+        <v>0.01675464105829366</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01077895750456561</v>
+        <v>0.02302984758412817</v>
       </c>
       <c r="L79" t="n">
-        <v>0.04900370193912768</v>
+        <v>0.03683323655175719</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01073397641688944</v>
+        <v>0.02305702503063908</v>
       </c>
       <c r="N79" t="n">
-        <v>0.01236354232042979</v>
+        <v>0.05633186016170161</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01087198222386063</v>
+        <v>0.02307609692292744</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9847,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01289168035513037</v>
+        <v>0.02015042699197396</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01164855238270781</v>
+        <v>0.02456009617460657</v>
       </c>
       <c r="J80" t="n">
-        <v>0.03109680700565567</v>
+        <v>0.01760739161436702</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01154888304060601</v>
+        <v>0.02467483669728019</v>
       </c>
       <c r="L80" t="n">
-        <v>0.05048222915279799</v>
+        <v>0.03813161073323532</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01150068901809583</v>
+        <v>0.02470395538997044</v>
       </c>
       <c r="N80" t="n">
-        <v>0.01289168035513037</v>
+        <v>0.05892625296021964</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01164855238270781</v>
+        <v>0.0247243895602794</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9884,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01331418660085387</v>
+        <v>0.02186728952686617</v>
       </c>
       <c r="G81" t="n">
-        <v>0.012425122541555</v>
+        <v>0.02619743591958034</v>
       </c>
       <c r="J81" t="n">
-        <v>0.03180922100380135</v>
+        <v>0.01810574305097841</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01231880857664641</v>
+        <v>0.0263198258104322</v>
       </c>
       <c r="L81" t="n">
-        <v>0.05162671825890297</v>
+        <v>0.03971627244457673</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01226740161930222</v>
+        <v>0.0263508857493018</v>
       </c>
       <c r="N81" t="n">
-        <v>0.01331418660085387</v>
+        <v>0.06125878269863477</v>
       </c>
       <c r="O81" t="n">
-        <v>0.012425122541555</v>
+        <v>0.02637268219763135</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9918,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01363082797278772</v>
+        <v>0.02149971450481673</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01320169270040219</v>
+        <v>0.02783477566455412</v>
       </c>
       <c r="J82" t="n">
-        <v>0.03279990943847413</v>
+        <v>0.01873887899183317</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01308873411268681</v>
+        <v>0.02796481492358421</v>
       </c>
       <c r="L82" t="n">
-        <v>0.05253723307050223</v>
+        <v>0.04126198934119385</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01303411422050861</v>
+        <v>0.02799781610863317</v>
       </c>
       <c r="N82" t="n">
-        <v>0.01363082797278772</v>
+        <v>0.06378458962552302</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01320169270040219</v>
+        <v>0.02802097483498331</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9949,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.0140413713861194</v>
+        <v>0.02404098371523684</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01397826285924937</v>
+        <v>0.02947211540952789</v>
       </c>
       <c r="J83" t="n">
-        <v>0.03396884272532166</v>
+        <v>0.01929598306063658</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01385865964872721</v>
+        <v>0.02960980403673622</v>
       </c>
       <c r="L83" t="n">
-        <v>0.05411383740065551</v>
+        <v>0.04284352907849903</v>
       </c>
       <c r="M83" t="n">
-        <v>0.013800826821715</v>
+        <v>0.02964474646796453</v>
       </c>
       <c r="N83" t="n">
-        <v>0.0140413713861194</v>
+        <v>0.06535881398946025</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01397826285924937</v>
+        <v>0.02966926747233527</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -9985,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01454558375603635</v>
+        <v>0.02348437894753762</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01475483301809656</v>
+        <v>0.03110945515450166</v>
       </c>
       <c r="J84" t="n">
-        <v>0.03481599127999166</v>
+        <v>0.01986623888109396</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01462858518476761</v>
+        <v>0.03125479314988824</v>
       </c>
       <c r="L84" t="n">
-        <v>0.05525659506242259</v>
+        <v>0.04373565931190476</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01456753942292138</v>
+        <v>0.03129167682729589</v>
       </c>
       <c r="N84" t="n">
-        <v>0.01454558375603635</v>
+        <v>0.06743659603902236</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01475483301809656</v>
+        <v>0.03131756010968723</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10025,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01474323199772602</v>
+        <v>0.02383375810365801</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01553140317694375</v>
+        <v>0.03274679489947543</v>
       </c>
       <c r="J85" t="n">
-        <v>0.03544132551813176</v>
+        <v>0.0202388300769106</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01539851072080801</v>
+        <v>0.03289978226304025</v>
       </c>
       <c r="L85" t="n">
-        <v>0.05646556986886314</v>
+        <v>0.0447131476968235</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01533425202412777</v>
+        <v>0.03293860718662725</v>
       </c>
       <c r="N85" t="n">
-        <v>0.01474323199772602</v>
+        <v>0.06917307602278544</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01553140317694375</v>
+        <v>0.03296585274703919</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10067,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01513408302637589</v>
+        <v>0.0241600350820092</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01630797333579094</v>
+        <v>0.03438413464444921</v>
       </c>
       <c r="J86" t="n">
-        <v>0.03624481585538969</v>
+        <v>0.02052387610156785</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01616843625684842</v>
+        <v>0.03454477137619226</v>
       </c>
       <c r="L86" t="n">
-        <v>0.05754082563303681</v>
+        <v>0.04517139641892429</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01610096462533416</v>
+        <v>0.03458553754595862</v>
       </c>
       <c r="N86" t="n">
-        <v>0.01513408302637589</v>
+        <v>0.06973736056312135</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01630797333579094</v>
+        <v>0.03461414538439115</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10098,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01551790375717343</v>
+        <v>0.02547584490478051</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01708454349463813</v>
+        <v>0.03602147438942297</v>
       </c>
       <c r="J87" t="n">
-        <v>0.03722643270741313</v>
+        <v>0.02089413865850832</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01693836179288882</v>
+        <v>0.03618976048934427</v>
       </c>
       <c r="L87" t="n">
-        <v>0.0590824261680033</v>
+        <v>0.045973342197623</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01686767722654055</v>
+        <v>0.03623246790528998</v>
       </c>
       <c r="N87" t="n">
-        <v>0.01551790375717343</v>
+        <v>0.07087362253904045</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01708454349463813</v>
+        <v>0.03626243802174311</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10133,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.0158944611053061</v>
+        <v>0.02477902251032223</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01786111365348531</v>
+        <v>0.03765881413439674</v>
       </c>
       <c r="J88" t="n">
-        <v>0.03778614648984976</v>
+        <v>0.02105533323532346</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01770828732892922</v>
+        <v>0.03783474960249628</v>
       </c>
       <c r="L88" t="n">
-        <v>0.05979043528682232</v>
+        <v>0.04615603362979898</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01763438982774694</v>
+        <v>0.03787939826462133</v>
       </c>
       <c r="N88" t="n">
-        <v>0.0158944611053061</v>
+        <v>0.07148095120276132</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01786111365348531</v>
+        <v>0.03791073065909507</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10167,4578 +10193,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.01626352198596132</v>
+        <v>0.02606740283698467</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0186376838123325</v>
+        <v>0.03929615387937052</v>
       </c>
       <c r="J89" t="n">
-        <v>0.0385239276183473</v>
+        <v>0.02140564055134925</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01847821286496962</v>
+        <v>0.0394797387156483</v>
       </c>
       <c r="L89" t="n">
-        <v>0.06096491680255367</v>
+        <v>0.04721543405536796</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01840110242895333</v>
+        <v>0.0395263286239527</v>
       </c>
       <c r="N89" t="n">
-        <v>0.01626352198596132</v>
+        <v>0.07285308344702901</v>
       </c>
       <c r="O89" t="n">
-        <v>0.0186376838123325</v>
+        <v>0.03955902329644703</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.01672485331432658</v>
+        <v>0.02533882082311807</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01941425397117969</v>
+        <v>0.04093349362434429</v>
       </c>
       <c r="J90" t="n">
-        <v>0.03943974650855336</v>
+        <v>0.02144324132592162</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01924813840101002</v>
+        <v>0.04112472782880031</v>
       </c>
       <c r="L90" t="n">
-        <v>0.06180593452825695</v>
+        <v>0.04744750681424542</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01916781503015971</v>
+        <v>0.04117325898328407</v>
       </c>
       <c r="N90" t="n">
-        <v>0.01672485331432658</v>
+        <v>0.07328375616458882</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01941425397117969</v>
+        <v>0.04120731593379899</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.01717822200558931</v>
+        <v>0.02659111140707279</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02019082413002687</v>
+        <v>0.04257083336931806</v>
       </c>
       <c r="J91" t="n">
-        <v>0.03973357357611568</v>
+        <v>0.02186631627837653</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02001806393705042</v>
+        <v>0.04276971694195233</v>
       </c>
       <c r="L91" t="n">
-        <v>0.06321355227699188</v>
+        <v>0.04804821524634703</v>
       </c>
       <c r="M91" t="n">
-        <v>0.0199345276313661</v>
+        <v>0.04282018934261542</v>
       </c>
       <c r="N91" t="n">
-        <v>0.01717822200558931</v>
+        <v>0.07446670624818574</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02019082413002687</v>
+        <v>0.04285560857115095</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.017323394974937</v>
+        <v>0.02682210952719907</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02096739428887406</v>
+        <v>0.04420817311429184</v>
       </c>
       <c r="J92" t="n">
-        <v>0.04040537923668197</v>
+        <v>0.0218730461280499</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02078798947309082</v>
+        <v>0.04441470605510434</v>
       </c>
       <c r="L92" t="n">
-        <v>0.06398783386181811</v>
+        <v>0.04851352269158835</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02070124023257249</v>
+        <v>0.04446711970194678</v>
       </c>
       <c r="N92" t="n">
-        <v>0.017323394974937</v>
+        <v>0.074995670590565</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02096739428887406</v>
+        <v>0.04450390120850291</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.01786013913755709</v>
+        <v>0.02502965012184724</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02174396444772125</v>
+        <v>0.0458455128592656</v>
       </c>
       <c r="J93" t="n">
-        <v>0.04145513390589989</v>
+        <v>0.02216161159427774</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02155791500913122</v>
+        <v>0.04605969516825634</v>
       </c>
       <c r="L93" t="n">
-        <v>0.06482884309579551</v>
+        <v>0.04873939248988501</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02146795283377888</v>
+        <v>0.04611405006127815</v>
       </c>
       <c r="N93" t="n">
-        <v>0.01786013913755709</v>
+        <v>0.0759643860844717</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02174396444772125</v>
+        <v>0.04615219384585487</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.01818822140863706</v>
+        <v>0.02621156812936754</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02252053460656844</v>
+        <v>0.04748285260423937</v>
       </c>
       <c r="J94" t="n">
-        <v>0.04168280799941712</v>
+        <v>0.02233019339639596</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02232784054517162</v>
+        <v>0.04770468428140836</v>
       </c>
       <c r="L94" t="n">
-        <v>0.06583664379198362</v>
+        <v>0.04932178798115261</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02223466543498527</v>
+        <v>0.04776098042060952</v>
       </c>
       <c r="N94" t="n">
-        <v>0.01818822140863706</v>
+        <v>0.076066589622651</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02252053460656844</v>
+        <v>0.04780048648320683</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.01850740870336434</v>
+        <v>0.02536569848811029</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02329710476541562</v>
+        <v>0.04912019234921314</v>
       </c>
       <c r="J95" t="n">
-        <v>0.04278837193288135</v>
+        <v>0.02257697225374053</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02309776608121202</v>
+        <v>0.04934967339456037</v>
       </c>
       <c r="L95" t="n">
-        <v>0.06691129976344218</v>
+        <v>0.04965667250530675</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02300137803619166</v>
+        <v>0.04940791077994088</v>
       </c>
       <c r="N95" t="n">
-        <v>0.01850740870336434</v>
+        <v>0.076596018097848</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02329710476541562</v>
+        <v>0.04944877912055879</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.01861746793692641</v>
+        <v>0.02648987613642578</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02407367492426281</v>
+        <v>0.05075753209418692</v>
       </c>
       <c r="J96" t="n">
-        <v>0.04337179612194028</v>
+        <v>0.02250012888564736</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02386769161725242</v>
+        <v>0.05099466250771239</v>
       </c>
       <c r="L96" t="n">
-        <v>0.06775287482323095</v>
+        <v>0.04964000940226301</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02376809063739805</v>
+        <v>0.05105484113927224</v>
       </c>
       <c r="N96" t="n">
-        <v>0.01861746793692641</v>
+        <v>0.07714640840280779</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02407367492426281</v>
+        <v>0.05109707175791075</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.01911816602451073</v>
+        <v>0.02558193601266431</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02485024508311</v>
+        <v>0.05239487183916069</v>
       </c>
       <c r="J97" t="n">
-        <v>0.04363305098224157</v>
+        <v>0.02279784401145245</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02463761715329282</v>
+        <v>0.0526396516208644</v>
       </c>
       <c r="L97" t="n">
-        <v>0.0682614327844096</v>
+        <v>0.04986776201193699</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02453480323860444</v>
+        <v>0.0527017714986036</v>
       </c>
       <c r="N97" t="n">
-        <v>0.01911816602451073</v>
+        <v>0.07761149743027562</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02485024508311</v>
+        <v>0.05274536439526271</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.01920926988130475</v>
+        <v>0.02766111568273782</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02562681524195719</v>
+        <v>0.05403221158413446</v>
       </c>
       <c r="J98" t="n">
-        <v>0.04397210692943293</v>
+        <v>0.02286829835049173</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02540754268933322</v>
+        <v>0.05428464073401642</v>
       </c>
       <c r="L98" t="n">
-        <v>0.06933703746003778</v>
+        <v>0.05003589367424432</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02530151583981082</v>
+        <v>0.05434870185793497</v>
       </c>
       <c r="N98" t="n">
-        <v>0.01920926988130475</v>
+        <v>0.07758502207299661</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02562681524195719</v>
+        <v>0.05439365703261467</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.01959054642249594</v>
+        <v>0.02766104220231162</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02640338540080438</v>
+        <v>0.05566955132910823</v>
       </c>
       <c r="J99" t="n">
-        <v>0.04488893437916205</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02617746822537362</v>
+        <v>0.05592962984716842</v>
       </c>
       <c r="L99" t="n">
-        <v>0.07007975266317534</v>
+        <v>0.05067716506702777</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02606822844101721</v>
+        <v>0.05599563221726633</v>
       </c>
       <c r="N99" t="n">
-        <v>0.01959054642249594</v>
+        <v>0.07843370505111691</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02640338540080438</v>
+        <v>0.05604194966996662</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.01996176256327174</v>
+        <v>0.02765291159319447</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02717995555965156</v>
+        <v>0.057306891074082</v>
       </c>
       <c r="J100" t="n">
-        <v>0.04508350374707656</v>
+        <v>0.02282039257940952</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02694739376141403</v>
+        <v>0.05757461896032044</v>
       </c>
       <c r="L100" t="n">
-        <v>0.07028964220688183</v>
+        <v>0.05037714751642142</v>
       </c>
       <c r="M100" t="n">
-        <v>0.0268349410422236</v>
+        <v>0.05764256257659769</v>
       </c>
       <c r="N100" t="n">
-        <v>0.01996176256327174</v>
+        <v>0.07843232577517839</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02717995555965156</v>
+        <v>0.05769024230731859</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.0201226852188196</v>
+        <v>0.02662682349252665</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02795652571849875</v>
+        <v>0.05894423081905577</v>
       </c>
       <c r="J101" t="n">
-        <v>0.04565578544882426</v>
+        <v>0.02290998440513993</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02771731929745443</v>
+        <v>0.05921960807347244</v>
       </c>
       <c r="L101" t="n">
-        <v>0.07146676990421696</v>
+        <v>0.05046066570563712</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02760165364342999</v>
+        <v>0.05928949293592906</v>
       </c>
       <c r="N101" t="n">
-        <v>0.0201226852188196</v>
+        <v>0.0782146724313485</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02795652571849875</v>
+        <v>0.05933853494467054</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02027308130432701</v>
+        <v>0.02658395632964632</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02873309587734594</v>
+        <v>0.06058157056402955</v>
       </c>
       <c r="J102" t="n">
-        <v>0.04620574990005274</v>
+        <v>0.02288481575934478</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02848724483349483</v>
+        <v>0.06086459718662446</v>
       </c>
       <c r="L102" t="n">
-        <v>0.0723111995682405</v>
+        <v>0.05021105395517975</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02836836624463638</v>
+        <v>0.06093642329526042</v>
       </c>
       <c r="N102" t="n">
-        <v>0.02027308130432701</v>
+        <v>0.078244528685392</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02873309587734594</v>
+        <v>0.06098682758202251</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02071271773498143</v>
+        <v>0.02652545115447977</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02950966603619312</v>
+        <v>0.06221891030900331</v>
       </c>
       <c r="J103" t="n">
-        <v>0.04653336751640974</v>
+        <v>0.02284584545539919</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02925717036953523</v>
+        <v>0.06250958629977647</v>
       </c>
       <c r="L103" t="n">
-        <v>0.07242299501201216</v>
+        <v>0.05053044864241343</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02913507884584277</v>
+        <v>0.06258335365459178</v>
       </c>
       <c r="N103" t="n">
-        <v>0.02071271773498143</v>
+        <v>0.07752589446463576</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02950966603619312</v>
+        <v>0.06263512021937447</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02094136142597029</v>
+        <v>0.02645244901695334</v>
       </c>
       <c r="G104" t="n">
-        <v>0.03028623619504031</v>
+        <v>0.06385625005397709</v>
       </c>
       <c r="J104" t="n">
-        <v>0.0470386087135429</v>
+        <v>0.02259403230667827</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03002709590557563</v>
+        <v>0.06415457541292849</v>
       </c>
       <c r="L104" t="n">
-        <v>0.07340222004859159</v>
+        <v>0.05002097720361343</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02990179144704915</v>
+        <v>0.06423028401392314</v>
       </c>
       <c r="N104" t="n">
-        <v>0.02094136142597029</v>
+        <v>0.07756207060722098</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03028623619504031</v>
+        <v>0.06428341285672642</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02095877929248106</v>
+        <v>0.02736609096699334</v>
       </c>
       <c r="G105" t="n">
-        <v>0.0310628063538875</v>
+        <v>0.06549358979895085</v>
       </c>
       <c r="J105" t="n">
-        <v>0.04722144390709995</v>
+        <v>0.02273033512655707</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03079702144161603</v>
+        <v>0.0657995645260805</v>
       </c>
       <c r="L105" t="n">
-        <v>0.07374893849103847</v>
+        <v>0.05018476707505509</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03066850404825554</v>
+        <v>0.0658772143732545</v>
       </c>
       <c r="N105" t="n">
-        <v>0.02095877929248106</v>
+        <v>0.07755635795128901</v>
       </c>
       <c r="O105" t="n">
-        <v>0.0310628063538875</v>
+        <v>0.06593170549407838</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02116473824970123</v>
+        <v>0.02726751805452607</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03183937651273469</v>
+        <v>0.06713092954392463</v>
       </c>
       <c r="J106" t="n">
-        <v>0.04788184351272859</v>
+        <v>0.02255571272841073</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03156694697765643</v>
+        <v>0.0674445536392325</v>
       </c>
       <c r="L106" t="n">
-        <v>0.07456321415241263</v>
+        <v>0.04962394569301365</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03143521664946194</v>
+        <v>0.06752414473258588</v>
       </c>
       <c r="N106" t="n">
-        <v>0.02116473824970123</v>
+        <v>0.07691205733498124</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03183937651273469</v>
+        <v>0.06757999813143034</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02145900521281821</v>
+        <v>0.02615787132947783</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03261594667158187</v>
+        <v>0.06876826928889841</v>
       </c>
       <c r="J107" t="n">
-        <v>0.04791977794607641</v>
+        <v>0.02257112392561432</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03233687251369683</v>
+        <v>0.06908954275238452</v>
       </c>
       <c r="L107" t="n">
-        <v>0.0745451108457737</v>
+        <v>0.04974064049376445</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03220192925066832</v>
+        <v>0.06917107509191724</v>
       </c>
       <c r="N107" t="n">
-        <v>0.02145900521281821</v>
+        <v>0.07703246959643878</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03261594667158187</v>
+        <v>0.0692282907687823</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02174134709701947</v>
+        <v>0.02503829184177496</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03339251683042906</v>
+        <v>0.07040560903387218</v>
       </c>
       <c r="J108" t="n">
-        <v>0.0482352176227912</v>
+        <v>0.02247752753154296</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03310679804973723</v>
+        <v>0.07073453186553653</v>
       </c>
       <c r="L108" t="n">
-        <v>0.07479469238418124</v>
+        <v>0.04933697891358277</v>
       </c>
       <c r="M108" t="n">
-        <v>0.0329686418518747</v>
+        <v>0.07081800545124858</v>
       </c>
       <c r="N108" t="n">
-        <v>0.02174134709701947</v>
+        <v>0.07662089557380308</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03339251683042906</v>
+        <v>0.07087658340613427</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.0219115308174925</v>
+        <v>0.02490992064134377</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03416908698927625</v>
+        <v>0.07204294877884594</v>
       </c>
       <c r="J109" t="n">
-        <v>0.0485281329585206</v>
+        <v>0.02237588235957175</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03387672358577763</v>
+        <v>0.07237952097868855</v>
       </c>
       <c r="L109" t="n">
-        <v>0.07561202258069516</v>
+        <v>0.04951508838874394</v>
       </c>
       <c r="M109" t="n">
-        <v>0.0337353544530811</v>
+        <v>0.07246493581057996</v>
       </c>
       <c r="N109" t="n">
-        <v>0.0219115308174925</v>
+        <v>0.07598063610521549</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03416908698927625</v>
+        <v>0.07252487604348622</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02196932328942472</v>
+        <v>0.02577389877811057</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03494565714812344</v>
+        <v>0.07368028852381972</v>
       </c>
       <c r="J110" t="n">
-        <v>0.04869849436891235</v>
+        <v>0.02206714722307576</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03464664912181804</v>
+        <v>0.07402451009184056</v>
       </c>
       <c r="L110" t="n">
-        <v>0.07559716524837518</v>
+        <v>0.04907709635552326</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03450206705428749</v>
+        <v>0.07411186616991132</v>
       </c>
       <c r="N110" t="n">
-        <v>0.02196932328942472</v>
+        <v>0.07591499202881724</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03494565714812344</v>
+        <v>0.07417316868083819</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02201449142800363</v>
+        <v>0.02563136730200163</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03572222730697062</v>
+        <v>0.07531762826879349</v>
       </c>
       <c r="J111" t="n">
-        <v>0.04894627226961407</v>
+        <v>0.02215228093543013</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03541657465785843</v>
+        <v>0.07566949920499257</v>
       </c>
       <c r="L111" t="n">
-        <v>0.0761501842002808</v>
+        <v>0.04862513025019602</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03526877965549387</v>
+        <v>0.07575879652924267</v>
       </c>
       <c r="N111" t="n">
-        <v>0.02201449142800363</v>
+        <v>0.07582726418274965</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03572222730697062</v>
+        <v>0.07582146131819013</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02224680214841666</v>
+        <v>0.02648346726294334</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03649879746581781</v>
+        <v>0.07695496801376726</v>
       </c>
       <c r="J112" t="n">
-        <v>0.04937143707627348</v>
+        <v>0.02203224231000994</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03618650019389884</v>
+        <v>0.07731448831814458</v>
       </c>
       <c r="L112" t="n">
-        <v>0.07667114324947188</v>
+        <v>0.04876131750903751</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03603549225670026</v>
+        <v>0.07740572688857404</v>
       </c>
       <c r="N112" t="n">
-        <v>0.02224680214841666</v>
+        <v>0.07522075340515405</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03649879746581781</v>
+        <v>0.07746975395554211</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02236602236585127</v>
+        <v>0.02633133971086198</v>
       </c>
       <c r="G113" t="n">
-        <v>0.037275367624665</v>
+        <v>0.07859230775874104</v>
       </c>
       <c r="J113" t="n">
-        <v>0.04957395920453825</v>
+        <v>0.02170799016019029</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03695642572993924</v>
+        <v>0.0789594774312966</v>
       </c>
       <c r="L113" t="n">
-        <v>0.07686010620900813</v>
+        <v>0.04808778556832302</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03680220485790665</v>
+        <v>0.0790526572479054</v>
       </c>
       <c r="N113" t="n">
-        <v>0.02236602236585127</v>
+        <v>0.07449876053417176</v>
       </c>
       <c r="O113" t="n">
-        <v>0.037275367624665</v>
+        <v>0.07911804659289406</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02257191899549492</v>
+        <v>0.02517612569568384</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03805193778351219</v>
+        <v>0.08022964750371481</v>
       </c>
       <c r="J114" t="n">
-        <v>0.05005380907005608</v>
+        <v>0.02168048329934628</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03772635126597963</v>
+        <v>0.08060446654444861</v>
       </c>
       <c r="L114" t="n">
-        <v>0.0771171368919491</v>
+        <v>0.0477066618643279</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03756891745911304</v>
+        <v>0.08069958760723676</v>
       </c>
       <c r="N114" t="n">
-        <v>0.02257191899549492</v>
+        <v>0.0741645864079441</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03805193778351219</v>
+        <v>0.08076633923024602</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02256425895253507</v>
+        <v>0.02601896626733526</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03882850794235938</v>
+        <v>0.08186698724868857</v>
       </c>
       <c r="J115" t="n">
-        <v>0.04971095708847462</v>
+        <v>0.02155068054085302</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03849627680202004</v>
+        <v>0.08224945565760063</v>
       </c>
       <c r="L115" t="n">
-        <v>0.07724229911135466</v>
+        <v>0.04742007383332739</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03833563006031943</v>
+        <v>0.08234651796656814</v>
       </c>
       <c r="N115" t="n">
-        <v>0.02256425895253507</v>
+        <v>0.07422153186461233</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03882850794235938</v>
+        <v>0.08241463186759798</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02274280915215919</v>
+        <v>0.02486100247574252</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03960507810120656</v>
+        <v>0.08350432699366235</v>
       </c>
       <c r="J116" t="n">
-        <v>0.05034537367544165</v>
+        <v>0.02141954069808558</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03926620233806043</v>
+        <v>0.08389444477075263</v>
       </c>
       <c r="L116" t="n">
-        <v>0.07793565668028435</v>
+        <v>0.04733014891159687</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03910234266152581</v>
+        <v>0.08399344832589949</v>
       </c>
       <c r="N116" t="n">
-        <v>0.02274280915215919</v>
+        <v>0.07357289774231784</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03960507810120656</v>
+        <v>0.08406292450494994</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.02280733650955473</v>
+        <v>0.02470337537083198</v>
       </c>
       <c r="G117" t="n">
-        <v>0.04038164826005375</v>
+        <v>0.08514166673863612</v>
       </c>
       <c r="J117" t="n">
-        <v>0.05025702924660475</v>
+        <v>0.02138802258441908</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04003612787410084</v>
+        <v>0.08553943388390466</v>
       </c>
       <c r="L117" t="n">
-        <v>0.0777972734117981</v>
+        <v>0.04713901453541153</v>
       </c>
       <c r="M117" t="n">
-        <v>0.0398690552627322</v>
+        <v>0.08564037868523085</v>
       </c>
       <c r="N117" t="n">
-        <v>0.02280733650955473</v>
+        <v>0.07322198487920184</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04038164826005375</v>
+        <v>0.0857112171423019</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.02265760793990913</v>
+        <v>0.02354722600252991</v>
       </c>
       <c r="G118" t="n">
-        <v>0.04115821841890094</v>
+        <v>0.08677900648360989</v>
       </c>
       <c r="J118" t="n">
-        <v>0.05004589421761166</v>
+        <v>0.02125708501322862</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04080605341014124</v>
+        <v>0.08718442299705666</v>
       </c>
       <c r="L118" t="n">
-        <v>0.07812721311895543</v>
+        <v>0.04654879814104679</v>
       </c>
       <c r="M118" t="n">
-        <v>0.0406357678639386</v>
+        <v>0.08728730904456222</v>
       </c>
       <c r="N118" t="n">
-        <v>0.02265760793990913</v>
+        <v>0.07247209411340572</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04115821841890094</v>
+        <v>0.08735950977965386</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02279339035840988</v>
+        <v>0.02338630538434874</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04193478857774813</v>
+        <v>0.08841634622858367</v>
       </c>
       <c r="J119" t="n">
-        <v>0.0503119390041101</v>
+        <v>0.02112766723873749</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04157597894618164</v>
+        <v>0.08882941211020867</v>
       </c>
       <c r="L119" t="n">
-        <v>0.07812553961481611</v>
+        <v>0.04646162716477789</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04140248046514498</v>
+        <v>0.08893423940389357</v>
       </c>
       <c r="N119" t="n">
-        <v>0.02279339035840988</v>
+        <v>0.07172652628307086</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04193478857774813</v>
+        <v>0.08900780241700583</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.02292062508293861</v>
+        <v>0.0252028515071871</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04271135873659532</v>
+        <v>0.09005368597355744</v>
       </c>
       <c r="J120" t="n">
-        <v>0.05035513402174768</v>
+        <v>0.02098793115559752</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04234590448222204</v>
+        <v>0.09047440122336069</v>
       </c>
       <c r="L120" t="n">
-        <v>0.07819231671243976</v>
+        <v>0.04635963298182202</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04216919306635137</v>
+        <v>0.09058116976322494</v>
       </c>
       <c r="N120" t="n">
-        <v>0.02292062508293861</v>
+        <v>0.07156545354970123</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04271135873659532</v>
+        <v>0.09065609505435777</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.02282058339300892</v>
+        <v>0.02499940289878683</v>
       </c>
       <c r="G121" t="n">
-        <v>0.0434879288954425</v>
+        <v>0.0916910257185312</v>
       </c>
       <c r="J121" t="n">
-        <v>0.05067716506702777</v>
+        <v>0.02082937998982039</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04311583001826244</v>
+        <v>0.09211939033651269</v>
       </c>
       <c r="L121" t="n">
-        <v>0.07843370505111691</v>
+        <v>0.04581523231222867</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04293590566755776</v>
+        <v>0.09222810012255631</v>
       </c>
       <c r="N121" t="n">
-        <v>0.02282058339300892</v>
+        <v>0.07073930143839702</v>
       </c>
       <c r="O121" t="n">
-        <v>0.0434879288954425</v>
+        <v>0.09230438769170975</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.02271520292808217</v>
+        <v>0.02277967723620353</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04426449905428969</v>
+        <v>0.09332836546350498</v>
       </c>
       <c r="J122" t="n">
-        <v>0.05017596776309841</v>
+        <v>0.02065513766999411</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04388575555430284</v>
+        <v>0.09376437944966472</v>
       </c>
       <c r="L122" t="n">
-        <v>0.07772805382381798</v>
+        <v>0.045334888472889</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04370261826876415</v>
+        <v>0.09387503048188767</v>
       </c>
       <c r="N122" t="n">
-        <v>0.02271520292808217</v>
+        <v>0.07055615651139441</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04426449905428969</v>
+        <v>0.09395268032906169</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.02280100165217155</v>
+        <v>0.02354739219649274</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04504106921313687</v>
+        <v>0.09496570520847875</v>
       </c>
       <c r="J123" t="n">
-        <v>0.05036890477939063</v>
+        <v>0.02026832812470679</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04465568109034324</v>
+        <v>0.09540936856281672</v>
       </c>
       <c r="L123" t="n">
-        <v>0.07825964315514877</v>
+        <v>0.04492553290549162</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04446933086997053</v>
+        <v>0.09552196084121904</v>
       </c>
       <c r="N123" t="n">
-        <v>0.02280100165217155</v>
+        <v>0.06972677329392457</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04504106921313687</v>
+        <v>0.09560097296641366</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.02287827313836571</v>
+        <v>0.02230626545671011</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04581763937198406</v>
+        <v>0.09660304495345252</v>
       </c>
       <c r="J124" t="n">
-        <v>0.05035556289945567</v>
+        <v>0.02007207528254643</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04542560662638364</v>
+        <v>0.09705435767596873</v>
       </c>
       <c r="L124" t="n">
-        <v>0.07771713315262735</v>
+        <v>0.04459409705172496</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04523604347117692</v>
+        <v>0.09716889120055039</v>
       </c>
       <c r="N124" t="n">
-        <v>0.02287827313836571</v>
+        <v>0.06936190631121802</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04581763937198406</v>
+        <v>0.09724926560376561</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.02284731095975337</v>
+        <v>0.0220600146939112</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04659420953083124</v>
+        <v>0.09824038469842629</v>
       </c>
       <c r="J125" t="n">
-        <v>0.05033600741718891</v>
+        <v>0.01996950307210107</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04619553216242404</v>
+        <v>0.09869934678912075</v>
       </c>
       <c r="L125" t="n">
-        <v>0.07760492930567003</v>
+        <v>0.04414751235327752</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04600275607238331</v>
+        <v>0.09881582155988175</v>
       </c>
       <c r="N125" t="n">
-        <v>0.02284731095975337</v>
+        <v>0.06877231008850565</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04659420953083124</v>
+        <v>0.09889755824111758</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.02280840868942319</v>
+        <v>0.02381235758515159</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04737077968967844</v>
+        <v>0.09987772444340007</v>
       </c>
       <c r="J126" t="n">
-        <v>0.0503103036264857</v>
+        <v>0.01976373542195879</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04696545769846444</v>
+        <v>0.1003443359022728</v>
       </c>
       <c r="L126" t="n">
-        <v>0.07742743710369299</v>
+        <v>0.0438927102518378</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04676946867358971</v>
+        <v>0.1004627519192131</v>
       </c>
       <c r="N126" t="n">
-        <v>0.02280840868942319</v>
+        <v>0.06806873915101835</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04737077968967844</v>
+        <v>0.1005458508784695</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.0225618599004638</v>
+        <v>0.02256701180748688</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04814734984852562</v>
+        <v>0.1015150641883738</v>
       </c>
       <c r="J127" t="n">
-        <v>0.05037851682124136</v>
+        <v>0.01965789626070762</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04773538323450485</v>
+        <v>0.1019893250154248</v>
       </c>
       <c r="L127" t="n">
-        <v>0.0773890620361124</v>
+        <v>0.04313662218909436</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04753618127479609</v>
+        <v>0.1021096822785445</v>
       </c>
       <c r="N127" t="n">
-        <v>0.0225618599004638</v>
+        <v>0.06746194802398692</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04814734984852562</v>
+        <v>0.1021941435158215</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.02250795816596396</v>
+        <v>0.02332769503797263</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04892392000737281</v>
+        <v>0.1031524039333476</v>
       </c>
       <c r="J128" t="n">
-        <v>0.05054071229535134</v>
+        <v>0.01925510951693558</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04850530877054524</v>
+        <v>0.1036343141285768</v>
       </c>
       <c r="L128" t="n">
-        <v>0.07639420959234444</v>
+        <v>0.0429861796067357</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04830289387600248</v>
+        <v>0.1037566126378758</v>
       </c>
       <c r="N128" t="n">
-        <v>0.02250795816596396</v>
+        <v>0.06626269123264211</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04892392000737281</v>
+        <v>0.1038424361531735</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.02254699705901229</v>
+        <v>0.02209812495366446</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04970049016622</v>
+        <v>0.1047897436783214</v>
       </c>
       <c r="J129" t="n">
-        <v>0.04999695534271098</v>
+        <v>0.01925849911923078</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04927523430658565</v>
+        <v>0.1052793032417288</v>
       </c>
       <c r="L129" t="n">
-        <v>0.0758472852618054</v>
+        <v>0.04264831394645022</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04906960647720887</v>
+        <v>0.1054035429972072</v>
       </c>
       <c r="N129" t="n">
-        <v>0.02254699705901229</v>
+        <v>0.06538172330221498</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04970049016622</v>
+        <v>0.1054907287905254</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.02237927015269749</v>
+        <v>0.02187323516544926</v>
       </c>
       <c r="G130" t="n">
-        <v>0.05047706032506719</v>
+        <v>0.1064270834232952</v>
       </c>
       <c r="J130" t="n">
-        <v>0.05014731125721561</v>
+        <v>0.01887117245146917</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05004515984262605</v>
+        <v>0.1069242923548808</v>
       </c>
       <c r="L130" t="n">
-        <v>0.07575269453391131</v>
+        <v>0.04202995664992654</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04983631907841526</v>
+        <v>0.1070504733565386</v>
       </c>
       <c r="N130" t="n">
-        <v>0.02237927015269749</v>
+        <v>0.06542979875793598</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05047706032506719</v>
+        <v>0.1071390214278774</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.02240507102010825</v>
+        <v>0.02262797953348084</v>
       </c>
       <c r="G131" t="n">
-        <v>0.05125363048391438</v>
+        <v>0.1080644231682689</v>
       </c>
       <c r="J131" t="n">
-        <v>0.05019184533276055</v>
+        <v>0.01887831163176852</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05081508537866645</v>
+        <v>0.1085692814680328</v>
       </c>
       <c r="L131" t="n">
-        <v>0.07541484289807859</v>
+        <v>0.04170938963199938</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05060303167962164</v>
+        <v>0.1086974037158699</v>
       </c>
       <c r="N131" t="n">
-        <v>0.02240507102010825</v>
+        <v>0.06428375191009716</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05125363048391438</v>
+        <v>0.1087873140652293</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.02222469323433321</v>
+        <v>0.02236525924710361</v>
       </c>
       <c r="G132" t="n">
-        <v>0.05203020064276156</v>
+        <v>0.1097017629132427</v>
       </c>
       <c r="J132" t="n">
-        <v>0.05023062286324129</v>
+        <v>0.01866807796101205</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05158501091470685</v>
+        <v>0.1102142705811848</v>
       </c>
       <c r="L132" t="n">
-        <v>0.0746381358437232</v>
+        <v>0.04084937876765943</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05136974428082803</v>
+        <v>0.1103443340752013</v>
       </c>
       <c r="N132" t="n">
-        <v>0.02222469323433321</v>
+        <v>0.06407724979906432</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05203020064276156</v>
+        <v>0.1104356067025813</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.02233843036846107</v>
+        <v>0.02009039616211179</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05280677080160875</v>
+        <v>0.1113391026582165</v>
       </c>
       <c r="J133" t="n">
-        <v>0.05006370914255306</v>
+        <v>0.01834494334388874</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05235493645074725</v>
+        <v>0.1118592596943368</v>
       </c>
       <c r="L133" t="n">
-        <v>0.07402697886026155</v>
+        <v>0.04035923292747673</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05213645688203442</v>
+        <v>0.1119912644345327</v>
       </c>
       <c r="N133" t="n">
-        <v>0.02233843036846107</v>
+        <v>0.06272235067428866</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05280677080160875</v>
+        <v>0.1120838993399332</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.02224657599558053</v>
+        <v>0.01980871213429951</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05358334096045594</v>
+        <v>0.1129764424031902</v>
       </c>
       <c r="J134" t="n">
-        <v>0.04999116946459128</v>
+        <v>0.01811337968508754</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05312486198678765</v>
+        <v>0.1135042488074888</v>
       </c>
       <c r="L134" t="n">
-        <v>0.07348577743710977</v>
+        <v>0.03984887447225896</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05290316948324082</v>
+        <v>0.113638194793864</v>
       </c>
       <c r="N134" t="n">
-        <v>0.02224657599558053</v>
+        <v>0.06193444964178896</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05358334096045594</v>
+        <v>0.1137321919772852</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.0221494236887802</v>
+        <v>0.01952552901946093</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05435991111930313</v>
+        <v>0.114613782148164</v>
       </c>
       <c r="J135" t="n">
-        <v>0.04981306912325134</v>
+        <v>0.01797785888929736</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05389478752282805</v>
+        <v>0.1151492379206409</v>
       </c>
       <c r="L135" t="n">
-        <v>0.07241893706368402</v>
+        <v>0.03942822576281371</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05366988208444719</v>
+        <v>0.1152851251531954</v>
       </c>
       <c r="N135" t="n">
-        <v>0.0221494236887802</v>
+        <v>0.06122894180758348</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05435991111930313</v>
+        <v>0.1153804846146372</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.02184726702114881</v>
+        <v>0.01924616867339027</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05513648127815031</v>
+        <v>0.1162511218931378</v>
       </c>
       <c r="J136" t="n">
-        <v>0.04952947341242858</v>
+        <v>0.01754285286120719</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05466471305886846</v>
+        <v>0.1167942270337929</v>
       </c>
       <c r="L136" t="n">
-        <v>0.07183086322940047</v>
+        <v>0.03880720915994876</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05443659468565359</v>
+        <v>0.1169320555125267</v>
       </c>
       <c r="N136" t="n">
-        <v>0.02184726702114881</v>
+        <v>0.06072122227769089</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05513648127815031</v>
+        <v>0.1170287772519891</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.02174039956577505</v>
+        <v>0.02097595295188165</v>
       </c>
       <c r="G137" t="n">
-        <v>0.0559130514369975</v>
+        <v>0.1178884616381115</v>
       </c>
       <c r="J137" t="n">
-        <v>0.04994044762601832</v>
+        <v>0.01741283350550593</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05543463859490885</v>
+        <v>0.1184392161469449</v>
       </c>
       <c r="L137" t="n">
-        <v>0.07132596142367542</v>
+        <v>0.03839574702447171</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05520330728685998</v>
+        <v>0.1185789858718581</v>
       </c>
       <c r="N137" t="n">
-        <v>0.02174039956577505</v>
+        <v>0.05992668615812946</v>
       </c>
       <c r="O137" t="n">
-        <v>0.0559130514369975</v>
+        <v>0.1186770698893411</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.02172911489574757</v>
+        <v>0.02072020371072927</v>
       </c>
       <c r="G138" t="n">
-        <v>0.0566896215958447</v>
+        <v>0.1195258013830853</v>
       </c>
       <c r="J138" t="n">
-        <v>0.04974605705791599</v>
+        <v>0.01719227272688256</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05620456413094926</v>
+        <v>0.1200842052600969</v>
       </c>
       <c r="L138" t="n">
-        <v>0.07070863713592501</v>
+        <v>0.03820376171719028</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05597001988806637</v>
+        <v>0.1202259162311895</v>
       </c>
       <c r="N138" t="n">
-        <v>0.02172911489574757</v>
+        <v>0.05916072855491772</v>
       </c>
       <c r="O138" t="n">
-        <v>0.0566896215958447</v>
+        <v>0.120325362526693</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.02151370658415502</v>
+        <v>0.01948424280572729</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05746619175469187</v>
+        <v>0.1211631411280591</v>
       </c>
       <c r="J139" t="n">
-        <v>0.04924636700201687</v>
+        <v>0.01688564243002602</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05697448966698965</v>
+        <v>0.1217291943732489</v>
       </c>
       <c r="L139" t="n">
-        <v>0.06958329585556544</v>
+        <v>0.03764117559891203</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05673673248927276</v>
+        <v>0.1218728465905208</v>
       </c>
       <c r="N139" t="n">
-        <v>0.02151370658415502</v>
+        <v>0.05863874457407414</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05746619175469187</v>
+        <v>0.121973655164045</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.02159446820408616</v>
+        <v>0.02027339209266987</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05824276191353907</v>
+        <v>0.1228004808730329</v>
       </c>
       <c r="J140" t="n">
-        <v>0.04934144275221639</v>
+        <v>0.01669741451962525</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05774441520303006</v>
+        <v>0.1233741834864009</v>
       </c>
       <c r="L140" t="n">
-        <v>0.06945434307201293</v>
+        <v>0.0374179110304447</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05750344509047914</v>
+        <v>0.1235197769498522</v>
       </c>
       <c r="N140" t="n">
-        <v>0.02159446820408616</v>
+        <v>0.0577761293216173</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05824276191353907</v>
+        <v>0.123621947801397</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.02147169332862958</v>
+        <v>0.0200929734273512</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05901933207238624</v>
+        <v>0.1244378206180066</v>
       </c>
       <c r="J141" t="n">
-        <v>0.04953134960240987</v>
+        <v>0.01673206090036919</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05851434073907046</v>
+        <v>0.1250191725995529</v>
       </c>
       <c r="L141" t="n">
-        <v>0.06802618427468371</v>
+        <v>0.03654389037259598</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05827015769168553</v>
+        <v>0.1251667073091836</v>
       </c>
       <c r="N141" t="n">
-        <v>0.02147169332862958</v>
+        <v>0.05678827790356555</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05901933207238624</v>
+        <v>0.1252702404387489</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.021145675530874</v>
+        <v>0.01794830866556542</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05979590223123344</v>
+        <v>0.1260751603629804</v>
       </c>
       <c r="J142" t="n">
-        <v>0.04911615284649276</v>
+        <v>0.01649405347694678</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05928426627511086</v>
+        <v>0.126664161712705</v>
       </c>
       <c r="L142" t="n">
-        <v>0.0677032249529938</v>
+        <v>0.03652903598617349</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05903687029289192</v>
+        <v>0.1268136376685149</v>
       </c>
       <c r="N142" t="n">
-        <v>0.021145675530874</v>
+        <v>0.0562905854259374</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05979590223123344</v>
+        <v>0.1269185330761009</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.02101670838390811</v>
+        <v>0.01884471966310675</v>
       </c>
       <c r="G143" t="n">
-        <v>0.06057247239008062</v>
+        <v>0.1277125001079542</v>
       </c>
       <c r="J143" t="n">
-        <v>0.04909591777836031</v>
+        <v>0.01628786415404701</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06005419181115126</v>
+        <v>0.128309150825857</v>
       </c>
       <c r="L143" t="n">
-        <v>0.06678987059635966</v>
+        <v>0.03638327023198493</v>
       </c>
       <c r="M143" t="n">
-        <v>0.0598035828940983</v>
+        <v>0.1284605680278463</v>
       </c>
       <c r="N143" t="n">
-        <v>0.02101670838390811</v>
+        <v>0.05579844699475134</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06057247239008062</v>
+        <v>0.1285668257134528</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.02088508546082055</v>
+        <v>0.01778752827576932</v>
       </c>
       <c r="G144" t="n">
-        <v>0.06134904254892781</v>
+        <v>0.1293498398529279</v>
       </c>
       <c r="J144" t="n">
-        <v>0.04887070969190793</v>
+        <v>0.01641796483635875</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06082411734719166</v>
+        <v>0.129954139939009</v>
       </c>
       <c r="L144" t="n">
-        <v>0.06589052669419737</v>
+        <v>0.0362165154708379</v>
       </c>
       <c r="M144" t="n">
-        <v>0.0605702954953047</v>
+        <v>0.1301074983871776</v>
       </c>
       <c r="N144" t="n">
-        <v>0.02088508546082055</v>
+        <v>0.05582725771602576</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06134904254892781</v>
+        <v>0.1302151183508048</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02075110033470003</v>
+        <v>0.01977832122485548</v>
       </c>
       <c r="G145" t="n">
-        <v>0.062125612707775</v>
+        <v>0.1309871795979017</v>
       </c>
       <c r="J145" t="n">
-        <v>0.04854059388103099</v>
+        <v>0.01638882742857102</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06159404288323206</v>
+        <v>0.131599129052161</v>
       </c>
       <c r="L145" t="n">
-        <v>0.06570959873592308</v>
+        <v>0.0360386940635401</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06133700809651108</v>
+        <v>0.131754428746509</v>
       </c>
       <c r="N145" t="n">
-        <v>0.02075110033470003</v>
+        <v>0.05599241269577931</v>
       </c>
       <c r="O145" t="n">
-        <v>0.062125612707775</v>
+        <v>0.1318634109881568</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.02071504657863521</v>
+        <v>0.01978532412117534</v>
       </c>
       <c r="G146" t="n">
-        <v>0.06290218286662219</v>
+        <v>0.1326245193428755</v>
       </c>
       <c r="J146" t="n">
-        <v>0.04850563563962479</v>
+        <v>0.01629058165717999</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06236396841927246</v>
+        <v>0.133244118165313</v>
       </c>
       <c r="L146" t="n">
-        <v>0.06515149221095307</v>
+        <v>0.03573777480326906</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06210372069771748</v>
+        <v>0.1334013591058404</v>
       </c>
       <c r="N146" t="n">
-        <v>0.02071504657863521</v>
+        <v>0.05568423516156795</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06290218286662219</v>
+        <v>0.1335117036255087</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.02057721776571476</v>
+        <v>0.01979979173789531</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06367875302546938</v>
+        <v>0.1342618590878493</v>
       </c>
       <c r="J147" t="n">
-        <v>0.0483659002615848</v>
+        <v>0.01629925474001676</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06313389395531287</v>
+        <v>0.134889107278465</v>
       </c>
       <c r="L147" t="n">
-        <v>0.06402061260870345</v>
+        <v>0.03615504517559212</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06287043329892388</v>
+        <v>0.1350482894651718</v>
       </c>
       <c r="N147" t="n">
-        <v>0.02057721776571476</v>
+        <v>0.05610887781112228</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06367875302546938</v>
+        <v>0.1351599962628607</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02043790746902738</v>
+        <v>0.0178213330269902</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06445532318431656</v>
+        <v>0.135899198832823</v>
       </c>
       <c r="J148" t="n">
-        <v>0.04862145304080631</v>
+        <v>0.01641402289785765</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06390381949135326</v>
+        <v>0.136534096391617</v>
       </c>
       <c r="L148" t="n">
-        <v>0.06362136541859048</v>
+        <v>0.03578592404211195</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06363714590013025</v>
+        <v>0.1366952198245031</v>
       </c>
       <c r="N148" t="n">
-        <v>0.02043790746902738</v>
+        <v>0.05615472674865035</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06445532318431656</v>
+        <v>0.1368082889002127</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.02029740926166172</v>
+        <v>0.01884955694043483</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06523189334316375</v>
+        <v>0.1375365385777968</v>
       </c>
       <c r="J149" t="n">
-        <v>0.04837235927118472</v>
+        <v>0.01623455753677509</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06467374502739366</v>
+        <v>0.138179085504769</v>
       </c>
       <c r="L149" t="n">
-        <v>0.06314894898315543</v>
+        <v>0.03602968231137088</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06440385850133663</v>
+        <v>0.1383421501838345</v>
       </c>
       <c r="N149" t="n">
-        <v>0.02029740926166172</v>
+        <v>0.05602065074736989</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06523189334316375</v>
+        <v>0.1384565815375646</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.0201560167167065</v>
+        <v>0.01888407243020405</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06600846350201094</v>
+        <v>0.1391738783227706</v>
       </c>
       <c r="J150" t="n">
-        <v>0.04811868424661533</v>
+        <v>0.01636053006284151</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06544367056343407</v>
+        <v>0.139824074617921</v>
       </c>
       <c r="L150" t="n">
-        <v>0.06237390426323319</v>
+        <v>0.03598559089191103</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06517057110254303</v>
+        <v>0.1399890805431658</v>
       </c>
       <c r="N150" t="n">
-        <v>0.0201560167167065</v>
+        <v>0.05570551858049855</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06600846350201094</v>
+        <v>0.1401048741749166</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02011402340725035</v>
+        <v>0.01792448844827266</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06678503366085813</v>
+        <v>0.1408112180677444</v>
       </c>
       <c r="J151" t="n">
-        <v>0.04766049326099356</v>
+        <v>0.01649161188212935</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06621359609947447</v>
+        <v>0.1414690637310731</v>
       </c>
       <c r="L151" t="n">
-        <v>0.06209387383844006</v>
+        <v>0.03645292069227482</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06593728370374941</v>
+        <v>0.1416360109024972</v>
       </c>
       <c r="N151" t="n">
-        <v>0.02011402340725035</v>
+        <v>0.05570819902125412</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06678503366085813</v>
+        <v>0.1417531668122685</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.01987172290638199</v>
+        <v>0.01997041394661551</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06756160381970532</v>
+        <v>0.1424485578127181</v>
       </c>
       <c r="J152" t="n">
-        <v>0.04799785160821474</v>
+        <v>0.01652747440071099</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06698352163551487</v>
+        <v>0.1431140528442251</v>
       </c>
       <c r="L152" t="n">
-        <v>0.06160914749598784</v>
+        <v>0.03623094262100438</v>
       </c>
       <c r="M152" t="n">
-        <v>0.0667039963049558</v>
+        <v>0.1432829412618285</v>
       </c>
       <c r="N152" t="n">
-        <v>0.01987172290638199</v>
+        <v>0.05612756084285425</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06756160381970532</v>
+        <v>0.1434014594496205</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.01982940878719006</v>
+        <v>0.01802145787720741</v>
       </c>
       <c r="G153" t="n">
-        <v>0.0683381739785525</v>
+        <v>0.1440858975576919</v>
       </c>
       <c r="J153" t="n">
-        <v>0.04773082458217426</v>
+        <v>0.01656778902465893</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06775344717155526</v>
+        <v>0.1447590419573771</v>
       </c>
       <c r="L153" t="n">
-        <v>0.06112001502308795</v>
+        <v>0.03651892758664202</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06747070890616219</v>
+        <v>0.1449298716211599</v>
       </c>
       <c r="N153" t="n">
-        <v>0.01982940878719006</v>
+        <v>0.05626247281851676</v>
       </c>
       <c r="O153" t="n">
-        <v>0.0683381739785525</v>
+        <v>0.1450497520869724</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.01948737462276325</v>
+        <v>0.02007722919202319</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06911474413739969</v>
+        <v>0.1457232373026657</v>
       </c>
       <c r="J154" t="n">
-        <v>0.04735947747676747</v>
+        <v>0.01641222716004552</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06852337270759568</v>
+        <v>0.1464040310705291</v>
       </c>
       <c r="L154" t="n">
-        <v>0.06012676620695212</v>
+        <v>0.03671614649772995</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06823742150736858</v>
+        <v>0.1465768019804913</v>
       </c>
       <c r="N154" t="n">
-        <v>0.01948737462276325</v>
+        <v>0.05681180372145922</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06911474413739969</v>
+        <v>0.1466980447243244</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.01944591398619026</v>
+        <v>0.01913733684303767</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06989131429624687</v>
+        <v>0.1473605770476394</v>
       </c>
       <c r="J155" t="n">
-        <v>0.04748387558588968</v>
+        <v>0.01656046021294325</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06929329824363607</v>
+        <v>0.1480490201836811</v>
       </c>
       <c r="L155" t="n">
-        <v>0.05982969083479206</v>
+        <v>0.03642187026281044</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06900413410857498</v>
+        <v>0.1482237323398226</v>
       </c>
       <c r="N155" t="n">
-        <v>0.01944591398619026</v>
+        <v>0.05667442232489939</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06989131429624687</v>
+        <v>0.1483463373616764</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.01920532045055974</v>
+        <v>0.0182013897822257</v>
       </c>
       <c r="G156" t="n">
-        <v>0.07066788445509406</v>
+        <v>0.1489979167926132</v>
       </c>
       <c r="J156" t="n">
-        <v>0.04730408420343635</v>
+        <v>0.01671215958942454</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07006322377967647</v>
+        <v>0.1496940092968331</v>
       </c>
       <c r="L156" t="n">
-        <v>0.05912907869381934</v>
+        <v>0.03693536979042578</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06977084670978136</v>
+        <v>0.149870662699154</v>
       </c>
       <c r="N156" t="n">
-        <v>0.01920532045055974</v>
+        <v>0.05714919740205504</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07066788445509406</v>
+        <v>0.1499946299990283</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.01916588758896036</v>
+        <v>0.02027412081546855</v>
       </c>
       <c r="G157" t="n">
-        <v>0.07144445461394125</v>
+        <v>0.150635256537587</v>
       </c>
       <c r="J157" t="n">
-        <v>0.04702016862330277</v>
+        <v>0.01656699669556178</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07083314931571687</v>
+        <v>0.1513389984099851</v>
       </c>
       <c r="L157" t="n">
-        <v>0.05822521957124538</v>
+        <v>0.03655591598911817</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07053755931098775</v>
+        <v>0.1515175930584853</v>
       </c>
       <c r="N157" t="n">
-        <v>0.01916588758896036</v>
+        <v>0.05693499772614374</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07144445461394125</v>
+        <v>0.1516429226363803</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.01892790897448084</v>
+        <v>0.01840180594846856</v>
       </c>
       <c r="G158" t="n">
-        <v>0.07222102477278844</v>
+        <v>0.1522725962825608</v>
       </c>
       <c r="J158" t="n">
-        <v>0.04653219413938431</v>
+        <v>0.0166465237610304</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07160307485175728</v>
+        <v>0.1529839875231372</v>
       </c>
       <c r="L158" t="n">
-        <v>0.05761840325428214</v>
+        <v>0.03711874691181993</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07130427191219414</v>
+        <v>0.1531645234178167</v>
       </c>
       <c r="N158" t="n">
-        <v>0.01892790897448084</v>
+        <v>0.05717450601416207</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07222102477278844</v>
+        <v>0.1532912152737322</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.01899167818020982</v>
+        <v>0.0185861591182479</v>
       </c>
       <c r="G159" t="n">
-        <v>0.07299759493163563</v>
+        <v>0.1539099360275345</v>
       </c>
       <c r="J159" t="n">
-        <v>0.04634022604557636</v>
+        <v>0.01687796907201229</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07237300038779768</v>
+        <v>0.1546289766362892</v>
       </c>
       <c r="L159" t="n">
-        <v>0.05690891953014104</v>
+        <v>0.03739649851547686</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07207098451340052</v>
+        <v>0.1548114537771481</v>
       </c>
       <c r="N159" t="n">
-        <v>0.01899167818020982</v>
+        <v>0.05789006166849225</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07299759493163563</v>
+        <v>0.1549395079110842</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.01875748877923597</v>
+        <v>0.02081537552875466</v>
       </c>
       <c r="G160" t="n">
-        <v>0.0737741650904828</v>
+        <v>0.1555472757725083</v>
       </c>
       <c r="J160" t="n">
-        <v>0.04634432963577431</v>
+        <v>0.01705178051824424</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07314292592383807</v>
+        <v>0.1562739657494412</v>
       </c>
       <c r="L160" t="n">
-        <v>0.05649705818603379</v>
+        <v>0.03757086622047376</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07283769711460691</v>
+        <v>0.1564583841364794</v>
       </c>
       <c r="N160" t="n">
-        <v>0.01875748877923597</v>
+        <v>0.05795836225293011</v>
       </c>
       <c r="O160" t="n">
-        <v>0.0737741650904828</v>
+        <v>0.1565878005484362</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.01862047404245319</v>
+        <v>0.0210776503839369</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07455073524933001</v>
+        <v>0.1571846155174821</v>
       </c>
       <c r="J161" t="n">
-        <v>0.04614457020387344</v>
+        <v>0.0173580386421426</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07391285145987847</v>
+        <v>0.1579189548625932</v>
       </c>
       <c r="L161" t="n">
-        <v>0.05568310900917195</v>
+        <v>0.03821984051542621</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07360440971581331</v>
+        <v>0.1581053144958108</v>
       </c>
       <c r="N161" t="n">
-        <v>0.01862047404245319</v>
+        <v>0.05874525876123127</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07455073524933001</v>
+        <v>0.1582360931857881</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.018370358647138</v>
+        <v>0.02136117888774268</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07532730540817718</v>
+        <v>0.1588219552624558</v>
       </c>
       <c r="J162" t="n">
-        <v>0.04574101304376915</v>
+        <v>0.01738682398612372</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07468277699591887</v>
+        <v>0.1595639439757452</v>
       </c>
       <c r="L162" t="n">
-        <v>0.05556736178676724</v>
+        <v>0.03872141188894981</v>
       </c>
       <c r="M162" t="n">
-        <v>0.0743711223170197</v>
+        <v>0.1597522448551422</v>
       </c>
       <c r="N162" t="n">
-        <v>0.018370358647138</v>
+        <v>0.05941660218715183</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07532730540817718</v>
+        <v>0.1598843858231401</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.01830780435932562</v>
+        <v>0.01965415624412012</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07610387556702437</v>
+        <v>0.1604592950074296</v>
       </c>
       <c r="J163" t="n">
-        <v>0.04583372344935685</v>
+        <v>0.01782821709260395</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07545270253195926</v>
+        <v>0.1612089330888972</v>
       </c>
       <c r="L163" t="n">
-        <v>0.05485010630603121</v>
+        <v>0.03895357082966008</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07513783491822608</v>
+        <v>0.1613991752144735</v>
       </c>
       <c r="N163" t="n">
-        <v>0.01830780435932562</v>
+        <v>0.06033824352444733</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07610387556702437</v>
+        <v>0.161532678460492</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.01823383688702691</v>
+        <v>0.02194477765701726</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07688044572587156</v>
+        <v>0.1620966347524034</v>
       </c>
       <c r="J164" t="n">
-        <v>0.04542276671453177</v>
+        <v>0.01807229850399959</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07622262806799966</v>
+        <v>0.1628539222020492</v>
       </c>
       <c r="L164" t="n">
-        <v>0.05403163235417546</v>
+        <v>0.03989430782617262</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07590454751943247</v>
+        <v>0.1630461055738049</v>
       </c>
       <c r="N164" t="n">
-        <v>0.01823383688702691</v>
+        <v>0.06107603376687376</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07688044572587156</v>
+        <v>0.163180971097844</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.01794948193825276</v>
+        <v>0.02022123833038217</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07765701588471875</v>
+        <v>0.1637339744973771</v>
       </c>
       <c r="J165" t="n">
-        <v>0.04520820813318943</v>
+        <v>0.01820914876272699</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07699255360404007</v>
+        <v>0.1644989113152013</v>
       </c>
       <c r="L165" t="n">
-        <v>0.05361222971841173</v>
+        <v>0.03992161336710298</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07667126012063885</v>
+        <v>0.1646930359331363</v>
       </c>
       <c r="N165" t="n">
-        <v>0.01794948193825276</v>
+        <v>0.06229582390818672</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07765701588471875</v>
+        <v>0.164829263735196</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.01775576522101405</v>
+        <v>0.02047173346816294</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07843358604356594</v>
+        <v>0.1653713142423509</v>
       </c>
       <c r="J166" t="n">
-        <v>0.04479011299922508</v>
+        <v>0.01842884841120249</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07776247914008047</v>
+        <v>0.1661439004283533</v>
       </c>
       <c r="L166" t="n">
-        <v>0.05269218818595156</v>
+        <v>0.0409134779410667</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07743797272184524</v>
+        <v>0.1663399662924676</v>
       </c>
       <c r="N166" t="n">
-        <v>0.01775576522101405</v>
+        <v>0.06256346494214216</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07843358604356594</v>
+        <v>0.1664775563725479</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.01745371244332163</v>
+        <v>0.02268752989514604</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07921015620241312</v>
+        <v>0.1670086539873247</v>
       </c>
       <c r="J167" t="n">
-        <v>0.04506854660653414</v>
+        <v>0.01862147799184243</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07853240467612087</v>
+        <v>0.1677888895415053</v>
       </c>
       <c r="L167" t="n">
-        <v>0.05207179754400665</v>
+        <v>0.04124789203667936</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07820468532305162</v>
+        <v>0.167986896651799</v>
       </c>
       <c r="N167" t="n">
-        <v>0.01745371244332163</v>
+        <v>0.06364480786249577</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07921015620241312</v>
+        <v>0.1681258490098999</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.0173443493131864</v>
+        <v>0.02289101053351121</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07998672636126032</v>
+        <v>0.1686459937322985</v>
       </c>
       <c r="J168" t="n">
-        <v>0.04484357424901195</v>
+        <v>0.01889291675017241</v>
       </c>
       <c r="K168" t="n">
-        <v>0.07930233021216126</v>
+        <v>0.1694338786546573</v>
       </c>
       <c r="L168" t="n">
-        <v>0.0518513475797886</v>
+        <v>0.04142952799046595</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07897139792425802</v>
+        <v>0.1696338270111303</v>
       </c>
       <c r="N168" t="n">
-        <v>0.0173443493131864</v>
+        <v>0.06423913020696392</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07998672636126032</v>
+        <v>0.1697741416472518</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.0171287015386192</v>
+        <v>0.02308951272392816</v>
       </c>
       <c r="G169" t="n">
-        <v>0.0807632965201075</v>
+        <v>0.1702833334772722</v>
       </c>
       <c r="J169" t="n">
-        <v>0.04411526122055387</v>
+        <v>0.01905997930969354</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08007225574820168</v>
+        <v>0.1710788677678093</v>
       </c>
       <c r="L169" t="n">
-        <v>0.05063112808050896</v>
+        <v>0.04190037580131492</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07973811052546441</v>
+        <v>0.1712807573704617</v>
       </c>
       <c r="N169" t="n">
-        <v>0.0171287015386192</v>
+        <v>0.06481470857805627</v>
       </c>
       <c r="O169" t="n">
-        <v>0.0807632965201075</v>
+        <v>0.1714224342846038</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.01700779482763094</v>
+        <v>0.02128341095005747</v>
       </c>
       <c r="G170" t="n">
-        <v>0.08153986667895469</v>
+        <v>0.171920673222246</v>
       </c>
       <c r="J170" t="n">
-        <v>0.04428367281505527</v>
+        <v>0.0190230521808438</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08084218128424207</v>
+        <v>0.1727238568809613</v>
       </c>
       <c r="L170" t="n">
-        <v>0.05071142883337937</v>
+        <v>0.04196230345468938</v>
       </c>
       <c r="M170" t="n">
-        <v>0.0805048231266708</v>
+        <v>0.1729276877297931</v>
       </c>
       <c r="N170" t="n">
-        <v>0.01700779482763094</v>
+        <v>0.06507637320056003</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08153986667895469</v>
+        <v>0.1730707269219558</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.01668265488823246</v>
+        <v>0.02347307969555984</v>
       </c>
       <c r="G171" t="n">
-        <v>0.08231643683780188</v>
+        <v>0.1735580129672198</v>
       </c>
       <c r="J171" t="n">
-        <v>0.04374887432641147</v>
+        <v>0.01928245003867318</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08161210682028247</v>
+        <v>0.1743688459941133</v>
       </c>
       <c r="L171" t="n">
-        <v>0.04999253962561168</v>
+        <v>0.04251600915853423</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08127153572787719</v>
+        <v>0.1745746180891244</v>
       </c>
       <c r="N171" t="n">
-        <v>0.01668265488823246</v>
+        <v>0.06582520738373437</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08231643683780188</v>
+        <v>0.1747190195593077</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.01635430742843466</v>
+        <v>0.0226588934440959</v>
       </c>
       <c r="G172" t="n">
-        <v>0.08309300699664907</v>
+        <v>0.1751953527121936</v>
       </c>
       <c r="J172" t="n">
-        <v>0.04361093104851796</v>
+        <v>0.01953848755823163</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08238203235632287</v>
+        <v>0.1760138351072653</v>
       </c>
       <c r="L172" t="n">
-        <v>0.04877475024441724</v>
+        <v>0.04306219112079454</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08203824832908357</v>
+        <v>0.1762215484484558</v>
       </c>
       <c r="N172" t="n">
-        <v>0.01635430742843466</v>
+        <v>0.0663622944368385</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08309300699664907</v>
+        <v>0.1763673121966597</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.01612377815624839</v>
+        <v>0.02184122667932629</v>
       </c>
       <c r="G173" t="n">
-        <v>0.08386957715549626</v>
+        <v>0.1768326924571673</v>
       </c>
       <c r="J173" t="n">
-        <v>0.04316990827526995</v>
+        <v>0.01949147941456915</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08315195789236328</v>
+        <v>0.1776588242204173</v>
       </c>
       <c r="L173" t="n">
-        <v>0.04835835047700771</v>
+        <v>0.04310154754941517</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08280496093028997</v>
+        <v>0.1778684788077871</v>
       </c>
       <c r="N173" t="n">
-        <v>0.01612377815624839</v>
+        <v>0.06708871766913166</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08386957715549626</v>
+        <v>0.1780156048340117</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.01609209277968457</v>
+        <v>0.02402045388491171</v>
       </c>
       <c r="G174" t="n">
-        <v>0.08464614731434343</v>
+        <v>0.1784700322021411</v>
       </c>
       <c r="J174" t="n">
-        <v>0.04322555569270342</v>
+        <v>0.0196417402827357</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08392188342840368</v>
+        <v>0.1793038133335693</v>
       </c>
       <c r="L174" t="n">
-        <v>0.04784363011059484</v>
+        <v>0.04373477665234118</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08357167353149636</v>
+        <v>0.1795154091671185</v>
       </c>
       <c r="N174" t="n">
-        <v>0.01609209277968457</v>
+        <v>0.06750556038987282</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08464614731434343</v>
+        <v>0.1796638974713636</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.01586027700675401</v>
+        <v>0.02319694954451275</v>
       </c>
       <c r="G175" t="n">
-        <v>0.08542271747319063</v>
+        <v>0.1801073719471149</v>
       </c>
       <c r="J175" t="n">
-        <v>0.04314728899778969</v>
+        <v>0.01988958483778125</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08469180896444407</v>
+        <v>0.1809488024467214</v>
       </c>
       <c r="L175" t="n">
-        <v>0.04723087893239025</v>
+        <v>0.04376257663751754</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08433838613270274</v>
+        <v>0.1811623395264499</v>
       </c>
       <c r="N175" t="n">
-        <v>0.01586027700675401</v>
+        <v>0.06811390590832145</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08542271747319063</v>
+        <v>0.1813121901087155</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.01562935654546763</v>
+        <v>0.02237108814179008</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08619928763203781</v>
+        <v>0.1817447116920886</v>
       </c>
       <c r="J176" t="n">
-        <v>0.04241734470959077</v>
+        <v>0.02013532775475578</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08546173450048448</v>
+        <v>0.1825937915598734</v>
       </c>
       <c r="L176" t="n">
-        <v>0.04692038672960552</v>
+        <v>0.04428564571288923</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08510509873390913</v>
+        <v>0.1828092698857813</v>
       </c>
       <c r="N176" t="n">
-        <v>0.01562935654546763</v>
+        <v>0.06861483753373665</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08619928763203781</v>
+        <v>0.1829604827460675</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.01520035710383626</v>
+        <v>0.02454324416040438</v>
       </c>
       <c r="G177" t="n">
-        <v>0.086975857790885</v>
+        <v>0.1833820514370624</v>
       </c>
       <c r="J177" t="n">
-        <v>0.04243919791637174</v>
+        <v>0.02027928370870928</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08623166003652488</v>
+        <v>0.1842387806730254</v>
       </c>
       <c r="L177" t="n">
-        <v>0.04571244328945223</v>
+        <v>0.04440468208640125</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08587181133511552</v>
+        <v>0.1844562002451126</v>
       </c>
       <c r="N177" t="n">
-        <v>0.01520035710383626</v>
+        <v>0.06870943857537748</v>
       </c>
       <c r="O177" t="n">
-        <v>0.086975857790885</v>
+        <v>0.1846087753834195</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.01497430438987081</v>
+        <v>0.02471391425635047</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08775242794973219</v>
+        <v>0.1850193911820362</v>
       </c>
       <c r="J178" t="n">
-        <v>0.04181632370639762</v>
+        <v>0.0203217673746917</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08700158557256528</v>
+        <v>0.1858837697861774</v>
       </c>
       <c r="L178" t="n">
-        <v>0.04570733839914209</v>
+        <v>0.04502038396599856</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08663852393632192</v>
+        <v>0.186103130604444</v>
       </c>
       <c r="N178" t="n">
-        <v>0.01497430438987081</v>
+        <v>0.06939879234250318</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08775242794973219</v>
+        <v>0.1862570680207714</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.01495222411158216</v>
+        <v>0.0248920287199583</v>
       </c>
       <c r="G179" t="n">
-        <v>0.08852899810857938</v>
+        <v>0.18665673092701</v>
       </c>
       <c r="J179" t="n">
-        <v>0.04135219716793356</v>
+        <v>0.02056637522396573</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08777151110860568</v>
+        <v>0.1875287588993294</v>
       </c>
       <c r="L179" t="n">
-        <v>0.04500536184588666</v>
+        <v>0.04493890959978775</v>
       </c>
       <c r="M179" t="n">
-        <v>0.0874052365375283</v>
+        <v>0.1877500609637753</v>
       </c>
       <c r="N179" t="n">
-        <v>0.01495222411158216</v>
+        <v>0.0695906954465742</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08852899810857938</v>
+        <v>0.1879053606581234</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.01453514197698115</v>
+        <v>0.02407837041451409</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08930556826742657</v>
+        <v>0.1882940706719837</v>
       </c>
       <c r="J180" t="n">
-        <v>0.04075029338924463</v>
+        <v>0.02061943738461308</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08854143664464609</v>
+        <v>0.1891737480124814</v>
       </c>
       <c r="L180" t="n">
-        <v>0.04420680341689759</v>
+        <v>0.04547627255350536</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08817194913873468</v>
+        <v>0.1893969913231067</v>
       </c>
       <c r="N180" t="n">
-        <v>0.01453514197698115</v>
+        <v>0.07071157713779302</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08930556826742657</v>
+        <v>0.1895536532954754</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.01432408369407866</v>
+        <v>0.0242665063712153</v>
       </c>
       <c r="G181" t="n">
-        <v>0.09008213842627374</v>
+        <v>0.1899314104169575</v>
       </c>
       <c r="J181" t="n">
-        <v>0.04051408745859586</v>
+        <v>0.02087611169492117</v>
       </c>
       <c r="K181" t="n">
-        <v>0.08931136218068648</v>
+        <v>0.1908187371256334</v>
       </c>
       <c r="L181" t="n">
-        <v>0.04371195289938656</v>
+        <v>0.04572282831699573</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08893866173994107</v>
+        <v>0.1910439216824381</v>
       </c>
       <c r="N181" t="n">
-        <v>0.01432408369407866</v>
+        <v>0.0707480021452041</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09008213842627374</v>
+        <v>0.1912019459328273</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.01422007497088558</v>
+        <v>0.02445000362125943</v>
       </c>
       <c r="G182" t="n">
-        <v>0.09085870858512095</v>
+        <v>0.1915687501619313</v>
       </c>
       <c r="J182" t="n">
-        <v>0.03974705446425233</v>
+        <v>0.0209309925925327</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09008128771672688</v>
+        <v>0.1924637262387855</v>
       </c>
       <c r="L182" t="n">
-        <v>0.04292110008056521</v>
+        <v>0.04596658290921321</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08970537434114746</v>
+        <v>0.1926908520417694</v>
       </c>
       <c r="N182" t="n">
-        <v>0.01422007497088558</v>
+        <v>0.07168136112639784</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09085870858512095</v>
+        <v>0.1928502385701793</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.01412414151541277</v>
+        <v>0.02462242919584394</v>
       </c>
       <c r="G183" t="n">
-        <v>0.09163527874396812</v>
+        <v>0.193206089906905</v>
       </c>
       <c r="J183" t="n">
-        <v>0.03935266949447919</v>
+        <v>0.0211786745150904</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09085121325276728</v>
+        <v>0.1941087153519375</v>
       </c>
       <c r="L183" t="n">
-        <v>0.04243453474764503</v>
+        <v>0.04659554234911215</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09047208694235384</v>
+        <v>0.1943377824011008</v>
       </c>
       <c r="N183" t="n">
-        <v>0.01412414151541277</v>
+        <v>0.07239304473896446</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09163527874396812</v>
+        <v>0.1944985312075312</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.01383730903567112</v>
+        <v>0.0247773501261663</v>
       </c>
       <c r="G184" t="n">
-        <v>0.09241184890281531</v>
+        <v>0.1948434296518788</v>
       </c>
       <c r="J184" t="n">
-        <v>0.03853440763754143</v>
+        <v>0.02121375190023699</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09162113878880769</v>
+        <v>0.1957537044650895</v>
       </c>
       <c r="L184" t="n">
-        <v>0.04225254668783773</v>
+        <v>0.04689771265564685</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09123879954356023</v>
+        <v>0.1959847127604321</v>
       </c>
       <c r="N184" t="n">
-        <v>0.01383730903567112</v>
+        <v>0.07236444364049449</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09241184890281531</v>
+        <v>0.1961468238448832</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.0135606032396715</v>
+        <v>0.02590833344342401</v>
       </c>
       <c r="G185" t="n">
-        <v>0.09318841906166249</v>
+        <v>0.1964807693968526</v>
       </c>
       <c r="J185" t="n">
-        <v>0.0378957439817042</v>
+        <v>0.02133081918561515</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09239106432484809</v>
+        <v>0.1973986935782415</v>
       </c>
       <c r="L185" t="n">
-        <v>0.04097542568835499</v>
+        <v>0.04726109984777169</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09200551214476663</v>
+        <v>0.1976316431197635</v>
       </c>
       <c r="N185" t="n">
-        <v>0.0135606032396715</v>
+        <v>0.07277694848857824</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09318841906166249</v>
+        <v>0.1977951164822352</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.01349504983542477</v>
+        <v>0.02400894617881451</v>
       </c>
       <c r="G186" t="n">
-        <v>0.09396498922050969</v>
+        <v>0.1981181091418263</v>
       </c>
       <c r="J186" t="n">
-        <v>0.03694015361523253</v>
+        <v>0.02132447080886762</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09316098986088849</v>
+        <v>0.1990436826913935</v>
       </c>
       <c r="L186" t="n">
-        <v>0.04110346153640837</v>
+        <v>0.04707370994444085</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09277222474597302</v>
+        <v>0.1992785734790949</v>
       </c>
       <c r="N186" t="n">
-        <v>0.01349504983542477</v>
+        <v>0.07331194994080609</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09396498922050969</v>
+        <v>0.1994434091195871</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.01334167453094179</v>
+        <v>0.02508043319082004</v>
       </c>
       <c r="G187" t="n">
-        <v>0.09474155937935688</v>
+        <v>0.1997554488868001</v>
       </c>
       <c r="J187" t="n">
-        <v>0.03647111162639155</v>
+        <v>0.02139043354293048</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09393091539692888</v>
+        <v>0.2006886718045455</v>
       </c>
       <c r="L187" t="n">
-        <v>0.04023694401920946</v>
+        <v>0.0472246280004685</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09353893734717941</v>
+        <v>0.2009255038384263</v>
       </c>
       <c r="N187" t="n">
-        <v>0.01334167453094179</v>
+        <v>0.07375151080594972</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09474155937935688</v>
+        <v>0.2010917017569391</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.01320150303423348</v>
+        <v>0.0261478730869158</v>
       </c>
       <c r="G188" t="n">
-        <v>0.09551812953820406</v>
+        <v>0.2013927886317739</v>
       </c>
       <c r="J188" t="n">
-        <v>0.0355920931034463</v>
+        <v>0.02154701771671255</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09470084093296929</v>
+        <v>0.2023336609176976</v>
       </c>
       <c r="L188" t="n">
-        <v>0.03977616292397002</v>
+        <v>0.04765012919888401</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09430564994838579</v>
+        <v>0.2025724341977576</v>
       </c>
       <c r="N188" t="n">
-        <v>0.01320150303423348</v>
+        <v>0.07384617923020537</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09551812953820406</v>
+        <v>0.2027399943942911</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.01297556105331066</v>
+        <v>0.02621381508094005</v>
       </c>
       <c r="G189" t="n">
-        <v>0.09629469969705125</v>
+        <v>0.2030301283767477</v>
       </c>
       <c r="J189" t="n">
-        <v>0.03500657313466185</v>
+        <v>0.0216023561010341</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09547076646900969</v>
+        <v>0.2039786500308496</v>
       </c>
       <c r="L189" t="n">
-        <v>0.03922140803790158</v>
+        <v>0.04797287342439979</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09507236254959218</v>
+        <v>0.2042193645570889</v>
       </c>
       <c r="N189" t="n">
-        <v>0.01297556105331066</v>
+        <v>0.07423657789155291</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09629469969705125</v>
+        <v>0.204388287031643</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.01286487429618424</v>
+        <v>0.02527823549869709</v>
       </c>
       <c r="G190" t="n">
-        <v>0.09707126985589844</v>
+        <v>0.2046674681217215</v>
       </c>
       <c r="J190" t="n">
-        <v>0.03461802680830334</v>
+        <v>0.02165642880269415</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09624069200505009</v>
+        <v>0.2056236391440016</v>
       </c>
       <c r="L190" t="n">
-        <v>0.03867296914821583</v>
+        <v>0.04779281653754258</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09583907515079858</v>
+        <v>0.2058662949164203</v>
       </c>
       <c r="N190" t="n">
-        <v>0.01286487429618424</v>
+        <v>0.07412263830509414</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09707126985589844</v>
+        <v>0.2060365796689949</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.01297046847086508</v>
+        <v>0.02634111066599126</v>
       </c>
       <c r="G191" t="n">
-        <v>0.09784784001474563</v>
+        <v>0.2063048078666952</v>
       </c>
       <c r="J191" t="n">
-        <v>0.03352459605478345</v>
+        <v>0.02180921592849179</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09701061754109049</v>
+        <v>0.2072686282571536</v>
       </c>
       <c r="L191" t="n">
-        <v>0.03793113604212422</v>
+        <v>0.04810991439883916</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09660578775200496</v>
+        <v>0.2075132252757517</v>
       </c>
       <c r="N191" t="n">
-        <v>0.01297046847086508</v>
+        <v>0.07440429198593074</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09784784001474563</v>
+        <v>0.2076848723063469</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.01269336928536406</v>
+        <v>0.02440241690862689</v>
       </c>
       <c r="G192" t="n">
-        <v>0.0986244101735928</v>
+        <v>0.207942147611669</v>
       </c>
       <c r="J192" t="n">
-        <v>0.03276324942982417</v>
+        <v>0.02176069758522604</v>
       </c>
       <c r="K192" t="n">
-        <v>0.0977805430771309</v>
+        <v>0.2089136173703056</v>
       </c>
       <c r="L192" t="n">
-        <v>0.03769626370005047</v>
+        <v>0.0482241228688163</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09737250035321135</v>
+        <v>0.2091601556350831</v>
       </c>
       <c r="N192" t="n">
-        <v>0.01269336928536406</v>
+        <v>0.07408147044916463</v>
       </c>
       <c r="O192" t="n">
-        <v>0.0986244101735928</v>
+        <v>0.2093331649436989</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.01283460244769204</v>
+        <v>0.02446213055240827</v>
       </c>
       <c r="G193" t="n">
-        <v>0.09940098033244001</v>
+        <v>0.2095794873566428</v>
       </c>
       <c r="J193" t="n">
-        <v>0.03242097857921539</v>
+        <v>0.021910853879696</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09855046861317129</v>
+        <v>0.2105586064834576</v>
       </c>
       <c r="L193" t="n">
-        <v>0.03696843640398095</v>
+        <v>0.04823539780800074</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09813921295441774</v>
+        <v>0.2108070859944144</v>
       </c>
       <c r="N193" t="n">
-        <v>0.01283460244769204</v>
+        <v>0.07465410520989735</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09940098033244001</v>
+        <v>0.2109814575810508</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.01279504144612027</v>
+        <v>0.02552022792313974</v>
       </c>
       <c r="G194" t="n">
-        <v>0.1001775504912872</v>
+        <v>0.2112168271016165</v>
       </c>
       <c r="J194" t="n">
-        <v>0.0314056818330177</v>
+        <v>0.0219596649187007</v>
       </c>
       <c r="K194" t="n">
-        <v>0.09932039414921169</v>
+        <v>0.2122035955966096</v>
       </c>
       <c r="L194" t="n">
-        <v>0.036547255917043</v>
+        <v>0.04834369507691921</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09890592555562412</v>
+        <v>0.2124540163537458</v>
       </c>
       <c r="N194" t="n">
-        <v>0.01279504144612027</v>
+        <v>0.07502212778323092</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1001775504912872</v>
+        <v>0.2126297502184028</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.01256467916919123</v>
+        <v>0.02657668534662559</v>
       </c>
       <c r="G195" t="n">
-        <v>0.1009541206501344</v>
+        <v>0.2128541668465903</v>
       </c>
       <c r="J195" t="n">
-        <v>0.03042525752129152</v>
+        <v>0.02190711080903925</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1000903196852521</v>
+        <v>0.2138485847097616</v>
       </c>
       <c r="L195" t="n">
-        <v>0.03553231039773946</v>
+        <v>0.04834897053609857</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09967263815683051</v>
+        <v>0.2141009467130771</v>
       </c>
       <c r="N195" t="n">
-        <v>0.01256467916919123</v>
+        <v>0.07478546968426697</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1009541206501344</v>
+        <v>0.2142780428557547</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.01273687285129452</v>
+        <v>0.02563147914867013</v>
       </c>
       <c r="G196" t="n">
-        <v>0.1017306908089816</v>
+        <v>0.2144915065915641</v>
       </c>
       <c r="J196" t="n">
-        <v>0.02928760397409741</v>
+        <v>0.02185317165751063</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1008602452212925</v>
+        <v>0.2154935738229136</v>
       </c>
       <c r="L196" t="n">
-        <v>0.03562318800457298</v>
+        <v>0.04875118004606555</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1004393507580369</v>
+        <v>0.2157478770724085</v>
       </c>
       <c r="N196" t="n">
-        <v>0.01273687285129452</v>
+        <v>0.07544406242810731</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1017306908089816</v>
+        <v>0.2159263354931067</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.01261143745924422</v>
+        <v>0.02668458565507771</v>
       </c>
       <c r="G197" t="n">
-        <v>0.1025072609678288</v>
+        <v>0.2161288463365378</v>
       </c>
       <c r="J197" t="n">
-        <v>0.02840061952149586</v>
+        <v>0.02199782757091401</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1016301707573329</v>
+        <v>0.2171385629360657</v>
       </c>
       <c r="L197" t="n">
-        <v>0.03481947689604631</v>
+        <v>0.04885027946734685</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1012060633592433</v>
+        <v>0.2173948074317399</v>
       </c>
       <c r="N197" t="n">
-        <v>0.01261143745924422</v>
+        <v>0.07519783752985371</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1025072609678288</v>
+        <v>0.2175746281304587</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.0125881879598545</v>
+        <v>0.02473598119165263</v>
       </c>
       <c r="G198" t="n">
-        <v>0.1032838311266759</v>
+        <v>0.2177661860815116</v>
       </c>
       <c r="J198" t="n">
-        <v>0.02677220249354742</v>
+        <v>0.02204105865604834</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1024000962933733</v>
+        <v>0.2187835520492176</v>
       </c>
       <c r="L198" t="n">
-        <v>0.03402076523066211</v>
+        <v>0.04854622466046926</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1019727759604497</v>
+        <v>0.2190417377910713</v>
       </c>
       <c r="N198" t="n">
-        <v>0.0125881879598545</v>
+        <v>0.07554672650460792</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1032838311266759</v>
+        <v>0.2192229207678106</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.01246693931993948</v>
+        <v>0.0257856420841992</v>
       </c>
       <c r="G199" t="n">
-        <v>0.1040604012855231</v>
+        <v>0.2194035258264854</v>
       </c>
       <c r="J199" t="n">
-        <v>0.02581025122031255</v>
+        <v>0.02218284501971275</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1031700218294137</v>
+        <v>0.2204285411623697</v>
       </c>
       <c r="L199" t="n">
-        <v>0.03372664116692309</v>
+        <v>0.04863897148595961</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1027394885616561</v>
+        <v>0.2206886681504026</v>
       </c>
       <c r="N199" t="n">
-        <v>0.01246693931993948</v>
+        <v>0.0758906608674717</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1040604012855231</v>
+        <v>0.2208712134051626</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.01254750650631326</v>
+        <v>0.02483354465852176</v>
       </c>
       <c r="G200" t="n">
-        <v>0.1048369714443703</v>
+        <v>0.2210408655714592</v>
       </c>
       <c r="J200" t="n">
-        <v>0.02472266403185175</v>
+        <v>0.02212316676870628</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1039399473654541</v>
+        <v>0.2220735302755217</v>
       </c>
       <c r="L200" t="n">
-        <v>0.03363669286333215</v>
+        <v>0.0488284758043446</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1035062011628625</v>
+        <v>0.222335598509734</v>
       </c>
       <c r="N200" t="n">
-        <v>0.01254750650631326</v>
+        <v>0.07572957213354692</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1048369714443703</v>
+        <v>0.2225195060425146</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.01262970448578998</v>
+        <v>0.02587966524042461</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1056135416032175</v>
+        <v>0.2226782053164329</v>
       </c>
       <c r="J201" t="n">
-        <v>0.02371733925822561</v>
+        <v>0.02226200400982799</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1047098729014945</v>
+        <v>0.2237185193886737</v>
       </c>
       <c r="L201" t="n">
-        <v>0.03275050847839184</v>
+        <v>0.04881469347615092</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1042729137640688</v>
+        <v>0.2239825288690653</v>
       </c>
       <c r="N201" t="n">
-        <v>0.01262970448578998</v>
+        <v>0.07616339181793524</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1056135416032175</v>
+        <v>0.2241677986798665</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.01241334822518377</v>
+        <v>0.02592398015571205</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1063901117620647</v>
+        <v>0.2243155450614067</v>
       </c>
       <c r="J202" t="n">
-        <v>0.02220217522949458</v>
+        <v>0.02209933684987693</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1054797984375349</v>
+        <v>0.2253635085018257</v>
       </c>
       <c r="L202" t="n">
-        <v>0.03256767617060485</v>
+        <v>0.04929758036190549</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1050396263652752</v>
+        <v>0.2256294592283966</v>
       </c>
       <c r="N202" t="n">
-        <v>0.01241334822518377</v>
+        <v>0.07579205143573853</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1063901117620647</v>
+        <v>0.2258160913172185</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.01239825269130875</v>
+        <v>0.02496646573018842</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1071666819209119</v>
+        <v>0.2259528848063805</v>
       </c>
       <c r="J203" t="n">
-        <v>0.02078507027571913</v>
+        <v>0.02233514539565218</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1062497239735753</v>
+        <v>0.2270084976149777</v>
       </c>
       <c r="L203" t="n">
-        <v>0.03228778409847394</v>
+        <v>0.04937709232213497</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1058063389664816</v>
+        <v>0.227276389587728</v>
       </c>
       <c r="N203" t="n">
-        <v>0.01239825269130875</v>
+        <v>0.07601548250205842</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1071666819209119</v>
+        <v>0.2274643839545704</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.01248423285097904</v>
+        <v>0.02700709828965803</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1079432520797591</v>
+        <v>0.2275902245513542</v>
       </c>
       <c r="J204" t="n">
-        <v>0.02007392272695985</v>
+        <v>0.02216940975395279</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1070196495096157</v>
+        <v>0.2286534867281297</v>
       </c>
       <c r="L204" t="n">
-        <v>0.03141042042050191</v>
+        <v>0.04935318521736615</v>
       </c>
       <c r="M204" t="n">
-        <v>0.106573051567688</v>
+        <v>0.2289233199470594</v>
       </c>
       <c r="N204" t="n">
-        <v>0.01248423285097904</v>
+        <v>0.07583361653199683</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1079432520797591</v>
+        <v>0.2291126765919224</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.01237110367100875</v>
+        <v>0.02604585415992519</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1087198222386063</v>
+        <v>0.229227564296328</v>
       </c>
       <c r="J205" t="n">
-        <v>0.01857663091327713</v>
+        <v>0.02220211003157781</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1077895750456561</v>
+        <v>0.2302984758412817</v>
       </c>
       <c r="L205" t="n">
-        <v>0.03133517329519142</v>
+        <v>0.04942581490812578</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1073397641688944</v>
+        <v>0.2305702503063908</v>
       </c>
       <c r="N205" t="n">
-        <v>0.01237110367100875</v>
+        <v>0.07604638504065547</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1087198222386063</v>
+        <v>0.2307609692292744</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.01255868011821204</v>
+        <v>0.02708270966679426</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1094963923974534</v>
+        <v>0.2308649040413018</v>
       </c>
       <c r="J206" t="n">
-        <v>0.0176010931647316</v>
+        <v>0.02243322633532635</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1085595005816965</v>
+        <v>0.2319434649544337</v>
       </c>
       <c r="L206" t="n">
-        <v>0.03036163088104521</v>
+        <v>0.04929493725494064</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1081064767701008</v>
+        <v>0.2322171806657221</v>
       </c>
       <c r="N206" t="n">
-        <v>0.01255868011821204</v>
+        <v>0.07655371954313611</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1094963923974534</v>
+        <v>0.2324092618666263</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.01244677715940301</v>
+        <v>0.02711764113606947</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1102729625563006</v>
+        <v>0.2325022437862755</v>
       </c>
       <c r="J207" t="n">
-        <v>0.01615520781138371</v>
+        <v>0.02246273877199739</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1093294261177369</v>
+        <v>0.2335884540675858</v>
       </c>
       <c r="L207" t="n">
-        <v>0.03028938133656589</v>
+        <v>0.04926050811833743</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1088731893713072</v>
+        <v>0.2338641110250535</v>
       </c>
       <c r="N207" t="n">
-        <v>0.01244677715940301</v>
+        <v>0.07645555155454054</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1102729625563006</v>
+        <v>0.2340575545039783</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.01233520976139577</v>
+        <v>0.02515062489355521</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1110495327151478</v>
+        <v>0.2341395835312493</v>
       </c>
       <c r="J208" t="n">
-        <v>0.01544687318329402</v>
+        <v>0.02249062744839007</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1100993516537773</v>
+        <v>0.2352334431807378</v>
       </c>
       <c r="L208" t="n">
-        <v>0.02981801282025631</v>
+        <v>0.04932248335884301</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1096399019725136</v>
+        <v>0.2355110413843848</v>
       </c>
       <c r="N208" t="n">
-        <v>0.01233520976139577</v>
+        <v>0.07685181258997054</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1110495327151478</v>
+        <v>0.2357058471413302</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.01242379289100448</v>
+        <v>0.02618163726505578</v>
       </c>
       <c r="G209" t="n">
-        <v>0.111826102873995</v>
+        <v>0.2357769232762231</v>
       </c>
       <c r="J209" t="n">
-        <v>0.01438398761052295</v>
+        <v>0.02231687247130339</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1108692771898177</v>
+        <v>0.2368784322938898</v>
       </c>
       <c r="L209" t="n">
-        <v>0.02904711349061911</v>
+        <v>0.0494808188369841</v>
       </c>
       <c r="M209" t="n">
-        <v>0.11040661457372</v>
+        <v>0.2371579717437162</v>
       </c>
       <c r="N209" t="n">
-        <v>0.01242379289100448</v>
+        <v>0.07644243416452778</v>
       </c>
       <c r="O209" t="n">
-        <v>0.111826102873995</v>
+        <v>0.2373541397786822</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.01251234151504325</v>
+        <v>0.02521065457637546</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1126026730328422</v>
+        <v>0.2374142630211969</v>
       </c>
       <c r="J210" t="n">
-        <v>0.01287444942313112</v>
+        <v>0.02244145394753645</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1116392027258581</v>
+        <v>0.2385234214070418</v>
       </c>
       <c r="L210" t="n">
-        <v>0.02857627150615705</v>
+        <v>0.04973547041328746</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1111733271749263</v>
+        <v>0.2388049021030476</v>
       </c>
       <c r="N210" t="n">
-        <v>0.01251234151504325</v>
+        <v>0.07702734779331416</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1126026730328422</v>
+        <v>0.2390024324160341</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.01230067060032621</v>
+        <v>0.02523765315331862</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1133792431916894</v>
+        <v>0.2390516027661706</v>
       </c>
       <c r="J211" t="n">
-        <v>0.01212615695117894</v>
+        <v>0.02236435198388829</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1124091282618985</v>
+        <v>0.2401684105201938</v>
       </c>
       <c r="L211" t="n">
-        <v>0.02810507502537285</v>
+        <v>0.04958639394827985</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1119400397761327</v>
+        <v>0.2404518324623789</v>
       </c>
       <c r="N211" t="n">
-        <v>0.01230067060032621</v>
+        <v>0.07670648499143129</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1133792431916894</v>
+        <v>0.2406507250533861</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.01238859511366745</v>
+        <v>0.02626260932168956</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1141558133505366</v>
+        <v>0.2406889425111444</v>
       </c>
       <c r="J212" t="n">
-        <v>0.01124700852472699</v>
+        <v>0.02248554668715799</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1131790537979389</v>
+        <v>0.2418133996333458</v>
       </c>
       <c r="L212" t="n">
-        <v>0.02803311220676918</v>
+        <v>0.04983354530248801</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1127067523773391</v>
+        <v>0.2420987628217103</v>
       </c>
       <c r="N212" t="n">
-        <v>0.01238859511366745</v>
+        <v>0.0769797772739812</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1141558133505366</v>
+        <v>0.2422990176907381</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.01247593002188113</v>
+        <v>0.02628549940729256</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1149323835093837</v>
+        <v>0.2423262822561182</v>
       </c>
       <c r="J213" t="n">
-        <v>0.01064490247383568</v>
+        <v>0.02240501816414457</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1139489793339793</v>
+        <v>0.2434583887464978</v>
       </c>
       <c r="L213" t="n">
-        <v>0.02695997120884885</v>
+        <v>0.04967688033643874</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1134734649785455</v>
+        <v>0.2437456931810417</v>
       </c>
       <c r="N213" t="n">
-        <v>0.01247593002188113</v>
+        <v>0.07724715615606553</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1149323835093837</v>
+        <v>0.24394731032809</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.01246249029178136</v>
+        <v>0.02730629973593197</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1157089536682309</v>
+        <v>0.243963622001092</v>
       </c>
       <c r="J214" t="n">
-        <v>0.009827737128565633</v>
+        <v>0.02252274652164715</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1147189048700197</v>
+        <v>0.2451033778596499</v>
       </c>
       <c r="L214" t="n">
-        <v>0.02708524019011449</v>
+        <v>0.05001635491065876</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1142401775797519</v>
+        <v>0.245392623540373</v>
       </c>
       <c r="N214" t="n">
-        <v>0.01246249029178136</v>
+        <v>0.07740855315278589</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1157089536682309</v>
+        <v>0.245595602965442</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.01244809089018228</v>
+        <v>0.02732498663341212</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1164855238270781</v>
+        <v>0.2456009617460657</v>
       </c>
       <c r="J215" t="n">
-        <v>0.009303410818977287</v>
+        <v>0.02243871186646473</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1154888304060601</v>
+        <v>0.2467483669728019</v>
       </c>
       <c r="L215" t="n">
-        <v>0.02630850730906886</v>
+        <v>0.04985192488567486</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1150068901809583</v>
+        <v>0.2470395538997044</v>
       </c>
       <c r="N215" t="n">
-        <v>0.01244809089018228</v>
+        <v>0.07746389977924428</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1164855238270781</v>
+        <v>0.2472438956027939</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.01233254678389799</v>
+        <v>0.0263415364255373</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1172620939859253</v>
+        <v>0.2472383014910395</v>
       </c>
       <c r="J216" t="n">
-        <v>0.00847982187513116</v>
+        <v>0.02265289430539642</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1162587559421005</v>
+        <v>0.2483933560859539</v>
       </c>
       <c r="L216" t="n">
-        <v>0.0258293607242146</v>
+        <v>0.04988354612201384</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1157736027821647</v>
+        <v>0.2486864842590358</v>
       </c>
       <c r="N216" t="n">
-        <v>0.01233254678389799</v>
+        <v>0.07751312755054235</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1172620939859253</v>
+        <v>0.2488921882401459</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.01231567293974264</v>
+        <v>0.02535592543811183</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1180386641447725</v>
+        <v>0.2488756412360132</v>
       </c>
       <c r="J217" t="n">
-        <v>0.008464868627087785</v>
+        <v>0.02256527394524126</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1170286814781409</v>
+        <v>0.2500383451991059</v>
       </c>
       <c r="L217" t="n">
-        <v>0.02534738859405455</v>
+        <v>0.04971117448020237</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1165403153833711</v>
+        <v>0.2503334146183671</v>
       </c>
       <c r="N217" t="n">
-        <v>0.01231567293974264</v>
+        <v>0.07755616798178194</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1180386641447725</v>
+        <v>0.2505404808774979</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.01229728432453035</v>
+        <v>0.02636812999694003</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1188152343036197</v>
+        <v>0.2505129809809871</v>
       </c>
       <c r="J218" t="n">
-        <v>0.008018394810671459</v>
+        <v>0.0224758308927983</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1177986070141813</v>
+        <v>0.2516833343122579</v>
       </c>
       <c r="L218" t="n">
-        <v>0.02486217907709137</v>
+        <v>0.05003476582076732</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1173070279845775</v>
+        <v>0.2519803449776984</v>
       </c>
       <c r="N218" t="n">
-        <v>0.01229728432453035</v>
+        <v>0.07689295258806489</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1188152343036197</v>
+        <v>0.2521887735148498</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.01237719590507522</v>
+        <v>0.02637812642782623</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1195918044624669</v>
+        <v>0.2521503207259608</v>
       </c>
       <c r="J219" t="n">
-        <v>0.007777057345606853</v>
+        <v>0.02268454525486661</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1185685325502217</v>
+        <v>0.25332832342541</v>
       </c>
       <c r="L219" t="n">
-        <v>0.02437332033182782</v>
+        <v>0.04975427600423535</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1180737405857838</v>
+        <v>0.2536272753370298</v>
       </c>
       <c r="N219" t="n">
-        <v>0.01237719590507522</v>
+        <v>0.0776234128844927</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1195918044624669</v>
+        <v>0.2538370661522018</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.01235522264819139</v>
+        <v>0.02638589105657473</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1203683746213141</v>
+        <v>0.2537876604709346</v>
       </c>
       <c r="J220" t="n">
-        <v>0.00734056320459639</v>
+        <v>0.02269139713824526</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1193384580862621</v>
+        <v>0.254973312538562</v>
       </c>
       <c r="L220" t="n">
-        <v>0.02358040051676658</v>
+        <v>0.05006966089113332</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1188404531869902</v>
+        <v>0.2552742056963612</v>
       </c>
       <c r="N220" t="n">
-        <v>0.01235522264819139</v>
+        <v>0.07694748038616744</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1203683746213141</v>
+        <v>0.2554853587895538</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.01233117952069299</v>
+        <v>0.02739140020898984</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1211449447801612</v>
+        <v>0.2554250002159084</v>
       </c>
       <c r="J221" t="n">
-        <v>0.006709031880120037</v>
+        <v>0.0225963666497333</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1201083836223025</v>
+        <v>0.256618301651714</v>
       </c>
       <c r="L221" t="n">
-        <v>0.02368300779041033</v>
+        <v>0.04998087634198789</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1196071657881966</v>
+        <v>0.2569211360556926</v>
       </c>
       <c r="N221" t="n">
-        <v>0.01233117952069299</v>
+        <v>0.07696508660819068</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1211449447801612</v>
+        <v>0.2571336514269057</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.01210488148939414</v>
+        <v>0.0253946302108759</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1219215149390084</v>
+        <v>0.2570623399608822</v>
       </c>
       <c r="J222" t="n">
-        <v>0.00678258286465791</v>
+        <v>0.0226994338961298</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1208783091583429</v>
+        <v>0.258263290764866</v>
       </c>
       <c r="L222" t="n">
-        <v>0.02288073031126175</v>
+        <v>0.05008787821732591</v>
       </c>
       <c r="M222" t="n">
-        <v>0.120373878389403</v>
+        <v>0.2585680664150239</v>
       </c>
       <c r="N222" t="n">
-        <v>0.01210488148939414</v>
+        <v>0.07717616306566433</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1219215149390084</v>
+        <v>0.2587819440642576</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.01217614352110897</v>
+        <v>0.02539520374292045</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1226980850978556</v>
+        <v>0.2586996797058559</v>
       </c>
       <c r="J223" t="n">
-        <v>0.006461335650689903</v>
+        <v>0.0225005789842338</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1216482346943833</v>
+        <v>0.259908279878018</v>
       </c>
       <c r="L223" t="n">
-        <v>0.0220731562378238</v>
+        <v>0.05009062237767409</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1211405909906094</v>
+        <v>0.2602149967743553</v>
       </c>
       <c r="N223" t="n">
-        <v>0.01217614352110897</v>
+        <v>0.07718064127369006</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1226980850978556</v>
+        <v>0.2604302367016096</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01214324883742516</v>
+        <v>0.02735272376927271</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1234746552567028</v>
+        <v>0.2603370194508297</v>
       </c>
       <c r="J224" t="n">
-        <v>0.005845409730696111</v>
+        <v>0.02267596544131428</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1224181602304237</v>
+        <v>0.26155326899117</v>
       </c>
       <c r="L224" t="n">
-        <v>0.02155987372859891</v>
+        <v>0.05004165493827992</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1219073035918158</v>
+        <v>0.2618619271336867</v>
       </c>
       <c r="N224" t="n">
-        <v>0.01214324883742516</v>
+        <v>0.07751052971675754</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1234746552567028</v>
+        <v>0.2620785293389616</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01220424195303237</v>
+        <v>0.02524481418335105</v>
       </c>
       <c r="G225" t="n">
-        <v>0.12425122541555</v>
+        <v>0.2619743591958034</v>
       </c>
       <c r="J225" t="n">
-        <v>0.005834924597156482</v>
+        <v>0.02239572318728966</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1231880857664641</v>
+        <v>0.263198258104322</v>
       </c>
       <c r="L225" t="n">
-        <v>0.02144047094209001</v>
+        <v>0.0495694931346678</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1226740161930222</v>
+        <v>0.263508857493018</v>
       </c>
       <c r="N225" t="n">
-        <v>0.01220424195303237</v>
+        <v>0.07664981712012087</v>
       </c>
       <c r="O225" t="n">
-        <v>0.12425122541555</v>
+        <v>0.2637268219763135</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01195923163014693</v>
+        <v>0.02507885525899599</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1250277955743972</v>
+        <v>0.2636116989407772</v>
       </c>
       <c r="J226" t="n">
-        <v>0.005029999742551083</v>
+        <v>0.02236580477149025</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1239580113025045</v>
+        <v>0.264843247217474</v>
       </c>
       <c r="L226" t="n">
-        <v>0.02051611272353721</v>
+        <v>0.04948660613774969</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1234407287942286</v>
+        <v>0.2651557878523494</v>
       </c>
       <c r="N226" t="n">
-        <v>0.01195923163014693</v>
+        <v>0.07641676192906244</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1250277955743972</v>
+        <v>0.2653751146136655</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01210833402286197</v>
+        <v>0.02586222727004801</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1258043657332444</v>
+        <v>0.265249038685751</v>
       </c>
       <c r="J227" t="n">
-        <v>0.004730754659359931</v>
+        <v>0.02219241176766579</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1247279368385449</v>
+        <v>0.266488236330626</v>
       </c>
       <c r="L227" t="n">
-        <v>0.02058960182343561</v>
+        <v>0.04890675413621487</v>
       </c>
       <c r="M227" t="n">
-        <v>0.124207441395435</v>
+        <v>0.2668027182116807</v>
       </c>
       <c r="N227" t="n">
-        <v>0.01210833402286197</v>
+        <v>0.07623271385740654</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1258043657332444</v>
+        <v>0.2670234072510175</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.0118516652852706</v>
+        <v>0.02560231049034764</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1265809358920916</v>
+        <v>0.2668863784307248</v>
       </c>
       <c r="J228" t="n">
-        <v>0.00443730884006302</v>
+        <v>0.02198174574956605</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1254978623745853</v>
+        <v>0.268133225443778</v>
       </c>
       <c r="L228" t="n">
-        <v>0.01936101039730592</v>
+        <v>0.04884369731875263</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1249741539966413</v>
+        <v>0.2684496485710121</v>
       </c>
       <c r="N228" t="n">
-        <v>0.0118516652852706</v>
+        <v>0.07491902261897754</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1265809358920916</v>
+        <v>0.2686716998883694</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01188934157146595</v>
+        <v>0.02630648519373541</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1273575060509388</v>
+        <v>0.2685237181756985</v>
       </c>
       <c r="J229" t="n">
-        <v>0.004449781777140338</v>
+        <v>0.02184000829094072</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1262677879106257</v>
+        <v>0.26977821455693</v>
       </c>
       <c r="L229" t="n">
-        <v>0.01933034190814681</v>
+        <v>0.04781119587405222</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1257408665978478</v>
+        <v>0.2700965789303435</v>
       </c>
       <c r="N229" t="n">
-        <v>0.01188934157146595</v>
+        <v>0.07429703792759984</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1273575060509388</v>
+        <v>0.2703199925257214</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01192147903554115</v>
+        <v>0.02498213165405176</v>
       </c>
       <c r="G230" t="n">
-        <v>0.128134076209786</v>
+        <v>0.2701610579206723</v>
       </c>
       <c r="J230" t="n">
-        <v>0.003968292963071995</v>
+        <v>0.02147340096553958</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1270377134466661</v>
+        <v>0.271423203670082</v>
       </c>
       <c r="L230" t="n">
-        <v>0.01859759981895714</v>
+        <v>0.04762300999080299</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1265075791990541</v>
+        <v>0.2717435092896748</v>
       </c>
       <c r="N230" t="n">
-        <v>0.01192147903554115</v>
+        <v>0.0731881094970977</v>
       </c>
       <c r="O230" t="n">
-        <v>0.128134076209786</v>
+        <v>0.2719682851630734</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01164819383158932</v>
+        <v>0.02463663014513728</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1289106463686331</v>
+        <v>0.2717983976656461</v>
       </c>
       <c r="J231" t="n">
-        <v>0.003792961890337926</v>
+        <v>0.02108812534711239</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1278076389827065</v>
+        <v>0.2730681927832341</v>
       </c>
       <c r="L231" t="n">
-        <v>0.01846278759273579</v>
+        <v>0.0468928998576941</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1272742918002605</v>
+        <v>0.2733904396490062</v>
       </c>
       <c r="N231" t="n">
-        <v>0.01164819383158932</v>
+        <v>0.07241358704129547</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1289106463686331</v>
+        <v>0.2736165778004253</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01176960211370356</v>
+        <v>0.02427736094083241</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1296872165274803</v>
+        <v>0.2734357374106199</v>
       </c>
       <c r="J232" t="n">
-        <v>0.003423908051418123</v>
+        <v>0.02099038300940892</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1285775645187469</v>
+        <v>0.274713181896386</v>
       </c>
       <c r="L232" t="n">
-        <v>0.01732590869248157</v>
+        <v>0.04623462566341488</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1280410044014669</v>
+        <v>0.2750373700083376</v>
       </c>
       <c r="N232" t="n">
-        <v>0.01176960211370356</v>
+        <v>0.07179482027401762</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1296872165274803</v>
+        <v>0.2752648704377773</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01158582003597702</v>
+        <v>0.02391170431497772</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1304637866863275</v>
+        <v>0.2750730771555936</v>
       </c>
       <c r="J233" t="n">
-        <v>0.003561250938792671</v>
+        <v>0.02058637552617884</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1293474900547873</v>
+        <v>0.2763581710095381</v>
       </c>
       <c r="L233" t="n">
-        <v>0.01668696658119329</v>
+        <v>0.04576194759665464</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1288077170026733</v>
+        <v>0.2766843003676689</v>
       </c>
       <c r="N233" t="n">
-        <v>0.01158582003597702</v>
+        <v>0.07065315890908835</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1304637866863275</v>
+        <v>0.2769131630751292</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01149696375250282</v>
+        <v>0.02354704054141367</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1312403568451747</v>
+        <v>0.2767104169005674</v>
       </c>
       <c r="J234" t="n">
-        <v>0.003205110044941561</v>
+        <v>0.02018230447117196</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1301174155908277</v>
+        <v>0.2780031601226901</v>
       </c>
       <c r="L234" t="n">
-        <v>0.01664596472186958</v>
+        <v>0.04488862584610265</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1295744296038797</v>
+        <v>0.2783312307270003</v>
       </c>
       <c r="N234" t="n">
-        <v>0.01149696375250282</v>
+        <v>0.06950995266033205</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1312403568451747</v>
+        <v>0.2785614557124811</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01150314941737408</v>
+        <v>0.02419074989398078</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1320169270040219</v>
+        <v>0.2783477566455412</v>
       </c>
       <c r="J235" t="n">
-        <v>0.002655604862344757</v>
+        <v>0.02008437141813801</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1308873411268681</v>
+        <v>0.2796481492358421</v>
       </c>
       <c r="L235" t="n">
-        <v>0.01580290657750943</v>
+        <v>0.04442842060044813</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1303411422050861</v>
+        <v>0.2799781610863316</v>
       </c>
       <c r="N235" t="n">
-        <v>0.01150314941737408</v>
+        <v>0.06878655124157318</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1320169270040219</v>
+        <v>0.2802097483498331</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01130449318468391</v>
+        <v>0.02285021264651957</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1327934971628691</v>
+        <v>0.2799850963905149</v>
       </c>
       <c r="J236" t="n">
-        <v>0.002712854883482385</v>
+        <v>0.01959877794082675</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1316572666629085</v>
+        <v>0.2812931383489941</v>
       </c>
       <c r="L236" t="n">
-        <v>0.0154577956111116</v>
+        <v>0.0434950920483804</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1311078548062924</v>
+        <v>0.281625091445663</v>
       </c>
       <c r="N236" t="n">
-        <v>0.01130449318468391</v>
+        <v>0.06770430436663599</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1327934971628691</v>
+        <v>0.2818580409871851</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01130111120852543</v>
+        <v>0.02253280907287054</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1335700673217163</v>
+        <v>0.2816224361354887</v>
       </c>
       <c r="J237" t="n">
-        <v>0.002076979600834333</v>
+        <v>0.01943172561298789</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1324271921989489</v>
+        <v>0.2829381274621461</v>
       </c>
       <c r="L237" t="n">
-        <v>0.01501063528567503</v>
+        <v>0.04280240037858871</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1318745674074988</v>
+        <v>0.2832720218049943</v>
       </c>
       <c r="N237" t="n">
-        <v>0.01130111120852543</v>
+        <v>0.06648456174934475</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1335700673217163</v>
+        <v>0.2835063336245371</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01099311964299178</v>
+        <v>0.0222415475887878</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1343466374805634</v>
+        <v>0.2832597758804625</v>
       </c>
       <c r="J238" t="n">
-        <v>0.002148098506880691</v>
+        <v>0.01908738625503116</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1331971177349893</v>
+        <v>0.2845831165752982</v>
       </c>
       <c r="L238" t="n">
-        <v>0.01396142906419839</v>
+        <v>0.04216034708763508</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1326412800087052</v>
+        <v>0.2849189521643257</v>
       </c>
       <c r="N238" t="n">
-        <v>0.01099311964299178</v>
+        <v>0.06574358664688107</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1343466374805634</v>
+        <v>0.285154626261889</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01088063464217608</v>
+        <v>0.02195365825784552</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1351232076394106</v>
+        <v>0.2848971156254362</v>
       </c>
       <c r="J239" t="n">
-        <v>0.002126331094101486</v>
+        <v>0.01904782792856677</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1339670432710297</v>
+        <v>0.2862281056884502</v>
       </c>
       <c r="L239" t="n">
-        <v>0.01341018040968045</v>
+        <v>0.04213012255493184</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1334079926099116</v>
+        <v>0.2865658825236571</v>
       </c>
       <c r="N239" t="n">
-        <v>0.01088063464217608</v>
+        <v>0.06512233815666757</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1351232076394106</v>
+        <v>0.286802918899241</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01086377236017145</v>
+        <v>0.02166467267798472</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1358997777982578</v>
+        <v>0.28653445537041</v>
       </c>
       <c r="J240" t="n">
-        <v>0.001611796854976727</v>
+        <v>0.01860735442606506</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1347369688070701</v>
+        <v>0.2878730948016022</v>
       </c>
       <c r="L240" t="n">
-        <v>0.01285689278512014</v>
+        <v>0.04149787076353409</v>
       </c>
       <c r="M240" t="n">
-        <v>0.134174705211118</v>
+        <v>0.2882128128829884</v>
       </c>
       <c r="N240" t="n">
-        <v>0.01086377236017145</v>
+        <v>0.064097947904172</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1358997777982578</v>
+        <v>0.2884512115365929</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.010642648951071</v>
+        <v>0.02237457336506296</v>
       </c>
       <c r="G241" t="n">
-        <v>0.136676347957105</v>
+        <v>0.2881717951153838</v>
       </c>
       <c r="J241" t="n">
-        <v>0.001504615281986393</v>
+        <v>0.01836595105576788</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1355068943431105</v>
+        <v>0.2895180839147542</v>
       </c>
       <c r="L241" t="n">
-        <v>0.0123015696535162</v>
+        <v>0.04066355911504457</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1349414178123244</v>
+        <v>0.2898597432423198</v>
       </c>
       <c r="N241" t="n">
-        <v>0.010642648951071</v>
+        <v>0.06357036531113069</v>
       </c>
       <c r="O241" t="n">
-        <v>0.136676347957105</v>
+        <v>0.2900995041739449</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01051738056896787</v>
+        <v>0.02208334283493785</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1374529181159522</v>
+        <v>0.2898091348603576</v>
       </c>
       <c r="J242" t="n">
-        <v>0.001004905867610456</v>
+        <v>0.01812360312591699</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1362768198791509</v>
+        <v>0.2911630730279062</v>
       </c>
       <c r="L242" t="n">
-        <v>0.01224421447786744</v>
+        <v>0.04042715501106597</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1357081304135308</v>
+        <v>0.2915066736016512</v>
       </c>
       <c r="N242" t="n">
-        <v>0.01051738056896787</v>
+        <v>0.06213953979927983</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1374529181159522</v>
+        <v>0.2917477968112969</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01048808336795518</v>
+        <v>0.02079096360346695</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1382294882747994</v>
+        <v>0.2914464746053314</v>
       </c>
       <c r="J243" t="n">
-        <v>0.001012788104329032</v>
+        <v>0.01788029594475422</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1370467454151914</v>
+        <v>0.2928080621410582</v>
       </c>
       <c r="L243" t="n">
-        <v>0.01178483072117276</v>
+        <v>0.03948862585320104</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1364748430147372</v>
+        <v>0.2931536039609826</v>
       </c>
       <c r="N243" t="n">
-        <v>0.01048808336795518</v>
+        <v>0.06140542079035571</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1382294882747994</v>
+        <v>0.2933960894486488</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01045487350212604</v>
+        <v>0.02149741818650787</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1390060584336466</v>
+        <v>0.2930838143503051</v>
       </c>
       <c r="J244" t="n">
-        <v>0.0006283814846221036</v>
+        <v>0.0177360148205214</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1378166709512317</v>
+        <v>0.2944530512542102</v>
       </c>
       <c r="L244" t="n">
-        <v>0.01132342184643093</v>
+        <v>0.03934793904305248</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1372415556159436</v>
+        <v>0.2948005343203139</v>
       </c>
       <c r="N244" t="n">
-        <v>0.01045487350212604</v>
+        <v>0.06086795770609449</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1390060584336466</v>
+        <v>0.2950443820860008</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01031786712557358</v>
+        <v>0.01920268909991819</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1397826285924937</v>
+        <v>0.2947211540952789</v>
       </c>
       <c r="J245" t="n">
-        <v>0.0009518055009696824</v>
+        <v>0.0175907450614603</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1385865964872721</v>
+        <v>0.2960980403673623</v>
       </c>
       <c r="L245" t="n">
-        <v>0.01025999131664068</v>
+        <v>0.03890506198222299</v>
       </c>
       <c r="M245" t="n">
-        <v>0.13800826821715</v>
+        <v>0.2964474646796453</v>
       </c>
       <c r="N245" t="n">
-        <v>0.01031786712557358</v>
+        <v>0.05952709996823236</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1397826285924937</v>
+        <v>0.2966926747233528</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01017718039239093</v>
+        <v>0.01990675885955548</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1405591987513409</v>
+        <v>0.2963584938402526</v>
       </c>
       <c r="J246" t="n">
-        <v>0.0004831796458517612</v>
+        <v>0.01724447197581278</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1393565220233125</v>
+        <v>0.2977430294805142</v>
       </c>
       <c r="L246" t="n">
-        <v>0.009794542594800948</v>
+        <v>0.03805996207231532</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1387749808183563</v>
+        <v>0.2980943950389767</v>
       </c>
       <c r="N246" t="n">
-        <v>0.01017718039239093</v>
+        <v>0.05938279699850568</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1405591987513409</v>
+        <v>0.2983409673607047</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.009832929456671198</v>
+        <v>0.01960960998127734</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1413357689101881</v>
+        <v>0.2979958335852264</v>
       </c>
       <c r="J247" t="n">
-        <v>0.000522623411748413</v>
+        <v>0.01709718087182061</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1401264475593529</v>
+        <v>0.2993880185936663</v>
       </c>
       <c r="L247" t="n">
-        <v>0.0094270791439105</v>
+        <v>0.03761260671493216</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1395416934195627</v>
+        <v>0.299741325398308</v>
       </c>
       <c r="N247" t="n">
-        <v>0.009832929456671198</v>
+        <v>0.05833499821865062</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1413357689101881</v>
+        <v>0.2999892599980566</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.009885230472507514</v>
+        <v>0.02031122498094133</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1421123390690353</v>
+        <v>0.2996331733302002</v>
       </c>
       <c r="J248" t="n">
-        <v>0.0002702562911395257</v>
+        <v>0.01664885705772561</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1408963730953933</v>
+        <v>0.3010330077068183</v>
       </c>
       <c r="L248" t="n">
-        <v>0.008557604426968013</v>
+        <v>0.03686296331167627</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1403084060207691</v>
+        <v>0.3013882557576394</v>
       </c>
       <c r="N248" t="n">
-        <v>0.009885230472507514</v>
+        <v>0.05728365305040328</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1421123390690353</v>
+        <v>0.3016375526354086</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.009534199593993008</v>
+        <v>0.01801158637440507</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1428889092278825</v>
+        <v>0.3012705130751739</v>
       </c>
       <c r="J249" t="n">
-        <v>0.0002261977765052603</v>
+        <v>0.01649948584176959</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1416662986314337</v>
+        <v>0.3026779968199703</v>
       </c>
       <c r="L249" t="n">
-        <v>0.008186121906972488</v>
+        <v>0.0366109992641504</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1410751186219755</v>
+        <v>0.3030351861169707</v>
       </c>
       <c r="N249" t="n">
-        <v>0.009534199593993008</v>
+        <v>0.05642871091550006</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1428889092278825</v>
+        <v>0.3032858452727605</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.009379952975220783</v>
+        <v>0.01971067667752614</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1436654793867297</v>
+        <v>0.3029078528201477</v>
       </c>
       <c r="J250" t="n">
-        <v>-9.432639674483712e-06</v>
+        <v>0.01634905253219437</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1424362241674741</v>
+        <v>0.3043229859331223</v>
       </c>
       <c r="L250" t="n">
-        <v>0.007612635046922722</v>
+        <v>0.03575668197395715</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1418418312231819</v>
+        <v>0.3046821164763021</v>
       </c>
       <c r="N250" t="n">
-        <v>0.009379952975220783</v>
+        <v>0.05547012123567718</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1436654793867297</v>
+        <v>0.3049341379101125</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.009422606770283976</v>
+        <v>0.01940847840616211</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1444420495455769</v>
+        <v>0.3045451925651215</v>
       </c>
       <c r="J251" t="n">
-        <v>-0.0003365154649195845</v>
+        <v>0.01599754243724177</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1432061497035146</v>
+        <v>0.3059679750462743</v>
       </c>
       <c r="L251" t="n">
-        <v>0.006937147309817371</v>
+        <v>0.03509997884269936</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1426085438243883</v>
+        <v>0.3063290468356334</v>
       </c>
       <c r="N251" t="n">
-        <v>0.009422606770283976</v>
+        <v>0.05510783343267078</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1444420495455769</v>
+        <v>0.3065824305474645</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.009262277133275709</v>
+        <v>0.01710497407617056</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1452186197044241</v>
+        <v>0.3061825323100953</v>
       </c>
       <c r="J252" t="n">
-        <v>-0.000454931206750081</v>
+        <v>0.01584494086515359</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1439760752395549</v>
+        <v>0.3076129641594263</v>
       </c>
       <c r="L252" t="n">
-        <v>0.006159662158655432</v>
+        <v>0.03484085727197966</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1433752564255947</v>
+        <v>0.3079759771949648</v>
       </c>
       <c r="N252" t="n">
-        <v>0.009262277133275709</v>
+        <v>0.05364179692821719</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1452186197044241</v>
+        <v>0.3082307231848165</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.009099080218289098</v>
+        <v>0.01780014620340911</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1459951898632713</v>
+        <v>0.3078198720550691</v>
       </c>
       <c r="J253" t="n">
-        <v>-0.0002645603726859347</v>
+        <v>0.01549123312417162</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1447460007755954</v>
+        <v>0.3092579532725783</v>
       </c>
       <c r="L253" t="n">
-        <v>0.005980183056435662</v>
+        <v>0.03407928466340079</v>
       </c>
       <c r="M253" t="n">
-        <v>0.144141969026801</v>
+        <v>0.3096229075542962</v>
       </c>
       <c r="N253" t="n">
-        <v>0.009099080218289098</v>
+        <v>0.05287196114405246</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1459951898632713</v>
+        <v>0.3098790158221684</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.008733132179417277</v>
+        <v>0.01649397730373534</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1467717600221184</v>
+        <v>0.3094572118000428</v>
       </c>
       <c r="J254" t="n">
-        <v>-0.0002652834702472351</v>
+        <v>0.01533640452253771</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1455159263116357</v>
+        <v>0.3109029423857304</v>
       </c>
       <c r="L254" t="n">
-        <v>0.005598713466156757</v>
+        <v>0.03361522841856551</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1449086816280074</v>
+        <v>0.3112698379136275</v>
       </c>
       <c r="N254" t="n">
-        <v>0.008733132179417277</v>
+        <v>0.05239827550191306</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1467717600221184</v>
+        <v>0.3115273084595204</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.00866454917075335</v>
+        <v>0.01718644989300679</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1475483301809656</v>
+        <v>0.3110945515450166</v>
       </c>
       <c r="J255" t="n">
-        <v>-0.0003569810069538049</v>
+        <v>0.01488044036849366</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1462858518476761</v>
+        <v>0.3125479314988824</v>
       </c>
       <c r="L255" t="n">
-        <v>0.004515256850817606</v>
+        <v>0.03294865593907653</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1456753942292138</v>
+        <v>0.3129167682729589</v>
       </c>
       <c r="N255" t="n">
-        <v>0.00866454917075335</v>
+        <v>0.05122068942353497</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1475483301809656</v>
+        <v>0.3131756010968723</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.008393447346390456</v>
+        <v>0.01787754648708107</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1483249003398128</v>
+        <v>0.3127318912899904</v>
       </c>
       <c r="J256" t="n">
-        <v>-0.0008395334903257834</v>
+        <v>0.01482332597028127</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1470557773837165</v>
+        <v>0.3141929206120344</v>
       </c>
       <c r="L256" t="n">
-        <v>0.004429816673417131</v>
+        <v>0.0323795346265365</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1464421068304202</v>
+        <v>0.3145636986322902</v>
       </c>
       <c r="N256" t="n">
-        <v>0.008393447346390456</v>
+        <v>0.05023915233065468</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1483249003398128</v>
+        <v>0.3148238937342243</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.008419942860421713</v>
+        <v>0.0165672496018158</v>
       </c>
       <c r="G257" t="n">
-        <v>0.14910147049866</v>
+        <v>0.3143692310349642</v>
       </c>
       <c r="J257" t="n">
-        <v>-0.0006128214278829924</v>
+        <v>0.01446504663614234</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1478257029197569</v>
+        <v>0.3158379097251864</v>
       </c>
       <c r="L257" t="n">
-        <v>0.003442396396953928</v>
+        <v>0.0317078318825483</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1472088194316266</v>
+        <v>0.3162106289916216</v>
       </c>
       <c r="N257" t="n">
-        <v>0.008419942860421713</v>
+        <v>0.04945361364500811</v>
       </c>
       <c r="O257" t="n">
-        <v>0.14910147049866</v>
+        <v>0.3164721863715763</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.00824415186694024</v>
+        <v>0.01525554175306851</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1498780406575072</v>
+        <v>0.3160065707799379</v>
       </c>
       <c r="J258" t="n">
-        <v>-0.001076725327145533</v>
+        <v>0.01410558767431869</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1485956284557974</v>
+        <v>0.3174828988383384</v>
       </c>
       <c r="L258" t="n">
-        <v>0.002952999484426955</v>
+        <v>0.03123351510871442</v>
       </c>
       <c r="M258" t="n">
-        <v>0.147975532032833</v>
+        <v>0.317857559350953</v>
       </c>
       <c r="N258" t="n">
-        <v>0.00824415186694024</v>
+        <v>0.04826402278833181</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1498780406575072</v>
+        <v>0.3181204790089282</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.007966190520039169</v>
+        <v>0.01694240545669683</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1506546108163544</v>
+        <v>0.3176439105249116</v>
       </c>
       <c r="J259" t="n">
-        <v>-0.001031125695633434</v>
+        <v>0.01384493439305214</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1493655539918377</v>
+        <v>0.3191278879514904</v>
       </c>
       <c r="L259" t="n">
-        <v>0.002561629398835086</v>
+        <v>0.03095655170663777</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1487422446340394</v>
+        <v>0.3195044897102843</v>
       </c>
       <c r="N259" t="n">
-        <v>0.007966190520039169</v>
+        <v>0.04757032918236176</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1506546108163544</v>
+        <v>0.3197687716462802</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.007786174973811608</v>
+        <v>0.01562782322855832</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1514311809752016</v>
+        <v>0.3192812502698854</v>
       </c>
       <c r="J260" t="n">
-        <v>-0.0006759030408665379</v>
+        <v>0.01368307210058449</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1501354795278781</v>
+        <v>0.3207728770646424</v>
       </c>
       <c r="L260" t="n">
-        <v>0.001968289603176965</v>
+        <v>0.030476909077921</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1495089572352458</v>
+        <v>0.3211514200696157</v>
       </c>
       <c r="N260" t="n">
-        <v>0.007786174973811608</v>
+        <v>0.04687248224883439</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1514311809752016</v>
+        <v>0.3214170642836321</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.007504221382350684</v>
+        <v>0.01531177758451056</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1522077511340487</v>
+        <v>0.3209185900148592</v>
       </c>
       <c r="J261" t="n">
-        <v>-0.001110937870364925</v>
+        <v>0.01351998610515757</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1509054050639185</v>
+        <v>0.3224178661777944</v>
       </c>
       <c r="L261" t="n">
-        <v>0.001472983560451502</v>
+        <v>0.02979455462416683</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1502756698364522</v>
+        <v>0.3227983504289471</v>
       </c>
       <c r="N261" t="n">
-        <v>0.007504221382350684</v>
+        <v>0.0459704314094857</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1522077511340487</v>
+        <v>0.3230653569209841</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.007420445899749523</v>
+        <v>0.01399425104041117</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1529843212928959</v>
+        <v>0.322555929759833</v>
       </c>
       <c r="J262" t="n">
-        <v>-0.0008361106916485173</v>
+        <v>0.01305566171501317</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1516753305999589</v>
+        <v>0.3240628552909465</v>
       </c>
       <c r="L262" t="n">
-        <v>0.0008757147336574955</v>
+        <v>0.02920945574697797</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1510423824376586</v>
+        <v>0.3244452807882784</v>
       </c>
       <c r="N262" t="n">
-        <v>0.007420445899749523</v>
+        <v>0.04516412608605219</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1529843212928959</v>
+        <v>0.324713649558336</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.007134964680101261</v>
+        <v>0.0156752261121177</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1537608914517431</v>
+        <v>0.3241932695048068</v>
       </c>
       <c r="J263" t="n">
-        <v>-0.001151302012237398</v>
+        <v>0.01299008423839314</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1524452561359993</v>
+        <v>0.3257078444040984</v>
       </c>
       <c r="L263" t="n">
-        <v>7.648658579378909e-05</v>
+        <v>0.02872157984795717</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1518090950388649</v>
+        <v>0.3260922111476098</v>
       </c>
       <c r="N263" t="n">
-        <v>0.007134964680101261</v>
+        <v>0.04415351570026982</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1537608914517431</v>
+        <v>0.326361942195688</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.007147893877498986</v>
+        <v>0.01435468531548777</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1545374616105903</v>
+        <v>0.3258306092497805</v>
       </c>
       <c r="J264" t="n">
-        <v>-0.0007563923396514127</v>
+        <v>0.01272323898353921</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1532151816720397</v>
+        <v>0.3273528335172505</v>
       </c>
       <c r="L264" t="n">
-        <v>-0.001024697420140941</v>
+        <v>0.0279308943287071</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1525758076400713</v>
+        <v>0.3277391415069412</v>
       </c>
       <c r="N264" t="n">
-        <v>0.007147893877498986</v>
+        <v>0.04343854967387495</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1545374616105903</v>
+        <v>0.3280102348330399</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1289.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1289.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.003278797915660943</v>
+        <v>0.001059385635377011</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.001637339744973771</v>
+        <v>0.0005145293003285866</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.003448160004088513</v>
+        <v>0.001494671330528052</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001644989113152012</v>
+        <v>0.0008328681917182798</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.01190913379075154</v>
+        <v>0.005043115526360886</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.002271898041315095</v>
+        <v>0.0008192534679094709</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.02039276331329037</v>
+        <v>0.008879620262526644</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.002383329677287182</v>
+        <v>0.0008156123560444682</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.006585979924461388</v>
+        <v>0.002097226163552249</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.003656133577510024</v>
+        <v>0.001029058600657173</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.006073965646978735</v>
+        <v>0.003082433500038964</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.003371894540413057</v>
+        <v>0.00166573638343656</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01412192897702572</v>
+        <v>0.009799083581650436</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.003293860718662725</v>
+        <v>0.001638506935818942</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.02324598331218342</v>
+        <v>0.01662500046126814</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.003296585274703919</v>
+        <v>0.001631224712088936</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.007164040351599434</v>
+        <v>0.003100672191513047</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.004912019234921315</v>
+        <v>0.001543587900985759</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.007217062832197162</v>
+        <v>0.004681822234278599</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.004934967339456037</v>
+        <v>0.002498604575154839</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01689125075993578</v>
+        <v>0.01494976369477319</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.004940791077994088</v>
+        <v>0.002634665144973917</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.02686096001828536</v>
+        <v>0.02078493183854596</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.004944877912055879</v>
+        <v>0.002097913448451217</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.008992216259153508</v>
+        <v>0.004056874326246691</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.006549358979895086</v>
+        <v>0.002058117201314346</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.008434222834715836</v>
+        <v>0.005386346894490572</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.00657995645260805</v>
+        <v>0.002990170630177613</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01879161509115959</v>
+        <v>0.01696949120153618</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.006587721437325451</v>
+        <v>0.003277013871637883</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.03033836222580505</v>
+        <v>0.02781139648445291</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.006593170549407838</v>
+        <v>0.003262449424177873</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9490,56 +9490,56 @@
         <v>0.006585979924461388</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.009585695534642218</v>
+        <v>0.004952983174740487</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.008186698724868857</v>
+        <v>0.002572646501642933</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.009339052444693213</v>
+        <v>0.006854604283239592</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.008224945565760063</v>
+        <v>0.004164340958591399</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.02094152111575304</v>
+        <v>0.01978496112666128</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.008234651796656813</v>
+        <v>0.004096267339547354</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.0328235120613749</v>
+        <v>0.03267538648096185</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.008241463186759798</v>
+        <v>0.004078061780222341</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.01097127399268574</v>
+        <v>0.005776149343981733</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.00982403846984263</v>
+        <v>0.003087175801971519</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.01022465846956212</v>
+        <v>0.007695253409139825</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.009869934678912074</v>
+        <v>0.004997209150309678</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.02215946797877194</v>
+        <v>0.02213823409421889</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.009881582155988175</v>
+        <v>0.004915520807456826</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.03446173165162719</v>
+        <v>0.0363904286654318</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.009889755824111758</v>
+        <v>0.004893674136266809</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01383055784136891</v>
+        <v>0.006585979924461388</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.01096840073253007</v>
+        <v>0.003656133577510024</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.01078414771675538</v>
+        <v>0.008560541045683656</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.01151492379206409</v>
+        <v>0.005830077342027958</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02386395482527212</v>
+        <v>0.0239535009077175</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.01152851251531954</v>
+        <v>0.005734774275366296</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.03649834312319461</v>
+        <v>0.03921685252555845</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.01153804846146372</v>
+        <v>0.005654753230326737</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.0143324673428239</v>
+        <v>0.007192592481467384</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.01309871795979017</v>
+        <v>0.004116234402628692</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01146031254146931</v>
+        <v>0.00935778353813551</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.01249062499999999</v>
+        <v>0.006662945533746238</v>
       </c>
       <c r="L73" s="172" t="n">
         <v>0.0253385825335139</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.01287693298969071</v>
+        <v>0.006379334491462271</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.03921685252555845</v>
+        <v>0.0413800884909345</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.01314802631578947</v>
+        <v>0.006524898848355745</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01445228287982046</v>
+        <v>0.007865353628733543</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.01473605770476394</v>
+        <v>0.004630763702957279</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01255347465631201</v>
+        <v>0.01019429723175981</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.01480490201836811</v>
+        <v>0.007495813725464518</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.02711881065287988</v>
+        <v>0.02677125984540066</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.01482237323398226</v>
+        <v>0.007373281211185238</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.04150204156741033</v>
+        <v>0.04363339086362689</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.01483463373616764</v>
+        <v>0.007340511204400213</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01553468833399718</v>
+        <v>0.008527632087493055</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.01637339744973771</v>
+        <v>0.005145293003285865</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01351597516527465</v>
+        <v>0.01087739847182095</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.01644989113152013</v>
+        <v>0.008328681917182798</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.02940726201622831</v>
+        <v>0.02827050496183836</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.01646930359331363</v>
+        <v>0.008192534679094709</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.04463285339508183</v>
+        <v>0.04654023852971195</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.0164829263735196</v>
+        <v>0.008156123560444681</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01857296549476522</v>
+        <v>0.009174703742718469</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.01801073719471149</v>
+        <v>0.005659822303614451</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01427815843624886</v>
+        <v>0.01146031254146931</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.01809488024467214</v>
+        <v>0.009088664529415244</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.03080816263237782</v>
+        <v>0.02965505309208527</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01811623395264499</v>
+        <v>0.009011788147004179</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.0473261009197708</v>
+        <v>0.04879591488716661</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.01813121901087155</v>
+        <v>0.008971735916489148</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01756039615153572</v>
+        <v>0.009801844479382378</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01964807693968526</v>
+        <v>0.006174351603943038</v>
       </c>
       <c r="J77" t="n">
-        <v>0.0151292080929399</v>
+        <v>0.01193946338713546</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01973986935782415</v>
+        <v>0.009994418300619356</v>
       </c>
       <c r="L77" t="n">
-        <v>0.0329962801567408</v>
+        <v>0.03132073819233927</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01976316431197635</v>
+        <v>0.009831041614913652</v>
       </c>
       <c r="N77" t="n">
-        <v>0.05013692439005318</v>
+        <v>0.05079570333396788</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01977951164822352</v>
+        <v>0.009787348272533618</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01949026209371992</v>
+        <v>0.01040433018245736</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02128541668465903</v>
+        <v>0.006688880904271625</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01595830775905305</v>
+        <v>0.01257098941345447</v>
       </c>
       <c r="K78" t="n">
-        <v>0.02138485847097616</v>
+        <v>0.01082728649233764</v>
       </c>
       <c r="L78" t="n">
-        <v>0.03454638224472983</v>
+        <v>0.03266339421879835</v>
       </c>
       <c r="M78" t="n">
-        <v>0.02141009467130771</v>
+        <v>0.01065029508282312</v>
       </c>
       <c r="N78" t="n">
-        <v>0.0533204640545048</v>
+        <v>0.05293488726809259</v>
       </c>
       <c r="O78" t="n">
-        <v>0.02142780428557547</v>
+        <v>0.01060296062857809</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01935584511072891</v>
+        <v>0.01097743673691597</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0229227564296328</v>
+        <v>0.007203410204600212</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01675464105829366</v>
+        <v>0.01340646711781626</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02302984758412817</v>
+        <v>0.01166015468405592</v>
       </c>
       <c r="L79" t="n">
-        <v>0.03683323655175719</v>
+        <v>0.03427885512766057</v>
       </c>
       <c r="M79" t="n">
-        <v>0.02305702503063908</v>
+        <v>0.01146954855073259</v>
       </c>
       <c r="N79" t="n">
-        <v>0.05633186016170161</v>
+        <v>0.0555087500875176</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02307609692292744</v>
+        <v>0.01141857298462255</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.02015042699197396</v>
+        <v>0.0115164400277308</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02456009617460657</v>
+        <v>0.007717939504928798</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01760739161436702</v>
+        <v>0.01404319538733319</v>
       </c>
       <c r="K80" t="n">
-        <v>0.02467483669728019</v>
+        <v>0.0124930228757742</v>
       </c>
       <c r="L80" t="n">
-        <v>0.03813161073323532</v>
+        <v>0.03586295487512381</v>
       </c>
       <c r="M80" t="n">
-        <v>0.02470395538997044</v>
+        <v>0.01228880201864206</v>
       </c>
       <c r="N80" t="n">
-        <v>0.05892625296021964</v>
+        <v>0.05741257519022003</v>
       </c>
       <c r="O80" t="n">
-        <v>0.0247243895602794</v>
+        <v>0.01223418534066702</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.02186728952686617</v>
+        <v>0.01201661593987442</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02619743591958034</v>
+        <v>0.008232468805257385</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01810574305097841</v>
+        <v>0.01447847310911755</v>
       </c>
       <c r="K81" t="n">
-        <v>0.0263198258104322</v>
+        <v>0.01332589106749248</v>
       </c>
       <c r="L81" t="n">
-        <v>0.03971627244457673</v>
+        <v>0.03681152741738611</v>
       </c>
       <c r="M81" t="n">
-        <v>0.0263508857493018</v>
+        <v>0.01310805548655153</v>
       </c>
       <c r="N81" t="n">
-        <v>0.06125878269863477</v>
+        <v>0.05924164597417664</v>
       </c>
       <c r="O81" t="n">
-        <v>0.02637268219763135</v>
+        <v>0.01304979769671149</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02149971450481673</v>
+        <v>0.01247324035831941</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02783477566455412</v>
+        <v>0.008746998105585971</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01873887899183317</v>
+        <v>0.01530959917028174</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02796481492358421</v>
+        <v>0.01415875925921076</v>
       </c>
       <c r="L82" t="n">
-        <v>0.04126198934119385</v>
+        <v>0.03852040671064549</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02799781610863317</v>
+        <v>0.013927308954461</v>
       </c>
       <c r="N82" t="n">
-        <v>0.06378458962552302</v>
+        <v>0.06129124583736428</v>
       </c>
       <c r="O82" t="n">
-        <v>0.02802097483498331</v>
+        <v>0.01386541005275596</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02404098371523684</v>
+        <v>0.01288158916803833</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02947211540952789</v>
+        <v>0.009261527405914557</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01929598306063658</v>
+        <v>0.01583387245793808</v>
       </c>
       <c r="K83" t="n">
-        <v>0.02960980403673622</v>
+        <v>0.01499162745092904</v>
       </c>
       <c r="L83" t="n">
-        <v>0.04284352907849903</v>
+        <v>0.03968542671109987</v>
       </c>
       <c r="M83" t="n">
-        <v>0.02964474646796453</v>
+        <v>0.01474656242237048</v>
       </c>
       <c r="N83" t="n">
-        <v>0.06535881398946025</v>
+        <v>0.06325665817775999</v>
       </c>
       <c r="O83" t="n">
-        <v>0.02966926747233527</v>
+        <v>0.01468102240880043</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02348437894753762</v>
+        <v>0.01323693825400376</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03110945515450166</v>
+        <v>0.009776056706243144</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01986623888109396</v>
+        <v>0.0163485918591989</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03125479314988824</v>
+        <v>0.01582449564264731</v>
       </c>
       <c r="L84" t="n">
-        <v>0.04373565931190476</v>
+        <v>0.04070242137494723</v>
       </c>
       <c r="M84" t="n">
-        <v>0.03129167682729589</v>
+        <v>0.01556581589027995</v>
       </c>
       <c r="N84" t="n">
-        <v>0.06743659603902236</v>
+        <v>0.06493316639334068</v>
       </c>
       <c r="O84" t="n">
-        <v>0.03131756010968723</v>
+        <v>0.0154966347648449</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02383375810365801</v>
+        <v>0.01353456350118828</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03274679489947543</v>
+        <v>0.01029058600657173</v>
       </c>
       <c r="J85" t="n">
-        <v>0.0202388300769106</v>
+        <v>0.01705105626117655</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03289978226304025</v>
+        <v>0.0166573638343656</v>
       </c>
       <c r="L85" t="n">
-        <v>0.0447131476968235</v>
+        <v>0.04206722465838561</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03293860718662725</v>
+        <v>0.01638506935818942</v>
       </c>
       <c r="N85" t="n">
-        <v>0.06917307602278544</v>
+        <v>0.0670160538820832</v>
       </c>
       <c r="O85" t="n">
-        <v>0.03296585274703919</v>
+        <v>0.01631224712088936</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.0241600350820092</v>
+        <v>0.01383055784136891</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03438413464444921</v>
+        <v>0.01096840073253007</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02052387610156785</v>
+        <v>0.01763856455098339</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03454477137619226</v>
+        <v>0.01749023202608388</v>
       </c>
       <c r="L86" t="n">
-        <v>0.04517139641892429</v>
+        <v>0.04287567051761298</v>
       </c>
       <c r="M86" t="n">
-        <v>0.03458553754595862</v>
+        <v>0.01720432282609889</v>
       </c>
       <c r="N86" t="n">
-        <v>0.06973736056312135</v>
+        <v>0.0686006040419645</v>
       </c>
       <c r="O86" t="n">
-        <v>0.03461414538439115</v>
+        <v>0.01712785947693383</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02547584490478051</v>
+        <v>0.01395343003484448</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03602147438942297</v>
+        <v>0.0113196446072289</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02089413865850832</v>
+        <v>0.01810841561573173</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03618976048934427</v>
+        <v>0.01832310021780216</v>
       </c>
       <c r="L87" t="n">
-        <v>0.045973342197623</v>
+        <v>0.04412359290882728</v>
       </c>
       <c r="M87" t="n">
-        <v>0.03623246790528998</v>
+        <v>0.01802357629400836</v>
       </c>
       <c r="N87" t="n">
-        <v>0.07087362253904045</v>
+        <v>0.0696821002709615</v>
       </c>
       <c r="O87" t="n">
-        <v>0.03626243802174311</v>
+        <v>0.0179434718329783</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02477902251032223</v>
+        <v>0.01413137575644452</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03765881413439674</v>
+        <v>0.01183417390755749</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02105533323532346</v>
+        <v>0.01875790834253396</v>
       </c>
       <c r="K88" t="n">
-        <v>0.03783474960249628</v>
+        <v>0.01915596840952043</v>
       </c>
       <c r="L88" t="n">
-        <v>0.04615603362979898</v>
+        <v>0.04510682578822653</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03787939826462133</v>
+        <v>0.01884282976191783</v>
       </c>
       <c r="N88" t="n">
-        <v>0.07148095120276132</v>
+        <v>0.07155582596705112</v>
       </c>
       <c r="O88" t="n">
-        <v>0.03791073065909507</v>
+        <v>0.01875908418902277</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02606740283698467</v>
+        <v>0.0143068908786756</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03929615387937052</v>
+        <v>0.01234870320788608</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02140564055134925</v>
+        <v>0.01928434161850237</v>
       </c>
       <c r="K89" t="n">
-        <v>0.0394797387156483</v>
+        <v>0.01998883660123871</v>
       </c>
       <c r="L89" t="n">
-        <v>0.04721543405536796</v>
+        <v>0.04612120311200876</v>
       </c>
       <c r="M89" t="n">
-        <v>0.0395263286239527</v>
+        <v>0.0196620832298273</v>
       </c>
       <c r="N89" t="n">
-        <v>0.07285308344702901</v>
+        <v>0.07221706452821031</v>
       </c>
       <c r="O89" t="n">
-        <v>0.03955902329644703</v>
+        <v>0.01957469654506724</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02533882082311807</v>
+        <v>0.01447997817009435</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04093349362434429</v>
+        <v>0.01286323250821466</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02144324132592162</v>
+        <v>0.01988501433074936</v>
       </c>
       <c r="K90" t="n">
-        <v>0.04112472782880031</v>
+        <v>0.02082170479295699</v>
       </c>
       <c r="L90" t="n">
-        <v>0.04744750681424542</v>
+        <v>0.04686255883637186</v>
       </c>
       <c r="M90" t="n">
-        <v>0.04117325898328407</v>
+        <v>0.02048133669773677</v>
       </c>
       <c r="N90" t="n">
-        <v>0.07328375616458882</v>
+        <v>0.07406109935241578</v>
       </c>
       <c r="O90" t="n">
-        <v>0.04120731593379899</v>
+        <v>0.0203903089011117</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02659111140707279</v>
+        <v>0.01465064039925738</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04257083336931806</v>
+        <v>0.01337776180854325</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02186631627837653</v>
+        <v>0.02015722536638721</v>
       </c>
       <c r="K91" t="n">
-        <v>0.04276971694195233</v>
+        <v>0.02165457298467527</v>
       </c>
       <c r="L91" t="n">
-        <v>0.04804821524634703</v>
+        <v>0.04782672691751388</v>
       </c>
       <c r="M91" t="n">
-        <v>0.04282018934261542</v>
+        <v>0.02130059016564624</v>
       </c>
       <c r="N91" t="n">
-        <v>0.07446670624818574</v>
+        <v>0.07458321383764477</v>
       </c>
       <c r="O91" t="n">
-        <v>0.04285560857115095</v>
+        <v>0.02120592125715617</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02682210952719907</v>
+        <v>0.01481888033472135</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04420817311429184</v>
+        <v>0.01389229110887184</v>
       </c>
       <c r="J92" t="n">
-        <v>0.0218730461280499</v>
+        <v>0.02079827361252831</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04441470605510434</v>
+        <v>0.02248744117639355</v>
       </c>
       <c r="L92" t="n">
-        <v>0.04851352269158835</v>
+        <v>0.04840954131163278</v>
       </c>
       <c r="M92" t="n">
-        <v>0.04446711970194678</v>
+        <v>0.02211984363355571</v>
       </c>
       <c r="N92" t="n">
-        <v>0.074995670590565</v>
+        <v>0.07537869138187397</v>
       </c>
       <c r="O92" t="n">
-        <v>0.04450390120850291</v>
+        <v>0.02202153361320064</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02502965012184724</v>
+        <v>0.01498470074504289</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0458455128592656</v>
+        <v>0.01440682040920042</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02216161159427774</v>
+        <v>0.02120545795628499</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04605969516825634</v>
+        <v>0.02332030936811183</v>
       </c>
       <c r="L93" t="n">
-        <v>0.04873939248988501</v>
+        <v>0.04880683597492655</v>
       </c>
       <c r="M93" t="n">
-        <v>0.04611405006127815</v>
+        <v>0.02293909710146519</v>
       </c>
       <c r="N93" t="n">
-        <v>0.0759643860844717</v>
+        <v>0.07674281538308036</v>
       </c>
       <c r="O93" t="n">
-        <v>0.04615219384585487</v>
+        <v>0.02283714596924511</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02621156812936754</v>
+        <v>0.0151481043987786</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04748285260423937</v>
+        <v>0.01492134970952901</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02233019339639596</v>
+        <v>0.02147607728476955</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04770468428140836</v>
+        <v>0.02415317755983011</v>
       </c>
       <c r="L94" t="n">
-        <v>0.04932178798115261</v>
+        <v>0.04941444486359317</v>
       </c>
       <c r="M94" t="n">
-        <v>0.04776098042060952</v>
+        <v>0.02375835056937466</v>
       </c>
       <c r="N94" t="n">
-        <v>0.076066589622651</v>
+        <v>0.07687086923924086</v>
       </c>
       <c r="O94" t="n">
-        <v>0.04780048648320683</v>
+        <v>0.02365275832528958</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02536569848811029</v>
+        <v>0.01530909406448516</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04912019234921314</v>
+        <v>0.0154358790098576</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02257697225374053</v>
+        <v>0.02170743048509441</v>
       </c>
       <c r="K95" t="n">
-        <v>0.04934967339456037</v>
+        <v>0.02498604575154839</v>
       </c>
       <c r="L95" t="n">
-        <v>0.04965667250530675</v>
+        <v>0.04952820193383067</v>
       </c>
       <c r="M95" t="n">
-        <v>0.04940791077994088</v>
+        <v>0.02457760403728413</v>
       </c>
       <c r="N95" t="n">
-        <v>0.076596018097848</v>
+        <v>0.07755813634833236</v>
       </c>
       <c r="O95" t="n">
-        <v>0.04944877912055879</v>
+        <v>0.02446837068133404</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02648987613642578</v>
+        <v>0.01546767251071916</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05075753209418692</v>
+        <v>0.01595040831018618</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02250012888564736</v>
+        <v>0.02199681644437185</v>
       </c>
       <c r="K96" t="n">
-        <v>0.05099466250771239</v>
+        <v>0.02581891394326667</v>
       </c>
       <c r="L96" t="n">
-        <v>0.04964000940226301</v>
+        <v>0.05004394114183694</v>
       </c>
       <c r="M96" t="n">
-        <v>0.05105484113927224</v>
+        <v>0.0253968575051936</v>
       </c>
       <c r="N96" t="n">
-        <v>0.07714640840280779</v>
+        <v>0.07819990010833183</v>
       </c>
       <c r="O96" t="n">
-        <v>0.05109707175791075</v>
+        <v>0.02528398303737851</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02558193601266431</v>
+        <v>0.01562384250603725</v>
       </c>
       <c r="G97" t="n">
-        <v>0.05239487183916069</v>
+        <v>0.01646493761051477</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02279784401145245</v>
+        <v>0.02234153404971424</v>
       </c>
       <c r="K97" t="n">
-        <v>0.0526396516208644</v>
+        <v>0.02665178213498495</v>
       </c>
       <c r="L97" t="n">
-        <v>0.04986776201193699</v>
+        <v>0.05025749644381003</v>
       </c>
       <c r="M97" t="n">
-        <v>0.0527017714986036</v>
+        <v>0.02621611097310307</v>
       </c>
       <c r="N97" t="n">
-        <v>0.07761149743027562</v>
+        <v>0.07843370505111691</v>
       </c>
       <c r="O97" t="n">
-        <v>0.05274536439526271</v>
+        <v>0.02609959539342298</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02766111568273782</v>
+        <v>0.01577760681899606</v>
       </c>
       <c r="G98" t="n">
-        <v>0.05403221158413446</v>
+        <v>0.01697946691084335</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02286829835049173</v>
+        <v>0.02263888218823393</v>
       </c>
       <c r="K98" t="n">
-        <v>0.05428464073401642</v>
+        <v>0.02748465032670323</v>
       </c>
       <c r="L98" t="n">
-        <v>0.05003589367424432</v>
+        <v>0.05067716506702777</v>
       </c>
       <c r="M98" t="n">
-        <v>0.05434870185793497</v>
+        <v>0.02703536444101254</v>
       </c>
       <c r="N98" t="n">
-        <v>0.07758502207299661</v>
+        <v>0.07773370505111693</v>
       </c>
       <c r="O98" t="n">
-        <v>0.05439365703261467</v>
+        <v>0.02691520774946745</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02766104220231162</v>
+        <v>0.01592896821815223</v>
       </c>
       <c r="G99" t="n">
-        <v>0.05566955132910823</v>
+        <v>0.01749399621117194</v>
       </c>
       <c r="J99" t="n">
-        <v>0.02292062508293861</v>
+        <v>0.02278615974704325</v>
       </c>
       <c r="K99" t="n">
-        <v>0.05592962984716842</v>
+        <v>0.02831751851842151</v>
       </c>
       <c r="L99" t="n">
-        <v>0.05067716506702777</v>
+        <v>0.05037716506702777</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05599563221726633</v>
+        <v>0.02785461790892201</v>
       </c>
       <c r="N99" t="n">
-        <v>0.07843370505111691</v>
+        <v>0.07783370505111692</v>
       </c>
       <c r="O99" t="n">
-        <v>0.05604194966996662</v>
+        <v>0.02773082010551192</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02765291159319447</v>
+        <v>0.01607792947206237</v>
       </c>
       <c r="G100" t="n">
-        <v>0.057306891074082</v>
+        <v>0.01800852551150053</v>
       </c>
       <c r="J100" t="n">
-        <v>0.02282039257940952</v>
+        <v>0.02278066561325455</v>
       </c>
       <c r="K100" t="n">
-        <v>0.05757461896032044</v>
+        <v>0.02915038671013979</v>
       </c>
       <c r="L100" t="n">
-        <v>0.05037714751642142</v>
+        <v>0.05017716506702777</v>
       </c>
       <c r="M100" t="n">
-        <v>0.05764256257659769</v>
+        <v>0.02867387137683148</v>
       </c>
       <c r="N100" t="n">
-        <v>0.07843232577517839</v>
+        <v>0.07793370505111691</v>
       </c>
       <c r="O100" t="n">
-        <v>0.05769024230731859</v>
+        <v>0.02854643246155639</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02662682349252665</v>
+        <v>0.01622449334928312</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05894423081905577</v>
+        <v>0.01852305481182911</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02290998440513993</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="K101" t="n">
-        <v>0.05921960807347244</v>
+        <v>0.02998325490185807</v>
       </c>
       <c r="L101" t="n">
-        <v>0.05046066570563712</v>
+        <v>0.05057716506702778</v>
       </c>
       <c r="M101" t="n">
-        <v>0.05928949293592906</v>
+        <v>0.02949312484474095</v>
       </c>
       <c r="N101" t="n">
-        <v>0.0782146724313485</v>
+        <v>0.07823370505111693</v>
       </c>
       <c r="O101" t="n">
-        <v>0.05933853494467054</v>
+        <v>0.02936204481760085</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02658395632964632</v>
+        <v>0.01636866261837113</v>
       </c>
       <c r="G102" t="n">
-        <v>0.06058157056402955</v>
+        <v>0.0190375841121577</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02288481575934478</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="K102" t="n">
-        <v>0.06086459718662446</v>
+        <v>0.03081612309357635</v>
       </c>
       <c r="L102" t="n">
-        <v>0.05021105395517975</v>
+        <v>0.05047716506702776</v>
       </c>
       <c r="M102" t="n">
-        <v>0.06093642329526042</v>
+        <v>0.03031237831265042</v>
       </c>
       <c r="N102" t="n">
-        <v>0.078244528685392</v>
+        <v>0.07813370505111689</v>
       </c>
       <c r="O102" t="n">
-        <v>0.06098682758202251</v>
+        <v>0.03017765717364532</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02652545115447977</v>
+        <v>0.016510440047883</v>
       </c>
       <c r="G103" t="n">
-        <v>0.06221891030900331</v>
+        <v>0.01955211341248629</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02284584545539919</v>
+        <v>0.02272062508293861</v>
       </c>
       <c r="K103" t="n">
-        <v>0.06250958629977647</v>
+        <v>0.03164899128529463</v>
       </c>
       <c r="L103" t="n">
-        <v>0.05053044864241343</v>
+        <v>0.05027716506702776</v>
       </c>
       <c r="M103" t="n">
-        <v>0.06258335365459178</v>
+        <v>0.03113163178055989</v>
       </c>
       <c r="N103" t="n">
-        <v>0.07752589446463576</v>
+        <v>0.07793370505111691</v>
       </c>
       <c r="O103" t="n">
-        <v>0.06263512021937447</v>
+        <v>0.03099326952968979</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02645244901695334</v>
+        <v>0.0166498284063754</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06385625005397709</v>
+        <v>0.02006664271281488</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02259403230667827</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="K104" t="n">
-        <v>0.06415457541292849</v>
+        <v>0.03248185947701291</v>
       </c>
       <c r="L104" t="n">
-        <v>0.05002097720361343</v>
+        <v>0.05037716506702777</v>
       </c>
       <c r="M104" t="n">
-        <v>0.06423028401392314</v>
+        <v>0.03195088524846936</v>
       </c>
       <c r="N104" t="n">
-        <v>0.07756207060722098</v>
+        <v>0.07783370505111692</v>
       </c>
       <c r="O104" t="n">
-        <v>0.06428341285672642</v>
+        <v>0.03180888188573425</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02736609096699334</v>
+        <v>0.01678683046240493</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06549358979895085</v>
+        <v>0.02058117201314346</v>
       </c>
       <c r="J105" t="n">
-        <v>0.02273033512655707</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="K105" t="n">
-        <v>0.0657995645260805</v>
+        <v>0.03331472766873119</v>
       </c>
       <c r="L105" t="n">
-        <v>0.05018476707505509</v>
+        <v>0.05057716506702778</v>
       </c>
       <c r="M105" t="n">
-        <v>0.0658772143732545</v>
+        <v>0.03277013871637884</v>
       </c>
       <c r="N105" t="n">
-        <v>0.07755635795128901</v>
+        <v>0.07793370505111691</v>
       </c>
       <c r="O105" t="n">
-        <v>0.06593170549407838</v>
+        <v>0.03262449424177873</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02726751805452607</v>
+        <v>0.01692144898452823</v>
       </c>
       <c r="G106" t="n">
-        <v>0.06713092954392463</v>
+        <v>0.02109570131347205</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02255571272841073</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="K106" t="n">
-        <v>0.0674445536392325</v>
+        <v>0.03414759586044947</v>
       </c>
       <c r="L106" t="n">
-        <v>0.04962394569301365</v>
+        <v>0.05047716506702776</v>
       </c>
       <c r="M106" t="n">
-        <v>0.06752414473258588</v>
+        <v>0.0335893921842883</v>
       </c>
       <c r="N106" t="n">
-        <v>0.07691205733498124</v>
+        <v>0.0780337050511169</v>
       </c>
       <c r="O106" t="n">
-        <v>0.06757999813143034</v>
+        <v>0.0334401065978232</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02615787132947783</v>
+        <v>0.01705368674130192</v>
       </c>
       <c r="G107" t="n">
-        <v>0.06876826928889841</v>
+        <v>0.02161023061380063</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02257112392561432</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="K107" t="n">
-        <v>0.06908954275238452</v>
+        <v>0.03498046405216775</v>
       </c>
       <c r="L107" t="n">
-        <v>0.04974064049376445</v>
+        <v>0.05027716506702776</v>
       </c>
       <c r="M107" t="n">
-        <v>0.06917107509191724</v>
+        <v>0.03440864565219778</v>
       </c>
       <c r="N107" t="n">
-        <v>0.07703246959643878</v>
+        <v>0.07823370505111693</v>
       </c>
       <c r="O107" t="n">
-        <v>0.0692282907687823</v>
+        <v>0.03425571895386766</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02503829184177496</v>
+        <v>0.01718354650128266</v>
       </c>
       <c r="G108" t="n">
-        <v>0.07040560903387218</v>
+        <v>0.02212475991412922</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02247752753154296</v>
+        <v>0.02272062508293861</v>
       </c>
       <c r="K108" t="n">
-        <v>0.07073453186553653</v>
+        <v>0.03581333224388603</v>
       </c>
       <c r="L108" t="n">
-        <v>0.04933697891358277</v>
+        <v>0.05037716506702777</v>
       </c>
       <c r="M108" t="n">
-        <v>0.07081800545124858</v>
+        <v>0.03522789912010724</v>
       </c>
       <c r="N108" t="n">
-        <v>0.07662089557380308</v>
+        <v>0.07773370505111693</v>
       </c>
       <c r="O108" t="n">
-        <v>0.07087658340613427</v>
+        <v>0.03507133130991213</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02490992064134377</v>
+        <v>0.01731103103302707</v>
       </c>
       <c r="G109" t="n">
-        <v>0.07204294877884594</v>
+        <v>0.02263928921445781</v>
       </c>
       <c r="J109" t="n">
-        <v>0.02237588235957175</v>
+        <v>0.02272062508293861</v>
       </c>
       <c r="K109" t="n">
-        <v>0.07237952097868855</v>
+        <v>0.03664620043560431</v>
       </c>
       <c r="L109" t="n">
-        <v>0.04951508838874394</v>
+        <v>0.05027716506702776</v>
       </c>
       <c r="M109" t="n">
-        <v>0.07246493581057996</v>
+        <v>0.03604715258801672</v>
       </c>
       <c r="N109" t="n">
-        <v>0.07598063610521549</v>
+        <v>0.07833370505111692</v>
       </c>
       <c r="O109" t="n">
-        <v>0.07252487604348622</v>
+        <v>0.03588694366595659</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02577389877811057</v>
+        <v>0.01743614310509176</v>
       </c>
       <c r="G110" t="n">
-        <v>0.07368028852381972</v>
+        <v>0.02315381851478639</v>
       </c>
       <c r="J110" t="n">
-        <v>0.02206714722307576</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="K110" t="n">
-        <v>0.07402451009184056</v>
+        <v>0.03747906862732259</v>
       </c>
       <c r="L110" t="n">
-        <v>0.04907709635552326</v>
+        <v>0.05037716506702777</v>
       </c>
       <c r="M110" t="n">
-        <v>0.07411186616991132</v>
+        <v>0.03686640605592619</v>
       </c>
       <c r="N110" t="n">
-        <v>0.07591499202881724</v>
+        <v>0.07823370505111693</v>
       </c>
       <c r="O110" t="n">
-        <v>0.07417316868083819</v>
+        <v>0.03670255602200106</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02563136730200163</v>
+        <v>0.0175588854860334</v>
       </c>
       <c r="G111" t="n">
-        <v>0.07531762826879349</v>
+        <v>0.02366834781511498</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02215228093543013</v>
+        <v>0.02272062508293861</v>
       </c>
       <c r="K111" t="n">
-        <v>0.07566949920499257</v>
+        <v>0.03831193681904087</v>
       </c>
       <c r="L111" t="n">
-        <v>0.04862513025019602</v>
+        <v>0.05067716506702777</v>
       </c>
       <c r="M111" t="n">
-        <v>0.07575879652924267</v>
+        <v>0.03768565952383566</v>
       </c>
       <c r="N111" t="n">
-        <v>0.07582726418274965</v>
+        <v>0.07843370505111691</v>
       </c>
       <c r="O111" t="n">
-        <v>0.07582146131819013</v>
+        <v>0.03751816837804554</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02648346726294334</v>
+        <v>0.01767926094440859</v>
       </c>
       <c r="G112" t="n">
-        <v>0.07695496801376726</v>
+        <v>0.02418287711544357</v>
       </c>
       <c r="J112" t="n">
-        <v>0.02203224231000994</v>
+        <v>0.02282062508293861</v>
       </c>
       <c r="K112" t="n">
-        <v>0.07731448831814458</v>
+        <v>0.03914480501075915</v>
       </c>
       <c r="L112" t="n">
-        <v>0.04876131750903751</v>
+        <v>0.05017716506702777</v>
       </c>
       <c r="M112" t="n">
-        <v>0.07740572688857404</v>
+        <v>0.03850491299174513</v>
       </c>
       <c r="N112" t="n">
-        <v>0.07522075340515405</v>
+        <v>0.0780337050511169</v>
       </c>
       <c r="O112" t="n">
-        <v>0.07746975395554211</v>
+        <v>0.03833378073409</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02633133971086198</v>
+        <v>0.01779727224877396</v>
       </c>
       <c r="G113" t="n">
-        <v>0.07859230775874104</v>
+        <v>0.02469740641577215</v>
       </c>
       <c r="J113" t="n">
-        <v>0.02170799016019029</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="K113" t="n">
-        <v>0.0789594774312966</v>
+        <v>0.03997767320247742</v>
       </c>
       <c r="L113" t="n">
-        <v>0.04808778556832302</v>
+        <v>0.05047716506702776</v>
       </c>
       <c r="M113" t="n">
-        <v>0.0790526572479054</v>
+        <v>0.03932416645965461</v>
       </c>
       <c r="N113" t="n">
-        <v>0.07449876053417176</v>
+        <v>0.07823370505111693</v>
       </c>
       <c r="O113" t="n">
-        <v>0.07911804659289406</v>
+        <v>0.03914939309013447</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02517612569568384</v>
+        <v>0.01791292216768616</v>
       </c>
       <c r="G114" t="n">
-        <v>0.08022964750371481</v>
+        <v>0.02521193571610074</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02168048329934628</v>
+        <v>0.02272062508293861</v>
       </c>
       <c r="K114" t="n">
-        <v>0.08060446654444861</v>
+        <v>0.0408105413941957</v>
       </c>
       <c r="L114" t="n">
-        <v>0.0477066618643279</v>
+        <v>0.05057716506702778</v>
       </c>
       <c r="M114" t="n">
-        <v>0.08069958760723676</v>
+        <v>0.04014341992756407</v>
       </c>
       <c r="N114" t="n">
-        <v>0.0741645864079441</v>
+        <v>0.07843370505111691</v>
       </c>
       <c r="O114" t="n">
-        <v>0.08076633923024602</v>
+        <v>0.03996500544617894</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02601896626733526</v>
+        <v>0.01802621346970183</v>
       </c>
       <c r="G115" t="n">
-        <v>0.08186698724868857</v>
+        <v>0.02572646501642932</v>
       </c>
       <c r="J115" t="n">
-        <v>0.02155068054085302</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="K115" t="n">
-        <v>0.08224945565760063</v>
+        <v>0.04164340958591398</v>
       </c>
       <c r="L115" t="n">
-        <v>0.04742007383332739</v>
+        <v>0.05067716506702777</v>
       </c>
       <c r="M115" t="n">
-        <v>0.08234651796656814</v>
+        <v>0.04096267339547355</v>
       </c>
       <c r="N115" t="n">
-        <v>0.07422153186461233</v>
+        <v>0.07823370505111693</v>
       </c>
       <c r="O115" t="n">
-        <v>0.08241463186759798</v>
+        <v>0.0407806178022234</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02486100247574252</v>
+        <v>0.01813714892337757</v>
       </c>
       <c r="G116" t="n">
-        <v>0.08350432699366235</v>
+        <v>0.02624099431675791</v>
       </c>
       <c r="J116" t="n">
-        <v>0.02141954069808558</v>
+        <v>0.02272062508293861</v>
       </c>
       <c r="K116" t="n">
-        <v>0.08389444477075263</v>
+        <v>0.04247627777763226</v>
       </c>
       <c r="L116" t="n">
-        <v>0.04733014891159687</v>
+        <v>0.05067716506702777</v>
       </c>
       <c r="M116" t="n">
-        <v>0.08399344832589949</v>
+        <v>0.04178192686338302</v>
       </c>
       <c r="N116" t="n">
-        <v>0.07357289774231784</v>
+        <v>0.07843370505111691</v>
       </c>
       <c r="O116" t="n">
-        <v>0.08406292450494994</v>
+        <v>0.04159623015826788</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.02470337537083198</v>
+        <v>0.01824573129727004</v>
       </c>
       <c r="G117" t="n">
-        <v>0.08514166673863612</v>
+        <v>0.0267555236170865</v>
       </c>
       <c r="J117" t="n">
-        <v>0.02138802258441908</v>
+        <v>0.02272062508293861</v>
       </c>
       <c r="K117" t="n">
-        <v>0.08553943388390466</v>
+        <v>0.04330914596935054</v>
       </c>
       <c r="L117" t="n">
-        <v>0.04713901453541153</v>
+        <v>0.05037716506702777</v>
       </c>
       <c r="M117" t="n">
-        <v>0.08564037868523085</v>
+        <v>0.04260118033129249</v>
       </c>
       <c r="N117" t="n">
-        <v>0.07322198487920184</v>
+        <v>0.07783370505111692</v>
       </c>
       <c r="O117" t="n">
-        <v>0.0857112171423019</v>
+        <v>0.04241184251431235</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.02354722600252991</v>
+        <v>0.01835196335993586</v>
       </c>
       <c r="G118" t="n">
-        <v>0.08677900648360989</v>
+        <v>0.02727005291741509</v>
       </c>
       <c r="J118" t="n">
-        <v>0.02125708501322862</v>
+        <v>0.02282062508293861</v>
       </c>
       <c r="K118" t="n">
-        <v>0.08718442299705666</v>
+        <v>0.04414201416106883</v>
       </c>
       <c r="L118" t="n">
-        <v>0.04654879814104679</v>
+        <v>0.05027716506702776</v>
       </c>
       <c r="M118" t="n">
-        <v>0.08728730904456222</v>
+        <v>0.04342043379920196</v>
       </c>
       <c r="N118" t="n">
-        <v>0.07247209411340572</v>
+        <v>0.07843370505111691</v>
       </c>
       <c r="O118" t="n">
-        <v>0.08735950977965386</v>
+        <v>0.04322745487035681</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02338630538434874</v>
+        <v>0.01845584787993165</v>
       </c>
       <c r="G119" t="n">
-        <v>0.08841634622858367</v>
+        <v>0.02778458221774367</v>
       </c>
       <c r="J119" t="n">
-        <v>0.02112766723873749</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="K119" t="n">
-        <v>0.08882941211020867</v>
+        <v>0.04497488235278711</v>
       </c>
       <c r="L119" t="n">
-        <v>0.04646162716477789</v>
+        <v>0.05057716506702778</v>
       </c>
       <c r="M119" t="n">
-        <v>0.08893423940389357</v>
+        <v>0.04423968726711143</v>
       </c>
       <c r="N119" t="n">
-        <v>0.07172652628307086</v>
+        <v>0.0780337050511169</v>
       </c>
       <c r="O119" t="n">
-        <v>0.08900780241700583</v>
+        <v>0.04404306722640128</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.0252028515071871</v>
+        <v>0.01855738762581405</v>
       </c>
       <c r="G120" t="n">
-        <v>0.09005368597355744</v>
+        <v>0.02829911151807226</v>
       </c>
       <c r="J120" t="n">
-        <v>0.02098793115559752</v>
+        <v>0.02282062508293861</v>
       </c>
       <c r="K120" t="n">
-        <v>0.09047440122336069</v>
+        <v>0.04580775054450539</v>
       </c>
       <c r="L120" t="n">
-        <v>0.04635963298182202</v>
+        <v>0.05017716506702777</v>
       </c>
       <c r="M120" t="n">
-        <v>0.09058116976322494</v>
+        <v>0.0450589407350209</v>
       </c>
       <c r="N120" t="n">
-        <v>0.07156545354970123</v>
+        <v>0.07843370505111691</v>
       </c>
       <c r="O120" t="n">
-        <v>0.09065609505435777</v>
+        <v>0.04485867958244574</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.02499940289878683</v>
+        <v>0.01865658536613971</v>
       </c>
       <c r="G121" t="n">
-        <v>0.0916910257185312</v>
+        <v>0.02881364081840085</v>
       </c>
       <c r="J121" t="n">
-        <v>0.02082937998982039</v>
+        <v>0.02272062508293861</v>
       </c>
       <c r="K121" t="n">
-        <v>0.09211939033651269</v>
+        <v>0.04664061873622366</v>
       </c>
       <c r="L121" t="n">
-        <v>0.04581523231222867</v>
+        <v>0.05067716506702777</v>
       </c>
       <c r="M121" t="n">
-        <v>0.09222810012255631</v>
+        <v>0.04587819420293037</v>
       </c>
       <c r="N121" t="n">
-        <v>0.07073930143839702</v>
+        <v>0.07833370505111692</v>
       </c>
       <c r="O121" t="n">
-        <v>0.09230438769170975</v>
+        <v>0.04567429193849021</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.02277967723620353</v>
+        <v>0.01875344386946523</v>
       </c>
       <c r="G122" t="n">
-        <v>0.09332836546350498</v>
+        <v>0.02932817011872943</v>
       </c>
       <c r="J122" t="n">
-        <v>0.02065513766999411</v>
+        <v>0.02282062508293861</v>
       </c>
       <c r="K122" t="n">
-        <v>0.09376437944966472</v>
+        <v>0.04747348692794194</v>
       </c>
       <c r="L122" t="n">
-        <v>0.045334888472889</v>
+        <v>0.05027716506702776</v>
       </c>
       <c r="M122" t="n">
-        <v>0.09387503048188767</v>
+        <v>0.04669744767083985</v>
       </c>
       <c r="N122" t="n">
-        <v>0.07055615651139441</v>
+        <v>0.0780337050511169</v>
       </c>
       <c r="O122" t="n">
-        <v>0.09395268032906169</v>
+        <v>0.04648990429453468</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.02354739219649274</v>
+        <v>0.01884796590434727</v>
       </c>
       <c r="G123" t="n">
-        <v>0.09496570520847875</v>
+        <v>0.02984269941905801</v>
       </c>
       <c r="J123" t="n">
-        <v>0.02026832812470679</v>
+        <v>0.02282062508293861</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09540936856281672</v>
+        <v>0.04830635511966022</v>
       </c>
       <c r="L123" t="n">
-        <v>0.04492553290549162</v>
+        <v>0.05057716506702778</v>
       </c>
       <c r="M123" t="n">
-        <v>0.09552196084121904</v>
+        <v>0.04751670113874931</v>
       </c>
       <c r="N123" t="n">
-        <v>0.06972677329392457</v>
+        <v>0.07843370505111691</v>
       </c>
       <c r="O123" t="n">
-        <v>0.09560097296641366</v>
+        <v>0.04730551665057915</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.02230626545671011</v>
+        <v>0.01894015423934246</v>
       </c>
       <c r="G124" t="n">
-        <v>0.09660304495345252</v>
+        <v>0.0303572287193866</v>
       </c>
       <c r="J124" t="n">
-        <v>0.02007207528254643</v>
+        <v>0.02282062508293861</v>
       </c>
       <c r="K124" t="n">
-        <v>0.09705435767596873</v>
+        <v>0.0491392233113785</v>
       </c>
       <c r="L124" t="n">
-        <v>0.04459409705172496</v>
+        <v>0.05057716506702778</v>
       </c>
       <c r="M124" t="n">
-        <v>0.09716889120055039</v>
+        <v>0.04833595460665879</v>
       </c>
       <c r="N124" t="n">
-        <v>0.06936190631121802</v>
+        <v>0.07783370505111692</v>
       </c>
       <c r="O124" t="n">
-        <v>0.09724926560376561</v>
+        <v>0.04812112900662362</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.0220600146939112</v>
+        <v>0.0190300116430074</v>
       </c>
       <c r="G125" t="n">
-        <v>0.09824038469842629</v>
+        <v>0.03087175801971519</v>
       </c>
       <c r="J125" t="n">
-        <v>0.01996950307210107</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="K125" t="n">
-        <v>0.09869934678912075</v>
+        <v>0.04997209150309678</v>
       </c>
       <c r="L125" t="n">
-        <v>0.04414751235327752</v>
+        <v>0.05017716506702777</v>
       </c>
       <c r="M125" t="n">
-        <v>0.09881582155988175</v>
+        <v>0.04915520807456825</v>
       </c>
       <c r="N125" t="n">
-        <v>0.06877231008850565</v>
+        <v>0.07773370505111693</v>
       </c>
       <c r="O125" t="n">
-        <v>0.09889755824111758</v>
+        <v>0.04893674136266809</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.02381235758515159</v>
+        <v>0.01911754088389873</v>
       </c>
       <c r="G126" t="n">
-        <v>0.09987772444340007</v>
+        <v>0.03138628732004378</v>
       </c>
       <c r="J126" t="n">
-        <v>0.01976373542195879</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="K126" t="n">
-        <v>0.1003443359022728</v>
+        <v>0.05080495969481506</v>
       </c>
       <c r="L126" t="n">
-        <v>0.0438927102518378</v>
+        <v>0.05067716506702777</v>
       </c>
       <c r="M126" t="n">
-        <v>0.1004627519192131</v>
+        <v>0.04997446154247773</v>
       </c>
       <c r="N126" t="n">
-        <v>0.06806873915101835</v>
+        <v>0.07793370505111691</v>
       </c>
       <c r="O126" t="n">
-        <v>0.1005458508784695</v>
+        <v>0.04975235371871255</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.02256701180748688</v>
+        <v>0.01920274473057312</v>
       </c>
       <c r="G127" t="n">
-        <v>0.1015150641883738</v>
+        <v>0.03190081662037236</v>
       </c>
       <c r="J127" t="n">
-        <v>0.01965789626070762</v>
+        <v>0.02272062508293861</v>
       </c>
       <c r="K127" t="n">
-        <v>0.1019893250154248</v>
+        <v>0.05163782788653334</v>
       </c>
       <c r="L127" t="n">
-        <v>0.04313662218909436</v>
+        <v>0.05017716506702777</v>
       </c>
       <c r="M127" t="n">
-        <v>0.1021096822785445</v>
+        <v>0.05079371501038719</v>
       </c>
       <c r="N127" t="n">
-        <v>0.06746194802398692</v>
+        <v>0.07833370505111692</v>
       </c>
       <c r="O127" t="n">
-        <v>0.1021941435158215</v>
+        <v>0.05056796607475702</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.02332769503797263</v>
+        <v>0.01928562595158717</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1031524039333476</v>
+        <v>0.03241534592070095</v>
       </c>
       <c r="J128" t="n">
-        <v>0.01925510951693558</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1036343141285768</v>
+        <v>0.05247069607825162</v>
       </c>
       <c r="L128" t="n">
-        <v>0.0429861796067357</v>
+        <v>0.05057716506702778</v>
       </c>
       <c r="M128" t="n">
-        <v>0.1037566126378758</v>
+        <v>0.05161296847829667</v>
       </c>
       <c r="N128" t="n">
-        <v>0.06626269123264211</v>
+        <v>0.07843370505111691</v>
       </c>
       <c r="O128" t="n">
-        <v>0.1038424361531735</v>
+        <v>0.05138357843080149</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.02209812495366446</v>
+        <v>0.01936618731549751</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1047897436783214</v>
+        <v>0.03292987522102954</v>
       </c>
       <c r="J129" t="n">
-        <v>0.01925849911923078</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1052793032417288</v>
+        <v>0.05330356426996991</v>
       </c>
       <c r="L129" t="n">
-        <v>0.04264831394645022</v>
+        <v>0.05027716506702776</v>
       </c>
       <c r="M129" t="n">
-        <v>0.1054035429972072</v>
+        <v>0.05243222194620614</v>
       </c>
       <c r="N129" t="n">
-        <v>0.06538172330221498</v>
+        <v>0.07773370505111693</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1054907287905254</v>
+        <v>0.05219919078684596</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.02187323516544926</v>
+        <v>0.01944443159086079</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1064270834232952</v>
+        <v>0.03344440452135813</v>
       </c>
       <c r="J130" t="n">
-        <v>0.01887117245146917</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1069242923548808</v>
+        <v>0.05413643246168818</v>
       </c>
       <c r="L130" t="n">
-        <v>0.04202995664992654</v>
+        <v>0.05017716506702777</v>
       </c>
       <c r="M130" t="n">
-        <v>0.1070504733565386</v>
+        <v>0.05325147541411562</v>
       </c>
       <c r="N130" t="n">
-        <v>0.06542979875793598</v>
+        <v>0.07793370505111691</v>
       </c>
       <c r="O130" t="n">
-        <v>0.1071390214278774</v>
+        <v>0.05301480314289043</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.02262797953348084</v>
+        <v>0.01952036154623361</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1080644231682689</v>
+        <v>0.03395893382168671</v>
       </c>
       <c r="J131" t="n">
-        <v>0.01887831163176852</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="K131" t="n">
-        <v>0.1085692814680328</v>
+        <v>0.05496930065340646</v>
       </c>
       <c r="L131" t="n">
-        <v>0.04170938963199938</v>
+        <v>0.05047716506702776</v>
       </c>
       <c r="M131" t="n">
-        <v>0.1086974037158699</v>
+        <v>0.05407072888202508</v>
       </c>
       <c r="N131" t="n">
-        <v>0.06428375191009716</v>
+        <v>0.07783370505111692</v>
       </c>
       <c r="O131" t="n">
-        <v>0.1087873140652293</v>
+        <v>0.05383041549893489</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.02236525924710361</v>
+        <v>0.01959397995017263</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1097017629132427</v>
+        <v>0.0344734631220153</v>
       </c>
       <c r="J132" t="n">
-        <v>0.01866807796101205</v>
+        <v>0.02272062508293861</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1102142705811848</v>
+        <v>0.05580216884512473</v>
       </c>
       <c r="L132" t="n">
-        <v>0.04084937876765943</v>
+        <v>0.05017716506702777</v>
       </c>
       <c r="M132" t="n">
-        <v>0.1103443340752013</v>
+        <v>0.05488998234993456</v>
       </c>
       <c r="N132" t="n">
-        <v>0.06407724979906432</v>
+        <v>0.0780337050511169</v>
       </c>
       <c r="O132" t="n">
-        <v>0.1104356067025813</v>
+        <v>0.05464602785497936</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.02009039616211179</v>
+        <v>0.01966528957123448</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1113391026582165</v>
+        <v>0.03498799242234388</v>
       </c>
       <c r="J133" t="n">
-        <v>0.01834494334388874</v>
+        <v>0.02282062508293861</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1118592596943368</v>
+        <v>0.05663503703684302</v>
       </c>
       <c r="L133" t="n">
-        <v>0.04035923292747673</v>
+        <v>0.05027716506702776</v>
       </c>
       <c r="M133" t="n">
-        <v>0.1119912644345327</v>
+        <v>0.05570923581784402</v>
       </c>
       <c r="N133" t="n">
-        <v>0.06272235067428866</v>
+        <v>0.07823370505111693</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1120838993399332</v>
+        <v>0.05546164021102384</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.01980871213429951</v>
+        <v>0.01973429317797577</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1129764424031902</v>
+        <v>0.03550252172267247</v>
       </c>
       <c r="J134" t="n">
-        <v>0.01811337968508754</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="K134" t="n">
-        <v>0.1135042488074888</v>
+        <v>0.05746790522856129</v>
       </c>
       <c r="L134" t="n">
-        <v>0.03984887447225896</v>
+        <v>0.05047716506702776</v>
       </c>
       <c r="M134" t="n">
-        <v>0.113638194793864</v>
+        <v>0.0565284892857535</v>
       </c>
       <c r="N134" t="n">
-        <v>0.06193444964178896</v>
+        <v>0.07833370505111692</v>
       </c>
       <c r="O134" t="n">
-        <v>0.1137321919772852</v>
+        <v>0.0562772525670683</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.01952552901946093</v>
+        <v>0.01980099353895315</v>
       </c>
       <c r="G135" t="n">
-        <v>0.114613782148164</v>
+        <v>0.03601705102300106</v>
       </c>
       <c r="J135" t="n">
-        <v>0.01797785888929736</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1151492379206409</v>
+        <v>0.05830077342027958</v>
       </c>
       <c r="L135" t="n">
-        <v>0.03942822576281371</v>
+        <v>0.05057716506702778</v>
       </c>
       <c r="M135" t="n">
-        <v>0.1152851251531954</v>
+        <v>0.05734774275366297</v>
       </c>
       <c r="N135" t="n">
-        <v>0.06122894180758348</v>
+        <v>0.07843370505111691</v>
       </c>
       <c r="O135" t="n">
-        <v>0.1153804846146372</v>
+        <v>0.05709286492311277</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.01924616867339027</v>
+        <v>0.01986539342272327</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1162511218931378</v>
+        <v>0.03653158032332964</v>
       </c>
       <c r="J136" t="n">
-        <v>0.01754285286120719</v>
+        <v>0.02282062508293861</v>
       </c>
       <c r="K136" t="n">
-        <v>0.1167942270337929</v>
+        <v>0.05913364161199786</v>
       </c>
       <c r="L136" t="n">
-        <v>0.03880720915994876</v>
+        <v>0.05047716506702776</v>
       </c>
       <c r="M136" t="n">
-        <v>0.1169320555125267</v>
+        <v>0.05816699622157244</v>
       </c>
       <c r="N136" t="n">
-        <v>0.06072122227769089</v>
+        <v>0.07843370505111691</v>
       </c>
       <c r="O136" t="n">
-        <v>0.1170287772519891</v>
+        <v>0.05790847727915724</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.02097595295188165</v>
+        <v>0.01992749559784271</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1178884616381115</v>
+        <v>0.03704610962365823</v>
       </c>
       <c r="J137" t="n">
-        <v>0.01741283350550593</v>
+        <v>0.02272062508293861</v>
       </c>
       <c r="K137" t="n">
-        <v>0.1184392161469449</v>
+        <v>0.05996650980371614</v>
       </c>
       <c r="L137" t="n">
-        <v>0.03839574702447171</v>
+        <v>0.05017716506702777</v>
       </c>
       <c r="M137" t="n">
-        <v>0.1185789858718581</v>
+        <v>0.05898624968948191</v>
       </c>
       <c r="N137" t="n">
-        <v>0.05992668615812946</v>
+        <v>0.07843370505111691</v>
       </c>
       <c r="O137" t="n">
-        <v>0.1186770698893411</v>
+        <v>0.0587240896352017</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.02072020371072927</v>
+        <v>0.01998730283286813</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1195258013830853</v>
+        <v>0.03756063892398681</v>
       </c>
       <c r="J138" t="n">
-        <v>0.01719227272688256</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1200842052600969</v>
+        <v>0.06079937799543442</v>
       </c>
       <c r="L138" t="n">
-        <v>0.03820376171719028</v>
+        <v>0.05067716506702777</v>
       </c>
       <c r="M138" t="n">
-        <v>0.1202259162311895</v>
+        <v>0.05980550315739138</v>
       </c>
       <c r="N138" t="n">
-        <v>0.05916072855491772</v>
+        <v>0.07793370505111691</v>
       </c>
       <c r="O138" t="n">
-        <v>0.120325362526693</v>
+        <v>0.05953970199124617</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.01948424280572729</v>
+        <v>0.02004481789635619</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1211631411280591</v>
+        <v>0.0380751682243154</v>
       </c>
       <c r="J139" t="n">
-        <v>0.01688564243002602</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1217291943732489</v>
+        <v>0.0616322461871527</v>
       </c>
       <c r="L139" t="n">
-        <v>0.03764117559891203</v>
+        <v>0.05017716506702777</v>
       </c>
       <c r="M139" t="n">
-        <v>0.1218728465905208</v>
+        <v>0.06062475662530085</v>
       </c>
       <c r="N139" t="n">
-        <v>0.05863874457407414</v>
+        <v>0.07793370505111691</v>
       </c>
       <c r="O139" t="n">
-        <v>0.121973655164045</v>
+        <v>0.06035531434729063</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.02027339209266987</v>
+        <v>0.02010004355686347</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1228004808730329</v>
+        <v>0.03858969752464399</v>
       </c>
       <c r="J140" t="n">
-        <v>0.01669741451962525</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1233741834864009</v>
+        <v>0.06246511437887098</v>
       </c>
       <c r="L140" t="n">
-        <v>0.0374179110304447</v>
+        <v>0.05037716506702777</v>
       </c>
       <c r="M140" t="n">
-        <v>0.1235197769498522</v>
+        <v>0.06144401009321032</v>
       </c>
       <c r="N140" t="n">
-        <v>0.0577761293216173</v>
+        <v>0.07843370505111691</v>
       </c>
       <c r="O140" t="n">
-        <v>0.123621947801397</v>
+        <v>0.06117092670333511</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.0200929734273512</v>
+        <v>0.02015298258294664</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1244378206180066</v>
+        <v>0.03910422682497258</v>
       </c>
       <c r="J141" t="n">
-        <v>0.01673206090036919</v>
+        <v>0.02282062508293861</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1250191725995529</v>
+        <v>0.06329798257058926</v>
       </c>
       <c r="L141" t="n">
-        <v>0.03654389037259598</v>
+        <v>0.05037716506702777</v>
       </c>
       <c r="M141" t="n">
-        <v>0.1251667073091836</v>
+        <v>0.06226326356111979</v>
       </c>
       <c r="N141" t="n">
-        <v>0.05678827790356555</v>
+        <v>0.07833370505111692</v>
       </c>
       <c r="O141" t="n">
-        <v>0.1252702404387489</v>
+        <v>0.06198653905937958</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.01794830866556542</v>
+        <v>0.02020363774316231</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1260751603629804</v>
+        <v>0.03961875612530116</v>
       </c>
       <c r="J142" t="n">
-        <v>0.01649405347694678</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="K142" t="n">
-        <v>0.126664161712705</v>
+        <v>0.06413085076230754</v>
       </c>
       <c r="L142" t="n">
-        <v>0.03652903598617349</v>
+        <v>0.05057716506702778</v>
       </c>
       <c r="M142" t="n">
-        <v>0.1268136376685149</v>
+        <v>0.06308251702902927</v>
       </c>
       <c r="N142" t="n">
-        <v>0.0562905854259374</v>
+        <v>0.07793370505111691</v>
       </c>
       <c r="O142" t="n">
-        <v>0.1269185330761009</v>
+        <v>0.06280215141542404</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.01884471966310675</v>
+        <v>0.0202520118060671</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1277125001079542</v>
+        <v>0.04013328542562975</v>
       </c>
       <c r="J143" t="n">
-        <v>0.01628786415404701</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="K143" t="n">
-        <v>0.128309150825857</v>
+        <v>0.06496371895402582</v>
       </c>
       <c r="L143" t="n">
-        <v>0.03638327023198493</v>
+        <v>0.05057716506702778</v>
       </c>
       <c r="M143" t="n">
-        <v>0.1284605680278463</v>
+        <v>0.06390177049693872</v>
       </c>
       <c r="N143" t="n">
-        <v>0.05579844699475134</v>
+        <v>0.07793370505111691</v>
       </c>
       <c r="O143" t="n">
-        <v>0.1285668257134528</v>
+        <v>0.06361776377146851</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.01778752827576932</v>
+        <v>0.02029810754021767</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1293498398529279</v>
+        <v>0.04064781472595833</v>
       </c>
       <c r="J144" t="n">
-        <v>0.01641796483635875</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="K144" t="n">
-        <v>0.129954139939009</v>
+        <v>0.0657965871457441</v>
       </c>
       <c r="L144" t="n">
-        <v>0.0362165154708379</v>
+        <v>0.05057716506702778</v>
       </c>
       <c r="M144" t="n">
-        <v>0.1301074983871776</v>
+        <v>0.0647210239648482</v>
       </c>
       <c r="N144" t="n">
-        <v>0.05582725771602576</v>
+        <v>0.07823325260060399</v>
       </c>
       <c r="O144" t="n">
-        <v>0.1302151183508048</v>
+        <v>0.06443337612751299</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.01977832122485548</v>
+        <v>0.02034192771417066</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1309871795979017</v>
+        <v>0.04116234402628692</v>
       </c>
       <c r="J145" t="n">
-        <v>0.01638882742857102</v>
+        <v>0.02282062508293861</v>
       </c>
       <c r="K145" t="n">
-        <v>0.131599129052161</v>
+        <v>0.06662945533746238</v>
       </c>
       <c r="L145" t="n">
-        <v>0.0360386940635401</v>
+        <v>0.05017591326036236</v>
       </c>
       <c r="M145" t="n">
-        <v>0.131754428746509</v>
+        <v>0.06554027743275767</v>
       </c>
       <c r="N145" t="n">
-        <v>0.05599241269577931</v>
+        <v>0.07802885584755698</v>
       </c>
       <c r="O145" t="n">
-        <v>0.1318634109881568</v>
+        <v>0.06524898848355745</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.01978532412117534</v>
+        <v>0.02038347509648267</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1326245193428755</v>
+        <v>0.04167687332661551</v>
       </c>
       <c r="J146" t="n">
-        <v>0.01629058165717999</v>
+        <v>0.02272062508293861</v>
       </c>
       <c r="K146" t="n">
-        <v>0.133244118165313</v>
+        <v>0.06746232352918065</v>
       </c>
       <c r="L146" t="n">
-        <v>0.03573777480326906</v>
+        <v>0.05047165878781038</v>
       </c>
       <c r="M146" t="n">
-        <v>0.1334013591058404</v>
+        <v>0.06635953090066715</v>
       </c>
       <c r="N146" t="n">
-        <v>0.05568423516156795</v>
+        <v>0.07801992142172698</v>
       </c>
       <c r="O146" t="n">
-        <v>0.1335117036255087</v>
+        <v>0.06606460083960192</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.01979979173789531</v>
+        <v>0.02042275245571033</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1342618590878493</v>
+        <v>0.0421914026269441</v>
       </c>
       <c r="J147" t="n">
-        <v>0.01629925474001676</v>
+        <v>0.02271998722868143</v>
       </c>
       <c r="K147" t="n">
-        <v>0.134889107278465</v>
+        <v>0.06829519172089894</v>
       </c>
       <c r="L147" t="n">
-        <v>0.03615504517559212</v>
+        <v>0.05056449965036292</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1350482894651718</v>
+        <v>0.06717878436857661</v>
       </c>
       <c r="N147" t="n">
-        <v>0.05610887781112228</v>
+        <v>0.07790662251469949</v>
       </c>
       <c r="O147" t="n">
-        <v>0.1351599962628607</v>
+        <v>0.0668802131956464</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.0178213330269902</v>
+        <v>0.02045976256041031</v>
       </c>
       <c r="G148" t="n">
-        <v>0.135899198832823</v>
+        <v>0.04270593192727268</v>
       </c>
       <c r="J148" t="n">
-        <v>0.01641402289785765</v>
+        <v>0.02291794410946266</v>
       </c>
       <c r="K148" t="n">
-        <v>0.136534096391617</v>
+        <v>0.06912805991261721</v>
       </c>
       <c r="L148" t="n">
-        <v>0.03578592404211195</v>
+        <v>0.0505545492550156</v>
       </c>
       <c r="M148" t="n">
-        <v>0.1366952198245031</v>
+        <v>0.06799803783648609</v>
       </c>
       <c r="N148" t="n">
-        <v>0.05615472674865035</v>
+        <v>0.07798913231805993</v>
       </c>
       <c r="O148" t="n">
-        <v>0.1368082889002127</v>
+        <v>0.06769582555169086</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.01884955694043483</v>
+        <v>0.02049450817913921</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1375365385777968</v>
+        <v>0.04322046122760127</v>
       </c>
       <c r="J149" t="n">
-        <v>0.01623455753677509</v>
+        <v>0.02281454705099754</v>
       </c>
       <c r="K149" t="n">
-        <v>0.138179085504769</v>
+        <v>0.0699609281043355</v>
       </c>
       <c r="L149" t="n">
-        <v>0.03602968231137088</v>
+        <v>0.05034192100876403</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1383421501838345</v>
+        <v>0.06881729130439555</v>
       </c>
       <c r="N149" t="n">
-        <v>0.05602065074736989</v>
+        <v>0.07836762402339392</v>
       </c>
       <c r="O149" t="n">
-        <v>0.1384565815375646</v>
+        <v>0.06851143790773533</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.01888407243020405</v>
+        <v>0.02052699208045365</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1391738783227706</v>
+        <v>0.04373499052792985</v>
       </c>
       <c r="J150" t="n">
-        <v>0.01636053006284151</v>
+        <v>0.02280984994573937</v>
       </c>
       <c r="K150" t="n">
-        <v>0.139824074617921</v>
+        <v>0.07079379629605377</v>
       </c>
       <c r="L150" t="n">
-        <v>0.03598559089191103</v>
+        <v>0.05022672831860384</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1399890805431658</v>
+        <v>0.06963654477230503</v>
       </c>
       <c r="N150" t="n">
-        <v>0.05570551858049855</v>
+        <v>0.07824227082228691</v>
       </c>
       <c r="O150" t="n">
-        <v>0.1401048741749166</v>
+        <v>0.06932705026377979</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.01792448844827266</v>
+        <v>0.02055721703291032</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1408112180677444</v>
+        <v>0.04424951982825844</v>
       </c>
       <c r="J151" t="n">
-        <v>0.01649161188212935</v>
+        <v>0.02270390668614138</v>
       </c>
       <c r="K151" t="n">
-        <v>0.1414690637310731</v>
+        <v>0.07162666448777207</v>
       </c>
       <c r="L151" t="n">
-        <v>0.03645292069227482</v>
+        <v>0.05060908459153068</v>
       </c>
       <c r="M151" t="n">
-        <v>0.1416360109024972</v>
+        <v>0.07045579824021449</v>
       </c>
       <c r="N151" t="n">
-        <v>0.05570819902125412</v>
+        <v>0.0776132459063244</v>
       </c>
       <c r="O151" t="n">
-        <v>0.1417531668122685</v>
+        <v>0.07014266261982426</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.01997041394661551</v>
+        <v>0.02058518580506578</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1424485578127181</v>
+        <v>0.04476404912858702</v>
       </c>
       <c r="J152" t="n">
-        <v>0.01652747440071099</v>
+        <v>0.02289677116465685</v>
       </c>
       <c r="K152" t="n">
-        <v>0.1431140528442251</v>
+        <v>0.07245953267949033</v>
       </c>
       <c r="L152" t="n">
-        <v>0.03623094262100438</v>
+        <v>0.05048910323454014</v>
       </c>
       <c r="M152" t="n">
-        <v>0.1432829412618285</v>
+        <v>0.07127505170812397</v>
       </c>
       <c r="N152" t="n">
-        <v>0.05612756084285425</v>
+        <v>0.07778072246709183</v>
       </c>
       <c r="O152" t="n">
-        <v>0.1434014594496205</v>
+        <v>0.07095827497586872</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.01802145787720741</v>
+        <v>0.02061090116547669</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1440858975576919</v>
+        <v>0.04527857842891561</v>
       </c>
       <c r="J153" t="n">
-        <v>0.01656778902465893</v>
+        <v>0.02278849727373904</v>
       </c>
       <c r="K153" t="n">
-        <v>0.1447590419573771</v>
+        <v>0.07329240087120863</v>
       </c>
       <c r="L153" t="n">
-        <v>0.03651892758664202</v>
+        <v>0.05016689765462784</v>
       </c>
       <c r="M153" t="n">
-        <v>0.1449298716211599</v>
+        <v>0.07209430517603344</v>
       </c>
       <c r="N153" t="n">
-        <v>0.05626247281851676</v>
+        <v>0.07774487369617478</v>
       </c>
       <c r="O153" t="n">
-        <v>0.1450497520869724</v>
+        <v>0.07177388733191319</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02007722919202319</v>
+        <v>0.02063436588269971</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1457232373026657</v>
+        <v>0.0457931077292442</v>
       </c>
       <c r="J154" t="n">
-        <v>0.01641222716004552</v>
+        <v>0.02287913890584121</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1464040310705291</v>
+        <v>0.07412526906292689</v>
       </c>
       <c r="L154" t="n">
-        <v>0.03671614649772995</v>
+        <v>0.05054258125878944</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1465768019804913</v>
+        <v>0.07291355864394292</v>
       </c>
       <c r="N154" t="n">
-        <v>0.05681180372145922</v>
+        <v>0.07760587278515879</v>
       </c>
       <c r="O154" t="n">
-        <v>0.1466980447243244</v>
+        <v>0.07258949968795766</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.01913733684303767</v>
+        <v>0.02065558272529142</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1473605770476394</v>
+        <v>0.04630763702957279</v>
       </c>
       <c r="J155" t="n">
-        <v>0.01656046021294325</v>
+        <v>0.02286874995341666</v>
       </c>
       <c r="K155" t="n">
-        <v>0.1480490201836811</v>
+        <v>0.07495813725464517</v>
       </c>
       <c r="L155" t="n">
-        <v>0.03642187026281044</v>
+        <v>0.05001626745402052</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1482237323398226</v>
+        <v>0.07373281211185238</v>
       </c>
       <c r="N155" t="n">
-        <v>0.05667442232489939</v>
+        <v>0.07746389292562927</v>
       </c>
       <c r="O155" t="n">
-        <v>0.1483463373616764</v>
+        <v>0.07340511204400213</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.0182013897822257</v>
+        <v>0.02067455446180849</v>
       </c>
       <c r="G156" t="n">
-        <v>0.1489979167926132</v>
+        <v>0.04682216632990138</v>
       </c>
       <c r="J156" t="n">
-        <v>0.01671215958942454</v>
+        <v>0.02285738430891861</v>
       </c>
       <c r="K156" t="n">
-        <v>0.1496940092968331</v>
+        <v>0.07579100544636345</v>
       </c>
       <c r="L156" t="n">
-        <v>0.03693536979042578</v>
+        <v>0.05038806964731674</v>
       </c>
       <c r="M156" t="n">
-        <v>0.149870662699154</v>
+        <v>0.07455206557976185</v>
       </c>
       <c r="N156" t="n">
-        <v>0.05714919740205504</v>
+        <v>0.07801910730917172</v>
       </c>
       <c r="O156" t="n">
-        <v>0.1499946299990283</v>
+        <v>0.07422072440004661</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02027412081546855</v>
+        <v>0.02069128386080755</v>
       </c>
       <c r="G157" t="n">
-        <v>0.150635256537587</v>
+        <v>0.04733669563022996</v>
       </c>
       <c r="J157" t="n">
-        <v>0.01656699669556178</v>
+        <v>0.02274509586480035</v>
       </c>
       <c r="K157" t="n">
-        <v>0.1513389984099851</v>
+        <v>0.07662387363808174</v>
       </c>
       <c r="L157" t="n">
-        <v>0.03655591598911817</v>
+        <v>0.05005810124567364</v>
       </c>
       <c r="M157" t="n">
-        <v>0.1515175930584853</v>
+        <v>0.07537131904767132</v>
       </c>
       <c r="N157" t="n">
-        <v>0.05693499772614374</v>
+        <v>0.07747168912737173</v>
       </c>
       <c r="O157" t="n">
-        <v>0.1516429226363803</v>
+        <v>0.07503633675609107</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.01840180594846856</v>
+        <v>0.0207057736908452</v>
       </c>
       <c r="G158" t="n">
-        <v>0.1522725962825608</v>
+        <v>0.04785122493055854</v>
       </c>
       <c r="J158" t="n">
-        <v>0.0166465237610304</v>
+        <v>0.02263193851351514</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1529839875231372</v>
+        <v>0.07745674182980002</v>
       </c>
       <c r="L158" t="n">
-        <v>0.03711874691181993</v>
+        <v>0.04992647565608693</v>
       </c>
       <c r="M158" t="n">
-        <v>0.1531645234178167</v>
+        <v>0.0761905725155808</v>
       </c>
       <c r="N158" t="n">
-        <v>0.05717450601416207</v>
+        <v>0.07782181157181473</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1532912152737322</v>
+        <v>0.07585194911213554</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.0185861591182479</v>
+        <v>0.02071802672047811</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1539099360275345</v>
+        <v>0.04836575423088713</v>
       </c>
       <c r="J159" t="n">
-        <v>0.01687796907201229</v>
+        <v>0.02281796614751626</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1546289766362892</v>
+        <v>0.0782896100215183</v>
       </c>
       <c r="L159" t="n">
-        <v>0.03739649851547686</v>
+        <v>0.04989330628555219</v>
       </c>
       <c r="M159" t="n">
-        <v>0.1548114537771481</v>
+        <v>0.07700982598349027</v>
       </c>
       <c r="N159" t="n">
-        <v>0.05789006166849225</v>
+        <v>0.07786964783408623</v>
       </c>
       <c r="O159" t="n">
-        <v>0.1549395079110842</v>
+        <v>0.07666756146818</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02081537552875466</v>
+        <v>0.02072804571826289</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1555472757725083</v>
+        <v>0.04888028353121572</v>
       </c>
       <c r="J160" t="n">
-        <v>0.01705178051824424</v>
+        <v>0.02260323265925696</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1562739657494412</v>
+        <v>0.07912247821323658</v>
       </c>
       <c r="L160" t="n">
-        <v>0.03757086622047376</v>
+        <v>0.05015870654106502</v>
       </c>
       <c r="M160" t="n">
-        <v>0.1564583841364794</v>
+        <v>0.07782907945139973</v>
       </c>
       <c r="N160" t="n">
-        <v>0.05795836225293011</v>
+        <v>0.07751537110577167</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1565878005484362</v>
+        <v>0.07748317382422447</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.0210776503839369</v>
+        <v>0.02073583345275617</v>
       </c>
       <c r="G161" t="n">
-        <v>0.1571846155174821</v>
+        <v>0.0493948128315443</v>
       </c>
       <c r="J161" t="n">
-        <v>0.0173580386421426</v>
+        <v>0.0227877919411905</v>
       </c>
       <c r="K161" t="n">
-        <v>0.1579189548625932</v>
+        <v>0.07995534640495484</v>
       </c>
       <c r="L161" t="n">
-        <v>0.03821984051542621</v>
+        <v>0.05012278982962107</v>
       </c>
       <c r="M161" t="n">
-        <v>0.1581053144958108</v>
+        <v>0.07864833291930921</v>
       </c>
       <c r="N161" t="n">
-        <v>0.05874525876123127</v>
+        <v>0.07725915457845672</v>
       </c>
       <c r="O161" t="n">
-        <v>0.1582360931857881</v>
+        <v>0.07829878618026895</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02136117888774268</v>
+        <v>0.02074139269251458</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1588219552624558</v>
+        <v>0.04990934213187289</v>
       </c>
       <c r="J162" t="n">
-        <v>0.01738682398612372</v>
+        <v>0.02257169788577014</v>
       </c>
       <c r="K162" t="n">
-        <v>0.1595639439757452</v>
+        <v>0.08078821459667314</v>
       </c>
       <c r="L162" t="n">
-        <v>0.03872141188894981</v>
+        <v>0.05028566955821598</v>
       </c>
       <c r="M162" t="n">
-        <v>0.1597522448551422</v>
+        <v>0.07946758638721868</v>
       </c>
       <c r="N162" t="n">
-        <v>0.05941660218715183</v>
+        <v>0.07740117144372671</v>
       </c>
       <c r="O162" t="n">
-        <v>0.1598843858231401</v>
+        <v>0.07911439853631341</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.01965415624412012</v>
+        <v>0.02074472620609479</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1604592950074296</v>
+        <v>0.05042387143220148</v>
       </c>
       <c r="J163" t="n">
-        <v>0.01782821709260395</v>
+        <v>0.02255500438544918</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1612089330888972</v>
+        <v>0.08162108278839141</v>
       </c>
       <c r="L163" t="n">
-        <v>0.03895357082966008</v>
+        <v>0.05014745913384536</v>
       </c>
       <c r="M163" t="n">
-        <v>0.1613991752144735</v>
+        <v>0.08028683985512815</v>
       </c>
       <c r="N163" t="n">
-        <v>0.06033824352444733</v>
+        <v>0.07724159489316729</v>
       </c>
       <c r="O163" t="n">
-        <v>0.161532678460492</v>
+        <v>0.07993001089235788</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02194477765701726</v>
+        <v>0.02074583676205337</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1620966347524034</v>
+        <v>0.05093840073253007</v>
       </c>
       <c r="J164" t="n">
-        <v>0.01807229850399959</v>
+        <v>0.02263776533268086</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1628539222020492</v>
+        <v>0.0824539509801097</v>
       </c>
       <c r="L164" t="n">
-        <v>0.03989430782617262</v>
+        <v>0.04980827196350476</v>
       </c>
       <c r="M164" t="n">
-        <v>0.1630461055738049</v>
+        <v>0.08110609332303761</v>
       </c>
       <c r="N164" t="n">
-        <v>0.06107603376687376</v>
+        <v>0.07718059811836375</v>
       </c>
       <c r="O164" t="n">
-        <v>0.163180971097844</v>
+        <v>0.08074562324840234</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02022123833038217</v>
+        <v>0.02074583676205337</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1637339744973771</v>
+        <v>0.05093840073253007</v>
       </c>
       <c r="J165" t="n">
-        <v>0.01820914876272699</v>
+        <v>0.02252003461991844</v>
       </c>
       <c r="K165" t="n">
-        <v>0.1644989113152013</v>
+        <v>0.08328681917182797</v>
       </c>
       <c r="L165" t="n">
-        <v>0.03992161336710298</v>
+        <v>0.04966822145418992</v>
       </c>
       <c r="M165" t="n">
-        <v>0.1646930359331363</v>
+        <v>0.0819253467909471</v>
       </c>
       <c r="N165" t="n">
-        <v>0.06229582390818672</v>
+        <v>0.07711835431090186</v>
       </c>
       <c r="O165" t="n">
-        <v>0.164829263735196</v>
+        <v>0.08156123560444681</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02047173346816294</v>
+        <v>0.0202664464521027</v>
       </c>
       <c r="G166" t="n">
-        <v>0.1653713142423509</v>
+        <v>0.05093813220406605</v>
       </c>
       <c r="J166" t="n">
-        <v>0.01842884841120249</v>
+        <v>0.02260186613961521</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1661439004283533</v>
+        <v>0.08411968736354625</v>
       </c>
       <c r="L166" t="n">
-        <v>0.0409134779410667</v>
+        <v>0.04962742101289638</v>
       </c>
       <c r="M166" t="n">
-        <v>0.1663399662924676</v>
+        <v>0.08274460025885656</v>
       </c>
       <c r="N166" t="n">
-        <v>0.06256346494214216</v>
+        <v>0.07695503666236692</v>
       </c>
       <c r="O166" t="n">
-        <v>0.1664775563725479</v>
+        <v>0.08237684796049127</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02268752989514604</v>
+        <v>0.01979259288887886</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1670086539873247</v>
+        <v>0.05093786367560203</v>
       </c>
       <c r="J167" t="n">
-        <v>0.01862147799184243</v>
+        <v>0.02258331378422442</v>
       </c>
       <c r="K167" t="n">
-        <v>0.1677888895415053</v>
+        <v>0.08495255555526453</v>
       </c>
       <c r="L167" t="n">
-        <v>0.04124789203667936</v>
+        <v>0.04988598404661976</v>
       </c>
       <c r="M167" t="n">
-        <v>0.167986896651799</v>
+        <v>0.08356385372676604</v>
       </c>
       <c r="N167" t="n">
-        <v>0.06364480786249577</v>
+        <v>0.07749081836434452</v>
       </c>
       <c r="O167" t="n">
-        <v>0.1681258490098999</v>
+        <v>0.08319246031653575</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02289101053351121</v>
+        <v>0.01932486842066307</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1686459937322985</v>
+        <v>0.05093759514713802</v>
       </c>
       <c r="J168" t="n">
-        <v>0.01889291675017241</v>
+        <v>0.02266443144619933</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1694338786546573</v>
+        <v>0.08578542374698281</v>
       </c>
       <c r="L168" t="n">
-        <v>0.04142952799046595</v>
+        <v>0.04964402396235568</v>
       </c>
       <c r="M168" t="n">
-        <v>0.1696338270111303</v>
+        <v>0.0843831071946755</v>
       </c>
       <c r="N168" t="n">
-        <v>0.06423913020696392</v>
+        <v>0.07712587260842013</v>
       </c>
       <c r="O168" t="n">
-        <v>0.1697741416472518</v>
+        <v>0.08400807267258022</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02308951272392816</v>
+        <v>0.01886386539569555</v>
       </c>
       <c r="G169" t="n">
-        <v>0.1702833334772722</v>
+        <v>0.050937326618674</v>
       </c>
       <c r="J169" t="n">
-        <v>0.01905997930969354</v>
+        <v>0.02254527301799319</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1710788677678093</v>
+        <v>0.08661829193870109</v>
       </c>
       <c r="L169" t="n">
-        <v>0.04190037580131492</v>
+        <v>0.04950165416709981</v>
       </c>
       <c r="M169" t="n">
-        <v>0.1712807573704617</v>
+        <v>0.08520236066258498</v>
       </c>
       <c r="N169" t="n">
-        <v>0.06481470857805627</v>
+        <v>0.07726037258617924</v>
       </c>
       <c r="O169" t="n">
-        <v>0.1714224342846038</v>
+        <v>0.0848236850286247</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02128341095005747</v>
+        <v>0.01841017616225693</v>
       </c>
       <c r="G170" t="n">
-        <v>0.171920673222246</v>
+        <v>0.05093705809020999</v>
       </c>
       <c r="J170" t="n">
-        <v>0.0190230521808438</v>
+        <v>0.02242589239205932</v>
       </c>
       <c r="K170" t="n">
-        <v>0.1727238568809613</v>
+        <v>0.08745116013041937</v>
       </c>
       <c r="L170" t="n">
-        <v>0.04196230345468938</v>
+        <v>0.04985898806784778</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1729276877297931</v>
+        <v>0.08602161413049444</v>
       </c>
       <c r="N170" t="n">
-        <v>0.06507637320056003</v>
+        <v>0.0769944914892074</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1730707269219558</v>
+        <v>0.08563929738466916</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02347307969555984</v>
+        <v>0.01796439306858807</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1735580129672198</v>
+        <v>0.05093678956174597</v>
       </c>
       <c r="J171" t="n">
-        <v>0.01928245003867318</v>
+        <v>0.02240634346085094</v>
       </c>
       <c r="K171" t="n">
-        <v>0.1743688459941133</v>
+        <v>0.08828402832213765</v>
       </c>
       <c r="L171" t="n">
-        <v>0.04251600915853423</v>
+        <v>0.04941613671233555</v>
       </c>
       <c r="M171" t="n">
-        <v>0.1745746180891244</v>
+        <v>0.08684086759840393</v>
       </c>
       <c r="N171" t="n">
-        <v>0.06582520738373437</v>
+        <v>0.07652674897102507</v>
       </c>
       <c r="O171" t="n">
-        <v>0.1747190195593077</v>
+        <v>0.08645490974071363</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.0226588934440959</v>
+        <v>0.01752710846296893</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1751953527121936</v>
+        <v>0.05093652103328195</v>
       </c>
       <c r="J172" t="n">
-        <v>0.01953848755823163</v>
+        <v>0.02238668011682132</v>
       </c>
       <c r="K172" t="n">
-        <v>0.1760138351072653</v>
+        <v>0.08911689651385593</v>
       </c>
       <c r="L172" t="n">
-        <v>0.04306219112079454</v>
+        <v>0.04986741346300885</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1762215484484558</v>
+        <v>0.08766012106631338</v>
       </c>
       <c r="N172" t="n">
-        <v>0.0663622944368385</v>
+        <v>0.07644487303825725</v>
       </c>
       <c r="O172" t="n">
-        <v>0.1763673121966597</v>
+        <v>0.08727052209675809</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02184122667932629</v>
+        <v>0.01709891469364107</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1768326924571673</v>
+        <v>0.05093625250481793</v>
       </c>
       <c r="J173" t="n">
-        <v>0.01949147941456915</v>
+        <v>0.02246629454784221</v>
       </c>
       <c r="K173" t="n">
-        <v>0.1776588242204173</v>
+        <v>0.08994976470557421</v>
       </c>
       <c r="L173" t="n">
-        <v>0.04310154754941517</v>
+        <v>0.04960830143574665</v>
       </c>
       <c r="M173" t="n">
-        <v>0.1778684788077871</v>
+        <v>0.08847937453422286</v>
       </c>
       <c r="N173" t="n">
-        <v>0.06708871766913166</v>
+        <v>0.07694780076382018</v>
       </c>
       <c r="O173" t="n">
-        <v>0.1780156048340117</v>
+        <v>0.08808613445280256</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02402045388491171</v>
+        <v>0.01668040410888369</v>
       </c>
       <c r="G174" t="n">
-        <v>0.1784700322021411</v>
+        <v>0.05093598397635392</v>
       </c>
       <c r="J174" t="n">
-        <v>0.0196417402827357</v>
+        <v>0.02234145496173982</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1793038133335693</v>
+        <v>0.09078263289729249</v>
       </c>
       <c r="L174" t="n">
-        <v>0.04373477665234118</v>
+        <v>0.04963998026604782</v>
       </c>
       <c r="M174" t="n">
-        <v>0.1795154091671185</v>
+        <v>0.08929862800213233</v>
       </c>
       <c r="N174" t="n">
-        <v>0.06750556038987282</v>
+        <v>0.0769373336498278</v>
       </c>
       <c r="O174" t="n">
-        <v>0.1796638974713636</v>
+        <v>0.08890174680884702</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02319694954451275</v>
+        <v>0.01627216905693919</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1801073719471149</v>
+        <v>0.0509357154478899</v>
       </c>
       <c r="J175" t="n">
-        <v>0.01988958483778125</v>
+        <v>0.02241203729769067</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1809488024467214</v>
+        <v>0.09161550108901077</v>
       </c>
       <c r="L175" t="n">
-        <v>0.04376257663751754</v>
+        <v>0.04916362958941092</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1811623395264499</v>
+        <v>0.09011788147004181</v>
       </c>
       <c r="N175" t="n">
-        <v>0.06811390590832145</v>
+        <v>0.07631527319839393</v>
       </c>
       <c r="O175" t="n">
-        <v>0.1813121901087155</v>
+        <v>0.08971735916489149</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02237108814179008</v>
+        <v>0.01587480188608588</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1817447116920886</v>
+        <v>0.05093544691942588</v>
       </c>
       <c r="J176" t="n">
-        <v>0.02013532775475578</v>
+        <v>0.02247860213355539</v>
       </c>
       <c r="K176" t="n">
-        <v>0.1825937915598734</v>
+        <v>0.09244836928072905</v>
       </c>
       <c r="L176" t="n">
-        <v>0.04428564571288923</v>
+        <v>0.04938042904133483</v>
       </c>
       <c r="M176" t="n">
-        <v>0.1828092698857813</v>
+        <v>0.09093713493795126</v>
       </c>
       <c r="N176" t="n">
-        <v>0.06861483753373665</v>
+        <v>0.07668342091163249</v>
       </c>
       <c r="O176" t="n">
-        <v>0.1829604827460675</v>
+        <v>0.09053297152093596</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02454324416040438</v>
+        <v>0.01548889494456708</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1833820514370624</v>
+        <v>0.05093517839096186</v>
       </c>
       <c r="J177" t="n">
-        <v>0.02027928370870928</v>
+        <v>0.02224171004719459</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1842387806730254</v>
+        <v>0.09328123747244732</v>
       </c>
       <c r="L177" t="n">
-        <v>0.04440468208640125</v>
+        <v>0.04929155825731826</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1844562002451126</v>
+        <v>0.09175638840586074</v>
       </c>
       <c r="N177" t="n">
-        <v>0.06870943857537748</v>
+        <v>0.07634357829165744</v>
       </c>
       <c r="O177" t="n">
-        <v>0.1846087753834195</v>
+        <v>0.09134858387698043</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02471391425635047</v>
+        <v>0.01511504058066014</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1850193911820362</v>
+        <v>0.05093490986249784</v>
       </c>
       <c r="J178" t="n">
-        <v>0.0203217673746917</v>
+        <v>0.02240192161646892</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1858837697861774</v>
+        <v>0.09411410566416561</v>
       </c>
       <c r="L178" t="n">
-        <v>0.04502038396599856</v>
+        <v>0.04929819687285994</v>
       </c>
       <c r="M178" t="n">
-        <v>0.186103130604444</v>
+        <v>0.09257564187377021</v>
       </c>
       <c r="N178" t="n">
-        <v>0.06939879234250318</v>
+        <v>0.07639754684058253</v>
       </c>
       <c r="O178" t="n">
-        <v>0.1862570680207714</v>
+        <v>0.09216419623302489</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.0248920287199583</v>
+        <v>0.01475383114260938</v>
       </c>
       <c r="G179" t="n">
-        <v>0.18665673092701</v>
+        <v>0.05093464133403382</v>
       </c>
       <c r="J179" t="n">
-        <v>0.02056637522396573</v>
+        <v>0.02235979741923902</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1875287588993294</v>
+        <v>0.09494697385588388</v>
       </c>
       <c r="L179" t="n">
-        <v>0.04493890959978775</v>
+        <v>0.04890152452345858</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1877500609637753</v>
+        <v>0.09339489534167969</v>
       </c>
       <c r="N179" t="n">
-        <v>0.0695906954465742</v>
+        <v>0.07604712806052177</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1879053606581234</v>
+        <v>0.09297980858906936</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02407837041451409</v>
+        <v>0.01440585897869111</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1882940706719837</v>
+        <v>0.05093437280556981</v>
       </c>
       <c r="J180" t="n">
-        <v>0.02061943738461308</v>
+        <v>0.02221589803336552</v>
       </c>
       <c r="K180" t="n">
-        <v>0.1891737480124814</v>
+        <v>0.09577984204760218</v>
       </c>
       <c r="L180" t="n">
-        <v>0.04547627255350536</v>
+        <v>0.04880272084461293</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1893969913231067</v>
+        <v>0.09421414880958916</v>
       </c>
       <c r="N180" t="n">
-        <v>0.07071157713779302</v>
+        <v>0.07569412345358889</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1895536532954754</v>
+        <v>0.09379542094511384</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.0242665063712153</v>
+        <v>0.01407171643715075</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1899314104169575</v>
+        <v>0.05093410427710579</v>
       </c>
       <c r="J181" t="n">
-        <v>0.02087611169492117</v>
+        <v>0.02217078403670907</v>
       </c>
       <c r="K181" t="n">
-        <v>0.1908187371256334</v>
+        <v>0.09661271023932044</v>
       </c>
       <c r="L181" t="n">
-        <v>0.04572282831699573</v>
+        <v>0.0491029654718218</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1910439216824381</v>
+        <v>0.09503340227749862</v>
       </c>
       <c r="N181" t="n">
-        <v>0.0707480021452041</v>
+        <v>0.07534033452189803</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1912019459328273</v>
+        <v>0.0946110333011583</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02445000362125943</v>
+        <v>0.01375199586626343</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1915687501619313</v>
+        <v>0.05093383574864178</v>
       </c>
       <c r="J182" t="n">
-        <v>0.0209309925925327</v>
+        <v>0.02212501600713028</v>
       </c>
       <c r="K182" t="n">
-        <v>0.1924637262387855</v>
+        <v>0.09744557843103874</v>
       </c>
       <c r="L182" t="n">
-        <v>0.04596658290921321</v>
+        <v>0.04860343804058384</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1926908520417694</v>
+        <v>0.09585265574540809</v>
       </c>
       <c r="N182" t="n">
-        <v>0.07168136112639784</v>
+        <v>0.0750875627675629</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1928502385701793</v>
+        <v>0.09542664565720277</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02462242919584394</v>
+        <v>0.01344728961428229</v>
       </c>
       <c r="G183" t="n">
-        <v>0.193206089906905</v>
+        <v>0.05093356722017776</v>
       </c>
       <c r="J183" t="n">
-        <v>0.0211786745150904</v>
+        <v>0.02207915452248981</v>
       </c>
       <c r="K183" t="n">
-        <v>0.1941087153519375</v>
+        <v>0.098278446622757</v>
       </c>
       <c r="L183" t="n">
-        <v>0.04659554234911215</v>
+        <v>0.04870531818639784</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1943377824011008</v>
+        <v>0.09667190921331757</v>
       </c>
       <c r="N183" t="n">
-        <v>0.07239304473896446</v>
+        <v>0.07553760969269729</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1944985312075312</v>
+        <v>0.09624225801324725</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.0247773501261663</v>
+        <v>0.01315819002946176</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1948434296518788</v>
+        <v>0.05093329869171374</v>
       </c>
       <c r="J184" t="n">
-        <v>0.02121375190023699</v>
+        <v>0.02193376016064827</v>
       </c>
       <c r="K184" t="n">
-        <v>0.1957537044650895</v>
+        <v>0.09911131481447528</v>
       </c>
       <c r="L184" t="n">
-        <v>0.04689771265564685</v>
+        <v>0.04870978554476255</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1959847127604321</v>
+        <v>0.09749116268122704</v>
       </c>
       <c r="N184" t="n">
-        <v>0.07236444364049449</v>
+        <v>0.07489227679941535</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1961468238448832</v>
+        <v>0.09705787036929171</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02590833344342401</v>
+        <v>0.012885289460075</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1964807693968526</v>
+        <v>0.05093303016324973</v>
       </c>
       <c r="J185" t="n">
-        <v>0.02133081918561515</v>
+        <v>0.02208939349946634</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1973986935782415</v>
+        <v>0.09994418300619357</v>
       </c>
       <c r="L185" t="n">
-        <v>0.04726109984777169</v>
+        <v>0.04831801975117664</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1976316431197635</v>
+        <v>0.09831041614913651</v>
       </c>
       <c r="N185" t="n">
-        <v>0.07277694848857824</v>
+        <v>0.07505336558983078</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1977951164822352</v>
+        <v>0.09787348272533618</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02400894617881451</v>
+        <v>0.01262918025437074</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1981181091418263</v>
+        <v>0.05093276163478571</v>
       </c>
       <c r="J186" t="n">
-        <v>0.02132447080886762</v>
+        <v>0.02194661511680461</v>
       </c>
       <c r="K186" t="n">
-        <v>0.1990436826913935</v>
+        <v>0.1007770511979118</v>
       </c>
       <c r="L186" t="n">
-        <v>0.04707370994444085</v>
+        <v>0.04843120044113894</v>
       </c>
       <c r="M186" t="n">
-        <v>0.1992785734790949</v>
+        <v>0.09912966961704597</v>
       </c>
       <c r="N186" t="n">
-        <v>0.07331194994080609</v>
+        <v>0.07492267756605747</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1994434091195871</v>
+        <v>0.09868909508138064</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02508043319082004</v>
+        <v>0.01239045476062067</v>
       </c>
       <c r="G187" t="n">
-        <v>0.1997554488868001</v>
+        <v>0.0509324931063217</v>
       </c>
       <c r="J187" t="n">
-        <v>0.02139043354293048</v>
+        <v>0.02200598559052375</v>
       </c>
       <c r="K187" t="n">
-        <v>0.2006886718045455</v>
+        <v>0.1016099193896301</v>
       </c>
       <c r="L187" t="n">
-        <v>0.0472246280004685</v>
+        <v>0.04805050725014814</v>
       </c>
       <c r="M187" t="n">
-        <v>0.2009255038384263</v>
+        <v>0.09994892308495545</v>
       </c>
       <c r="N187" t="n">
-        <v>0.07375151080594972</v>
+        <v>0.07490201423020942</v>
       </c>
       <c r="O187" t="n">
-        <v>0.2010917017569391</v>
+        <v>0.09950470743742511</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.0261478730869158</v>
+        <v>0.01216970532707499</v>
       </c>
       <c r="G188" t="n">
-        <v>0.2013927886317739</v>
+        <v>0.05093222457785768</v>
       </c>
       <c r="J188" t="n">
-        <v>0.02154701771671255</v>
+        <v>0.02176806549848435</v>
       </c>
       <c r="K188" t="n">
-        <v>0.2023336609176976</v>
+        <v>0.1024427875813484</v>
       </c>
       <c r="L188" t="n">
-        <v>0.04765012919888401</v>
+        <v>0.04837711981370299</v>
       </c>
       <c r="M188" t="n">
-        <v>0.2025724341977576</v>
+        <v>0.1007681765528649</v>
       </c>
       <c r="N188" t="n">
-        <v>0.07384617923020537</v>
+        <v>0.07499317708440045</v>
       </c>
       <c r="O188" t="n">
-        <v>0.2027399943942911</v>
+        <v>0.1003203197934696</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02621381508094005</v>
+        <v>0.01196752430200392</v>
       </c>
       <c r="G189" t="n">
-        <v>0.2030301283767477</v>
+        <v>0.05093195604939366</v>
       </c>
       <c r="J189" t="n">
-        <v>0.0216023561010341</v>
+        <v>0.02173341541854709</v>
       </c>
       <c r="K189" t="n">
-        <v>0.2039786500308496</v>
+        <v>0.1032756557730667</v>
       </c>
       <c r="L189" t="n">
-        <v>0.04797287342439979</v>
+        <v>0.04791221776730223</v>
       </c>
       <c r="M189" t="n">
-        <v>0.2042193645570889</v>
+        <v>0.1015874300207744</v>
       </c>
       <c r="N189" t="n">
-        <v>0.07423657789155291</v>
+        <v>0.07439796763074441</v>
       </c>
       <c r="O189" t="n">
-        <v>0.204388287031643</v>
+        <v>0.101135932149514</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02527823549869709</v>
+        <v>0.01178208527826168</v>
       </c>
       <c r="G190" t="n">
-        <v>0.2046674681217215</v>
+        <v>0.05093168752092964</v>
       </c>
       <c r="J190" t="n">
-        <v>0.02165642880269415</v>
+        <v>0.02190259592857259</v>
       </c>
       <c r="K190" t="n">
-        <v>0.2056236391440016</v>
+        <v>0.104108523964785</v>
       </c>
       <c r="L190" t="n">
-        <v>0.04779281653754258</v>
+        <v>0.04785698074644457</v>
       </c>
       <c r="M190" t="n">
-        <v>0.2058662949164203</v>
+        <v>0.1024066834886839</v>
       </c>
       <c r="N190" t="n">
-        <v>0.07412263830509414</v>
+        <v>0.07411818737135528</v>
       </c>
       <c r="O190" t="n">
-        <v>0.2060365796689949</v>
+        <v>0.1019515445055585</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02634111066599126</v>
+        <v>0.01159946807173293</v>
       </c>
       <c r="G191" t="n">
-        <v>0.2063048078666952</v>
+        <v>0.05093141899246562</v>
       </c>
       <c r="J191" t="n">
-        <v>0.02180921592849179</v>
+        <v>0.02187616760642148</v>
       </c>
       <c r="K191" t="n">
-        <v>0.2072686282571536</v>
+        <v>0.1049413921565032</v>
       </c>
       <c r="L191" t="n">
-        <v>0.04810991439883916</v>
+        <v>0.04801236973212758</v>
       </c>
       <c r="M191" t="n">
-        <v>0.2075132252757517</v>
+        <v>0.1032259369565933</v>
       </c>
       <c r="N191" t="n">
-        <v>0.07440429198593074</v>
+        <v>0.07475332865484635</v>
       </c>
       <c r="O191" t="n">
-        <v>0.2076848723063469</v>
+        <v>0.102767156861603</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02440241690862689</v>
+        <v>0.01141784627527301</v>
       </c>
       <c r="G192" t="n">
-        <v>0.207942147611669</v>
+        <v>0.0509311504640016</v>
       </c>
       <c r="J192" t="n">
-        <v>0.02176069758522604</v>
+        <v>0.0216546909218208</v>
       </c>
       <c r="K192" t="n">
-        <v>0.2089136173703056</v>
+        <v>0.1057742603482215</v>
       </c>
       <c r="L192" t="n">
-        <v>0.0482241228688163</v>
+        <v>0.04807226496910094</v>
       </c>
       <c r="M192" t="n">
-        <v>0.2091601556350831</v>
+        <v>0.1040451904245028</v>
       </c>
       <c r="N192" t="n">
-        <v>0.07408147044916463</v>
+        <v>0.07409215504472033</v>
       </c>
       <c r="O192" t="n">
-        <v>0.2093331649436989</v>
+        <v>0.1035827692176475</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02446213055240827</v>
+        <v>0.01123781223715038</v>
       </c>
       <c r="G193" t="n">
-        <v>0.2095794873566428</v>
+        <v>0.05093088193553759</v>
       </c>
       <c r="J193" t="n">
-        <v>0.021910853879696</v>
+        <v>0.02173614148248058</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2105586064834576</v>
+        <v>0.1066071285399398</v>
       </c>
       <c r="L193" t="n">
-        <v>0.04823539780800074</v>
+        <v>0.04773339850372751</v>
       </c>
       <c r="M193" t="n">
-        <v>0.2108070859944144</v>
+        <v>0.1048644438924123</v>
       </c>
       <c r="N193" t="n">
-        <v>0.07465410520989735</v>
+        <v>0.07433286241095016</v>
       </c>
       <c r="O193" t="n">
-        <v>0.2109814575810508</v>
+        <v>0.1043983815736919</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02552022792313974</v>
+        <v>0.01105995830561782</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2112168271016165</v>
+        <v>0.05093061340707357</v>
       </c>
       <c r="J194" t="n">
-        <v>0.0219596649187007</v>
+        <v>0.0217181740575693</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2122035955966096</v>
+        <v>0.1074399967316581</v>
       </c>
       <c r="L194" t="n">
-        <v>0.04834369507691921</v>
+        <v>0.04779573253589411</v>
       </c>
       <c r="M194" t="n">
-        <v>0.2124540163537458</v>
+        <v>0.1056836973603217</v>
       </c>
       <c r="N194" t="n">
-        <v>0.07502212778323092</v>
+        <v>0.07447539302639616</v>
       </c>
       <c r="O194" t="n">
-        <v>0.2126297502184028</v>
+        <v>0.1052139939297364</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02657668534662559</v>
+        <v>0.0108848768289436</v>
       </c>
       <c r="G195" t="n">
-        <v>0.2128541668465903</v>
+        <v>0.05093034487860956</v>
       </c>
       <c r="J195" t="n">
-        <v>0.02190711080903925</v>
+        <v>0.02180077068399025</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2138485847097616</v>
+        <v>0.1082728649233764</v>
       </c>
       <c r="L195" t="n">
-        <v>0.04834897053609857</v>
+        <v>0.04815922926548771</v>
       </c>
       <c r="M195" t="n">
-        <v>0.2141009467130771</v>
+        <v>0.1065029508282312</v>
       </c>
       <c r="N195" t="n">
-        <v>0.07478546968426697</v>
+        <v>0.07441968916391795</v>
       </c>
       <c r="O195" t="n">
-        <v>0.2142780428557547</v>
+        <v>0.1060296062857809</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02563147914867013</v>
+        <v>0.01071316015538073</v>
       </c>
       <c r="G196" t="n">
-        <v>0.2144915065915641</v>
+        <v>0.05093007635014554</v>
       </c>
       <c r="J196" t="n">
-        <v>0.02185317165751063</v>
+        <v>0.0215839133986467</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2154935738229136</v>
+        <v>0.1091057331150947</v>
       </c>
       <c r="L196" t="n">
-        <v>0.04875118004606555</v>
+        <v>0.04812385089239515</v>
       </c>
       <c r="M196" t="n">
-        <v>0.2157478770724085</v>
+        <v>0.1073222042961407</v>
       </c>
       <c r="N196" t="n">
-        <v>0.07544406242810731</v>
+        <v>0.0737656930963756</v>
       </c>
       <c r="O196" t="n">
-        <v>0.2159263354931067</v>
+        <v>0.1068452186418253</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02668458565507771</v>
+        <v>0.01054540063319721</v>
       </c>
       <c r="G197" t="n">
-        <v>0.2161288463365378</v>
+        <v>0.05092980782168152</v>
       </c>
       <c r="J197" t="n">
-        <v>0.02199782757091401</v>
+        <v>0.02166758423844196</v>
       </c>
       <c r="K197" t="n">
-        <v>0.2171385629360657</v>
+        <v>0.1099386013068129</v>
       </c>
       <c r="L197" t="n">
-        <v>0.04885027946734685</v>
+        <v>0.04758955961650332</v>
       </c>
       <c r="M197" t="n">
-        <v>0.2173948074317399</v>
+        <v>0.1081414577640502</v>
       </c>
       <c r="N197" t="n">
-        <v>0.07519783752985371</v>
+        <v>0.07421334709662891</v>
       </c>
       <c r="O197" t="n">
-        <v>0.2175746281304587</v>
+        <v>0.1076608309978698</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02473598119165263</v>
+        <v>0.01038219061064987</v>
       </c>
       <c r="G198" t="n">
-        <v>0.2177661860815116</v>
+        <v>0.05092953929321751</v>
       </c>
       <c r="J198" t="n">
-        <v>0.02204105865604834</v>
+        <v>0.02165176524027936</v>
       </c>
       <c r="K198" t="n">
-        <v>0.2187835520492176</v>
+        <v>0.1107714694985312</v>
       </c>
       <c r="L198" t="n">
-        <v>0.04854622466046926</v>
+        <v>0.04775631763769908</v>
       </c>
       <c r="M198" t="n">
-        <v>0.2190417377910713</v>
+        <v>0.1089607112319596</v>
       </c>
       <c r="N198" t="n">
-        <v>0.07554672650460792</v>
+        <v>0.07366259343753795</v>
       </c>
       <c r="O198" t="n">
-        <v>0.2192229207678106</v>
+        <v>0.1084764433539143</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.0257856420841992</v>
+        <v>0.01022412243599586</v>
       </c>
       <c r="G199" t="n">
-        <v>0.2194035258264854</v>
+        <v>0.05092927076475349</v>
       </c>
       <c r="J199" t="n">
-        <v>0.02218284501971275</v>
+        <v>0.02153643844106212</v>
       </c>
       <c r="K199" t="n">
-        <v>0.2204285411623697</v>
+        <v>0.1116043376902495</v>
       </c>
       <c r="L199" t="n">
-        <v>0.04863897148595961</v>
+        <v>0.04782408715586933</v>
       </c>
       <c r="M199" t="n">
-        <v>0.2206886681504026</v>
+        <v>0.1097799646998691</v>
       </c>
       <c r="N199" t="n">
-        <v>0.0758906608674717</v>
+        <v>0.07371337439196246</v>
       </c>
       <c r="O199" t="n">
-        <v>0.2208712134051626</v>
+        <v>0.1092920557099587</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02483354465852176</v>
+        <v>0.01007178845750265</v>
       </c>
       <c r="G200" t="n">
-        <v>0.2210408655714592</v>
+        <v>0.05092900223628947</v>
       </c>
       <c r="J200" t="n">
-        <v>0.02212316676870628</v>
+        <v>0.02162158587769358</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2220735302755217</v>
+        <v>0.1124372058819678</v>
       </c>
       <c r="L200" t="n">
-        <v>0.0488284758043446</v>
+        <v>0.04799283037090096</v>
       </c>
       <c r="M200" t="n">
-        <v>0.222335598509734</v>
+        <v>0.1105992181677786</v>
       </c>
       <c r="N200" t="n">
-        <v>0.07572957213354692</v>
+        <v>0.07356563223276258</v>
       </c>
       <c r="O200" t="n">
-        <v>0.2225195060425146</v>
+        <v>0.1101076680660032</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02587966524042461</v>
+        <v>0.009925781023424174</v>
       </c>
       <c r="G201" t="n">
-        <v>0.2226782053164329</v>
+        <v>0.05092873370782545</v>
       </c>
       <c r="J201" t="n">
-        <v>0.02226200400982799</v>
+        <v>0.02170718958707704</v>
       </c>
       <c r="K201" t="n">
-        <v>0.2237185193886737</v>
+        <v>0.113270074073686</v>
       </c>
       <c r="L201" t="n">
-        <v>0.04881469347615092</v>
+        <v>0.04756250948268087</v>
       </c>
       <c r="M201" t="n">
-        <v>0.2239825288690653</v>
+        <v>0.111418471635688</v>
       </c>
       <c r="N201" t="n">
-        <v>0.07616339181793524</v>
+        <v>0.0737193092327979</v>
       </c>
       <c r="O201" t="n">
-        <v>0.2241677986798665</v>
+        <v>0.1109232804220477</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02592398015571205</v>
+        <v>0.009786692482027383</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2243155450614067</v>
+        <v>0.05092846517936143</v>
       </c>
       <c r="J202" t="n">
-        <v>0.02209933684987693</v>
+        <v>0.02169323160611579</v>
       </c>
       <c r="K202" t="n">
-        <v>0.2253635085018257</v>
+        <v>0.1141029422654043</v>
       </c>
       <c r="L202" t="n">
-        <v>0.04929758036190549</v>
+        <v>0.04773308669109594</v>
       </c>
       <c r="M202" t="n">
-        <v>0.2256294592283966</v>
+        <v>0.1122377251035975</v>
       </c>
       <c r="N202" t="n">
-        <v>0.07579205143573853</v>
+        <v>0.07397434766492877</v>
       </c>
       <c r="O202" t="n">
-        <v>0.2258160913172185</v>
+        <v>0.1117388927780921</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02496646573018842</v>
+        <v>0.009655115181566802</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2259528848063805</v>
+        <v>0.05092819665089741</v>
       </c>
       <c r="J203" t="n">
-        <v>0.02233514539565218</v>
+        <v>0.02147969397171309</v>
       </c>
       <c r="K203" t="n">
-        <v>0.2270084976149777</v>
+        <v>0.1149358104571226</v>
       </c>
       <c r="L203" t="n">
-        <v>0.04937709232213497</v>
+        <v>0.04780452419603309</v>
       </c>
       <c r="M203" t="n">
-        <v>0.227276389587728</v>
+        <v>0.113056978571507</v>
       </c>
       <c r="N203" t="n">
-        <v>0.07601548250205842</v>
+        <v>0.07353068980201471</v>
       </c>
       <c r="O203" t="n">
-        <v>0.2274643839545704</v>
+        <v>0.1125545051341366</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02700709828965803</v>
+        <v>0.009531641470308723</v>
       </c>
       <c r="G204" t="n">
-        <v>0.2275902245513542</v>
+        <v>0.0509279281224334</v>
       </c>
       <c r="J204" t="n">
-        <v>0.02216940975395279</v>
+        <v>0.02156655872077227</v>
       </c>
       <c r="K204" t="n">
-        <v>0.2286534867281297</v>
+        <v>0.1157686786488409</v>
       </c>
       <c r="L204" t="n">
-        <v>0.04935318521736615</v>
+        <v>0.04787678419737909</v>
       </c>
       <c r="M204" t="n">
-        <v>0.2289233199470594</v>
+        <v>0.1138762320394165</v>
       </c>
       <c r="N204" t="n">
-        <v>0.07583361653199683</v>
+        <v>0.07388827791691593</v>
       </c>
       <c r="O204" t="n">
-        <v>0.2291126765919224</v>
+        <v>0.1133701174901811</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02604585415992519</v>
+        <v>0.009416863696508362</v>
       </c>
       <c r="G205" t="n">
-        <v>0.229227564296328</v>
+        <v>0.05092765959396938</v>
       </c>
       <c r="J205" t="n">
-        <v>0.02220211003157781</v>
+        <v>0.02165380789019662</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2302984758412817</v>
+        <v>0.1166015468405592</v>
       </c>
       <c r="L205" t="n">
-        <v>0.04942581490812578</v>
+        <v>0.04734982889502096</v>
       </c>
       <c r="M205" t="n">
-        <v>0.2305702503063908</v>
+        <v>0.1146954855073259</v>
       </c>
       <c r="N205" t="n">
-        <v>0.07604638504065547</v>
+        <v>0.07364705428249207</v>
       </c>
       <c r="O205" t="n">
-        <v>0.2307609692292744</v>
+        <v>0.1141857298462255</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02708270966679426</v>
+        <v>0.009311374208431297</v>
       </c>
       <c r="G206" t="n">
-        <v>0.2308649040413018</v>
+        <v>0.05092739106550537</v>
       </c>
       <c r="J206" t="n">
-        <v>0.02243322633532635</v>
+        <v>0.02154142351688942</v>
       </c>
       <c r="K206" t="n">
-        <v>0.2319434649544337</v>
+        <v>0.1174344150322774</v>
       </c>
       <c r="L206" t="n">
-        <v>0.04929493725494064</v>
+        <v>0.0478236204888455</v>
       </c>
       <c r="M206" t="n">
-        <v>0.2322171806657221</v>
+        <v>0.1155147389752354</v>
       </c>
       <c r="N206" t="n">
-        <v>0.07655371954313611</v>
+        <v>0.07400696117160327</v>
       </c>
       <c r="O206" t="n">
-        <v>0.2324092618666263</v>
+        <v>0.11500134220227</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02711764113606947</v>
+        <v>0.009215765354333508</v>
       </c>
       <c r="G207" t="n">
-        <v>0.2325022437862755</v>
+        <v>0.05092712253704135</v>
       </c>
       <c r="J207" t="n">
-        <v>0.02246273877199739</v>
+        <v>0.02162938763775399</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2335884540675858</v>
+        <v>0.1182672832239957</v>
       </c>
       <c r="L207" t="n">
-        <v>0.04926050811833743</v>
+        <v>0.04729812117873963</v>
       </c>
       <c r="M207" t="n">
-        <v>0.2338641110250535</v>
+        <v>0.1163339924431449</v>
       </c>
       <c r="N207" t="n">
-        <v>0.07645555155454054</v>
+        <v>0.07396794085710945</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2340575545039783</v>
+        <v>0.1158169545583145</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02515062489355521</v>
+        <v>0.009130629482479738</v>
       </c>
       <c r="G208" t="n">
-        <v>0.2341395835312493</v>
+        <v>0.05092685400857733</v>
       </c>
       <c r="J208" t="n">
-        <v>0.02249062744839007</v>
+        <v>0.02141768228969358</v>
       </c>
       <c r="K208" t="n">
-        <v>0.2352334431807378</v>
+        <v>0.119100151415714</v>
       </c>
       <c r="L208" t="n">
-        <v>0.04932248335884301</v>
+        <v>0.04767329316459021</v>
       </c>
       <c r="M208" t="n">
-        <v>0.2355110413843848</v>
+        <v>0.1171532459110543</v>
       </c>
       <c r="N208" t="n">
-        <v>0.07685181258997054</v>
+        <v>0.07322993561187036</v>
       </c>
       <c r="O208" t="n">
-        <v>0.2357058471413302</v>
+        <v>0.1166325669143589</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02618163726505578</v>
+        <v>0.009056558941126863</v>
       </c>
       <c r="G209" t="n">
-        <v>0.2357769232762231</v>
+        <v>0.05092658548011331</v>
       </c>
       <c r="J209" t="n">
-        <v>0.02231687247130339</v>
+        <v>0.02150628950961155</v>
       </c>
       <c r="K209" t="n">
-        <v>0.2368784322938898</v>
+        <v>0.1199330196074323</v>
       </c>
       <c r="L209" t="n">
-        <v>0.0494808188369841</v>
+        <v>0.04764909864628414</v>
       </c>
       <c r="M209" t="n">
-        <v>0.2371579717437162</v>
+        <v>0.1179724993789638</v>
       </c>
       <c r="N209" t="n">
-        <v>0.07644243416452778</v>
+        <v>0.07329288770874609</v>
       </c>
       <c r="O209" t="n">
-        <v>0.2373541397786822</v>
+        <v>0.1174481792704034</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02521065457637546</v>
+        <v>0.008994146078538691</v>
       </c>
       <c r="G210" t="n">
-        <v>0.2374142630211969</v>
+        <v>0.0509263169516493</v>
       </c>
       <c r="J210" t="n">
-        <v>0.02244145394753645</v>
+        <v>0.0213951913344111</v>
       </c>
       <c r="K210" t="n">
-        <v>0.2385234214070418</v>
+        <v>0.1207658877991506</v>
       </c>
       <c r="L210" t="n">
-        <v>0.04973547041328746</v>
+        <v>0.0472254998237083</v>
       </c>
       <c r="M210" t="n">
-        <v>0.2388049021030476</v>
+        <v>0.1187917528468733</v>
       </c>
       <c r="N210" t="n">
-        <v>0.07702734779331416</v>
+        <v>0.07345673942059638</v>
       </c>
       <c r="O210" t="n">
-        <v>0.2390024324160341</v>
+        <v>0.1182637916264479</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02523765315331862</v>
+        <v>0.008943983242973082</v>
       </c>
       <c r="G211" t="n">
-        <v>0.2390516027661706</v>
+        <v>0.05092604842318528</v>
       </c>
       <c r="J211" t="n">
-        <v>0.02236435198388829</v>
+        <v>0.02158436980099561</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2401684105201938</v>
+        <v>0.1215987559908688</v>
       </c>
       <c r="L211" t="n">
-        <v>0.04958639394827985</v>
+        <v>0.04770245889674959</v>
       </c>
       <c r="M211" t="n">
-        <v>0.2404518324623789</v>
+        <v>0.1196110063147828</v>
       </c>
       <c r="N211" t="n">
-        <v>0.07670648499143129</v>
+        <v>0.07322143302028139</v>
       </c>
       <c r="O211" t="n">
-        <v>0.2406507250533861</v>
+        <v>0.1190794039824923</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02626260932168956</v>
+        <v>0.008906662782692795</v>
       </c>
       <c r="G212" t="n">
-        <v>0.2406889425111444</v>
+        <v>0.05092577989472127</v>
       </c>
       <c r="J212" t="n">
-        <v>0.02248554668715799</v>
+        <v>0.02137380694626834</v>
       </c>
       <c r="K212" t="n">
-        <v>0.2418133996333458</v>
+        <v>0.1224316241825871</v>
       </c>
       <c r="L212" t="n">
-        <v>0.04983354530248801</v>
+        <v>0.0475799380652949</v>
       </c>
       <c r="M212" t="n">
-        <v>0.2420987628217103</v>
+        <v>0.1204302597826922</v>
       </c>
       <c r="N212" t="n">
-        <v>0.0769797772739812</v>
+        <v>0.07308691078066082</v>
       </c>
       <c r="O212" t="n">
-        <v>0.2422990176907381</v>
+        <v>0.1198950163385368</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02628549940729256</v>
+        <v>0.008882777045956781</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2423262822561182</v>
+        <v>0.05092551136625725</v>
       </c>
       <c r="J213" t="n">
-        <v>0.02240501816414457</v>
+        <v>0.02136348480713259</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2434583887464978</v>
+        <v>0.1232644923743054</v>
       </c>
       <c r="L213" t="n">
-        <v>0.04967688033643874</v>
+        <v>0.04755789952923109</v>
       </c>
       <c r="M213" t="n">
-        <v>0.2437456931810417</v>
+        <v>0.1212495132506017</v>
       </c>
       <c r="N213" t="n">
-        <v>0.07724715615606553</v>
+        <v>0.07305311497459471</v>
       </c>
       <c r="O213" t="n">
-        <v>0.24394731032809</v>
+        <v>0.1207106286945813</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02730629973593197</v>
+        <v>0.008872918381026676</v>
       </c>
       <c r="G214" t="n">
-        <v>0.243963622001092</v>
+        <v>0.05092524283779323</v>
       </c>
       <c r="J214" t="n">
-        <v>0.02252274652164715</v>
+        <v>0.02135338542049164</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2451033778596499</v>
+        <v>0.1240973605660237</v>
       </c>
       <c r="L214" t="n">
-        <v>0.05001635491065876</v>
+        <v>0.04743630548844502</v>
       </c>
       <c r="M214" t="n">
-        <v>0.245392623540373</v>
+        <v>0.1220687667185111</v>
       </c>
       <c r="N214" t="n">
-        <v>0.07740855315278589</v>
+        <v>0.07331998787494282</v>
       </c>
       <c r="O214" t="n">
-        <v>0.245595602965442</v>
+        <v>0.1215262410506257</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02732498663341212</v>
+        <v>0.008872918381026676</v>
       </c>
       <c r="G215" t="n">
-        <v>0.2456009617460657</v>
+        <v>0.05092524283779323</v>
       </c>
       <c r="J215" t="n">
-        <v>0.02243871186646473</v>
+        <v>0.0214434908232488</v>
       </c>
       <c r="K215" t="n">
-        <v>0.2467483669728019</v>
+        <v>0.124930228757742</v>
       </c>
       <c r="L215" t="n">
-        <v>0.04985192488567486</v>
+        <v>0.04731511814282366</v>
       </c>
       <c r="M215" t="n">
-        <v>0.2470395538997044</v>
+        <v>0.1228880201864206</v>
       </c>
       <c r="N215" t="n">
-        <v>0.07746389977924428</v>
+        <v>0.07328747175456529</v>
       </c>
       <c r="O215" t="n">
-        <v>0.2472438956027939</v>
+        <v>0.1223418534066702</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.0263415364255373</v>
+        <v>0.008587497554610919</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2472383014910395</v>
+        <v>0.05089819003239784</v>
       </c>
       <c r="J216" t="n">
-        <v>0.02265289430539642</v>
+        <v>0.02143378305230735</v>
       </c>
       <c r="K216" t="n">
-        <v>0.2483933560859539</v>
+        <v>0.1257630969494603</v>
       </c>
       <c r="L216" t="n">
-        <v>0.04988354612201384</v>
+        <v>0.0471942996922538</v>
       </c>
       <c r="M216" t="n">
-        <v>0.2486864842590358</v>
+        <v>0.1237072736543301</v>
       </c>
       <c r="N216" t="n">
-        <v>0.07751312755054235</v>
+        <v>0.07365550888632189</v>
       </c>
       <c r="O216" t="n">
-        <v>0.2488921882401459</v>
+        <v>0.1231574657627147</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02535592543811183</v>
+        <v>0.00830488491765749</v>
       </c>
       <c r="G217" t="n">
-        <v>0.2488756412360132</v>
+        <v>0.05087113722700243</v>
       </c>
       <c r="J217" t="n">
-        <v>0.02256527394524126</v>
+        <v>0.0214242441445706</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2500383451991059</v>
+        <v>0.1265959651411785</v>
       </c>
       <c r="L217" t="n">
-        <v>0.04971117448020237</v>
+        <v>0.04727381233662242</v>
       </c>
       <c r="M217" t="n">
-        <v>0.2503334146183671</v>
+        <v>0.1245265271222396</v>
       </c>
       <c r="N217" t="n">
-        <v>0.07755616798178194</v>
+        <v>0.07292404154307269</v>
       </c>
       <c r="O217" t="n">
-        <v>0.2505404808774979</v>
+        <v>0.1239730781187592</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02636812999694003</v>
+        <v>0.00802587053248021</v>
       </c>
       <c r="G218" t="n">
-        <v>0.2505129809809871</v>
+        <v>0.05084408442160704</v>
       </c>
       <c r="J218" t="n">
-        <v>0.0224758308927983</v>
+        <v>0.02141485613694184</v>
       </c>
       <c r="K218" t="n">
-        <v>0.2516833343122579</v>
+        <v>0.1274288333328968</v>
       </c>
       <c r="L218" t="n">
-        <v>0.05003476582076732</v>
+        <v>0.04705361827581633</v>
       </c>
       <c r="M218" t="n">
-        <v>0.2519803449776984</v>
+        <v>0.125345780590149</v>
       </c>
       <c r="N218" t="n">
-        <v>0.07689295258806489</v>
+        <v>0.07349301199767733</v>
       </c>
       <c r="O218" t="n">
-        <v>0.2521887735148498</v>
+        <v>0.1247886904748036</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02637812642782623</v>
+        <v>0.007751244461392658</v>
       </c>
       <c r="G219" t="n">
-        <v>0.2521503207259608</v>
+        <v>0.05081703161621164</v>
       </c>
       <c r="J219" t="n">
-        <v>0.02268454525486661</v>
+        <v>0.02140560106632435</v>
       </c>
       <c r="K219" t="n">
-        <v>0.25332832342541</v>
+        <v>0.1282617015246151</v>
       </c>
       <c r="L219" t="n">
-        <v>0.04975427600423535</v>
+        <v>0.04743367970972248</v>
       </c>
       <c r="M219" t="n">
-        <v>0.2536272753370298</v>
+        <v>0.1261650340580585</v>
       </c>
       <c r="N219" t="n">
-        <v>0.0776234128844927</v>
+        <v>0.07296236252299598</v>
       </c>
       <c r="O219" t="n">
-        <v>0.2538370661522018</v>
+        <v>0.1256043028308481</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02638589105657473</v>
+        <v>0.007481796766708668</v>
       </c>
       <c r="G220" t="n">
-        <v>0.2537876604709346</v>
+        <v>0.05078997881081624</v>
       </c>
       <c r="J220" t="n">
-        <v>0.02269139713824526</v>
+        <v>0.02129646096962144</v>
       </c>
       <c r="K220" t="n">
-        <v>0.254973312538562</v>
+        <v>0.1290945697163334</v>
       </c>
       <c r="L220" t="n">
-        <v>0.05006966089113332</v>
+        <v>0.04721395883822768</v>
       </c>
       <c r="M220" t="n">
-        <v>0.2552742056963612</v>
+        <v>0.126984287525968</v>
       </c>
       <c r="N220" t="n">
-        <v>0.07694748038616744</v>
+        <v>0.07303203539188841</v>
       </c>
       <c r="O220" t="n">
-        <v>0.2554853587895538</v>
+        <v>0.1264199151868926</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02739140020898984</v>
+        <v>0.007218317510741853</v>
       </c>
       <c r="G221" t="n">
-        <v>0.2554250002159084</v>
+        <v>0.05076292600542085</v>
       </c>
       <c r="J221" t="n">
-        <v>0.0225963666497333</v>
+        <v>0.02138741788373641</v>
       </c>
       <c r="K221" t="n">
-        <v>0.256618301651714</v>
+        <v>0.1299274379080516</v>
       </c>
       <c r="L221" t="n">
-        <v>0.04998087634198789</v>
+        <v>0.04699441786121886</v>
       </c>
       <c r="M221" t="n">
-        <v>0.2569211360556926</v>
+        <v>0.1278035409938774</v>
       </c>
       <c r="N221" t="n">
-        <v>0.07696508660819068</v>
+        <v>0.07320197287721464</v>
       </c>
       <c r="O221" t="n">
-        <v>0.2571336514269057</v>
+        <v>0.127235527542937</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.0253946302108759</v>
+        <v>0.006961596755805884</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2570623399608822</v>
+        <v>0.05073587320002545</v>
       </c>
       <c r="J222" t="n">
-        <v>0.0226994338961298</v>
+        <v>0.02147845384557251</v>
       </c>
       <c r="K222" t="n">
-        <v>0.258263290764866</v>
+        <v>0.1307603060997699</v>
       </c>
       <c r="L222" t="n">
-        <v>0.05008787821732591</v>
+        <v>0.04717501897858292</v>
       </c>
       <c r="M222" t="n">
-        <v>0.2585680664150239</v>
+        <v>0.1286227944617869</v>
       </c>
       <c r="N222" t="n">
-        <v>0.07717616306566433</v>
+        <v>0.0730721172518346</v>
       </c>
       <c r="O222" t="n">
-        <v>0.2587819440642576</v>
+        <v>0.1280511398989815</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02539520374292045</v>
+        <v>0.006712424564214566</v>
       </c>
       <c r="G223" t="n">
-        <v>0.2586996797058559</v>
+        <v>0.05070882039463005</v>
       </c>
       <c r="J223" t="n">
-        <v>0.0225005789842338</v>
+        <v>0.02126955089203307</v>
       </c>
       <c r="K223" t="n">
-        <v>0.259908279878018</v>
+        <v>0.1315931742914882</v>
       </c>
       <c r="L223" t="n">
-        <v>0.05009062237767409</v>
+        <v>0.0472557243902067</v>
       </c>
       <c r="M223" t="n">
-        <v>0.2602149967743553</v>
+        <v>0.1294420479296964</v>
       </c>
       <c r="N223" t="n">
-        <v>0.07718064127369006</v>
+        <v>0.07334241078860815</v>
       </c>
       <c r="O223" t="n">
-        <v>0.2604302367016096</v>
+        <v>0.128866752255026</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02735272376927271</v>
+        <v>0.006471590998281491</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2603370194508297</v>
+        <v>0.05068176758923465</v>
       </c>
       <c r="J224" t="n">
-        <v>0.02267596544131428</v>
+        <v>0.02146069106002142</v>
       </c>
       <c r="K224" t="n">
-        <v>0.26155326899117</v>
+        <v>0.1324260424832065</v>
       </c>
       <c r="L224" t="n">
-        <v>0.05004165493827992</v>
+        <v>0.04733649629597714</v>
       </c>
       <c r="M224" t="n">
-        <v>0.2618619271336867</v>
+        <v>0.1302613013976059</v>
       </c>
       <c r="N224" t="n">
-        <v>0.07751052971675754</v>
+        <v>0.0730127957603951</v>
       </c>
       <c r="O224" t="n">
-        <v>0.2620785293389616</v>
+        <v>0.1296823646110704</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02524481418335105</v>
+        <v>0.006239886120320469</v>
       </c>
       <c r="G225" t="n">
-        <v>0.2619743591958034</v>
+        <v>0.05065471478383926</v>
       </c>
       <c r="J225" t="n">
-        <v>0.02239572318728966</v>
+        <v>0.02145185638644079</v>
       </c>
       <c r="K225" t="n">
-        <v>0.263198258104322</v>
+        <v>0.1332589106749248</v>
       </c>
       <c r="L225" t="n">
-        <v>0.0495694931346678</v>
+        <v>0.04711729689578104</v>
       </c>
       <c r="M225" t="n">
-        <v>0.263508857493018</v>
+        <v>0.1310805548655153</v>
       </c>
       <c r="N225" t="n">
-        <v>0.07664981712012087</v>
+        <v>0.07308321444005561</v>
       </c>
       <c r="O225" t="n">
-        <v>0.2637268219763135</v>
+        <v>0.1304979769671149</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02507885525899599</v>
+        <v>0.006018099992645139</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2636116989407772</v>
+        <v>0.05062766197844387</v>
       </c>
       <c r="J226" t="n">
-        <v>0.02236580477149025</v>
+        <v>0.02134302890819449</v>
       </c>
       <c r="K226" t="n">
-        <v>0.264843247217474</v>
+        <v>0.134091778866643</v>
       </c>
       <c r="L226" t="n">
-        <v>0.04948660613774969</v>
+        <v>0.04719808838950534</v>
       </c>
       <c r="M226" t="n">
-        <v>0.2651557878523494</v>
+        <v>0.1318998083334248</v>
       </c>
       <c r="N226" t="n">
-        <v>0.07641676192906244</v>
+        <v>0.07315360910044943</v>
       </c>
       <c r="O226" t="n">
-        <v>0.2653751146136655</v>
+        <v>0.1313135893231594</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02586222727004801</v>
+        <v>0.005807022677569162</v>
       </c>
       <c r="G227" t="n">
-        <v>0.265249038685751</v>
+        <v>0.05060060917304846</v>
       </c>
       <c r="J227" t="n">
-        <v>0.02219241176766579</v>
+        <v>0.02133419066218582</v>
       </c>
       <c r="K227" t="n">
-        <v>0.266488236330626</v>
+        <v>0.1349246470583613</v>
       </c>
       <c r="L227" t="n">
-        <v>0.04890675413621487</v>
+        <v>0.04697883297703698</v>
       </c>
       <c r="M227" t="n">
-        <v>0.2668027182116807</v>
+        <v>0.1327190618013343</v>
       </c>
       <c r="N227" t="n">
-        <v>0.07623271385740654</v>
+        <v>0.07262392201443657</v>
       </c>
       <c r="O227" t="n">
-        <v>0.2670234072510175</v>
+        <v>0.1321292016792038</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.02560231049034764</v>
+        <v>0.005607444237406334</v>
       </c>
       <c r="G228" t="n">
-        <v>0.2668863784307248</v>
+        <v>0.05057355636765307</v>
       </c>
       <c r="J228" t="n">
-        <v>0.02198174574956605</v>
+        <v>0.0212253236853181</v>
       </c>
       <c r="K228" t="n">
-        <v>0.268133225443778</v>
+        <v>0.1357575152500796</v>
       </c>
       <c r="L228" t="n">
-        <v>0.04884369731875263</v>
+        <v>0.04735949285826271</v>
       </c>
       <c r="M228" t="n">
-        <v>0.2684496485710121</v>
+        <v>0.1335383152692438</v>
       </c>
       <c r="N228" t="n">
-        <v>0.07491902261897754</v>
+        <v>0.07329409545487675</v>
       </c>
       <c r="O228" t="n">
-        <v>0.2686716998883694</v>
+        <v>0.1329448140352483</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02630648519373541</v>
+        <v>0.005420154734470307</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2685237181756985</v>
+        <v>0.05054650356225767</v>
       </c>
       <c r="J229" t="n">
-        <v>0.02184000829094072</v>
+        <v>0.02141641001449458</v>
       </c>
       <c r="K229" t="n">
-        <v>0.26977821455693</v>
+        <v>0.1365903834417979</v>
       </c>
       <c r="L229" t="n">
-        <v>0.04781119587405222</v>
+        <v>0.04684003023306957</v>
       </c>
       <c r="M229" t="n">
-        <v>0.2700965789303435</v>
+        <v>0.1343575687371532</v>
       </c>
       <c r="N229" t="n">
-        <v>0.07429703792759984</v>
+        <v>0.07266407169463013</v>
       </c>
       <c r="O229" t="n">
-        <v>0.2703199925257214</v>
+        <v>0.1337604263912928</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.02498213165405176</v>
+        <v>0.005245944231074738</v>
       </c>
       <c r="G230" t="n">
-        <v>0.2701610579206723</v>
+        <v>0.05051945075686227</v>
       </c>
       <c r="J230" t="n">
-        <v>0.02147340096553958</v>
+        <v>0.02140743168661857</v>
       </c>
       <c r="K230" t="n">
-        <v>0.271423203670082</v>
+        <v>0.1374232516335162</v>
       </c>
       <c r="L230" t="n">
-        <v>0.04762300999080299</v>
+        <v>0.04732040730134435</v>
       </c>
       <c r="M230" t="n">
-        <v>0.2717435092896748</v>
+        <v>0.1351768222050627</v>
       </c>
       <c r="N230" t="n">
-        <v>0.0731881094970977</v>
+        <v>0.07313379300655654</v>
       </c>
       <c r="O230" t="n">
-        <v>0.2719682851630734</v>
+        <v>0.1345760387473373</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.02463663014513728</v>
+        <v>0.005085602789533419</v>
       </c>
       <c r="G231" t="n">
-        <v>0.2717983976656461</v>
+        <v>0.05049239795146688</v>
       </c>
       <c r="J231" t="n">
-        <v>0.02108812534711239</v>
+        <v>0.02139837073859339</v>
       </c>
       <c r="K231" t="n">
-        <v>0.2730681927832341</v>
+        <v>0.1382561198252344</v>
       </c>
       <c r="L231" t="n">
-        <v>0.0468928998576941</v>
+        <v>0.04690058626297389</v>
       </c>
       <c r="M231" t="n">
-        <v>0.2733904396490062</v>
+        <v>0.1359960756729722</v>
       </c>
       <c r="N231" t="n">
-        <v>0.07241358704129547</v>
+        <v>0.07300320166351587</v>
       </c>
       <c r="O231" t="n">
-        <v>0.2736165778004253</v>
+        <v>0.1353916511033817</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.02427736094083241</v>
+        <v>0.004939920472159978</v>
       </c>
       <c r="G232" t="n">
-        <v>0.2734357374106199</v>
+        <v>0.05046534514607148</v>
       </c>
       <c r="J232" t="n">
-        <v>0.02099038300940892</v>
+        <v>0.02138921695328169</v>
       </c>
       <c r="K232" t="n">
-        <v>0.274713181896386</v>
+        <v>0.1390889880169527</v>
       </c>
       <c r="L232" t="n">
-        <v>0.04623462566341488</v>
+        <v>0.04728067028838098</v>
       </c>
       <c r="M232" t="n">
-        <v>0.2750373700083376</v>
+        <v>0.1368153291408817</v>
       </c>
       <c r="N232" t="n">
-        <v>0.07179482027401762</v>
+        <v>0.07267254174318105</v>
       </c>
       <c r="O232" t="n">
-        <v>0.2752648704377773</v>
+        <v>0.1362072634594262</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.02391170431497772</v>
+        <v>0.004809687341268173</v>
       </c>
       <c r="G233" t="n">
-        <v>0.2750730771555936</v>
+        <v>0.05043829234067608</v>
       </c>
       <c r="J233" t="n">
-        <v>0.02058637552617884</v>
+        <v>0.02128009310376125</v>
       </c>
       <c r="K233" t="n">
-        <v>0.2763581710095381</v>
+        <v>0.139921856208671</v>
       </c>
       <c r="L233" t="n">
-        <v>0.04576194759665464</v>
+        <v>0.04676091563402981</v>
       </c>
       <c r="M233" t="n">
-        <v>0.2766843003676689</v>
+        <v>0.1376345826087911</v>
       </c>
       <c r="N233" t="n">
-        <v>0.07065315890908835</v>
+        <v>0.07264213970969013</v>
       </c>
       <c r="O233" t="n">
-        <v>0.2769131630751292</v>
+        <v>0.1370228758154707</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.02354704054141367</v>
+        <v>0.004695693459171667</v>
       </c>
       <c r="G234" t="n">
-        <v>0.2767104169005674</v>
+        <v>0.05041123953528068</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02018230447117196</v>
+        <v>0.02127104846985621</v>
       </c>
       <c r="K234" t="n">
-        <v>0.2780031601226901</v>
+        <v>0.1407547244003893</v>
       </c>
       <c r="L234" t="n">
-        <v>0.04488862584610265</v>
+        <v>0.04704133213487305</v>
       </c>
       <c r="M234" t="n">
-        <v>0.2783312307270003</v>
+        <v>0.1384538360767006</v>
       </c>
       <c r="N234" t="n">
-        <v>0.06950995266033205</v>
+        <v>0.07291200091918754</v>
       </c>
       <c r="O234" t="n">
-        <v>0.2785614557124811</v>
+        <v>0.1378384881715151</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.02419074989398078</v>
+        <v>0.004598728888184155</v>
       </c>
       <c r="G235" t="n">
-        <v>0.2783477566455412</v>
+        <v>0.05038418672988529</v>
       </c>
       <c r="J235" t="n">
-        <v>0.02008437141813801</v>
+        <v>0.02116208461042245</v>
       </c>
       <c r="K235" t="n">
-        <v>0.2796481492358421</v>
+        <v>0.1415875925921075</v>
       </c>
       <c r="L235" t="n">
-        <v>0.04442842060044813</v>
+        <v>0.04682192307124305</v>
       </c>
       <c r="M235" t="n">
-        <v>0.2799781610863316</v>
+        <v>0.1392730895446101</v>
       </c>
       <c r="N235" t="n">
-        <v>0.06878655124157318</v>
+        <v>0.07288213038129326</v>
       </c>
       <c r="O235" t="n">
-        <v>0.2802097483498331</v>
+        <v>0.1386541005275596</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.02285021264651957</v>
+        <v>0.004519583690619375</v>
       </c>
       <c r="G236" t="n">
-        <v>0.2799850963905149</v>
+        <v>0.05035713392448989</v>
       </c>
       <c r="J236" t="n">
-        <v>0.01959877794082675</v>
+        <v>0.02125320308431589</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2812931383489941</v>
+        <v>0.1424204607838258</v>
       </c>
       <c r="L236" t="n">
-        <v>0.0434950920483804</v>
+        <v>0.04700269172347235</v>
       </c>
       <c r="M236" t="n">
-        <v>0.281625091445663</v>
+        <v>0.1400923430125195</v>
       </c>
       <c r="N236" t="n">
-        <v>0.06770430436663599</v>
+        <v>0.07285253310562761</v>
       </c>
       <c r="O236" t="n">
-        <v>0.2818580409871851</v>
+        <v>0.139469712883604</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.02253280907287054</v>
+        <v>0.004459047928790989</v>
       </c>
       <c r="G237" t="n">
-        <v>0.2816224361354887</v>
+        <v>0.05033008111909449</v>
       </c>
       <c r="J237" t="n">
-        <v>0.01943172561298789</v>
+        <v>0.02134440545039235</v>
       </c>
       <c r="K237" t="n">
-        <v>0.2829381274621461</v>
+        <v>0.1432533289755441</v>
       </c>
       <c r="L237" t="n">
-        <v>0.04280240037858871</v>
+        <v>0.04708364137189325</v>
       </c>
       <c r="M237" t="n">
-        <v>0.2832720218049943</v>
+        <v>0.140911596480429</v>
       </c>
       <c r="N237" t="n">
-        <v>0.06648456174934475</v>
+        <v>0.07232321410181075</v>
       </c>
       <c r="O237" t="n">
-        <v>0.2835063336245371</v>
+        <v>0.1402853252396485</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.0222415475887878</v>
+        <v>0.004417911665012736</v>
       </c>
       <c r="G238" t="n">
-        <v>0.2832597758804625</v>
+        <v>0.05030302831369909</v>
       </c>
       <c r="J238" t="n">
-        <v>0.01908738625503116</v>
+        <v>0.02123569326750771</v>
       </c>
       <c r="K238" t="n">
-        <v>0.2845831165752982</v>
+        <v>0.1440861971672624</v>
       </c>
       <c r="L238" t="n">
-        <v>0.04216034708763508</v>
+        <v>0.04696477529683815</v>
       </c>
       <c r="M238" t="n">
-        <v>0.2849189521643257</v>
+        <v>0.1417308499483385</v>
       </c>
       <c r="N238" t="n">
-        <v>0.06574358664688107</v>
+        <v>0.07279417837946278</v>
       </c>
       <c r="O238" t="n">
-        <v>0.285154626261889</v>
+        <v>0.141100937595693</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.02195365825784552</v>
+        <v>0.004396964961598297</v>
       </c>
       <c r="G239" t="n">
-        <v>0.2848971156254362</v>
+        <v>0.05027597550830371</v>
       </c>
       <c r="J239" t="n">
-        <v>0.01904782792856677</v>
+        <v>0.02132706809451788</v>
       </c>
       <c r="K239" t="n">
-        <v>0.2862281056884502</v>
+        <v>0.1449190653589807</v>
       </c>
       <c r="L239" t="n">
-        <v>0.04213012255493184</v>
+        <v>0.0467460967786395</v>
       </c>
       <c r="M239" t="n">
-        <v>0.2865658825236571</v>
+        <v>0.1425501034162479</v>
       </c>
       <c r="N239" t="n">
-        <v>0.06512233815666757</v>
+        <v>0.07236543094820386</v>
       </c>
       <c r="O239" t="n">
-        <v>0.286802918899241</v>
+        <v>0.1419165499517374</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.02166467267798472</v>
+        <v>0.004394314737784073</v>
       </c>
       <c r="G240" t="n">
-        <v>0.28653445537041</v>
+        <v>0.0502489227029083</v>
       </c>
       <c r="J240" t="n">
-        <v>0.01860735442606506</v>
+        <v>0.02121853149027871</v>
       </c>
       <c r="K240" t="n">
-        <v>0.2878730948016022</v>
+        <v>0.1457519335506989</v>
       </c>
       <c r="L240" t="n">
-        <v>0.04149787076353409</v>
+        <v>0.04712760909762978</v>
       </c>
       <c r="M240" t="n">
-        <v>0.2882128128829884</v>
+        <v>0.1433693568841574</v>
       </c>
       <c r="N240" t="n">
-        <v>0.064097947904172</v>
+        <v>0.0725369768176542</v>
       </c>
       <c r="O240" t="n">
-        <v>0.2884512115365929</v>
+        <v>0.1427321623077819</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.02237457336506296</v>
+        <v>0.004394448593156179</v>
       </c>
       <c r="G241" t="n">
-        <v>0.2881717951153838</v>
+        <v>0.05022186989751291</v>
       </c>
       <c r="J241" t="n">
-        <v>0.01836595105576788</v>
+        <v>0.02121008501364606</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2895180839147542</v>
+        <v>0.1465848017424173</v>
       </c>
       <c r="L241" t="n">
-        <v>0.04066355911504457</v>
+        <v>0.04710931553414127</v>
       </c>
       <c r="M241" t="n">
-        <v>0.2898597432423198</v>
+        <v>0.1441886103520669</v>
       </c>
       <c r="N241" t="n">
-        <v>0.06357036531113069</v>
+        <v>0.07290882099743395</v>
       </c>
       <c r="O241" t="n">
-        <v>0.2900995041739449</v>
+        <v>0.1435477746638264</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.02208334283493785</v>
+        <v>0.004394953124943354</v>
       </c>
       <c r="G242" t="n">
-        <v>0.2898091348603576</v>
+        <v>0.05019481709211751</v>
       </c>
       <c r="J242" t="n">
-        <v>0.01812360312591699</v>
+        <v>0.02110173022347585</v>
       </c>
       <c r="K242" t="n">
-        <v>0.2911630730279062</v>
+        <v>0.1474176699341355</v>
       </c>
       <c r="L242" t="n">
-        <v>0.04042715501106597</v>
+        <v>0.04669121936850651</v>
       </c>
       <c r="M242" t="n">
-        <v>0.2915066736016512</v>
+        <v>0.1450078638199764</v>
       </c>
       <c r="N242" t="n">
-        <v>0.06213953979927983</v>
+        <v>0.07268096849716332</v>
       </c>
       <c r="O242" t="n">
-        <v>0.2917477968112969</v>
+        <v>0.1443633870198708</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.02079096360346695</v>
+        <v>0.004396075450755633</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2914464746053314</v>
+        <v>0.05016776428672211</v>
       </c>
       <c r="J243" t="n">
-        <v>0.01788029594475422</v>
+        <v>0.02129346867862392</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2928080621410582</v>
+        <v>0.1482505381258538</v>
       </c>
       <c r="L243" t="n">
-        <v>0.03948862585320104</v>
+        <v>0.04697332388105788</v>
       </c>
       <c r="M243" t="n">
-        <v>0.2931536039609826</v>
+        <v>0.1458271172878858</v>
       </c>
       <c r="N243" t="n">
-        <v>0.06140542079035571</v>
+        <v>0.0728534243264623</v>
       </c>
       <c r="O243" t="n">
-        <v>0.2933960894486488</v>
+        <v>0.1451789993759153</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.02149741818650787</v>
+        <v>0.004398062688203058</v>
       </c>
       <c r="G244" t="n">
-        <v>0.2930838143503051</v>
+        <v>0.05014071148132672</v>
       </c>
       <c r="J244" t="n">
-        <v>0.0177360148205214</v>
+        <v>0.02128530193794613</v>
       </c>
       <c r="K244" t="n">
-        <v>0.2944530512542102</v>
+        <v>0.1490834063175721</v>
       </c>
       <c r="L244" t="n">
-        <v>0.03934793904305248</v>
+        <v>0.04665563235212769</v>
       </c>
       <c r="M244" t="n">
-        <v>0.2948005343203139</v>
+        <v>0.1466463707557953</v>
       </c>
       <c r="N244" t="n">
-        <v>0.06086795770609449</v>
+        <v>0.07262619349495125</v>
       </c>
       <c r="O244" t="n">
-        <v>0.2950443820860008</v>
+        <v>0.1459946117319598</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01920268909991819</v>
+        <v>0.004401161954895684</v>
       </c>
       <c r="G245" t="n">
-        <v>0.2947211540952789</v>
+        <v>0.05011365867593132</v>
       </c>
       <c r="J245" t="n">
-        <v>0.0175907450614603</v>
+        <v>0.02127723156029838</v>
       </c>
       <c r="K245" t="n">
-        <v>0.2960980403673623</v>
+        <v>0.1499162745092903</v>
       </c>
       <c r="L245" t="n">
-        <v>0.03890506198222299</v>
+        <v>0.04693814806204855</v>
       </c>
       <c r="M245" t="n">
-        <v>0.2964474646796453</v>
+        <v>0.1474656242237048</v>
       </c>
       <c r="N245" t="n">
-        <v>0.05952709996823236</v>
+        <v>0.07209928101225027</v>
       </c>
       <c r="O245" t="n">
-        <v>0.2966926747233528</v>
+        <v>0.1468102240880043</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01990675885955548</v>
+        <v>0.004405620368443552</v>
       </c>
       <c r="G246" t="n">
-        <v>0.2963584938402526</v>
+        <v>0.05008660587053592</v>
       </c>
       <c r="J246" t="n">
-        <v>0.01724447197581278</v>
+        <v>0.02106925910453657</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2977430294805142</v>
+        <v>0.1507491427010086</v>
       </c>
       <c r="L246" t="n">
-        <v>0.03805996207231532</v>
+        <v>0.0470208742911527</v>
       </c>
       <c r="M246" t="n">
-        <v>0.2980943950389767</v>
+        <v>0.1482848776916142</v>
       </c>
       <c r="N246" t="n">
-        <v>0.05938279699850568</v>
+        <v>0.07227269188797941</v>
       </c>
       <c r="O246" t="n">
-        <v>0.2983409673607047</v>
+        <v>0.1476258364440487</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01960960998127734</v>
+        <v>0.004411685046456691</v>
       </c>
       <c r="G247" t="n">
-        <v>0.2979958335852264</v>
+        <v>0.05005955306514052</v>
       </c>
       <c r="J247" t="n">
-        <v>0.01709718087182061</v>
+        <v>0.02106138612951651</v>
       </c>
       <c r="K247" t="n">
-        <v>0.2993880185936663</v>
+        <v>0.1515820108927269</v>
       </c>
       <c r="L247" t="n">
-        <v>0.03761260671493216</v>
+        <v>0.04660381431977262</v>
       </c>
       <c r="M247" t="n">
-        <v>0.299741325398308</v>
+        <v>0.1491041311595237</v>
       </c>
       <c r="N247" t="n">
-        <v>0.05833499821865062</v>
+        <v>0.072646431131759</v>
       </c>
       <c r="O247" t="n">
-        <v>0.2999892599980566</v>
+        <v>0.1484414488000932</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.02031122498094133</v>
+        <v>0.004419603106545163</v>
       </c>
       <c r="G248" t="n">
-        <v>0.2996331733302002</v>
+        <v>0.05003250025974513</v>
       </c>
       <c r="J248" t="n">
-        <v>0.01664885705772561</v>
+        <v>0.02115361419409412</v>
       </c>
       <c r="K248" t="n">
-        <v>0.3010330077068183</v>
+        <v>0.1524148790844452</v>
       </c>
       <c r="L248" t="n">
-        <v>0.03686296331167627</v>
+        <v>0.04698697142824074</v>
       </c>
       <c r="M248" t="n">
-        <v>0.3013882557576394</v>
+        <v>0.1499233846274332</v>
       </c>
       <c r="N248" t="n">
-        <v>0.05728365305040328</v>
+        <v>0.07212050375320911</v>
       </c>
       <c r="O248" t="n">
-        <v>0.3016375526354086</v>
+        <v>0.1492570611561377</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01801158637440507</v>
+        <v>0.004429621666318995</v>
       </c>
       <c r="G249" t="n">
-        <v>0.3012705130751739</v>
+        <v>0.05000544745434973</v>
       </c>
       <c r="J249" t="n">
-        <v>0.01649948584176959</v>
+        <v>0.02124594485712528</v>
       </c>
       <c r="K249" t="n">
-        <v>0.3026779968199703</v>
+        <v>0.1532477472761635</v>
       </c>
       <c r="L249" t="n">
-        <v>0.0366109992641504</v>
+        <v>0.04687034889688946</v>
       </c>
       <c r="M249" t="n">
-        <v>0.3030351861169707</v>
+        <v>0.1507426380953426</v>
       </c>
       <c r="N249" t="n">
-        <v>0.05642871091550006</v>
+        <v>0.07269491476194984</v>
       </c>
       <c r="O249" t="n">
-        <v>0.3032858452727605</v>
+        <v>0.1500726735121821</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01971067667752614</v>
+        <v>0.004441987843388243</v>
       </c>
       <c r="G250" t="n">
-        <v>0.3029078528201477</v>
+        <v>0.04997839464895433</v>
       </c>
       <c r="J250" t="n">
-        <v>0.01634905253219437</v>
+        <v>0.02123837967746581</v>
       </c>
       <c r="K250" t="n">
-        <v>0.3043229859331223</v>
+        <v>0.1540806154678818</v>
       </c>
       <c r="L250" t="n">
-        <v>0.03575668197395715</v>
+        <v>0.04665395000605116</v>
       </c>
       <c r="M250" t="n">
-        <v>0.3046821164763021</v>
+        <v>0.1515618915632521</v>
       </c>
       <c r="N250" t="n">
-        <v>0.05547012123567718</v>
+        <v>0.07196966916760156</v>
       </c>
       <c r="O250" t="n">
-        <v>0.3049341379101125</v>
+        <v>0.1508882858682266</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01940847840616211</v>
+        <v>0.004456948755362941</v>
       </c>
       <c r="G251" t="n">
-        <v>0.3045451925651215</v>
+        <v>0.04995134184355893</v>
       </c>
       <c r="J251" t="n">
-        <v>0.01599754243724177</v>
+        <v>0.02113092021397164</v>
       </c>
       <c r="K251" t="n">
-        <v>0.3059679750462743</v>
+        <v>0.1549134836596</v>
       </c>
       <c r="L251" t="n">
-        <v>0.03509997884269936</v>
+        <v>0.04673777803605828</v>
       </c>
       <c r="M251" t="n">
-        <v>0.3063290468356334</v>
+        <v>0.1523811450311616</v>
       </c>
       <c r="N251" t="n">
-        <v>0.05510783343267078</v>
+        <v>0.07194477197978416</v>
       </c>
       <c r="O251" t="n">
-        <v>0.3065824305474645</v>
+        <v>0.1517038982242711</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01710497407617056</v>
+        <v>0.004474751519853139</v>
       </c>
       <c r="G252" t="n">
-        <v>0.3061825323100953</v>
+        <v>0.04992428903816354</v>
       </c>
       <c r="J252" t="n">
-        <v>0.01584494086515359</v>
+        <v>0.02102356802549864</v>
       </c>
       <c r="K252" t="n">
-        <v>0.3076129641594263</v>
+        <v>0.1557463518513183</v>
       </c>
       <c r="L252" t="n">
-        <v>0.03484085727197966</v>
+        <v>0.04672183626724327</v>
       </c>
       <c r="M252" t="n">
-        <v>0.3079759771949648</v>
+        <v>0.153200398499071</v>
       </c>
       <c r="N252" t="n">
-        <v>0.05364179692821719</v>
+        <v>0.0725202282081181</v>
       </c>
       <c r="O252" t="n">
-        <v>0.3082307231848165</v>
+        <v>0.1525195105803155</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01780014620340911</v>
+        <v>0.004495643254468877</v>
       </c>
       <c r="G253" t="n">
-        <v>0.3078198720550691</v>
+        <v>0.04989723623276814</v>
       </c>
       <c r="J253" t="n">
-        <v>0.01549123312417162</v>
+        <v>0.02111632467090264</v>
       </c>
       <c r="K253" t="n">
-        <v>0.3092579532725783</v>
+        <v>0.1565792200430366</v>
       </c>
       <c r="L253" t="n">
-        <v>0.03407928466340079</v>
+        <v>0.04670612797993851</v>
       </c>
       <c r="M253" t="n">
-        <v>0.3096229075542962</v>
+        <v>0.1540196519669805</v>
       </c>
       <c r="N253" t="n">
-        <v>0.05287196114405246</v>
+        <v>0.07199604286222322</v>
       </c>
       <c r="O253" t="n">
-        <v>0.3098790158221684</v>
+        <v>0.15333512293636</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01649397730373534</v>
+        <v>0.004519871076820198</v>
       </c>
       <c r="G254" t="n">
-        <v>0.3094572118000428</v>
+        <v>0.04987018342737275</v>
       </c>
       <c r="J254" t="n">
-        <v>0.01533640452253771</v>
+        <v>0.02100919170903957</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3109029423857304</v>
+        <v>0.1574120882347549</v>
       </c>
       <c r="L254" t="n">
-        <v>0.03361522841856551</v>
+        <v>0.04649065645447642</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3112698379136275</v>
+        <v>0.15483890543489</v>
       </c>
       <c r="N254" t="n">
-        <v>0.05239827550191306</v>
+        <v>0.07227222095171987</v>
       </c>
       <c r="O254" t="n">
-        <v>0.3115273084595204</v>
+        <v>0.1541507352924045</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01718644989300679</v>
+        <v>0.004547682104517156</v>
       </c>
       <c r="G255" t="n">
-        <v>0.3110945515450166</v>
+        <v>0.04984313062197734</v>
       </c>
       <c r="J255" t="n">
-        <v>0.01488044036849366</v>
+        <v>0.02100217069876528</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3125479314988824</v>
+        <v>0.1582449564264732</v>
       </c>
       <c r="L255" t="n">
-        <v>0.03294865593907653</v>
+        <v>0.04637542497118938</v>
       </c>
       <c r="M255" t="n">
-        <v>0.3129167682729589</v>
+        <v>0.1556581589027995</v>
       </c>
       <c r="N255" t="n">
-        <v>0.05122068942353497</v>
+        <v>0.07214876748622828</v>
       </c>
       <c r="O255" t="n">
-        <v>0.3131756010968723</v>
+        <v>0.1549663476484489</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01787754648708107</v>
+        <v>0.004579323455169759</v>
       </c>
       <c r="G256" t="n">
-        <v>0.3127318912899904</v>
+        <v>0.04981607781658195</v>
       </c>
       <c r="J256" t="n">
-        <v>0.01482332597028127</v>
+        <v>0.02099526319893562</v>
       </c>
       <c r="K256" t="n">
-        <v>0.3141929206120344</v>
+        <v>0.1590778246181914</v>
       </c>
       <c r="L256" t="n">
-        <v>0.0323795346265365</v>
+        <v>0.04676043681040989</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3145636986322902</v>
+        <v>0.1564774123707089</v>
       </c>
       <c r="N256" t="n">
-        <v>0.05023915233065468</v>
+        <v>0.07222568747536851</v>
       </c>
       <c r="O256" t="n">
-        <v>0.3148238937342243</v>
+        <v>0.1557819600044934</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.0165672496018158</v>
+        <v>0.00461504224638809</v>
       </c>
       <c r="G257" t="n">
-        <v>0.3143692310349642</v>
+        <v>0.04978902501118656</v>
       </c>
       <c r="J257" t="n">
-        <v>0.01446504663614234</v>
+        <v>0.0210884707684065</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3158379097251864</v>
+        <v>0.1599106928099097</v>
       </c>
       <c r="L257" t="n">
-        <v>0.0317078318825483</v>
+        <v>0.04644569525247025</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3162106289916216</v>
+        <v>0.1572966658386184</v>
       </c>
       <c r="N257" t="n">
-        <v>0.04945361364500811</v>
+        <v>0.07210298592876069</v>
       </c>
       <c r="O257" t="n">
-        <v>0.3164721863715763</v>
+        <v>0.1565975723605379</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01525554175306851</v>
+        <v>0.004655085595782184</v>
       </c>
       <c r="G258" t="n">
-        <v>0.3160065707799379</v>
+        <v>0.04976197220579116</v>
       </c>
       <c r="J258" t="n">
-        <v>0.01410558767431869</v>
+        <v>0.0211817949660338</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3174828988383384</v>
+        <v>0.160743561001628</v>
       </c>
       <c r="L258" t="n">
-        <v>0.03123351510871442</v>
+        <v>0.04653120357770296</v>
       </c>
       <c r="M258" t="n">
-        <v>0.317857559350953</v>
+        <v>0.1581159193065279</v>
       </c>
       <c r="N258" t="n">
-        <v>0.04826402278833181</v>
+        <v>0.07178066785602505</v>
       </c>
       <c r="O258" t="n">
-        <v>0.3181204790089282</v>
+        <v>0.1574131847165824</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01694240545669683</v>
+        <v>0.004699700620962061</v>
       </c>
       <c r="G259" t="n">
-        <v>0.3176439105249116</v>
+        <v>0.04973491940039576</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01384493439305214</v>
+        <v>0.02097523735067333</v>
       </c>
       <c r="K259" t="n">
-        <v>0.3191278879514904</v>
+        <v>0.1615764291933463</v>
       </c>
       <c r="L259" t="n">
-        <v>0.03095655170663777</v>
+        <v>0.04651696506644037</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3195044897102843</v>
+        <v>0.1589351727744374</v>
       </c>
       <c r="N259" t="n">
-        <v>0.04757032918236176</v>
+        <v>0.07185873826678174</v>
       </c>
       <c r="O259" t="n">
-        <v>0.3197687716462802</v>
+        <v>0.1582287970726268</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01562782322855832</v>
+        <v>0.004749134439537783</v>
       </c>
       <c r="G260" t="n">
-        <v>0.3192812502698854</v>
+        <v>0.04970786659500036</v>
       </c>
       <c r="J260" t="n">
-        <v>0.01368307210058449</v>
+        <v>0.02106879948118104</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3207728770646424</v>
+        <v>0.1624092973850645</v>
       </c>
       <c r="L260" t="n">
-        <v>0.030476909077921</v>
+        <v>0.04630298299901497</v>
       </c>
       <c r="M260" t="n">
-        <v>0.3211514200696157</v>
+        <v>0.1597544262423468</v>
       </c>
       <c r="N260" t="n">
-        <v>0.04687248224883439</v>
+        <v>0.07223720217065088</v>
       </c>
       <c r="O260" t="n">
-        <v>0.3214170642836321</v>
+        <v>0.1590444094286713</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01531177758451056</v>
+        <v>0.004803634169119414</v>
       </c>
       <c r="G261" t="n">
-        <v>0.3209185900148592</v>
+        <v>0.04968081378960496</v>
       </c>
       <c r="J261" t="n">
-        <v>0.01351998610515757</v>
+        <v>0.02116248291641279</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3224178661777944</v>
+        <v>0.1632421655767828</v>
       </c>
       <c r="L261" t="n">
-        <v>0.02979455462416683</v>
+        <v>0.04628926065575911</v>
       </c>
       <c r="M261" t="n">
-        <v>0.3227983504289471</v>
+        <v>0.1605736797102563</v>
       </c>
       <c r="N261" t="n">
-        <v>0.0459704314094857</v>
+        <v>0.07201606457725257</v>
       </c>
       <c r="O261" t="n">
-        <v>0.3230653569209841</v>
+        <v>0.1598600217847158</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01399425104041117</v>
+        <v>0.004863446927316953</v>
       </c>
       <c r="G262" t="n">
-        <v>0.322555929759833</v>
+        <v>0.04965376098420957</v>
       </c>
       <c r="J262" t="n">
-        <v>0.01305566171501317</v>
+        <v>0.02115628921522442</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3240628552909465</v>
+        <v>0.1640750337685011</v>
       </c>
       <c r="L262" t="n">
-        <v>0.02920945574697797</v>
+        <v>0.04677580131700523</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3244452807882784</v>
+        <v>0.1613929331781658</v>
       </c>
       <c r="N262" t="n">
-        <v>0.04516412608605219</v>
+        <v>0.07209533049620709</v>
       </c>
       <c r="O262" t="n">
-        <v>0.324713649558336</v>
+        <v>0.1606756341407602</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.0156752261121177</v>
+        <v>0.004928819831740476</v>
       </c>
       <c r="G263" t="n">
-        <v>0.3241932695048068</v>
+        <v>0.04962670817881417</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01299008423839314</v>
+        <v>0.02105021993647181</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3257078444040984</v>
+        <v>0.1649079019602194</v>
       </c>
       <c r="L263" t="n">
-        <v>0.02872157984795717</v>
+        <v>0.04656260826308578</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3260922111476098</v>
+        <v>0.1622121866460752</v>
       </c>
       <c r="N263" t="n">
-        <v>0.04415351570026982</v>
+        <v>0.07197500493713471</v>
       </c>
       <c r="O263" t="n">
-        <v>0.326361942195688</v>
+        <v>0.1614912464968047</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01435468531548777</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
-        <v>0.3258306092497805</v>
+        <v>0.04959965537341877</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01272323898353921</v>
+        <v>0.02094427663901087</v>
       </c>
       <c r="K264" t="n">
-        <v>0.3273528335172505</v>
+        <v>0.1657407701519377</v>
       </c>
       <c r="L264" t="n">
-        <v>0.0279308943287071</v>
+        <v>0.0463496847743331</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3277391415069412</v>
+        <v>0.1630314401139847</v>
       </c>
       <c r="N264" t="n">
-        <v>0.04343854967387495</v>
+        <v>0.07165509290965538</v>
       </c>
       <c r="O264" t="n">
-        <v>0.3280102348330399</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1623068588528492</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.04958649747868193</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005330340547585549</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.04958676600714595</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.005657618995760387</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.04958703453560997</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.005981752659310037</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.04958730306407398</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.006302658853048405</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.049587571592538</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.00662025489176131</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.04958784012100202</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.006934458090262351</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.04958810864946604</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.007245185763337651</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.04958837717793006</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.007552355225800514</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.04958864570639408</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.007855883792437353</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.04958891423485809</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.008155688778061165</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.04958918276332211</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.008451687497458685</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.04958945129178612</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.008743797265442596</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.04958971982025014</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.009031935396799959</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.04958998834871416</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.00931601920634309</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.04959025687717818</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.009595966008859431</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.04959052540564219</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.009871693119160939</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.04959079393410621</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.0101431178520354</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.04959106246257022</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.01041015752228865</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.04959133099103424</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01067272944472614</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.04959159951949826</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01093075093413624</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.04959186804796228</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01118413930532995</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.0495921365764263</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01143281187309605</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.04959240510489031</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.01167668595224512</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.04959267363335433</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.01191567885756634</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.04959294216181834</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.01215004553510413</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.04959321069028236</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.01238172908705331</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.04959347921874638</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.01261098445945794</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.0495937477472104</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.01283772896710782</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.04959401627567441</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.01306187992481261</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.04959428480413843</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.01328335464736234</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.04959455333260245</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.01350207044956643</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.04959482186106647</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.01371794464621515</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.04959509038953049</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.01393089455211309</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.0495953589179945</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.01414083748206457</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.04959562744645852</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.01434769075086022</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.04959589597492253</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.01455137167330885</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.04959616450338655</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.01475179756420137</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.04959643303185057</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.01494888573834628</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.04959670156031459</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.01514255351053481</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.0495969700887786</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.01533271819557517</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.04959723861724262</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.01551929710825886</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.04959750714570663</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.01570220756339379</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.04959777567417065</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.01588136687577178</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.04959804420263467</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.01605669236020043</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.04959831273109869</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.01622810133147188</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.04959858125956271</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.01639551110439336</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.04959884978802673</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.01655883899375741</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.04959911831649074</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.01671800231437089</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.04959938684495476</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.01687291838102668</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.04959965537341877</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.01687291838102668</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.04958649747868193</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.01701134197206244</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.04961408734100536</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.01714839104418171</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.0496416772033288</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.01728368352833884</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.04966926706565223</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.01741683735548828</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.04969685692797566</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.01754747045658444</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.0497244467902991</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.0176752007625817</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.04975203665262252</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.01779964620443451</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.04977962651494595</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.01792042471309726</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.04980721637726939</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.01803715421952435</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.04983480623959282</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.0181494526546702</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.04986239610191625</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.01825693794948923</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.04988998596423968</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.01835922803493583</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.04991757582656311</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.01845594084196443</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.04994516568888654</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.01854669430152942</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.04997275555120997</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.01863110634458522</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.0500003454135334</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.01870879490208623</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.05002793527585683</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.0187793779049869</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.05005552513818027</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.01884247328424159</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.0500831150005037</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.01889769897080472</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.05011070486282713</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.01894467289563072</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.05013829472515056</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.01898301298967398</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.05016588458747399</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.01901233718388892</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.05019347444979742</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.01903226340922995</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.05022106431212086</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.01904240959665147</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.05024865417444429</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.0190436932478058</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.05027624403676772</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.01904362742204906</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.05030383389909115</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.01904337930958132</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.05033142376141458</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.01904282738592861</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.05035901362373801</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.01904185012661694</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.05038660348606144</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.0190403260071723</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.05041419334838487</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.0190381335031207</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.0504417832107083</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.01903515108998817</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.05046937307303173</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.01903125724330069</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.05049696293535517</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.0190263304385843</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.0505245527976786</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.01902024915136499</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.05055214266000203</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.01901289185716878</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.05057973252232546</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.01900413703152166</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.05060732238464889</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.01899386314994966</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.05063491224697232</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.01898194868797877</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.05066250210929576</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.01896827212113501</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.05069009197161919</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.0189527119249444</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.05071768183394262</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.01893514657493291</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.05074527169626605</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.01891545454662659</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.05077286155858948</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.01889351431555143</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.05080045142091291</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.01886920435723344</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.05082804128323635</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.01884240314719862</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.05085563114555978</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.018812989160973</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.05088322100788321</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.01878084087408258</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.05091081087020664</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.01874583676205337</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.05093840073253007</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.01874583676205337</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.05093840073253007</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.0191801501066213</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.05252074523376767</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.01960600358614595</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.05410308973500527</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.02002320156458545</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.05568543423624286</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.02043154840589786</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.05726777873748047</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.02083084847404133</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.05885012323871807</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.02122090613297395</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.06043246773995568</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.02160152574665379</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.06201481224119326</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.02197251167903899</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.06359715674243087</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.02233366829408763</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.06517950124366848</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.02268479995575781</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.06676184574490607</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.02302571102800766</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.06834419024614367</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.02335620587479524</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.06992653474738127</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.0236760888600787</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.07150887924861887</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.02398516434781613</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.07309122374985648</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.02428323670196558</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.07467356825109407</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.02457011028648523</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.07625591275233168</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.02484558946533313</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.07783825725356927</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.02510947860246741</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.07942060175480688</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.02536158206184616</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.08100294625604447</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.02560170420742747</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.08258529075728206</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.02582964940316947</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.08416763525851968</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.02604522201303025</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.08574997975975727</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.02624822640096791</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.08733232426099487</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.02643846693094057</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.08891466876223247</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.02661574796690627</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.09049701326347007</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.02677987387282321</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.09207935776470769</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.02693064901264941</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.09366170226594528</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.02706787775034301</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.09524404676718287</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.02719136444986213</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.09682639126842048</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.02730091347516483</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.09840873576965807</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.02739632919020922</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.09999108027089568</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.02747741595895342</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1015734247721333</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.02754397814535554</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1031557692733709</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.02759582011337368</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1047381137746085</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.0276327462269659</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1063204582758461</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.02766111568273782</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1079028027770837</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.02766109630599019</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1094851472783213</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.02765751606936588</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1110674917795589</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.02764806328914857</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1126498362807965</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.02763318397625357</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1142321807820341</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.02761332414159623</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1158145252832717</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.02758892979609191</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1173968697845093</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.02756044695065596</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1189792142857469</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.02752832161620374</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1205615587869845</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.02749299980365055</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1221439032882221</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.02745492752391179</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1237262477894597</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.02741455078790279</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1253085922906973</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.0273723156065389</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1268909367919349</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.02732866799073547</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1284732812931725</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.02728405395140783</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1300556257944101</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.02723861870558836</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1316379702956477</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.02717899655364031</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1332203147968853</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.02710115588031878</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1348026592981229</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.027009735996503</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1363850037993605</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.02690937621307231</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1379673483005981</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.02680471584090599</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1395496928018357</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.02670039419088335</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1411320373030733</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.02660105057388365</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1427143818043109</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.0265113243007862</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1442967263055485</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.02643585468247031</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1458790708067861</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.02637928102981527</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1474614153080237</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.0263369855136434</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1490437598092613</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.02629727468051583</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.02625989533033841</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1522084488117365</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.02622469880153201</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1537907933129741</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.02619153643251754</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1553731378142117</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.02616025956171587</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1569554823154493</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.02613071952754795</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1585378268166869</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.02610276766843463</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1601201713179245</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.0260762553227968</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1617025158191621</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.02605103382905538</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1632848603203997</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.02602695452563125</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1648672048216373</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.02600386875094531</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1664495493228749</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.02598162784341844</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1680318938241125</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.02596008314147154</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1696142383253501</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.02593908598352553</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.1711965828265877</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.02591848770800126</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1727789273278253</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.02589813965331966</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.1743612718290629</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.02587789315790161</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.1759436163303005</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.025857599560168</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.1775259608315381</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.02583711019853971</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.1791083053327757</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.02581627641143769</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.1806906498340133</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.02579538496445298</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.1822729943352509</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.02577484264944049</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.1838553388364885</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.02575466239052</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.1854376833377261</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.02573485708869512</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.1870200278389637</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.02571543964496949</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.1886023723402013</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.02569642296034674</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.1901847168414389</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.0256778199358305</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.1917670613426765</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.0256596434724244</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.1933494058439141</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.02564190647113208</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.1949317503451517</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.02562462183295718</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.1965140948463893</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.0256078024589033</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.1980964393476269</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.02559146124997412</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.1996787838488645</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.02557561110717325</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.2012611283501021</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.02556026493150435</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2028434728513397</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.02554543562397102</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2044258173525773</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.02553113608557689</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2060081618538149</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.02551737921732564</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2075905063550525</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
